--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="559">
   <si>
     <r>
       <rPr>
@@ -5815,10 +5815,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>VINDICATOR_CREATE_USER_FAILED</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>VINDICATOR_CREATE_PROJECT_FAILED.WEB</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -5857,71 +5853,67 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
+    <t>hmsg_message_template-154</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-155</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-156</t>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rganizationName</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceId</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>创用户失败</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>创用户失败</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINDICATOR-FAILED-NOTICE</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>创项目失败</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>创组织失败</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>创项目失败</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
     <t>VINDICATOR_CREATE_ORGANIZATION_FAILED</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>hmsg_message_template-154</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-155</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-156</t>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rganizationName</t>
-    </r>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>instanceId</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>创用户失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>创用户失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR-FAILED-NOTICE</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>创项目失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>创组织失败</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>创项目失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR_CREATE_ORGANIZATION_FAILED</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>创组织失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>hmsg_template_server-97</t>
   </si>
   <si>
@@ -5940,6 +5932,10 @@
   </si>
   <si>
     <t>VINDICATOR_CREATE_USER_FAILED.WEB</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -6357,21 +6353,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6390,6 +6371,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6761,11 +6757,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
@@ -6774,21 +6770,21 @@
       <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
@@ -6899,11 +6895,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="42" t="s">
@@ -6941,19 +6937,19 @@
       <c r="C25" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="54"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="46"/>
+      <c r="E26" s="54"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="44" t="s">
@@ -7307,8 +7303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q205"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52:F53"/>
+    <sheetView tabSelected="1" topLeftCell="G42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -8522,7 +8518,7 @@
       <c r="H44" t="s">
         <v>251</v>
       </c>
-      <c r="I44" s="50" t="s">
+      <c r="I44" s="45" t="s">
         <v>527</v>
       </c>
       <c r="N44" t="s">
@@ -8693,7 +8689,7 @@
       <c r="E50" t="s">
         <v>272</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="45" t="s">
         <v>524</v>
       </c>
       <c r="G50" t="s">
@@ -8720,25 +8716,25 @@
     </row>
     <row r="51" spans="1:17" ht="69.599999999999994">
       <c r="E51" t="s">
-        <v>541</v>
-      </c>
-      <c r="F51" s="50" t="s">
+        <v>539</v>
+      </c>
+      <c r="F51" s="45" t="s">
         <v>525</v>
       </c>
-      <c r="G51" s="50" t="s">
+      <c r="G51" s="45" t="s">
         <v>526</v>
       </c>
-      <c r="H51" s="50" t="s">
+      <c r="H51" s="45" t="s">
         <v>526</v>
       </c>
-      <c r="I51" s="51" t="s">
+      <c r="I51" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="J51" s="50" t="s">
+      <c r="J51" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="K51" s="45" t="s">
         <v>529</v>
-      </c>
-      <c r="K51" s="50" t="s">
-        <v>530</v>
       </c>
       <c r="N51" t="s">
         <v>124</v>
@@ -8755,25 +8751,25 @@
     </row>
     <row r="52" spans="1:17" ht="69.599999999999994">
       <c r="E52" t="s">
-        <v>542</v>
-      </c>
-      <c r="F52" s="50" t="s">
+        <v>540</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="G52" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="G52" s="50" t="s">
+      <c r="H52" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="I52" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="H52" s="50" t="s">
-        <v>532</v>
-      </c>
-      <c r="I52" s="51" t="s">
+      <c r="J52" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="K52" s="45" t="s">
         <v>533</v>
-      </c>
-      <c r="J52" s="50" t="s">
-        <v>534</v>
-      </c>
-      <c r="K52" s="50" t="s">
-        <v>534</v>
       </c>
       <c r="N52" t="s">
         <v>124</v>
@@ -8790,25 +8786,25 @@
     </row>
     <row r="53" spans="1:17" ht="69.599999999999994">
       <c r="E53" t="s">
-        <v>543</v>
-      </c>
-      <c r="F53" s="50" t="s">
+        <v>541</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="G53" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="G53" s="50" t="s">
+      <c r="H53" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="H53" s="50" t="s">
+      <c r="I53" s="46" t="s">
         <v>537</v>
       </c>
-      <c r="I53" s="51" t="s">
+      <c r="J53" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="K53" s="45" t="s">
         <v>538</v>
-      </c>
-      <c r="J53" s="50" t="s">
-        <v>539</v>
-      </c>
-      <c r="K53" s="50" t="s">
-        <v>540</v>
       </c>
       <c r="N53" t="s">
         <v>124</v>
@@ -11440,8 +11436,8 @@
         <f>消息模板!$E$51</f>
         <v>hmsg_message_template-154</v>
       </c>
-      <c r="G201" s="50" t="s">
-        <v>544</v>
+      <c r="G201" s="45" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="202" spans="5:11">
@@ -11452,8 +11448,8 @@
         <f>消息模板!$E$51</f>
         <v>hmsg_message_template-154</v>
       </c>
-      <c r="G202" s="50" t="s">
-        <v>545</v>
+      <c r="G202" s="45" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="203" spans="5:11">
@@ -11464,8 +11460,8 @@
         <f>消息模板!$E$52</f>
         <v>hmsg_message_template-155</v>
       </c>
-      <c r="G203" s="50" t="s">
-        <v>544</v>
+      <c r="G203" s="45" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="204" spans="5:11">
@@ -11476,8 +11472,8 @@
         <f>消息模板!$E$52</f>
         <v>hmsg_message_template-155</v>
       </c>
-      <c r="G204" s="50" t="s">
-        <v>545</v>
+      <c r="G204" s="45" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="205" spans="5:11">
@@ -11488,8 +11484,8 @@
         <f>消息模板!$E$53</f>
         <v>hmsg_message_template-156</v>
       </c>
-      <c r="G205" s="50" t="s">
-        <v>545</v>
+      <c r="G205" s="45" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -11503,7 +11499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H86" sqref="H86:H87"/>
     </sheetView>
   </sheetViews>
@@ -12442,7 +12438,7 @@
       <c r="E32" t="s">
         <v>427</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="47">
         <v>0</v>
       </c>
       <c r="G32">
@@ -12457,7 +12453,7 @@
       <c r="J32" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="47">
         <v>1</v>
       </c>
       <c r="L32" s="10" t="s">
@@ -12466,116 +12462,116 @@
       <c r="M32" t="s">
         <v>373</v>
       </c>
-      <c r="N32" s="52">
+      <c r="N32" s="47">
         <v>0</v>
       </c>
       <c r="O32" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="53" customFormat="1">
-      <c r="E33" s="53" t="s">
+    <row r="33" spans="1:15" s="48" customFormat="1">
+      <c r="E33" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="F33" s="49">
+        <v>0</v>
+      </c>
+      <c r="G33" s="48">
+        <v>0</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>529</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>545</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="K33" s="49">
+        <v>1</v>
+      </c>
+      <c r="L33" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="M33" s="50" t="s">
+        <v>546</v>
+      </c>
+      <c r="N33" s="49">
+        <v>1</v>
+      </c>
+      <c r="O33" s="50" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="48" customFormat="1">
+      <c r="E34" s="48" t="s">
+        <v>553</v>
+      </c>
+      <c r="F34" s="49">
+        <v>0</v>
+      </c>
+      <c r="G34" s="48">
+        <v>0</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="I34" s="51" t="s">
+        <v>549</v>
+      </c>
+      <c r="J34" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="K34" s="49">
+        <v>1</v>
+      </c>
+      <c r="L34" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="M34" s="50" t="s">
+        <v>546</v>
+      </c>
+      <c r="N34" s="49">
+        <v>1</v>
+      </c>
+      <c r="O34" s="50" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="48" customFormat="1">
+      <c r="E35" s="48" t="s">
         <v>554</v>
       </c>
-      <c r="F33" s="54">
+      <c r="F35" s="49">
         <v>0</v>
       </c>
-      <c r="G33" s="53">
+      <c r="G35" s="48">
         <v>0</v>
       </c>
-      <c r="H33" s="55" t="s">
-        <v>530</v>
-      </c>
-      <c r="I33" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="J33" s="57" t="s">
+      <c r="H35" s="50" t="s">
+        <v>550</v>
+      </c>
+      <c r="I35" s="51" t="s">
+        <v>551</v>
+      </c>
+      <c r="J35" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="K33" s="54">
+      <c r="K35" s="49">
         <v>1</v>
       </c>
-      <c r="L33" s="58" t="s">
+      <c r="L35" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="M33" s="55" t="s">
+      <c r="M35" s="50" t="s">
+        <v>546</v>
+      </c>
+      <c r="N35" s="49">
+        <v>1</v>
+      </c>
+      <c r="O35" s="50" t="s">
         <v>548</v>
-      </c>
-      <c r="N33" s="54">
-        <v>1</v>
-      </c>
-      <c r="O33" s="55" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="53" customFormat="1">
-      <c r="E34" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="F34" s="54">
-        <v>0</v>
-      </c>
-      <c r="G34" s="53">
-        <v>0</v>
-      </c>
-      <c r="H34" s="55" t="s">
-        <v>534</v>
-      </c>
-      <c r="I34" s="56" t="s">
-        <v>551</v>
-      </c>
-      <c r="J34" s="57" t="s">
-        <v>336</v>
-      </c>
-      <c r="K34" s="54">
-        <v>1</v>
-      </c>
-      <c r="L34" s="58" t="s">
-        <v>337</v>
-      </c>
-      <c r="M34" s="55" t="s">
-        <v>548</v>
-      </c>
-      <c r="N34" s="54">
-        <v>1</v>
-      </c>
-      <c r="O34" s="55" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="53" customFormat="1">
-      <c r="E35" s="53" t="s">
-        <v>556</v>
-      </c>
-      <c r="F35" s="54">
-        <v>0</v>
-      </c>
-      <c r="G35" s="53">
-        <v>0</v>
-      </c>
-      <c r="H35" s="55" t="s">
-        <v>552</v>
-      </c>
-      <c r="I35" s="56" t="s">
-        <v>553</v>
-      </c>
-      <c r="J35" s="57" t="s">
-        <v>336</v>
-      </c>
-      <c r="K35" s="54">
-        <v>1</v>
-      </c>
-      <c r="L35" s="58" t="s">
-        <v>337</v>
-      </c>
-      <c r="M35" s="55" t="s">
-        <v>548</v>
-      </c>
-      <c r="N35" s="54">
-        <v>1</v>
-      </c>
-      <c r="O35" s="55" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -13649,8 +13645,8 @@
         <f t="shared" ref="F83" si="0">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
-      <c r="G83" s="50" t="s">
-        <v>557</v>
+      <c r="G83" s="45" t="s">
+        <v>555</v>
       </c>
       <c r="H83" t="s">
         <v>273</v>
@@ -13691,11 +13687,11 @@
         <f>E33</f>
         <v>hmsg_template_server-97</v>
       </c>
-      <c r="G85" s="50" t="s">
-        <v>558</v>
-      </c>
-      <c r="H85" s="50" t="s">
-        <v>559</v>
+      <c r="G85" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="H85" s="45" t="s">
+        <v>557</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -13712,11 +13708,11 @@
         <f>E34</f>
         <v>hmsg_template_server-98</v>
       </c>
-      <c r="G86" s="50" t="s">
-        <v>558</v>
-      </c>
-      <c r="H86" s="50" t="s">
-        <v>531</v>
+      <c r="G86" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="H86" s="45" t="s">
+        <v>530</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -13733,11 +13729,11 @@
         <f>E35</f>
         <v>hmsg_template_server-99</v>
       </c>
-      <c r="G87" s="50" t="s">
-        <v>558</v>
-      </c>
-      <c r="H87" s="50" t="s">
-        <v>535</v>
+      <c r="G87" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="H87" s="45" t="s">
+        <v>534</v>
       </c>
       <c r="L87">
         <v>0</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="561">
   <si>
     <r>
       <rPr>
@@ -5794,10 +5794,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>VINDICATOR_CREATE_USER_FAILED.WEB</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>创建用户失败</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -5811,10 +5807,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>VINDICATOR_CREATE_USER_FAILED</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>VINDICATOR_CREATE_PROJECT_FAILED.WEB</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -5828,10 +5820,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>VINDICATOR_CREATE_PROJECT_FAILED</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>VINDICATOR_CREATE_ORGANIZATION_FAILED.WEB</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -5849,10 +5837,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>VINDICATOR_CREATE_ORGANIZATION_FAILED</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>hmsg_message_template-154</t>
   </si>
   <si>
@@ -5906,10 +5890,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>VINDICATOR_CREATE_ORGANIZATION_FAILED</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>创组织失败</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -5936,6 +5916,34 @@
   </si>
   <si>
     <t>site</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINDICATOR_EVENT_FAILED</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINDICATOR_USER_FAILED.WEB</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINDICATOR_PROJECT_FAILED.WEB</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINDICATOR_ORGANIZATION_FAILED.WEB</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINDICATOR_USER_FAILED</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINDICATOR_PROJECT_FAILED</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINDICATOR_ORGANIZATION_FAILED</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -7303,8 +7311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51:J53"/>
+    <sheetView topLeftCell="B43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -8519,7 +8527,7 @@
         <v>251</v>
       </c>
       <c r="I44" s="45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N44" t="s">
         <v>124</v>
@@ -8716,25 +8724,25 @@
     </row>
     <row r="51" spans="1:17" ht="69.599999999999994">
       <c r="E51" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F51" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="G51" s="45" t="s">
         <v>525</v>
       </c>
-      <c r="G51" s="45" t="s">
-        <v>526</v>
-      </c>
       <c r="H51" s="45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I51" s="46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J51" s="45" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="K51" s="45" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="N51" t="s">
         <v>124</v>
@@ -8751,25 +8759,25 @@
     </row>
     <row r="52" spans="1:17" ht="69.599999999999994">
       <c r="E52" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F52" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="H52" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="I52" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="G52" s="45" t="s">
-        <v>531</v>
-      </c>
-      <c r="H52" s="45" t="s">
-        <v>531</v>
-      </c>
-      <c r="I52" s="46" t="s">
-        <v>532</v>
-      </c>
       <c r="J52" s="45" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="K52" s="45" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="N52" t="s">
         <v>124</v>
@@ -8786,25 +8794,25 @@
     </row>
     <row r="53" spans="1:17" ht="69.599999999999994">
       <c r="E53" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F53" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="H53" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="I53" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="G53" s="45" t="s">
-        <v>535</v>
-      </c>
-      <c r="H53" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="I53" s="46" t="s">
-        <v>537</v>
-      </c>
       <c r="J53" s="45" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="K53" s="45" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="N53" t="s">
         <v>124</v>
@@ -11437,7 +11445,13 @@
         <v>hmsg_message_template-154</v>
       </c>
       <c r="G201" s="45" t="s">
-        <v>542</v>
+        <v>538</v>
+      </c>
+      <c r="J201" t="s">
+        <v>75</v>
+      </c>
+      <c r="K201" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="202" spans="5:11">
@@ -11449,7 +11463,13 @@
         <v>hmsg_message_template-154</v>
       </c>
       <c r="G202" s="45" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="J202" t="s">
+        <v>75</v>
+      </c>
+      <c r="K202" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="203" spans="5:11">
@@ -11461,7 +11481,13 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G203" s="45" t="s">
-        <v>542</v>
+        <v>538</v>
+      </c>
+      <c r="J203" t="s">
+        <v>75</v>
+      </c>
+      <c r="K203" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="204" spans="5:11">
@@ -11473,7 +11499,13 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G204" s="45" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="J204" t="s">
+        <v>75</v>
+      </c>
+      <c r="K204" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="205" spans="5:11">
@@ -11485,7 +11517,13 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G205" s="45" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="J205" t="s">
+        <v>75</v>
+      </c>
+      <c r="K205" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -11499,8 +11537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86:H87"/>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -12471,7 +12509,7 @@
     </row>
     <row r="33" spans="1:15" s="48" customFormat="1">
       <c r="E33" s="48" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F33" s="49">
         <v>0</v>
@@ -12480,10 +12518,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="I33" s="51" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J33" s="52" t="s">
         <v>336</v>
@@ -12495,18 +12533,18 @@
         <v>337</v>
       </c>
       <c r="M33" s="50" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="N33" s="49">
         <v>1</v>
       </c>
       <c r="O33" s="50" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="48" customFormat="1">
       <c r="E34" s="48" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F34" s="49">
         <v>0</v>
@@ -12515,10 +12553,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="J34" s="52" t="s">
         <v>336</v>
@@ -12530,18 +12568,18 @@
         <v>337</v>
       </c>
       <c r="M34" s="50" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="N34" s="49">
         <v>1</v>
       </c>
       <c r="O34" s="50" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="48" customFormat="1">
       <c r="E35" s="48" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F35" s="49">
         <v>0</v>
@@ -12550,10 +12588,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="I35" s="51" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="J35" s="52" t="s">
         <v>336</v>
@@ -12565,13 +12603,13 @@
         <v>337</v>
       </c>
       <c r="M35" s="50" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="N35" s="49">
         <v>1</v>
       </c>
       <c r="O35" s="50" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -13646,7 +13684,7 @@
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G83" s="45" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H83" t="s">
         <v>273</v>
@@ -13688,10 +13726,10 @@
         <v>hmsg_template_server-97</v>
       </c>
       <c r="G85" s="45" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H85" s="45" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -13709,10 +13747,10 @@
         <v>hmsg_template_server-98</v>
       </c>
       <c r="G86" s="45" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -13730,10 +13768,10 @@
         <v>hmsg_template_server-99</v>
       </c>
       <c r="G87" s="45" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H87" s="45" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L87">
         <v>0</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="562">
   <si>
     <r>
       <rPr>
@@ -5791,50 +5791,42 @@
   </si>
   <si>
     <t>SYSTEM_NOTIFICATION.WEB</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>创建用户失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发事务实例运行失败。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的用户，请及时处理。编号：${instanceId}。&lt;/p&gt;
 &lt;p&gt;&lt;a href="#/asgard/saga-instance"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR_CREATE_PROJECT_FAILED.WEB</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>创建项目失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的项目，请及时处理。编号：${instanceId}。&lt;/p&gt;
 &lt;p&gt;&lt;a href="#/asgard/saga-instance"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR_CREATE_ORGANIZATION_FAILED.WEB</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>创建组织失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>创建组织失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;您好，平台中存在创建失败的组织，请及时处理。编号：${instanceId}。&lt;/p&gt;
 &lt;p&gt;&lt;a href="#/asgard/saga-instance"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>hmsg_message_template-154</t>
@@ -5859,39 +5851,39 @@
       </rPr>
       <t>rganizationName</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>instanceId</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>创用户失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>创用户失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>VINDICATOR-FAILED-NOTICE</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>创项目失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>创组织失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>创项目失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>创组织失败</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>hmsg_template_server-97</t>
@@ -5904,54 +5896,66 @@
   </si>
   <si>
     <t>WEB</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>WEB</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR_CREATE_USER_FAILED.WEB</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>site</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR_EVENT_FAILED</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>VINDICATOR_USER_FAILED.WEB</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>VINDICATOR_PROJECT_FAILED.WEB</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>VINDICATOR_ORGANIZATION_FAILED.WEB</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>VINDICATOR_USER_FAILED</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>VINDICATOR_PROJECT_FAILED</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>VINDICATOR_ORGANIZATION_FAILED</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINDICATOR-FAILED-NOTICE</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINDICATOR-FAILED-NOTICE</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINDICATOR_USER_FAILED.WEB</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINDICATOR_PROJECT_FAILED.WEB</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS-MANAGEMENT</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -5980,6 +5984,7 @@
       <sz val="11"/>
       <color rgb="FF003366"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5993,6 +5998,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6005,6 +6011,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6012,6 +6019,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6019,6 +6027,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6037,6 +6046,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6101,35 +6111,6 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF003366"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6974,7 +6955,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -7126,7 +7107,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J8" r:id="rId1"/>
   </hyperlinks>
@@ -7302,7 +7283,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7311,8 +7292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q205"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="H43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -8724,10 +8705,10 @@
     </row>
     <row r="51" spans="1:17" ht="69.599999999999994">
       <c r="E51" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>525</v>
@@ -8739,10 +8720,10 @@
         <v>527</v>
       </c>
       <c r="J51" s="45" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K51" s="45" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="N51" t="s">
         <v>124</v>
@@ -8759,25 +8740,25 @@
     </row>
     <row r="52" spans="1:17" ht="69.599999999999994">
       <c r="E52" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G52" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="H52" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="I52" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="H52" s="45" t="s">
-        <v>529</v>
-      </c>
-      <c r="I52" s="46" t="s">
-        <v>530</v>
-      </c>
       <c r="J52" s="45" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K52" s="45" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="N52" t="s">
         <v>124</v>
@@ -8794,25 +8775,25 @@
     </row>
     <row r="53" spans="1:17" ht="69.599999999999994">
       <c r="E53" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G53" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="H53" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="I53" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="H53" s="45" t="s">
-        <v>533</v>
-      </c>
-      <c r="I53" s="46" t="s">
-        <v>534</v>
-      </c>
       <c r="J53" s="45" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K53" s="45" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="N53" t="s">
         <v>124</v>
@@ -11445,7 +11426,7 @@
         <v>hmsg_message_template-154</v>
       </c>
       <c r="G201" s="45" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J201" t="s">
         <v>75</v>
@@ -11463,7 +11444,7 @@
         <v>hmsg_message_template-154</v>
       </c>
       <c r="G202" s="45" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J202" t="s">
         <v>75</v>
@@ -11481,7 +11462,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G203" s="45" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J203" t="s">
         <v>75</v>
@@ -11499,7 +11480,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G204" s="45" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J204" t="s">
         <v>75</v>
@@ -11517,7 +11498,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G205" s="45" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J205" t="s">
         <v>75</v>
@@ -11527,7 +11508,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -11537,8 +11518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="J22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -12497,8 +12478,8 @@
       <c r="L32" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="M32" t="s">
-        <v>373</v>
+      <c r="M32" s="45" t="s">
+        <v>561</v>
       </c>
       <c r="N32" s="47">
         <v>0</v>
@@ -12509,7 +12490,7 @@
     </row>
     <row r="33" spans="1:15" s="48" customFormat="1">
       <c r="E33" s="48" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F33" s="49">
         <v>0</v>
@@ -12518,10 +12499,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I33" s="51" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J33" s="52" t="s">
         <v>336</v>
@@ -12533,18 +12514,18 @@
         <v>337</v>
       </c>
       <c r="M33" s="50" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="N33" s="49">
         <v>1</v>
       </c>
       <c r="O33" s="50" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="48" customFormat="1">
       <c r="E34" s="48" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F34" s="49">
         <v>0</v>
@@ -12553,10 +12534,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J34" s="52" t="s">
         <v>336</v>
@@ -12568,18 +12549,18 @@
         <v>337</v>
       </c>
       <c r="M34" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N34" s="49">
         <v>1</v>
       </c>
       <c r="O34" s="50" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="48" customFormat="1">
       <c r="E35" s="48" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F35" s="49">
         <v>0</v>
@@ -12588,10 +12569,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="I35" s="51" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J35" s="52" t="s">
         <v>336</v>
@@ -12603,13 +12584,13 @@
         <v>337</v>
       </c>
       <c r="M35" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N35" s="49">
         <v>1</v>
       </c>
       <c r="O35" s="50" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -13684,7 +13665,7 @@
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G83" s="45" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H83" t="s">
         <v>273</v>
@@ -13726,10 +13707,10 @@
         <v>hmsg_template_server-97</v>
       </c>
       <c r="G85" s="45" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H85" s="45" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -13747,10 +13728,10 @@
         <v>hmsg_template_server-98</v>
       </c>
       <c r="G86" s="45" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -13768,10 +13749,10 @@
         <v>hmsg_template_server-99</v>
       </c>
       <c r="G87" s="45" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H87" s="45" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -14129,7 +14110,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -5802,20 +5802,10 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的用户，请及时处理。编号：${instanceId}。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/asgard/saga-instance"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>创建项目失败</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的项目，请及时处理。编号：${instanceId}。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/asgard/saga-instance"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>创建组织失败</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -5824,11 +5814,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;您好，平台中存在创建失败的组织，请及时处理。编号：${instanceId}。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/asgard/saga-instance"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>hmsg_message_template-154</t>
   </si>
   <si>
@@ -5948,6 +5933,21 @@
   </si>
   <si>
     <t>SYS-MANAGEMENT</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的用户，请及时处理。编号：${instanceId}。&lt;/p&gt;
+&lt;p&gt;&lt;a href="#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的项目，请及时处理。编号：${instanceId}。&lt;/p&gt;
+&lt;p&gt;&lt;a href="#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，平台中存在创建失败的组织，请及时处理。编号：${instanceId}。&lt;/p&gt;
+&lt;p&gt;&lt;a href="#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -7292,8 +7292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="H40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -8705,10 +8705,10 @@
     </row>
     <row r="51" spans="1:17" ht="69.599999999999994">
       <c r="E51" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>525</v>
@@ -8717,13 +8717,13 @@
         <v>525</v>
       </c>
       <c r="I51" s="46" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="J51" s="45" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K51" s="45" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="N51" t="s">
         <v>124</v>
@@ -8740,25 +8740,25 @@
     </row>
     <row r="52" spans="1:17" ht="69.599999999999994">
       <c r="E52" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G52" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I52" s="46" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
       <c r="J52" s="45" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K52" s="45" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="N52" t="s">
         <v>124</v>
@@ -8775,25 +8775,25 @@
     </row>
     <row r="53" spans="1:17" ht="69.599999999999994">
       <c r="E53" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G53" s="45" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I53" s="46" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="J53" s="45" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K53" s="45" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="N53" t="s">
         <v>124</v>
@@ -11426,7 +11426,7 @@
         <v>hmsg_message_template-154</v>
       </c>
       <c r="G201" s="45" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J201" t="s">
         <v>75</v>
@@ -11444,7 +11444,7 @@
         <v>hmsg_message_template-154</v>
       </c>
       <c r="G202" s="45" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J202" t="s">
         <v>75</v>
@@ -11462,7 +11462,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G203" s="45" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J203" t="s">
         <v>75</v>
@@ -11480,7 +11480,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G204" s="45" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J204" t="s">
         <v>75</v>
@@ -11498,7 +11498,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G205" s="45" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J205" t="s">
         <v>75</v>
@@ -12479,7 +12479,7 @@
         <v>337</v>
       </c>
       <c r="M32" s="45" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="N32" s="47">
         <v>0</v>
@@ -12490,7 +12490,7 @@
     </row>
     <row r="33" spans="1:15" s="48" customFormat="1">
       <c r="E33" s="48" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F33" s="49">
         <v>0</v>
@@ -12499,10 +12499,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I33" s="51" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J33" s="52" t="s">
         <v>336</v>
@@ -12514,18 +12514,18 @@
         <v>337</v>
       </c>
       <c r="M33" s="50" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="N33" s="49">
         <v>1</v>
       </c>
       <c r="O33" s="50" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="48" customFormat="1">
       <c r="E34" s="48" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F34" s="49">
         <v>0</v>
@@ -12534,10 +12534,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J34" s="52" t="s">
         <v>336</v>
@@ -12549,18 +12549,18 @@
         <v>337</v>
       </c>
       <c r="M34" s="50" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N34" s="49">
         <v>1</v>
       </c>
       <c r="O34" s="50" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="48" customFormat="1">
       <c r="E35" s="48" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F35" s="49">
         <v>0</v>
@@ -12569,10 +12569,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="I35" s="51" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J35" s="52" t="s">
         <v>336</v>
@@ -12584,13 +12584,13 @@
         <v>337</v>
       </c>
       <c r="M35" s="50" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N35" s="49">
         <v>1</v>
       </c>
       <c r="O35" s="50" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -13665,7 +13665,7 @@
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G83" s="45" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H83" t="s">
         <v>273</v>
@@ -13707,10 +13707,10 @@
         <v>hmsg_template_server-97</v>
       </c>
       <c r="G85" s="45" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H85" s="45" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -13728,10 +13728,10 @@
         <v>hmsg_template_server-98</v>
       </c>
       <c r="G86" s="45" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -13749,10 +13749,10 @@
         <v>hmsg_template_server-99</v>
       </c>
       <c r="G87" s="45" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H87" s="45" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L87">
         <v>0</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,19 +22,18 @@
     <definedName name="wqewqe" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="559">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -58,7 +52,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -71,7 +64,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -90,7 +82,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -109,7 +100,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -128,7 +118,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -160,7 +149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -179,7 +167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -198,7 +185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -220,7 +206,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -241,7 +226,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -262,7 +246,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -283,7 +266,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -304,7 +286,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -316,7 +297,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -335,7 +315,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -347,7 +326,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -366,7 +344,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -385,7 +362,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -404,7 +380,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -423,7 +398,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -471,7 +445,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -490,7 +463,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -509,7 +481,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -528,7 +499,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -540,7 +510,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -559,7 +528,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -578,7 +546,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -598,7 +565,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -617,7 +583,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -637,7 +602,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -656,7 +620,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -668,7 +631,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -687,7 +649,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -706,7 +667,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -730,7 +690,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -749,7 +708,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -768,7 +726,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -787,7 +744,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -806,7 +762,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -818,7 +773,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -837,7 +791,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -848,7 +801,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -869,7 +821,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -880,7 +831,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -899,7 +849,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -918,7 +867,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -942,7 +890,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -961,7 +908,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -981,7 +927,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1001,7 +946,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1021,7 +965,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1042,7 +985,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1062,7 +1004,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1097,7 +1038,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1118,7 +1058,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1130,7 +1069,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1149,7 +1087,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1170,7 +1107,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1189,7 +1125,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1202,7 +1137,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1221,7 +1155,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1240,7 +1173,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1259,7 +1191,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1274,7 +1205,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1293,7 +1223,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1312,7 +1241,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1331,7 +1259,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1350,7 +1277,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1366,7 +1292,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1376,7 +1301,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1395,7 +1319,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1411,7 +1334,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1421,7 +1343,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1440,7 +1361,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1455,7 +1375,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1474,7 +1393,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1493,7 +1411,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1513,7 +1430,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1537,7 +1453,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1556,7 +1471,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1575,7 +1489,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1595,7 +1508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1616,7 +1528,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1627,7 +1538,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1637,7 +1547,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1649,7 +1558,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1668,7 +1576,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1687,7 +1594,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1706,7 +1612,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1726,7 +1631,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1745,7 +1649,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1764,7 +1667,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1784,7 +1686,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1803,7 +1704,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1822,7 +1722,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1841,7 +1740,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1861,7 +1759,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1873,7 +1770,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1884,7 +1780,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1894,7 +1789,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1906,7 +1800,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1925,7 +1818,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1937,7 +1829,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1956,7 +1847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1976,7 +1866,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -4434,7 +4323,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>&lt;p&gt;事务实例运行失败</t>
@@ -4444,7 +4332,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>通知</t>
@@ -4454,7 +4341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
@@ -4465,6 +4351,9 @@
   </si>
   <si>
     <t>SAGA_INSTANCE_FAIL.WEB</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发事务实例运行失败。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-148</t>
@@ -5018,6 +4907,66 @@
     <t>${content}</t>
   </si>
   <si>
+    <t>hmsg_message_template-154</t>
+  </si>
+  <si>
+    <t>VINDICATOR_USER_FAILED.WEB</t>
+  </si>
+  <si>
+    <t>创建用户失败</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的用户，请及时处理。编号：${instanceId}。&lt;/p&gt;
+&lt;p&gt;&lt;a href="#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>VINDICATOR-FAILED-NOTICE</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-155</t>
+  </si>
+  <si>
+    <t>VINDICATOR_PROJECT_FAILED.WEB</t>
+  </si>
+  <si>
+    <t>创建项目失败</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的项目，请及时处理。编号：${instanceId}。&lt;/p&gt;
+&lt;p&gt;&lt;a href="#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-156</t>
+  </si>
+  <si>
+    <t>VINDICATOR_ORGANIZATION_FAILED.WEB</t>
+  </si>
+  <si>
+    <t>创建组织失败</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，平台中存在创建失败的组织，请及时处理。编号：${instanceId}。&lt;/p&gt;
+&lt;p&gt;&lt;a href="#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-157</t>
+  </si>
+  <si>
+    <t>CHOERODON.MOBILE_LOGIN.SMS</t>
+  </si>
+  <si>
+    <t>Choerodon短信登录模板</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;【Cheorodon猪齿鱼】您的验证码是 ${captcha}，1分钟内有效，请勿泄露。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SMS-CAPTCHA-NOTICE</t>
+  </si>
+  <si>
     <t>消息模板参数</t>
   </si>
   <si>
@@ -5154,6 +5103,29 @@
   </si>
   <si>
     <t>resultDetailUrl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rganizationName</t>
+    </r>
+  </si>
+  <si>
+    <t>instanceId</t>
   </si>
   <si>
     <r>
@@ -5161,7 +5133,6 @@
         <sz val="11"/>
         <color rgb="FF003366"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -5171,7 +5142,7 @@
         <sz val="11"/>
         <color rgb="FF003366"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -5180,7 +5151,6 @@
         <sz val="11"/>
         <color rgb="FF003366"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -5511,6 +5481,42 @@
     <t>系统全平台公告</t>
   </si>
   <si>
+    <t>hmsg_template_server-97</t>
+  </si>
+  <si>
+    <t>VINDICATOR_USER_FAILED</t>
+  </si>
+  <si>
+    <t>创用户失败</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-98</t>
+  </si>
+  <si>
+    <t>VINDICATOR_PROJECT_FAILED</t>
+  </si>
+  <si>
+    <t>创项目失败</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-99</t>
+  </si>
+  <si>
+    <t>VINDICATOR_ORGANIZATION_FAILED</t>
+  </si>
+  <si>
+    <t>创组织失败</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-100</t>
+  </si>
+  <si>
+    <t>SMS_CAPTCHA_NOTICE</t>
+  </si>
+  <si>
+    <t>短信验证码通知</t>
+  </si>
+  <si>
     <t>发送配置(其它)</t>
   </si>
   <si>
@@ -5709,6 +5715,9 @@
     <t>SYSTEM_NOTIFICATION.SMS</t>
   </si>
   <si>
+    <t>hmsg_template_server_line-252</t>
+  </si>
+  <si>
     <t>notify_message_setting_config</t>
   </si>
   <si>
@@ -5788,174 +5797,19 @@
   </si>
   <si>
     <t>notify_message_setting_config-286</t>
-  </si>
-  <si>
-    <t>SYSTEM_NOTIFICATION.WEB</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户失败</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，${userName}。&lt;/p&gt;&lt;p&gt;您触发事务实例运行失败。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建项目失败</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建组织失败</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建组织失败</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_message_template-154</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-155</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-156</t>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rganizationName</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>instanceId</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>创用户失败</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>创用户失败</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR-FAILED-NOTICE</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>创项目失败</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>创组织失败</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>创项目失败</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>创组织失败</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_template_server-97</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-98</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-99</t>
-  </si>
-  <si>
-    <t>WEB</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>site</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR_USER_FAILED.WEB</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR_PROJECT_FAILED.WEB</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR_ORGANIZATION_FAILED.WEB</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR_USER_FAILED</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR_PROJECT_FAILED</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR_ORGANIZATION_FAILED</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR-FAILED-NOTICE</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR-FAILED-NOTICE</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR_USER_FAILED.WEB</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR_PROJECT_FAILED.WEB</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS-MANAGEMENT</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的用户，请及时处理。编号：${instanceId}。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的项目，请及时处理。编号：${instanceId}。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，平台中存在创建失败的组织，请及时处理。编号：${instanceId}。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -5966,52 +5820,55 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF003366"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <strike/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6019,7 +5876,6 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6027,7 +5883,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6046,7 +5901,6 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6056,10 +5910,153 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF003366"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6090,14 +6087,12 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6106,26 +6101,19 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6153,12 +6141,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -6259,15 +6427,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6275,24 +6683,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6300,90 +6723,117 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -6456,9 +6906,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6716,443 +7163,448 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="21" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="28" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="29" customWidth="1"/>
+    <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.1666666666667" customWidth="1"/>
     <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="22"/>
-      <c r="C1" s="55" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="54" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="57" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="22"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="30"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="28" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="31" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="33"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="34" t="s">
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="48" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="37" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="31" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="31" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="39" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="53" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="42" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="42" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="42" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="42" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="43" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="54"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="32" t="s">
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="54"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="44" t="s">
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="57" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="17.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="4" width="8.6640625" style="14"/>
-    <col min="5" max="5" width="19.58203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="17.58203125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="21" style="14" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="14" customWidth="1"/>
-    <col min="10" max="10" width="35.83203125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="19.75" style="14" customWidth="1"/>
-    <col min="12" max="12" width="22" style="14" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="14"/>
+    <col min="1" max="4" width="8.66666666666667" style="22"/>
+    <col min="5" max="5" width="19.5833333333333" style="22" customWidth="1"/>
+    <col min="6" max="6" width="17.5833333333333" style="22" customWidth="1"/>
+    <col min="7" max="7" width="25.8333333333333" style="22" customWidth="1"/>
+    <col min="8" max="8" width="21" style="22" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="22" customWidth="1"/>
+    <col min="10" max="10" width="35.8333333333333" style="22" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="22" customWidth="1"/>
+    <col min="12" max="12" width="22" style="22" customWidth="1"/>
+    <col min="13" max="13" width="23.3333333333333" style="22" customWidth="1"/>
+    <col min="14" max="16384" width="8.66666666666667" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="E4" s="16" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="E8" s="14" t="s">
+    <row r="8" spans="5:18">
+      <c r="E8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="14" t="s">
+      <c r="O8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="22" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1"/>
+    <hyperlink ref="J8" r:id="rId1" display="http://sms.bj.baidubce.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
   <cols>
+    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
     <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7166,13 +7618,13 @@
       <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -7205,21 +7657,21 @@
       <c r="P7" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="5:18">
       <c r="E8" t="s">
         <v>90</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>92</v>
       </c>
       <c r="H8" t="s">
@@ -7253,7 +7705,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -7263,77 +7715,78 @@
       <c r="C10" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>101</v>
       </c>
       <c r="H10" t="s">
         <v>102</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="4" max="4" width="22.58203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" customWidth="1"/>
-    <col min="7" max="7" width="29.4140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="26.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="44.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="29.4166666666667" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="41.4140625" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" customWidth="1"/>
-    <col min="13" max="13" width="33.1640625" customWidth="1"/>
-    <col min="14" max="14" width="23.4140625" customWidth="1"/>
-    <col min="15" max="15" width="29.4140625" customWidth="1"/>
-    <col min="16" max="16" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="41.4166666666667" customWidth="1"/>
+    <col min="10" max="10" width="29.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="32.1666666666667" customWidth="1"/>
+    <col min="13" max="13" width="33.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="23.4166666666667" customWidth="1"/>
+    <col min="15" max="15" width="29.4166666666667" customWidth="1"/>
+    <col min="16" max="16" width="29.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7347,13 +7800,13 @@
       <c r="C7" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>108</v>
       </c>
       <c r="G7" t="s">
@@ -7377,20 +7830,20 @@
       <c r="M7" t="s">
         <v>115</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>116</v>
       </c>
       <c r="O7" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>103</v>
       </c>
       <c r="Q7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="5:17">
       <c r="E8" t="s">
         <v>118</v>
       </c>
@@ -7406,7 +7859,7 @@
       <c r="I8" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>122</v>
       </c>
       <c r="K8" t="s">
@@ -7425,7 +7878,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="409.6">
+    <row r="9" ht="409.5" spans="5:17">
       <c r="E9" t="s">
         <v>126</v>
       </c>
@@ -7454,7 +7907,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="5:17">
       <c r="E10" t="s">
         <v>130</v>
       </c>
@@ -7483,7 +7936,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="5:17">
       <c r="E11" t="s">
         <v>133</v>
       </c>
@@ -7512,7 +7965,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="5:17">
       <c r="E12" t="s">
         <v>137</v>
       </c>
@@ -7541,7 +7994,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="5:17">
       <c r="E13" t="s">
         <v>140</v>
       </c>
@@ -7576,7 +8029,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="5:17">
       <c r="E14" t="s">
         <v>144</v>
       </c>
@@ -7611,7 +8064,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="5:17">
       <c r="E15" t="s">
         <v>150</v>
       </c>
@@ -7646,7 +8099,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="5:17">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -7803,7 +8256,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="5:17" ht="409.6">
+    <row r="21" ht="409.5" spans="5:17">
       <c r="E21" t="s">
         <v>172</v>
       </c>
@@ -7816,7 +8269,7 @@
       <c r="H21" t="s">
         <v>174</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="13" t="s">
         <v>175</v>
       </c>
       <c r="N21" t="s">
@@ -8018,7 +8471,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="5:17" ht="409.6">
+    <row r="28" ht="409.5" spans="5:17">
       <c r="E28" t="s">
         <v>194</v>
       </c>
@@ -8031,7 +8484,7 @@
       <c r="H28" t="s">
         <v>196</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="13" t="s">
         <v>197</v>
       </c>
       <c r="N28" t="s">
@@ -8076,7 +8529,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="5:17" ht="409.6">
+    <row r="30" ht="409.5" spans="5:17">
       <c r="E30" t="s">
         <v>200</v>
       </c>
@@ -8089,7 +8542,7 @@
       <c r="H30" t="s">
         <v>202</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="13" t="s">
         <v>203</v>
       </c>
       <c r="N30" t="s">
@@ -8320,7 +8773,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="5:17" ht="409.6">
+    <row r="38" ht="409.5" spans="5:17">
       <c r="E38" t="s">
         <v>229</v>
       </c>
@@ -8333,7 +8786,7 @@
       <c r="H38" t="s">
         <v>231</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="13" t="s">
         <v>232</v>
       </c>
       <c r="N38" t="s">
@@ -8478,7 +8931,7 @@
       <c r="H43" t="s">
         <v>251</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="7" t="s">
         <v>252</v>
       </c>
       <c r="N43" t="s">
@@ -8507,8 +8960,8 @@
       <c r="H44" t="s">
         <v>251</v>
       </c>
-      <c r="I44" s="45" t="s">
-        <v>526</v>
+      <c r="I44" s="15" t="s">
+        <v>255</v>
       </c>
       <c r="N44" t="s">
         <v>124</v>
@@ -8525,10 +8978,10 @@
     </row>
     <row r="45" spans="5:17">
       <c r="E45" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G45" t="s">
         <v>231</v>
@@ -8537,7 +8990,7 @@
         <v>231</v>
       </c>
       <c r="I45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N45" t="s">
         <v>124</v>
@@ -8554,10 +9007,10 @@
     </row>
     <row r="46" spans="5:17">
       <c r="E46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G46" t="s">
         <v>128</v>
@@ -8566,7 +9019,7 @@
         <v>128</v>
       </c>
       <c r="I46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N46" t="s">
         <v>124</v>
@@ -8583,19 +9036,19 @@
     </row>
     <row r="47" spans="5:17">
       <c r="E47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F47" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I47" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N47" t="s">
         <v>124</v>
@@ -8612,19 +9065,19 @@
     </row>
     <row r="48" spans="5:17">
       <c r="E48" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F48" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N48" t="s">
         <v>124</v>
@@ -8639,21 +9092,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="5:17">
       <c r="E49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F49" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J49" t="s">
         <v>122</v>
@@ -8674,21 +9127,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="5:17">
       <c r="E50" t="s">
-        <v>272</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>524</v>
+        <v>273</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>274</v>
       </c>
       <c r="G50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N50" t="s">
         <v>124</v>
@@ -8703,27 +9156,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="69.599999999999994">
+    <row r="51" ht="69.6" spans="5:17">
       <c r="E51" t="s">
-        <v>530</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>548</v>
-      </c>
-      <c r="G51" s="45" t="s">
-        <v>525</v>
-      </c>
-      <c r="H51" s="45" t="s">
-        <v>525</v>
-      </c>
-      <c r="I51" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="J51" s="45" t="s">
-        <v>547</v>
-      </c>
-      <c r="K51" s="45" t="s">
-        <v>555</v>
+        <v>277</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="N51" t="s">
         <v>124</v>
@@ -8738,27 +9191,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="69.599999999999994">
+    <row r="52" ht="69.6" spans="5:17">
       <c r="E52" t="s">
-        <v>531</v>
-      </c>
-      <c r="F52" s="45" t="s">
-        <v>549</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>527</v>
-      </c>
-      <c r="H52" s="45" t="s">
-        <v>527</v>
-      </c>
-      <c r="I52" s="46" t="s">
-        <v>560</v>
-      </c>
-      <c r="J52" s="45" t="s">
-        <v>547</v>
-      </c>
-      <c r="K52" s="45" t="s">
-        <v>555</v>
+        <v>283</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="N52" t="s">
         <v>124</v>
@@ -8773,42 +9226,74 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="69.599999999999994">
+    <row r="53" ht="69.6" spans="5:17">
       <c r="E53" t="s">
-        <v>532</v>
-      </c>
-      <c r="F53" s="45" t="s">
-        <v>550</v>
-      </c>
-      <c r="G53" s="45" t="s">
-        <v>528</v>
-      </c>
-      <c r="H53" s="45" t="s">
-        <v>529</v>
-      </c>
-      <c r="I53" s="46" t="s">
-        <v>561</v>
-      </c>
-      <c r="J53" s="45" t="s">
-        <v>547</v>
-      </c>
-      <c r="K53" s="45" t="s">
-        <v>555</v>
+        <v>287</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="N53" t="s">
         <v>124</v>
       </c>
-      <c r="O53" t="s">
-        <v>74</v>
-      </c>
-      <c r="P53" t="s">
-        <v>75</v>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
       </c>
       <c r="Q53" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="54" spans="5:17">
+      <c r="E54" t="s">
+        <v>291</v>
+      </c>
+      <c r="F54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G54" t="s">
+        <v>293</v>
+      </c>
+      <c r="H54" t="s">
+        <v>293</v>
+      </c>
+      <c r="I54" t="s">
+        <v>294</v>
+      </c>
+      <c r="K54" t="s">
+        <v>295</v>
+      </c>
+      <c r="N54" t="s">
+        <v>124</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -8816,25 +9301,25 @@
         <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>276</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>280</v>
+        <v>296</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="H57" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="I57" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="J57" t="s">
         <v>88</v>
@@ -8843,16 +9328,16 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="5:11">
       <c r="E58" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G58" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="J58" t="s">
         <v>75</v>
@@ -8861,16 +9346,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="5:11">
       <c r="E59" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G59" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="J59" t="s">
         <v>75</v>
@@ -8879,16 +9364,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="5:11">
       <c r="E60" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="J60" t="s">
         <v>75</v>
@@ -8897,16 +9382,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="5:11">
       <c r="E61" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G61" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="J61" t="s">
         <v>75</v>
@@ -8915,16 +9400,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="5:11">
       <c r="E62" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G62" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="J62" t="s">
         <v>75</v>
@@ -8933,16 +9418,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="5:11">
       <c r="E63" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G63" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="J63" t="s">
         <v>75</v>
@@ -8951,16 +9436,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="5:11">
       <c r="E64" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G64" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="J64" t="s">
         <v>75</v>
@@ -8971,14 +9456,14 @@
     </row>
     <row r="65" spans="5:11">
       <c r="E65" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G65" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J65" t="s">
         <v>75</v>
@@ -8989,14 +9474,14 @@
     </row>
     <row r="66" spans="5:11">
       <c r="E66" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G66" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="J66" t="s">
         <v>75</v>
@@ -9007,14 +9492,14 @@
     </row>
     <row r="67" spans="5:11">
       <c r="E67" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G67" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="J67" t="s">
         <v>75</v>
@@ -9025,14 +9510,14 @@
     </row>
     <row r="68" spans="5:11">
       <c r="E68" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G68" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="J68" t="s">
         <v>75</v>
@@ -9043,14 +9528,14 @@
     </row>
     <row r="69" spans="5:11">
       <c r="E69" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G69" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="J69" t="s">
         <v>75</v>
@@ -9061,14 +9546,14 @@
     </row>
     <row r="70" spans="5:11">
       <c r="E70" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G70" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="J70" t="s">
         <v>75</v>
@@ -9079,14 +9564,14 @@
     </row>
     <row r="71" spans="5:11">
       <c r="E71" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G71" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="J71" t="s">
         <v>75</v>
@@ -9097,14 +9582,14 @@
     </row>
     <row r="72" spans="5:11">
       <c r="E72" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G72" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="J72" t="s">
         <v>75</v>
@@ -9115,14 +9600,14 @@
     </row>
     <row r="73" spans="5:11">
       <c r="E73" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G73" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="J73" t="s">
         <v>75</v>
@@ -9133,14 +9618,14 @@
     </row>
     <row r="74" spans="5:11">
       <c r="E74" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G74" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J74" t="s">
         <v>75</v>
@@ -9151,14 +9636,14 @@
     </row>
     <row r="75" spans="5:11">
       <c r="E75" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G75" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="J75" t="s">
         <v>75</v>
@@ -9169,14 +9654,14 @@
     </row>
     <row r="76" spans="5:11">
       <c r="E76" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G76" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="J76" t="s">
         <v>75</v>
@@ -9187,14 +9672,14 @@
     </row>
     <row r="77" spans="5:11">
       <c r="E77" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G77" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="J77" t="s">
         <v>75</v>
@@ -9205,14 +9690,14 @@
     </row>
     <row r="78" spans="5:11">
       <c r="E78" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G78" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="J78" t="s">
         <v>75</v>
@@ -9223,14 +9708,14 @@
     </row>
     <row r="79" spans="5:11">
       <c r="E79" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G79" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="J79" t="s">
         <v>75</v>
@@ -9241,14 +9726,14 @@
     </row>
     <row r="80" spans="5:11">
       <c r="E80" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F80" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G80" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="J80" t="s">
         <v>75</v>
@@ -9259,14 +9744,14 @@
     </row>
     <row r="81" spans="5:11">
       <c r="E81" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F81" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G81" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="J81" t="s">
         <v>75</v>
@@ -9277,14 +9762,14 @@
     </row>
     <row r="82" spans="5:11">
       <c r="E82" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F82" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G82" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="J82" t="s">
         <v>75</v>
@@ -9295,14 +9780,14 @@
     </row>
     <row r="83" spans="5:11">
       <c r="E83" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F83" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G83" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="J83" t="s">
         <v>75</v>
@@ -9313,14 +9798,14 @@
     </row>
     <row r="84" spans="5:11">
       <c r="E84" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F84" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G84" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="J84" t="s">
         <v>75</v>
@@ -9331,14 +9816,14 @@
     </row>
     <row r="85" spans="5:11">
       <c r="E85" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F85" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G85" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J85" t="s">
         <v>75</v>
@@ -9349,14 +9834,14 @@
     </row>
     <row r="86" spans="5:11">
       <c r="E86" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F86" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G86" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="J86" t="s">
         <v>75</v>
@@ -9367,14 +9852,14 @@
     </row>
     <row r="87" spans="5:11">
       <c r="E87" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F87" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G87" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="J87" t="s">
         <v>75</v>
@@ -9385,14 +9870,14 @@
     </row>
     <row r="88" spans="5:11">
       <c r="E88" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F88" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G88" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="J88" t="s">
         <v>75</v>
@@ -9403,14 +9888,14 @@
     </row>
     <row r="89" spans="5:11">
       <c r="E89" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F89" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G89" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="J89" t="s">
         <v>75</v>
@@ -9421,14 +9906,14 @@
     </row>
     <row r="90" spans="5:11">
       <c r="E90" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F90" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G90" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="J90" t="s">
         <v>75</v>
@@ -9439,14 +9924,14 @@
     </row>
     <row r="91" spans="5:11">
       <c r="E91" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F91" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G91" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J91" t="s">
         <v>75</v>
@@ -9457,14 +9942,14 @@
     </row>
     <row r="92" spans="5:11">
       <c r="E92" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F92" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G92" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="J92" t="s">
         <v>75</v>
@@ -9475,14 +9960,14 @@
     </row>
     <row r="93" spans="5:11">
       <c r="E93" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F93" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G93" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="J93" t="s">
         <v>75</v>
@@ -9493,14 +9978,14 @@
     </row>
     <row r="94" spans="5:11">
       <c r="E94" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G94" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="J94" t="s">
         <v>75</v>
@@ -9511,14 +9996,14 @@
     </row>
     <row r="95" spans="5:11">
       <c r="E95" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G95" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="J95" t="s">
         <v>75</v>
@@ -9529,14 +10014,14 @@
     </row>
     <row r="96" spans="5:11">
       <c r="E96" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G96" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="J96" t="s">
         <v>75</v>
@@ -9547,14 +10032,14 @@
     </row>
     <row r="97" spans="5:11">
       <c r="E97" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G97" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="J97" t="s">
         <v>75</v>
@@ -9565,14 +10050,14 @@
     </row>
     <row r="98" spans="5:11">
       <c r="E98" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G98" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="J98" t="s">
         <v>75</v>
@@ -9583,14 +10068,14 @@
     </row>
     <row r="99" spans="5:11">
       <c r="E99" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G99" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="J99" t="s">
         <v>75</v>
@@ -9601,14 +10086,14 @@
     </row>
     <row r="100" spans="5:11">
       <c r="E100" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G100" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J100" t="s">
         <v>75</v>
@@ -9619,14 +10104,14 @@
     </row>
     <row r="101" spans="5:11">
       <c r="E101" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G101" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="J101" t="s">
         <v>75</v>
@@ -9637,14 +10122,14 @@
     </row>
     <row r="102" spans="5:11">
       <c r="E102" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G102" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="J102" t="s">
         <v>75</v>
@@ -9655,14 +10140,14 @@
     </row>
     <row r="103" spans="5:11">
       <c r="E103" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G103" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="J103" t="s">
         <v>75</v>
@@ -9673,14 +10158,14 @@
     </row>
     <row r="104" spans="5:11">
       <c r="E104" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G104" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="J104" t="s">
         <v>75</v>
@@ -9691,14 +10176,14 @@
     </row>
     <row r="105" spans="5:11">
       <c r="E105" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G105" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="J105" t="s">
         <v>75</v>
@@ -9709,14 +10194,14 @@
     </row>
     <row r="106" spans="5:11">
       <c r="E106" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F106" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G106" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="J106" t="s">
         <v>75</v>
@@ -9727,14 +10212,14 @@
     </row>
     <row r="107" spans="5:11">
       <c r="E107" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G107" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J107" t="s">
         <v>75</v>
@@ -9745,14 +10230,14 @@
     </row>
     <row r="108" spans="5:11">
       <c r="E108" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F108" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G108" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="J108" t="s">
         <v>75</v>
@@ -9763,14 +10248,14 @@
     </row>
     <row r="109" spans="5:11">
       <c r="E109" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F109" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G109" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="J109" t="s">
         <v>75</v>
@@ -9781,14 +10266,14 @@
     </row>
     <row r="110" spans="5:11">
       <c r="E110" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F110" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G110" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="J110" t="s">
         <v>75</v>
@@ -9799,14 +10284,14 @@
     </row>
     <row r="111" spans="5:11">
       <c r="E111" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G111" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="J111" t="s">
         <v>75</v>
@@ -9817,14 +10302,14 @@
     </row>
     <row r="112" spans="5:11">
       <c r="E112" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G112" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="J112" t="s">
         <v>75</v>
@@ -9835,14 +10320,14 @@
     </row>
     <row r="113" spans="5:11">
       <c r="E113" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F113" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G113" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="J113" t="s">
         <v>75</v>
@@ -9853,14 +10338,14 @@
     </row>
     <row r="114" spans="5:11">
       <c r="E114" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F114" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G114" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="J114" t="s">
         <v>75</v>
@@ -9871,14 +10356,14 @@
     </row>
     <row r="115" spans="5:11">
       <c r="E115" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F115" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G115" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="J115" t="s">
         <v>75</v>
@@ -9889,14 +10374,14 @@
     </row>
     <row r="116" spans="5:11">
       <c r="E116" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F116" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G116" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J116" t="s">
         <v>75</v>
@@ -9907,14 +10392,14 @@
     </row>
     <row r="117" spans="5:11">
       <c r="E117" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F117" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G117" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="J117" t="s">
         <v>75</v>
@@ -9925,14 +10410,14 @@
     </row>
     <row r="118" spans="5:11">
       <c r="E118" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F118" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G118" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="J118" t="s">
         <v>75</v>
@@ -9943,14 +10428,14 @@
     </row>
     <row r="119" spans="5:11">
       <c r="E119" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G119" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="J119" t="s">
         <v>75</v>
@@ -9961,14 +10446,14 @@
     </row>
     <row r="120" spans="5:11">
       <c r="E120" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G120" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="J120" t="s">
         <v>75</v>
@@ -9979,14 +10464,14 @@
     </row>
     <row r="121" spans="5:11">
       <c r="E121" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F121" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G121" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="J121" t="s">
         <v>75</v>
@@ -9997,14 +10482,14 @@
     </row>
     <row r="122" spans="5:11">
       <c r="E122" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F122" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G122" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="J122" t="s">
         <v>75</v>
@@ -10015,14 +10500,14 @@
     </row>
     <row r="123" spans="5:11">
       <c r="E123" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F123" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G123" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J123" t="s">
         <v>75</v>
@@ -10033,14 +10518,14 @@
     </row>
     <row r="124" spans="5:11">
       <c r="E124" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F124" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G124" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="J124" t="s">
         <v>75</v>
@@ -10051,14 +10536,14 @@
     </row>
     <row r="125" spans="5:11">
       <c r="E125" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F125" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G125" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="J125" t="s">
         <v>75</v>
@@ -10069,14 +10554,14 @@
     </row>
     <row r="126" spans="5:11">
       <c r="E126" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F126" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G126" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="J126" t="s">
         <v>75</v>
@@ -10087,14 +10572,14 @@
     </row>
     <row r="127" spans="5:11">
       <c r="E127" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F127" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G127" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="J127" t="s">
         <v>75</v>
@@ -10105,14 +10590,14 @@
     </row>
     <row r="128" spans="5:11">
       <c r="E128" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F128" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G128" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="J128" t="s">
         <v>75</v>
@@ -10123,14 +10608,14 @@
     </row>
     <row r="129" spans="5:11">
       <c r="E129" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F129" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G129" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="J129" t="s">
         <v>75</v>
@@ -10141,14 +10626,14 @@
     </row>
     <row r="130" spans="5:11">
       <c r="E130" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F130" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G130" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="J130" t="s">
         <v>75</v>
@@ -10159,14 +10644,14 @@
     </row>
     <row r="131" spans="5:11">
       <c r="E131" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F131" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G131" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="J131" t="s">
         <v>75</v>
@@ -10177,14 +10662,14 @@
     </row>
     <row r="132" spans="5:11">
       <c r="E132" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F132" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G132" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="J132" t="s">
         <v>75</v>
@@ -10195,14 +10680,14 @@
     </row>
     <row r="133" spans="5:11">
       <c r="E133" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F133" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G133" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="J133" t="s">
         <v>75</v>
@@ -10213,14 +10698,14 @@
     </row>
     <row r="134" spans="5:11">
       <c r="E134" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F134" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G134" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="J134" t="s">
         <v>75</v>
@@ -10231,14 +10716,14 @@
     </row>
     <row r="135" spans="5:11">
       <c r="E135" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F135" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G135" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="J135" t="s">
         <v>75</v>
@@ -10249,14 +10734,14 @@
     </row>
     <row r="136" spans="5:11">
       <c r="E136" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F136" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G136" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="J136" t="s">
         <v>75</v>
@@ -10267,14 +10752,14 @@
     </row>
     <row r="137" spans="5:11">
       <c r="E137" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F137" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G137" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="J137" t="s">
         <v>75</v>
@@ -10285,14 +10770,14 @@
     </row>
     <row r="138" spans="5:11">
       <c r="E138" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F138" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G138" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J138" t="s">
         <v>75</v>
@@ -10303,14 +10788,14 @@
     </row>
     <row r="139" spans="5:11">
       <c r="E139" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F139" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G139" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="J139" t="s">
         <v>75</v>
@@ -10321,14 +10806,14 @@
     </row>
     <row r="140" spans="5:11">
       <c r="E140" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F140" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G140" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="J140" t="s">
         <v>75</v>
@@ -10339,14 +10824,14 @@
     </row>
     <row r="141" spans="5:11">
       <c r="E141" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F141" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G141" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="J141" t="s">
         <v>75</v>
@@ -10357,14 +10842,14 @@
     </row>
     <row r="142" spans="5:11">
       <c r="E142" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F142" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G142" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="J142" t="s">
         <v>75</v>
@@ -10375,14 +10860,14 @@
     </row>
     <row r="143" spans="5:11">
       <c r="E143" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F143" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G143" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="J143" t="s">
         <v>75</v>
@@ -10393,14 +10878,14 @@
     </row>
     <row r="144" spans="5:11">
       <c r="E144" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F144" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G144" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J144" t="s">
         <v>75</v>
@@ -10411,14 +10896,14 @@
     </row>
     <row r="145" spans="5:11">
       <c r="E145" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F145" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-64</v>
       </c>
       <c r="G145" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="J145" t="s">
         <v>75</v>
@@ -10429,14 +10914,14 @@
     </row>
     <row r="146" spans="5:11">
       <c r="E146" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F146" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-62</v>
       </c>
       <c r="G146" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="J146" t="s">
         <v>75</v>
@@ -10447,14 +10932,14 @@
     </row>
     <row r="147" spans="5:11">
       <c r="E147" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F147" t="str">
         <f>消息模板!$E$22</f>
         <v>hmsg_message_template-52</v>
       </c>
       <c r="G147" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="J147" t="s">
         <v>75</v>
@@ -10465,14 +10950,14 @@
     </row>
     <row r="148" spans="5:11">
       <c r="E148" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F148" t="str">
         <f>消息模板!$E$20</f>
         <v>hmsg_message_template-50</v>
       </c>
       <c r="G148" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="J148" t="s">
         <v>75</v>
@@ -10483,14 +10968,14 @@
     </row>
     <row r="149" spans="5:11">
       <c r="E149" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F149" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-48</v>
       </c>
       <c r="G149" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="J149" t="s">
         <v>75</v>
@@ -10501,14 +10986,14 @@
     </row>
     <row r="150" spans="5:11">
       <c r="E150" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F150" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-47</v>
       </c>
       <c r="G150" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="J150" t="s">
         <v>75</v>
@@ -10519,14 +11004,14 @@
     </row>
     <row r="151" spans="5:11">
       <c r="E151" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F151" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-60</v>
       </c>
       <c r="G151" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="J151" t="s">
         <v>75</v>
@@ -10537,14 +11022,14 @@
     </row>
     <row r="152" spans="5:11">
       <c r="E152" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F152" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-59</v>
       </c>
       <c r="G152" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="J152" t="s">
         <v>75</v>
@@ -10555,14 +11040,14 @@
     </row>
     <row r="153" spans="5:11">
       <c r="E153" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F153" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G153" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="J153" t="s">
         <v>75</v>
@@ -10573,14 +11058,14 @@
     </row>
     <row r="154" spans="5:11">
       <c r="E154" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F154" t="str">
         <f>消息模板!$E$36</f>
         <v>hmsg_message_template-107</v>
       </c>
       <c r="G154" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J154" t="s">
         <v>75</v>
@@ -10591,14 +11076,14 @@
     </row>
     <row r="155" spans="5:11">
       <c r="E155" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F155" t="str">
         <f>消息模板!$E$30</f>
         <v>hmsg_message_template-65</v>
       </c>
       <c r="G155" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="J155" t="s">
         <v>75</v>
@@ -10609,14 +11094,14 @@
     </row>
     <row r="156" spans="5:11">
       <c r="E156" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F156" t="str">
         <f>消息模板!$E$30</f>
         <v>hmsg_message_template-65</v>
       </c>
       <c r="G156" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J156" t="s">
         <v>75</v>
@@ -10627,14 +11112,14 @@
     </row>
     <row r="157" spans="5:11">
       <c r="E157" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F157" t="str">
         <f>消息模板!$E$50</f>
         <v>hmsg_message_template-153</v>
       </c>
       <c r="G157" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="J157" t="s">
         <v>75</v>
@@ -10645,14 +11130,14 @@
     </row>
     <row r="158" spans="5:11">
       <c r="E158" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F158" t="str">
         <f>消息模板!$E$50</f>
         <v>hmsg_message_template-153</v>
       </c>
       <c r="G158" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="J158" t="s">
         <v>75</v>
@@ -10663,14 +11148,14 @@
     </row>
     <row r="159" spans="5:11">
       <c r="E159" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F159" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G159" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="J159" t="s">
         <v>75</v>
@@ -10681,14 +11166,14 @@
     </row>
     <row r="160" spans="5:11">
       <c r="E160" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F160" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G160" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="J160" t="s">
         <v>75</v>
@@ -10699,14 +11184,14 @@
     </row>
     <row r="161" spans="5:11">
       <c r="E161" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F161" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G161" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J161" t="s">
         <v>75</v>
@@ -10717,14 +11202,14 @@
     </row>
     <row r="162" spans="5:11">
       <c r="E162" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F162" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G162" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="J162" t="s">
         <v>75</v>
@@ -10735,14 +11220,14 @@
     </row>
     <row r="163" spans="5:11">
       <c r="E163" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F163" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G163" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="J163" t="s">
         <v>75</v>
@@ -10753,14 +11238,14 @@
     </row>
     <row r="164" spans="5:11">
       <c r="E164" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F164" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G164" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J164" t="s">
         <v>75</v>
@@ -10771,14 +11256,14 @@
     </row>
     <row r="165" spans="5:11">
       <c r="E165" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F165" t="str">
         <f>消息模板!$E$33</f>
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G165" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="J165" t="s">
         <v>75</v>
@@ -10789,14 +11274,14 @@
     </row>
     <row r="166" spans="5:11">
       <c r="E166" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F166" t="str">
         <f>消息模板!$E$33</f>
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G166" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="J166" t="s">
         <v>75</v>
@@ -10807,14 +11292,14 @@
     </row>
     <row r="167" spans="5:11">
       <c r="E167" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F167" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G167" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="J167" t="s">
         <v>75</v>
@@ -10825,14 +11310,14 @@
     </row>
     <row r="168" spans="5:11">
       <c r="E168" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F168" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G168" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="J168" t="s">
         <v>75</v>
@@ -10843,14 +11328,14 @@
     </row>
     <row r="169" spans="5:11">
       <c r="E169" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F169" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G169" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="J169" t="s">
         <v>75</v>
@@ -10861,14 +11346,14 @@
     </row>
     <row r="170" spans="5:11">
       <c r="E170" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F170" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G170" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J170" t="s">
         <v>75</v>
@@ -10879,14 +11364,14 @@
     </row>
     <row r="171" spans="5:11">
       <c r="E171" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F171" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G171" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="J171" t="s">
         <v>75</v>
@@ -10897,14 +11382,14 @@
     </row>
     <row r="172" spans="5:11">
       <c r="E172" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F172" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G172" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="J172" t="s">
         <v>75</v>
@@ -10915,14 +11400,14 @@
     </row>
     <row r="173" spans="5:11">
       <c r="E173" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F173" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G173" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="J173" t="s">
         <v>75</v>
@@ -10933,14 +11418,14 @@
     </row>
     <row r="174" spans="5:11">
       <c r="E174" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F174" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G174" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J174" t="s">
         <v>75</v>
@@ -10951,14 +11436,14 @@
     </row>
     <row r="175" spans="5:11">
       <c r="E175" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F175" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G175" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="J175" t="s">
         <v>75</v>
@@ -10969,14 +11454,14 @@
     </row>
     <row r="176" spans="5:11">
       <c r="E176" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F176" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G176" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="J176" t="s">
         <v>75</v>
@@ -10987,14 +11472,14 @@
     </row>
     <row r="177" spans="5:11">
       <c r="E177" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F177" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G177" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="J177" t="s">
         <v>75</v>
@@ -11005,14 +11490,14 @@
     </row>
     <row r="178" spans="5:11">
       <c r="E178" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F178" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G178" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="J178" t="s">
         <v>75</v>
@@ -11023,14 +11508,14 @@
     </row>
     <row r="179" spans="5:11">
       <c r="E179" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F179" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G179" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="J179" t="s">
         <v>75</v>
@@ -11041,14 +11526,14 @@
     </row>
     <row r="180" spans="5:11">
       <c r="E180" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F180" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G180" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="J180" t="s">
         <v>75</v>
@@ -11059,14 +11544,14 @@
     </row>
     <row r="181" spans="5:11">
       <c r="E181" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F181" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G181" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="J181" t="s">
         <v>75</v>
@@ -11077,14 +11562,14 @@
     </row>
     <row r="182" spans="5:11">
       <c r="E182" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F182" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G182" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="J182" t="s">
         <v>75</v>
@@ -11095,14 +11580,14 @@
     </row>
     <row r="183" spans="5:11">
       <c r="E183" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F183" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G183" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="J183" t="s">
         <v>75</v>
@@ -11113,14 +11598,14 @@
     </row>
     <row r="184" spans="5:11">
       <c r="E184" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F184" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G184" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="J184" t="s">
         <v>75</v>
@@ -11131,7 +11616,7 @@
     </row>
     <row r="185" spans="5:11">
       <c r="E185" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F185" t="str">
         <f>消息模板!$E$31</f>
@@ -11149,14 +11634,14 @@
     </row>
     <row r="186" spans="5:11">
       <c r="E186" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F186" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G186" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="J186" t="s">
         <v>75</v>
@@ -11167,14 +11652,14 @@
     </row>
     <row r="187" spans="5:11">
       <c r="E187" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F187" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G187" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="J187" t="s">
         <v>75</v>
@@ -11185,14 +11670,14 @@
     </row>
     <row r="188" spans="5:11">
       <c r="E188" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F188" t="str">
         <f>消息模板!$E$48</f>
         <v>hmsg_message_template-151</v>
       </c>
       <c r="G188" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="J188" t="s">
         <v>75</v>
@@ -11203,14 +11688,14 @@
     </row>
     <row r="189" spans="5:11">
       <c r="E189" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F189" t="str">
         <f>消息模板!$E$39</f>
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G189" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="J189" t="s">
         <v>75</v>
@@ -11221,14 +11706,14 @@
     </row>
     <row r="190" spans="5:11">
       <c r="E190" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F190" t="str">
         <f>消息模板!$E$39</f>
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G190" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="J190" t="s">
         <v>75</v>
@@ -11239,14 +11724,14 @@
     </row>
     <row r="191" spans="5:11">
       <c r="E191" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F191" t="str">
         <f>消息模板!$E$41</f>
         <v>hmsg_message_template-139</v>
       </c>
       <c r="G191" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="J191" t="s">
         <v>75</v>
@@ -11257,14 +11742,14 @@
     </row>
     <row r="192" spans="5:11">
       <c r="E192" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F192" t="str">
         <f>E9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G192" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -11275,14 +11760,14 @@
     </row>
     <row r="193" spans="5:11">
       <c r="E193" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F193" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G193" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="J193" t="s">
         <v>75</v>
@@ -11293,14 +11778,14 @@
     </row>
     <row r="194" spans="5:11">
       <c r="E194" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F194" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G194" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="J194" t="s">
         <v>75</v>
@@ -11311,14 +11796,14 @@
     </row>
     <row r="195" spans="5:11">
       <c r="E195" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F195" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G195" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="J195" t="s">
         <v>75</v>
@@ -11329,14 +11814,14 @@
     </row>
     <row r="196" spans="5:11">
       <c r="E196" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F196" t="str">
         <f>E38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G196" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -11347,14 +11832,14 @@
     </row>
     <row r="197" spans="5:11">
       <c r="E197" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F197" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G197" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="J197" t="s">
         <v>75</v>
@@ -11365,14 +11850,14 @@
     </row>
     <row r="198" spans="5:11">
       <c r="E198" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F198" t="str">
         <f>消息模板!$E$40</f>
         <v>hmsg_message_template-138</v>
       </c>
       <c r="G198" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="J198" t="s">
         <v>75</v>
@@ -11383,14 +11868,14 @@
     </row>
     <row r="199" spans="5:11">
       <c r="E199" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F199" t="str">
         <f>消息模板!$E$47</f>
         <v>hmsg_message_template-150</v>
       </c>
       <c r="G199" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="J199" t="s">
         <v>75</v>
@@ -11401,14 +11886,14 @@
     </row>
     <row r="200" spans="5:11">
       <c r="E200" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F200" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G200" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="J200" t="s">
         <v>75</v>
@@ -11419,14 +11904,14 @@
     </row>
     <row r="201" spans="5:11">
       <c r="E201" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F201" t="str">
         <f>消息模板!$E$51</f>
         <v>hmsg_message_template-154</v>
       </c>
-      <c r="G201" s="45" t="s">
-        <v>533</v>
+      <c r="G201" s="15" t="s">
+        <v>342</v>
       </c>
       <c r="J201" t="s">
         <v>75</v>
@@ -11437,14 +11922,14 @@
     </row>
     <row r="202" spans="5:11">
       <c r="E202" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F202" t="str">
         <f>消息模板!$E$51</f>
         <v>hmsg_message_template-154</v>
       </c>
-      <c r="G202" s="45" t="s">
-        <v>534</v>
+      <c r="G202" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="J202" t="s">
         <v>75</v>
@@ -11455,14 +11940,14 @@
     </row>
     <row r="203" spans="5:11">
       <c r="E203" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F203" t="str">
         <f>消息模板!$E$52</f>
         <v>hmsg_message_template-155</v>
       </c>
-      <c r="G203" s="45" t="s">
-        <v>533</v>
+      <c r="G203" s="15" t="s">
+        <v>342</v>
       </c>
       <c r="J203" t="s">
         <v>75</v>
@@ -11473,14 +11958,14 @@
     </row>
     <row r="204" spans="5:11">
       <c r="E204" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F204" t="str">
         <f>消息模板!$E$52</f>
         <v>hmsg_message_template-155</v>
       </c>
-      <c r="G204" s="45" t="s">
-        <v>534</v>
+      <c r="G204" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="J204" t="s">
         <v>75</v>
@@ -11491,14 +11976,14 @@
     </row>
     <row r="205" spans="5:11">
       <c r="E205" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F205" t="str">
         <f>消息模板!$E$53</f>
         <v>hmsg_message_template-156</v>
       </c>
-      <c r="G205" s="45" t="s">
-        <v>534</v>
+      <c r="G205" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="J205" t="s">
         <v>75</v>
@@ -11507,64 +11992,83 @@
         <v>75</v>
       </c>
     </row>
+    <row r="206" spans="5:11">
+      <c r="E206" t="s">
+        <v>303</v>
+      </c>
+      <c r="F206" t="str">
+        <f>E54</f>
+        <v>hmsg_message_template-157</v>
+      </c>
+      <c r="G206" t="s">
+        <v>329</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView topLeftCell="J22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H64" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.4140625" customWidth="1"/>
-    <col min="2" max="2" width="15.4140625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.4140625" customWidth="1"/>
-    <col min="5" max="5" width="43.6640625" customWidth="1"/>
-    <col min="6" max="7" width="34.4140625" customWidth="1"/>
-    <col min="8" max="8" width="37.9140625" customWidth="1"/>
-    <col min="9" max="9" width="26.9140625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" customWidth="1"/>
-    <col min="12" max="12" width="29.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24.83203125" customWidth="1"/>
-    <col min="14" max="14" width="17.58203125" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="29.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="43.6666666666667" customWidth="1"/>
+    <col min="6" max="7" width="34.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="37.9166666666667" customWidth="1"/>
+    <col min="9" max="9" width="26.9166666666667" customWidth="1"/>
+    <col min="10" max="10" width="14.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="26.8333333333333" customWidth="1"/>
+    <col min="12" max="12" width="29.8333333333333" customWidth="1"/>
+    <col min="13" max="13" width="24.8333333333333" customWidth="1"/>
+    <col min="14" max="14" width="17.5833333333333" customWidth="1"/>
+    <col min="15" max="15" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="5:8">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -11574,48 +12078,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>326</v>
+      <c r="H7" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="I7" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="J7" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="M7" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="N7" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="O7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -11624,33 +12128,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="I8" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="J8" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K8" t="s">
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="M8" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="N8" t="s">
         <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -11659,33 +12163,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="I9" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="J9" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K9" t="s">
         <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="M9" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="N9" t="s">
         <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -11694,33 +12198,33 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="I10" t="s">
         <v>223</v>
       </c>
       <c r="J10" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K10" t="s">
         <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="M10" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="N10" t="s">
         <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -11729,33 +12233,33 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="I11" t="s">
         <v>196</v>
       </c>
       <c r="J11" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K11" t="s">
         <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="M11" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="N11" t="s">
         <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -11764,33 +12268,33 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="I12" t="s">
         <v>174</v>
       </c>
       <c r="J12" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="M12" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="N12" t="s">
         <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -11799,33 +12303,33 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
+        <v>380</v>
+      </c>
+      <c r="I13" t="s">
+        <v>381</v>
+      </c>
+      <c r="J13" t="s">
         <v>358</v>
-      </c>
-      <c r="I13" t="s">
-        <v>359</v>
-      </c>
-      <c r="J13" t="s">
-        <v>336</v>
       </c>
       <c r="K13" t="s">
         <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="M13" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="N13" t="s">
         <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -11834,33 +12338,33 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="I14" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="J14" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K14" t="s">
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="M14" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="N14" t="s">
         <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -11869,33 +12373,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="I15" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="J15" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K15" t="s">
         <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="M15" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="N15" t="s">
         <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -11904,33 +12408,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="I16" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="J16" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K16" t="s">
         <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="M16" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="N16" t="s">
         <v>74</v>
       </c>
       <c r="O16" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
@@ -11939,33 +12443,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="I17" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="J17" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K17" t="s">
         <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="M17" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="N17" t="s">
         <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -11974,33 +12478,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="I18" t="s">
         <v>238</v>
       </c>
       <c r="J18" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K18" t="s">
         <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="M18" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="N18" t="s">
         <v>75</v>
       </c>
       <c r="O18" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -12009,33 +12513,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="I19" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="J19" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="M19" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="N19" t="s">
         <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
@@ -12044,33 +12548,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="I20" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="J20" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K20" t="s">
         <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="M20" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="N20" t="s">
         <v>75</v>
       </c>
       <c r="O20" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -12079,33 +12583,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="I21" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="J21" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K21" t="s">
         <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="M21" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="N21" t="s">
         <v>74</v>
       </c>
       <c r="O21" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -12114,33 +12618,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="I22" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="J22" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K22" t="s">
         <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="M22" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="N22" t="s">
         <v>75</v>
       </c>
       <c r="O22" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -12149,33 +12653,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="I23" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="J23" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K23" t="s">
         <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="M23" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="N23" t="s">
         <v>75</v>
       </c>
       <c r="O23" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -12183,34 +12687,34 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>404</v>
+      <c r="H24" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="I24" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="J24" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="M24" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="N24" t="s">
         <v>75</v>
       </c>
       <c r="O24" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -12219,33 +12723,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="I25" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="J25" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K25" t="s">
         <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="M25" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="N25" t="s">
         <v>75</v>
       </c>
       <c r="O25" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
@@ -12254,33 +12758,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="I26" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="J26" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="M26" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="N26" t="s">
         <v>74</v>
       </c>
       <c r="O26" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -12289,33 +12793,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="I27" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="J27" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K27" t="s">
         <v>74</v>
       </c>
       <c r="L27" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="M27" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="N27" t="s">
         <v>74</v>
       </c>
       <c r="O27" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -12324,33 +12828,33 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="I28" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="J28" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K28" t="s">
         <v>74</v>
       </c>
       <c r="L28" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="M28" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="N28" t="s">
         <v>74</v>
       </c>
       <c r="O28" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="5:15">
-      <c r="E29" s="7" t="s">
-        <v>418</v>
+      <c r="E29" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
@@ -12359,33 +12863,33 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="I29" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="J29" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K29" t="s">
         <v>74</v>
       </c>
       <c r="L29" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="M29" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="N29" t="s">
         <v>74</v>
       </c>
       <c r="O29" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
@@ -12394,33 +12898,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="I30" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="J30" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K30" t="s">
         <v>74</v>
       </c>
       <c r="L30" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="M30" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="N30" t="s">
         <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -12429,252 +12933,259 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="I31" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="J31" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K31" t="s">
         <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="M31" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="N31" t="s">
         <v>74</v>
       </c>
       <c r="O31" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>427</v>
-      </c>
-      <c r="F32" s="47">
+        <v>449</v>
+      </c>
+      <c r="F32" s="9">
         <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>428</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="K32" s="47">
+        <v>450</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K32" s="9">
         <v>1</v>
       </c>
-      <c r="L32" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="M32" s="45" t="s">
-        <v>558</v>
-      </c>
-      <c r="N32" s="47">
+      <c r="L32" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="48" customFormat="1">
-      <c r="E33" s="48" t="s">
-        <v>542</v>
-      </c>
-      <c r="F33" s="49">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="5:15">
+      <c r="E33" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F33" s="10">
         <v>0</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="50" t="s">
-        <v>551</v>
-      </c>
-      <c r="I33" s="51" t="s">
-        <v>536</v>
-      </c>
-      <c r="J33" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="K33" s="49">
+      <c r="H33" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="K33" s="10">
         <v>1</v>
       </c>
-      <c r="L33" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="M33" s="50" t="s">
-        <v>554</v>
-      </c>
-      <c r="N33" s="49">
+      <c r="L33" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="N33" s="10">
         <v>1</v>
       </c>
-      <c r="O33" s="50" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="48" customFormat="1">
-      <c r="E34" s="48" t="s">
-        <v>543</v>
-      </c>
-      <c r="F34" s="49">
+      <c r="O33" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="5:15">
+      <c r="E34" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F34" s="10">
         <v>0</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="1">
         <v>0</v>
       </c>
-      <c r="H34" s="50" t="s">
-        <v>552</v>
-      </c>
-      <c r="I34" s="51" t="s">
-        <v>540</v>
-      </c>
-      <c r="J34" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="K34" s="49">
+      <c r="H34" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="K34" s="10">
         <v>1</v>
       </c>
-      <c r="L34" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="M34" s="50" t="s">
-        <v>537</v>
-      </c>
-      <c r="N34" s="49">
+      <c r="L34" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="N34" s="10">
         <v>1</v>
       </c>
-      <c r="O34" s="50" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="48" customFormat="1">
-      <c r="E35" s="48" t="s">
-        <v>544</v>
-      </c>
-      <c r="F35" s="49">
+      <c r="O34" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="5:15">
+      <c r="E35" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F35" s="10">
         <v>0</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="1">
         <v>0</v>
       </c>
-      <c r="H35" s="50" t="s">
-        <v>553</v>
-      </c>
-      <c r="I35" s="51" t="s">
-        <v>541</v>
-      </c>
-      <c r="J35" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="K35" s="49">
+      <c r="H35" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="K35" s="10">
         <v>1</v>
       </c>
-      <c r="L35" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="M35" s="50" t="s">
-        <v>537</v>
-      </c>
-      <c r="N35" s="49">
+      <c r="L35" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="N35" s="10">
         <v>1</v>
       </c>
-      <c r="O35" s="50" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" t="s">
+      <c r="O35" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="5:15">
+      <c r="E36" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="K36" s="10">
+        <v>1</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="N36" s="10">
+        <v>1</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
         <v>104</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="C37" t="s">
-        <v>431</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="H37" s="8" t="s">
+      <c r="C38" t="s">
+        <v>465</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I37" t="s">
-        <v>436</v>
-      </c>
-      <c r="J37" t="s">
-        <v>437</v>
-      </c>
-      <c r="K37" t="s">
-        <v>438</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="I38" t="s">
+        <v>470</v>
+      </c>
+      <c r="J38" t="s">
+        <v>471</v>
+      </c>
+      <c r="K38" t="s">
+        <v>472</v>
+      </c>
+      <c r="L38" t="s">
         <v>84</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="E38" t="s">
-        <v>439</v>
-      </c>
-      <c r="F38" t="str">
+    <row r="39" spans="5:13">
+      <c r="E39" t="s">
+        <v>473</v>
+      </c>
+      <c r="F39" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
-      <c r="G38" t="s">
-        <v>440</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G39" t="s">
+        <v>474</v>
+      </c>
+      <c r="H39" t="s">
         <v>201</v>
-      </c>
-      <c r="I38" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K38" t="s">
-        <v>91</v>
-      </c>
-      <c r="L38" t="s">
-        <v>75</v>
-      </c>
-      <c r="M38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="E39" t="s">
-        <v>441</v>
-      </c>
-      <c r="F39" t="str">
-        <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
-      </c>
-      <c r="G39" t="s">
-        <v>440</v>
-      </c>
-      <c r="H39" t="s">
-        <v>134</v>
       </c>
       <c r="I39" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -12683,117 +13194,124 @@
       <c r="K39" t="s">
         <v>91</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="L39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13">
       <c r="E40" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="F40" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G40" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="H40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K40" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13">
+      <c r="E41" t="s">
+        <v>476</v>
+      </c>
+      <c r="F41" t="str">
+        <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>477</v>
+      </c>
+      <c r="H41" t="s">
         <v>138</v>
       </c>
-      <c r="L40" t="s">
-        <v>75</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="L41" t="s">
+        <v>75</v>
+      </c>
+      <c r="M41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="E41" t="s">
-        <v>444</v>
-      </c>
-      <c r="F41" t="str">
+    <row r="42" spans="5:13">
+      <c r="E42" t="s">
+        <v>478</v>
+      </c>
+      <c r="F42" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
-      <c r="G41" t="s">
-        <v>443</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G42" t="s">
+        <v>477</v>
+      </c>
+      <c r="H42" t="s">
         <v>222</v>
       </c>
-      <c r="L41" t="s">
-        <v>75</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="L42" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="E42" t="s">
-        <v>445</v>
-      </c>
-      <c r="F42" t="str">
-        <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>440</v>
-      </c>
-      <c r="H42" t="s">
-        <v>195</v>
-      </c>
-      <c r="I42" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K42" t="s">
-        <v>91</v>
-      </c>
-      <c r="L42" t="s">
-        <v>75</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="5:13">
       <c r="E43" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="F43" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G43" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="H43" t="s">
-        <v>199</v>
+        <v>195</v>
+      </c>
+      <c r="I43" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K43" t="s">
+        <v>91</v>
       </c>
       <c r="L43" t="s">
         <v>75</v>
       </c>
-      <c r="M43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13">
       <c r="E44" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="F44" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G44" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="H44" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L44" t="s">
         <v>75</v>
@@ -12802,19 +13320,19 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="5:13">
       <c r="E45" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G45" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="H45" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L45" t="s">
         <v>75</v>
@@ -12823,68 +13341,68 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="5:13">
       <c r="E46" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="F46" t="str">
-        <f>发送配置!$E$12</f>
-        <v>hmsg_template_server-12</v>
+        <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
       </c>
       <c r="G46" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="H46" t="s">
-        <v>173</v>
-      </c>
-      <c r="I46" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K46" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="L46" t="s">
         <v>75</v>
       </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="M46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13">
       <c r="E47" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="F47" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G47" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="H47" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+      <c r="I47" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K47" t="s">
+        <v>91</v>
       </c>
       <c r="L47" t="s">
         <v>75</v>
       </c>
-      <c r="M47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="5:13">
       <c r="E48" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="F48" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G48" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="H48" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s">
         <v>75</v>
@@ -12895,17 +13413,17 @@
     </row>
     <row r="49" spans="5:13">
       <c r="E49" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G49" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="H49" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L49" t="s">
         <v>75</v>
@@ -12916,17 +13434,17 @@
     </row>
     <row r="50" spans="5:13">
       <c r="E50" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="F50" t="str">
-        <f>发送配置!$E$13</f>
-        <v>hmsg_template_server-13</v>
+        <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
       </c>
       <c r="G50" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="H50" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="L50" t="s">
         <v>75</v>
@@ -12937,17 +13455,17 @@
     </row>
     <row r="51" spans="5:13">
       <c r="E51" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="F51" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G51" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="H51" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L51" t="s">
         <v>75</v>
@@ -12958,17 +13476,17 @@
     </row>
     <row r="52" spans="5:13">
       <c r="E52" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="F52" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G52" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="H52" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L52" t="s">
         <v>75</v>
@@ -12979,17 +13497,17 @@
     </row>
     <row r="53" spans="5:13">
       <c r="E53" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="F53" t="str">
-        <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
+        <f>发送配置!$E$13</f>
+        <v>hmsg_template_server-13</v>
       </c>
       <c r="G53" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="H53" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="L53" t="s">
         <v>75</v>
@@ -13000,17 +13518,17 @@
     </row>
     <row r="54" spans="5:13">
       <c r="E54" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="F54" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G54" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="H54" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L54" t="s">
         <v>75</v>
@@ -13021,17 +13539,17 @@
     </row>
     <row r="55" spans="5:13">
       <c r="E55" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="F55" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G55" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="H55" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L55" t="s">
         <v>75</v>
@@ -13042,38 +13560,38 @@
     </row>
     <row r="56" spans="5:13">
       <c r="E56" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="F56" t="str">
+        <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>482</v>
+      </c>
+      <c r="H56" t="s">
+        <v>155</v>
+      </c>
+      <c r="L56" t="s">
+        <v>75</v>
+      </c>
+      <c r="M56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="5:13">
+      <c r="E57" t="s">
+        <v>494</v>
+      </c>
+      <c r="F57" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-19</v>
       </c>
-      <c r="G56" t="s">
-        <v>443</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G57" t="s">
+        <v>477</v>
+      </c>
+      <c r="H57" t="s">
         <v>220</v>
-      </c>
-      <c r="L56" t="s">
-        <v>75</v>
-      </c>
-      <c r="M56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="5:13">
-      <c r="E57" t="s">
-        <v>461</v>
-      </c>
-      <c r="F57" t="str">
-        <f>发送配置!$E$17</f>
-        <v>hmsg_template_server-20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>443</v>
-      </c>
-      <c r="H57" t="s">
-        <v>217</v>
       </c>
       <c r="L57" t="s">
         <v>75</v>
@@ -13084,17 +13602,17 @@
     </row>
     <row r="58" spans="5:13">
       <c r="E58" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="F58" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G58" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="H58" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L58" t="s">
         <v>75</v>
@@ -13105,17 +13623,17 @@
     </row>
     <row r="59" spans="5:13">
       <c r="E59" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="F59" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G59" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="H59" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L59" t="s">
         <v>75</v>
@@ -13126,24 +13644,17 @@
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="F60" t="str">
-        <f>发送配置!$E$18</f>
-        <v>hmsg_template_server-21</v>
+        <f>发送配置!$E$17</f>
+        <v>hmsg_template_server-20</v>
       </c>
       <c r="G60" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="H60" t="s">
-        <v>237</v>
-      </c>
-      <c r="I60" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K60" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="L60" t="s">
         <v>75</v>
@@ -13154,17 +13665,24 @@
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G61" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="H61" t="s">
-        <v>241</v>
+        <v>237</v>
+      </c>
+      <c r="I61" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K61" t="s">
+        <v>91</v>
       </c>
       <c r="L61" t="s">
         <v>75</v>
@@ -13175,66 +13693,59 @@
     </row>
     <row r="62" spans="5:13">
       <c r="E62" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="F62" t="str">
+        <f>发送配置!$E$18</f>
+        <v>hmsg_template_server-21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>477</v>
+      </c>
+      <c r="H62" t="s">
+        <v>241</v>
+      </c>
+      <c r="L62" t="s">
+        <v>75</v>
+      </c>
+      <c r="M62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="5:13">
+      <c r="E63" t="s">
+        <v>500</v>
+      </c>
+      <c r="F63" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-22</v>
       </c>
-      <c r="G62" t="s">
-        <v>443</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G63" t="s">
+        <v>477</v>
+      </c>
+      <c r="H63" t="s">
         <v>254</v>
       </c>
-      <c r="L62" t="s">
-        <v>75</v>
-      </c>
-      <c r="M62" t="s">
+      <c r="L63" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="5:13">
-      <c r="E63" t="s">
-        <v>467</v>
-      </c>
-      <c r="F63" t="str">
+    <row r="64" spans="5:13">
+      <c r="E64" t="s">
+        <v>501</v>
+      </c>
+      <c r="F64" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-35</v>
       </c>
-      <c r="G63" t="s">
-        <v>440</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G64" t="s">
+        <v>474</v>
+      </c>
+      <c r="H64" t="s">
         <v>205</v>
-      </c>
-      <c r="I63" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K63" t="s">
-        <v>91</v>
-      </c>
-      <c r="L63" t="s">
-        <v>75</v>
-      </c>
-      <c r="M63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="5:13">
-      <c r="E64" t="s">
-        <v>468</v>
-      </c>
-      <c r="F64" t="str">
-        <f>发送配置!$E$21</f>
-        <v>hmsg_template_server-37</v>
-      </c>
-      <c r="G64" t="s">
-        <v>440</v>
-      </c>
-      <c r="H64" t="s">
-        <v>469</v>
       </c>
       <c r="I64" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -13252,17 +13763,24 @@
     </row>
     <row r="65" spans="5:13">
       <c r="E65" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="F65" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G65" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="H65" t="s">
-        <v>471</v>
+        <v>503</v>
+      </c>
+      <c r="I65" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K65" t="s">
+        <v>91</v>
       </c>
       <c r="L65" t="s">
         <v>75</v>
@@ -13273,17 +13791,17 @@
     </row>
     <row r="66" spans="5:13">
       <c r="E66" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="F66" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G66" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="H66" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="L66" t="s">
         <v>75</v>
@@ -13294,17 +13812,17 @@
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G67" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="H67" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="L67" t="s">
         <v>75</v>
@@ -13315,24 +13833,17 @@
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="F68" t="str">
-        <f>发送配置!$E$22</f>
-        <v>hmsg_template_server-49</v>
+        <f>发送配置!$E$21</f>
+        <v>hmsg_template_server-37</v>
       </c>
       <c r="G68" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="H68" t="s">
-        <v>127</v>
-      </c>
-      <c r="I68" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K68" t="s">
-        <v>91</v>
+        <v>509</v>
       </c>
       <c r="L68" t="s">
         <v>75</v>
@@ -13343,17 +13854,24 @@
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G69" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="H69" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="I69" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K69" t="s">
+        <v>91</v>
       </c>
       <c r="L69" t="s">
         <v>75</v>
@@ -13364,17 +13882,17 @@
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="F70" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G70" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="H70" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L70" t="s">
         <v>75</v>
@@ -13385,24 +13903,17 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="F71" t="str">
-        <f>发送配置!$E$23</f>
-        <v>hmsg_template_server-50</v>
+        <f>发送配置!$E$22</f>
+        <v>hmsg_template_server-49</v>
       </c>
       <c r="G71" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="H71" t="s">
-        <v>262</v>
-      </c>
-      <c r="I71" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K71" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="L71" t="s">
         <v>75</v>
@@ -13413,17 +13924,24 @@
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G72" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="H72" t="s">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="I72" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K72" t="s">
+        <v>91</v>
       </c>
       <c r="L72" t="s">
         <v>75</v>
@@ -13434,66 +13952,66 @@
     </row>
     <row r="73" spans="5:13">
       <c r="E73" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="F73" t="str">
-        <f>发送配置!$E$24</f>
-        <v>hmsg_template_server-51</v>
+        <f>发送配置!$E$23</f>
+        <v>hmsg_template_server-50</v>
       </c>
       <c r="G73" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="H73" t="s">
-        <v>230</v>
-      </c>
-      <c r="I73" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K73" t="s">
-        <v>91</v>
+        <v>267</v>
       </c>
       <c r="L73" t="s">
         <v>75</v>
       </c>
-      <c r="M73">
-        <v>1</v>
+      <c r="M73" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="5:13">
       <c r="E74" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G74" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="H74" t="s">
-        <v>234</v>
+        <v>230</v>
+      </c>
+      <c r="I74" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K74" t="s">
+        <v>91</v>
       </c>
       <c r="L74" t="s">
         <v>75</v>
       </c>
-      <c r="M74" t="s">
-        <v>74</v>
+      <c r="M74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="5:13">
       <c r="E75" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="F75" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G75" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="H75" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="L75" t="s">
         <v>75</v>
@@ -13504,24 +14022,17 @@
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="F76" t="str">
-        <f>发送配置!$E$25</f>
-        <v>hmsg_template_server-52</v>
+        <f>发送配置!$E$24</f>
+        <v>hmsg_template_server-51</v>
       </c>
       <c r="G76" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="H76" t="s">
-        <v>256</v>
-      </c>
-      <c r="I76" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K76" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="L76" t="s">
         <v>75</v>
@@ -13532,17 +14043,24 @@
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G77" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="H77" t="s">
-        <v>259</v>
+        <v>257</v>
+      </c>
+      <c r="I77" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K77" t="s">
+        <v>91</v>
       </c>
       <c r="L77" t="s">
         <v>75</v>
@@ -13553,288 +14071,309 @@
     </row>
     <row r="78" spans="5:13">
       <c r="E78" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="F78" t="str">
+        <f>发送配置!$E$25</f>
+        <v>hmsg_template_server-52</v>
+      </c>
+      <c r="G78" t="s">
+        <v>477</v>
+      </c>
+      <c r="H78" t="s">
+        <v>260</v>
+      </c>
+      <c r="L78" t="s">
+        <v>75</v>
+      </c>
+      <c r="M78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="5:13">
+      <c r="E79" t="s">
+        <v>520</v>
+      </c>
+      <c r="F79" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-63</v>
       </c>
-      <c r="G78" t="s">
-        <v>448</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="G79" t="s">
+        <v>482</v>
+      </c>
+      <c r="H79" t="s">
         <v>145</v>
       </c>
-      <c r="L78" t="s">
-        <v>487</v>
-      </c>
-      <c r="M78" t="s">
+      <c r="L79" t="s">
+        <v>521</v>
+      </c>
+      <c r="M79" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="5:13">
-      <c r="E79" t="s">
-        <v>488</v>
-      </c>
-      <c r="F79" t="str">
+    <row r="80" spans="5:13">
+      <c r="E80" t="s">
+        <v>522</v>
+      </c>
+      <c r="F80" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-65</v>
       </c>
-      <c r="G79" t="s">
-        <v>448</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="G80" t="s">
+        <v>482</v>
+      </c>
+      <c r="H80" t="s">
         <v>151</v>
       </c>
-      <c r="L79" t="s">
-        <v>487</v>
-      </c>
-      <c r="M79" t="s">
+      <c r="L80" t="s">
+        <v>521</v>
+      </c>
+      <c r="M80" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="5:13">
-      <c r="E80" t="s">
-        <v>489</v>
-      </c>
-      <c r="F80" t="str">
+    <row r="81" spans="5:13">
+      <c r="E81" t="s">
+        <v>523</v>
+      </c>
+      <c r="F81" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-70</v>
       </c>
-      <c r="G80" t="s">
-        <v>448</v>
-      </c>
-      <c r="H80" t="s">
-        <v>269</v>
-      </c>
-      <c r="L80" t="s">
-        <v>487</v>
-      </c>
-      <c r="M80" t="s">
+      <c r="G81" t="s">
+        <v>482</v>
+      </c>
+      <c r="H81" t="s">
+        <v>270</v>
+      </c>
+      <c r="L81" t="s">
+        <v>521</v>
+      </c>
+      <c r="M81" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
-      <c r="E81" t="s">
-        <v>490</v>
-      </c>
-      <c r="F81" t="str">
+    <row r="82" spans="5:13">
+      <c r="E82" t="s">
+        <v>524</v>
+      </c>
+      <c r="F82" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-72</v>
       </c>
-      <c r="G81" t="s">
-        <v>448</v>
-      </c>
-      <c r="H81" t="s">
-        <v>491</v>
-      </c>
-      <c r="L81" t="s">
-        <v>487</v>
-      </c>
-      <c r="M81" t="s">
+      <c r="G82" t="s">
+        <v>482</v>
+      </c>
+      <c r="H82" t="s">
+        <v>525</v>
+      </c>
+      <c r="L82" t="s">
+        <v>521</v>
+      </c>
+      <c r="M82" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
-      <c r="E82" t="s">
-        <v>492</v>
-      </c>
-      <c r="F82" t="str">
+    <row r="83" spans="5:13">
+      <c r="E83" t="s">
+        <v>526</v>
+      </c>
+      <c r="F83" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-66</v>
       </c>
-      <c r="G82" t="s">
-        <v>448</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="G83" t="s">
+        <v>482</v>
+      </c>
+      <c r="H83" t="s">
         <v>250</v>
       </c>
-      <c r="L82" t="s">
-        <v>75</v>
-      </c>
-      <c r="M82" t="s">
+      <c r="L83" t="s">
+        <v>75</v>
+      </c>
+      <c r="M83" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
-      <c r="E83" t="s">
-        <v>493</v>
-      </c>
-      <c r="F83" t="str">
-        <f t="shared" ref="F83" si="0">E32</f>
+    <row r="84" spans="5:13">
+      <c r="E84" t="s">
+        <v>527</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" ref="F84" si="0">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
-      <c r="G83" s="45" t="s">
-        <v>545</v>
-      </c>
-      <c r="H83" t="s">
-        <v>273</v>
-      </c>
-      <c r="L83">
+      <c r="G84" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="H84" t="s">
+        <v>274</v>
+      </c>
+      <c r="L84">
         <v>0</v>
       </c>
-      <c r="M83">
+      <c r="M84">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
-      <c r="E84" t="s">
-        <v>494</v>
-      </c>
-      <c r="F84" t="str">
+    <row r="85" spans="5:13">
+      <c r="E85" t="s">
+        <v>528</v>
+      </c>
+      <c r="F85" t="str">
         <f>E32</f>
         <v>hmsg_template_server-96</v>
       </c>
-      <c r="G84" t="s">
-        <v>495</v>
-      </c>
-      <c r="H84" t="s">
-        <v>496</v>
-      </c>
-      <c r="L84">
+      <c r="G85" t="s">
+        <v>529</v>
+      </c>
+      <c r="H85" t="s">
+        <v>530</v>
+      </c>
+      <c r="L85">
         <v>0</v>
       </c>
-      <c r="M84">
+      <c r="M85">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
-      <c r="E85" t="s">
-        <v>494</v>
-      </c>
-      <c r="F85" t="str">
+    <row r="86" spans="5:13">
+      <c r="E86" t="s">
+        <v>528</v>
+      </c>
+      <c r="F86" t="str">
         <f>E33</f>
         <v>hmsg_template_server-97</v>
       </c>
-      <c r="G85" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="H85" s="45" t="s">
-        <v>556</v>
-      </c>
-      <c r="L85">
+      <c r="G86" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="L86">
         <v>0</v>
       </c>
-      <c r="M85">
+      <c r="M86">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
-      <c r="E86" t="s">
-        <v>494</v>
-      </c>
-      <c r="F86" t="str">
+    <row r="87" spans="5:13">
+      <c r="E87" t="s">
+        <v>528</v>
+      </c>
+      <c r="F87" t="str">
         <f>E34</f>
         <v>hmsg_template_server-98</v>
       </c>
-      <c r="G86" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="H86" s="45" t="s">
-        <v>557</v>
-      </c>
-      <c r="L86">
+      <c r="G87" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="L87">
         <v>0</v>
       </c>
-      <c r="M86">
+      <c r="M87">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
-      <c r="E87" t="s">
-        <v>494</v>
-      </c>
-      <c r="F87" t="str">
+    <row r="88" spans="5:13">
+      <c r="E88" t="s">
+        <v>528</v>
+      </c>
+      <c r="F88" t="str">
         <f>E35</f>
         <v>hmsg_template_server-99</v>
       </c>
-      <c r="G87" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="H87" s="45" t="s">
-        <v>550</v>
-      </c>
-      <c r="L87">
+      <c r="G88" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="L88">
         <v>0</v>
       </c>
-      <c r="M87">
+      <c r="M88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="11">
+    <row r="89" spans="5:13">
+      <c r="E89" t="s">
+        <v>531</v>
+      </c>
+      <c r="F89" t="str">
+        <f>E36</f>
+        <v>hmsg_template_server-100</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="I89" t="str">
+        <f>短信服务配置!E8</f>
+        <v>hmsg_sms_server-8</v>
+      </c>
+      <c r="K89" t="s">
+        <v>69</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="19">
         <v>44036</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>51</v>
       </c>
-      <c r="C89" t="s">
-        <v>323</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="H89" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="E90" t="s">
-        <v>501</v>
-      </c>
-      <c r="F90" t="s">
-        <v>334</v>
-      </c>
-      <c r="G90">
+      <c r="C91" t="s">
+        <v>345</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="H91" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="92" spans="5:8">
+      <c r="E92" t="s">
+        <v>536</v>
+      </c>
+      <c r="F92" t="s">
+        <v>356</v>
+      </c>
+      <c r="G92">
         <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="E91" t="s">
-        <v>502</v>
-      </c>
-      <c r="F91" t="s">
-        <v>341</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="E92" t="s">
-        <v>503</v>
-      </c>
-      <c r="F92" t="s">
-        <v>347</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="5:8">
       <c r="E93" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="F93" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -13843,12 +14382,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="5:8">
       <c r="E94" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="F94" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -13857,29 +14396,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="5:8">
       <c r="E95" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="F95" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="5:8">
       <c r="E96" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="F96" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -13887,13 +14426,13 @@
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="F97" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -13901,13 +14440,13 @@
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="F98" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -13915,13 +14454,13 @@
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="F99" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -13929,13 +14468,13 @@
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="F100" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -13943,13 +14482,13 @@
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>512</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>382</v>
+        <v>545</v>
+      </c>
+      <c r="F101" t="s">
+        <v>398</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -13957,10 +14496,10 @@
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="F102" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -13971,13 +14510,13 @@
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>514</v>
-      </c>
-      <c r="F103" t="s">
-        <v>395</v>
+        <v>547</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>404</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -13985,10 +14524,10 @@
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="F104" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -13999,10 +14538,10 @@
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="F105" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -14013,10 +14552,10 @@
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="F106" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -14027,13 +14566,13 @@
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="F107" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -14041,13 +14580,13 @@
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="F108" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -14055,10 +14594,10 @@
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="F109" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -14069,13 +14608,13 @@
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="F110" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -14083,10 +14622,10 @@
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="F111" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -14097,21 +14636,49 @@
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="F112" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
     </row>
+    <row r="113" spans="5:8">
+      <c r="E113" t="s">
+        <v>557</v>
+      </c>
+      <c r="F113" t="s">
+        <v>443</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8">
+      <c r="E114" t="s">
+        <v>558</v>
+      </c>
+      <c r="F114" t="s">
+        <v>450</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="560">
   <si>
     <r>
       <rPr>
@@ -4961,10 +4961,13 @@
     <t>Choerodon短信登录模板</t>
   </si>
   <si>
-    <t>&lt;p&gt;【Cheorodon猪齿鱼】您的验证码是 ${captcha}，1分钟内有效，请勿泄露。&lt;/p&gt;</t>
+    <t>&lt;p&gt;【Cheorodon猪齿鱼】您的验证码是 ${code}，1分钟内有效，请勿泄露。&lt;/p&gt;</t>
   </si>
   <si>
     <t>SMS-CAPTCHA-NOTICE</t>
+  </si>
+  <si>
+    <t>SMS_222255148</t>
   </si>
   <si>
     <t>消息模板参数</t>
@@ -5809,7 +5812,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -5848,12 +5851,6 @@
     </font>
     <font>
       <strike/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -5910,9 +5907,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5925,16 +5921,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5949,6 +5937,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -5956,31 +5975,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6000,23 +5996,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6030,6 +6012,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -6038,11 +6035,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6141,6 +6138,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6153,31 +6228,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6189,55 +6240,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6249,7 +6258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6261,43 +6270,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6315,13 +6294,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6428,6 +6425,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6443,11 +6484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6467,30 +6514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -6499,181 +6522,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6689,33 +6686,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6723,44 +6712,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6773,7 +6762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7177,8 +7166,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="28" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="29" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="25" customWidth="1"/>
     <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
@@ -7194,79 +7183,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="30"/>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="33"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="26"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -7274,56 +7263,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="49" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7333,30 +7322,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="51" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -7364,7 +7353,7 @@
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="51" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -7372,25 +7361,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="34"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="53" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7415,144 +7404,144 @@
   <sheetPr/>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="17.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="4" width="8.66666666666667" style="22"/>
-    <col min="5" max="5" width="19.5833333333333" style="22" customWidth="1"/>
-    <col min="6" max="6" width="17.5833333333333" style="22" customWidth="1"/>
-    <col min="7" max="7" width="25.8333333333333" style="22" customWidth="1"/>
-    <col min="8" max="8" width="21" style="22" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="22" customWidth="1"/>
-    <col min="10" max="10" width="35.8333333333333" style="22" customWidth="1"/>
-    <col min="11" max="11" width="19.75" style="22" customWidth="1"/>
-    <col min="12" max="12" width="22" style="22" customWidth="1"/>
-    <col min="13" max="13" width="23.3333333333333" style="22" customWidth="1"/>
-    <col min="14" max="16384" width="8.66666666666667" style="22"/>
+    <col min="1" max="4" width="8.66666666666667" style="18"/>
+    <col min="5" max="5" width="19.5833333333333" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.5833333333333" style="18" customWidth="1"/>
+    <col min="7" max="7" width="25.8333333333333" style="18" customWidth="1"/>
+    <col min="8" max="8" width="21" style="18" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="18" customWidth="1"/>
+    <col min="10" max="10" width="35.8333333333333" style="18" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="18" customWidth="1"/>
+    <col min="12" max="12" width="22" style="18" customWidth="1"/>
+    <col min="13" max="13" width="23.3333333333333" style="18" customWidth="1"/>
+    <col min="14" max="16384" width="8.66666666666667" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="25" t="s">
+      <c r="P7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="Q7" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="22" t="s">
+      <c r="R7" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="5:18">
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="22" t="s">
+      <c r="O8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7745,8 +7734,8 @@
   <sheetPr/>
   <dimension ref="A1:Q206"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="J49" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -7759,6 +7748,7 @@
     <col min="9" max="9" width="41.4166666666667" customWidth="1"/>
     <col min="10" max="10" width="29.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="32.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="29.0416666666667" customWidth="1"/>
     <col min="13" max="13" width="33.1666666666667" customWidth="1"/>
     <col min="14" max="14" width="23.4166666666667" customWidth="1"/>
     <col min="15" max="15" width="29.4166666666667" customWidth="1"/>
@@ -8960,7 +8950,7 @@
       <c r="H44" t="s">
         <v>251</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="7" t="s">
         <v>255</v>
       </c>
       <c r="N44" t="s">
@@ -9131,7 +9121,7 @@
       <c r="E50" t="s">
         <v>273</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="7" t="s">
         <v>274</v>
       </c>
       <c r="G50" t="s">
@@ -9160,22 +9150,22 @@
       <c r="E51" t="s">
         <v>277</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="J51" s="15" t="s">
+      <c r="J51" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K51" s="15" t="s">
+      <c r="K51" s="7" t="s">
         <v>282</v>
       </c>
       <c r="N51" t="s">
@@ -9195,22 +9185,22 @@
       <c r="E52" t="s">
         <v>283</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="I52" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="J52" s="15" t="s">
+      <c r="J52" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K52" s="15" t="s">
+      <c r="K52" s="7" t="s">
         <v>282</v>
       </c>
       <c r="N52" t="s">
@@ -9230,22 +9220,22 @@
       <c r="E53" t="s">
         <v>287</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="I53" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="J53" s="15" t="s">
+      <c r="J53" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K53" s="15" t="s">
+      <c r="K53" s="7" t="s">
         <v>282</v>
       </c>
       <c r="N53" t="s">
@@ -9280,6 +9270,9 @@
       <c r="K54" t="s">
         <v>295</v>
       </c>
+      <c r="L54" t="s">
+        <v>296</v>
+      </c>
       <c r="N54" t="s">
         <v>124</v>
       </c>
@@ -9301,25 +9294,25 @@
         <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I57" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J57" t="s">
         <v>88</v>
@@ -9330,14 +9323,14 @@
     </row>
     <row r="58" spans="5:11">
       <c r="E58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J58" t="s">
         <v>75</v>
@@ -9348,14 +9341,14 @@
     </row>
     <row r="59" spans="5:11">
       <c r="E59" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G59" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J59" t="s">
         <v>75</v>
@@ -9366,14 +9359,14 @@
     </row>
     <row r="60" spans="5:11">
       <c r="E60" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J60" t="s">
         <v>75</v>
@@ -9384,14 +9377,14 @@
     </row>
     <row r="61" spans="5:11">
       <c r="E61" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J61" t="s">
         <v>75</v>
@@ -9402,14 +9395,14 @@
     </row>
     <row r="62" spans="5:11">
       <c r="E62" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G62" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J62" t="s">
         <v>75</v>
@@ -9420,14 +9413,14 @@
     </row>
     <row r="63" spans="5:11">
       <c r="E63" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G63" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J63" t="s">
         <v>75</v>
@@ -9438,14 +9431,14 @@
     </row>
     <row r="64" spans="5:11">
       <c r="E64" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G64" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J64" t="s">
         <v>75</v>
@@ -9456,14 +9449,14 @@
     </row>
     <row r="65" spans="5:11">
       <c r="E65" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G65" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J65" t="s">
         <v>75</v>
@@ -9474,14 +9467,14 @@
     </row>
     <row r="66" spans="5:11">
       <c r="E66" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G66" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J66" t="s">
         <v>75</v>
@@ -9492,14 +9485,14 @@
     </row>
     <row r="67" spans="5:11">
       <c r="E67" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G67" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J67" t="s">
         <v>75</v>
@@ -9510,14 +9503,14 @@
     </row>
     <row r="68" spans="5:11">
       <c r="E68" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G68" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J68" t="s">
         <v>75</v>
@@ -9528,14 +9521,14 @@
     </row>
     <row r="69" spans="5:11">
       <c r="E69" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G69" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J69" t="s">
         <v>75</v>
@@ -9546,14 +9539,14 @@
     </row>
     <row r="70" spans="5:11">
       <c r="E70" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G70" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J70" t="s">
         <v>75</v>
@@ -9564,14 +9557,14 @@
     </row>
     <row r="71" spans="5:11">
       <c r="E71" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G71" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J71" t="s">
         <v>75</v>
@@ -9582,14 +9575,14 @@
     </row>
     <row r="72" spans="5:11">
       <c r="E72" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G72" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J72" t="s">
         <v>75</v>
@@ -9600,14 +9593,14 @@
     </row>
     <row r="73" spans="5:11">
       <c r="E73" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G73" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J73" t="s">
         <v>75</v>
@@ -9618,14 +9611,14 @@
     </row>
     <row r="74" spans="5:11">
       <c r="E74" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G74" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J74" t="s">
         <v>75</v>
@@ -9636,14 +9629,14 @@
     </row>
     <row r="75" spans="5:11">
       <c r="E75" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G75" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J75" t="s">
         <v>75</v>
@@ -9654,14 +9647,14 @@
     </row>
     <row r="76" spans="5:11">
       <c r="E76" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G76" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J76" t="s">
         <v>75</v>
@@ -9672,14 +9665,14 @@
     </row>
     <row r="77" spans="5:11">
       <c r="E77" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G77" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J77" t="s">
         <v>75</v>
@@ -9690,14 +9683,14 @@
     </row>
     <row r="78" spans="5:11">
       <c r="E78" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G78" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J78" t="s">
         <v>75</v>
@@ -9708,14 +9701,14 @@
     </row>
     <row r="79" spans="5:11">
       <c r="E79" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G79" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J79" t="s">
         <v>75</v>
@@ -9726,14 +9719,14 @@
     </row>
     <row r="80" spans="5:11">
       <c r="E80" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F80" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J80" t="s">
         <v>75</v>
@@ -9744,14 +9737,14 @@
     </row>
     <row r="81" spans="5:11">
       <c r="E81" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F81" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G81" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J81" t="s">
         <v>75</v>
@@ -9762,14 +9755,14 @@
     </row>
     <row r="82" spans="5:11">
       <c r="E82" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F82" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G82" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J82" t="s">
         <v>75</v>
@@ -9780,14 +9773,14 @@
     </row>
     <row r="83" spans="5:11">
       <c r="E83" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F83" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J83" t="s">
         <v>75</v>
@@ -9798,14 +9791,14 @@
     </row>
     <row r="84" spans="5:11">
       <c r="E84" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F84" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G84" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J84" t="s">
         <v>75</v>
@@ -9816,14 +9809,14 @@
     </row>
     <row r="85" spans="5:11">
       <c r="E85" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F85" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G85" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J85" t="s">
         <v>75</v>
@@ -9834,14 +9827,14 @@
     </row>
     <row r="86" spans="5:11">
       <c r="E86" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F86" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G86" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J86" t="s">
         <v>75</v>
@@ -9852,14 +9845,14 @@
     </row>
     <row r="87" spans="5:11">
       <c r="E87" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F87" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G87" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J87" t="s">
         <v>75</v>
@@ -9870,14 +9863,14 @@
     </row>
     <row r="88" spans="5:11">
       <c r="E88" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F88" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G88" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J88" t="s">
         <v>75</v>
@@ -9888,14 +9881,14 @@
     </row>
     <row r="89" spans="5:11">
       <c r="E89" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F89" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G89" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J89" t="s">
         <v>75</v>
@@ -9906,14 +9899,14 @@
     </row>
     <row r="90" spans="5:11">
       <c r="E90" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F90" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G90" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J90" t="s">
         <v>75</v>
@@ -9924,14 +9917,14 @@
     </row>
     <row r="91" spans="5:11">
       <c r="E91" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F91" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G91" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J91" t="s">
         <v>75</v>
@@ -9942,14 +9935,14 @@
     </row>
     <row r="92" spans="5:11">
       <c r="E92" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F92" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G92" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J92" t="s">
         <v>75</v>
@@ -9960,14 +9953,14 @@
     </row>
     <row r="93" spans="5:11">
       <c r="E93" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F93" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G93" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J93" t="s">
         <v>75</v>
@@ -9978,14 +9971,14 @@
     </row>
     <row r="94" spans="5:11">
       <c r="E94" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G94" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J94" t="s">
         <v>75</v>
@@ -9996,14 +9989,14 @@
     </row>
     <row r="95" spans="5:11">
       <c r="E95" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G95" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J95" t="s">
         <v>75</v>
@@ -10014,14 +10007,14 @@
     </row>
     <row r="96" spans="5:11">
       <c r="E96" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G96" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J96" t="s">
         <v>75</v>
@@ -10032,14 +10025,14 @@
     </row>
     <row r="97" spans="5:11">
       <c r="E97" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G97" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J97" t="s">
         <v>75</v>
@@ -10050,14 +10043,14 @@
     </row>
     <row r="98" spans="5:11">
       <c r="E98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G98" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J98" t="s">
         <v>75</v>
@@ -10068,14 +10061,14 @@
     </row>
     <row r="99" spans="5:11">
       <c r="E99" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G99" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J99" t="s">
         <v>75</v>
@@ -10086,14 +10079,14 @@
     </row>
     <row r="100" spans="5:11">
       <c r="E100" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G100" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J100" t="s">
         <v>75</v>
@@ -10104,14 +10097,14 @@
     </row>
     <row r="101" spans="5:11">
       <c r="E101" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G101" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J101" t="s">
         <v>75</v>
@@ -10122,14 +10115,14 @@
     </row>
     <row r="102" spans="5:11">
       <c r="E102" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G102" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J102" t="s">
         <v>75</v>
@@ -10140,14 +10133,14 @@
     </row>
     <row r="103" spans="5:11">
       <c r="E103" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G103" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J103" t="s">
         <v>75</v>
@@ -10158,14 +10151,14 @@
     </row>
     <row r="104" spans="5:11">
       <c r="E104" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G104" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J104" t="s">
         <v>75</v>
@@ -10176,14 +10169,14 @@
     </row>
     <row r="105" spans="5:11">
       <c r="E105" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G105" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J105" t="s">
         <v>75</v>
@@ -10194,14 +10187,14 @@
     </row>
     <row r="106" spans="5:11">
       <c r="E106" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F106" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J106" t="s">
         <v>75</v>
@@ -10212,14 +10205,14 @@
     </row>
     <row r="107" spans="5:11">
       <c r="E107" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G107" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J107" t="s">
         <v>75</v>
@@ -10230,14 +10223,14 @@
     </row>
     <row r="108" spans="5:11">
       <c r="E108" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F108" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G108" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J108" t="s">
         <v>75</v>
@@ -10248,14 +10241,14 @@
     </row>
     <row r="109" spans="5:11">
       <c r="E109" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F109" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G109" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J109" t="s">
         <v>75</v>
@@ -10266,14 +10259,14 @@
     </row>
     <row r="110" spans="5:11">
       <c r="E110" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F110" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G110" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J110" t="s">
         <v>75</v>
@@ -10284,14 +10277,14 @@
     </row>
     <row r="111" spans="5:11">
       <c r="E111" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G111" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J111" t="s">
         <v>75</v>
@@ -10302,14 +10295,14 @@
     </row>
     <row r="112" spans="5:11">
       <c r="E112" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G112" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J112" t="s">
         <v>75</v>
@@ -10320,14 +10313,14 @@
     </row>
     <row r="113" spans="5:11">
       <c r="E113" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F113" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G113" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J113" t="s">
         <v>75</v>
@@ -10338,14 +10331,14 @@
     </row>
     <row r="114" spans="5:11">
       <c r="E114" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F114" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G114" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J114" t="s">
         <v>75</v>
@@ -10356,14 +10349,14 @@
     </row>
     <row r="115" spans="5:11">
       <c r="E115" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F115" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G115" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J115" t="s">
         <v>75</v>
@@ -10374,14 +10367,14 @@
     </row>
     <row r="116" spans="5:11">
       <c r="E116" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F116" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G116" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J116" t="s">
         <v>75</v>
@@ -10392,14 +10385,14 @@
     </row>
     <row r="117" spans="5:11">
       <c r="E117" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F117" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G117" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J117" t="s">
         <v>75</v>
@@ -10410,14 +10403,14 @@
     </row>
     <row r="118" spans="5:11">
       <c r="E118" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F118" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G118" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J118" t="s">
         <v>75</v>
@@ -10428,14 +10421,14 @@
     </row>
     <row r="119" spans="5:11">
       <c r="E119" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G119" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J119" t="s">
         <v>75</v>
@@ -10446,14 +10439,14 @@
     </row>
     <row r="120" spans="5:11">
       <c r="E120" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G120" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J120" t="s">
         <v>75</v>
@@ -10464,14 +10457,14 @@
     </row>
     <row r="121" spans="5:11">
       <c r="E121" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F121" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G121" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J121" t="s">
         <v>75</v>
@@ -10482,14 +10475,14 @@
     </row>
     <row r="122" spans="5:11">
       <c r="E122" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F122" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G122" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J122" t="s">
         <v>75</v>
@@ -10500,14 +10493,14 @@
     </row>
     <row r="123" spans="5:11">
       <c r="E123" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F123" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G123" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J123" t="s">
         <v>75</v>
@@ -10518,14 +10511,14 @@
     </row>
     <row r="124" spans="5:11">
       <c r="E124" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F124" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G124" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J124" t="s">
         <v>75</v>
@@ -10536,14 +10529,14 @@
     </row>
     <row r="125" spans="5:11">
       <c r="E125" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F125" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G125" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J125" t="s">
         <v>75</v>
@@ -10554,14 +10547,14 @@
     </row>
     <row r="126" spans="5:11">
       <c r="E126" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F126" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G126" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J126" t="s">
         <v>75</v>
@@ -10572,14 +10565,14 @@
     </row>
     <row r="127" spans="5:11">
       <c r="E127" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F127" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G127" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J127" t="s">
         <v>75</v>
@@ -10590,14 +10583,14 @@
     </row>
     <row r="128" spans="5:11">
       <c r="E128" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F128" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G128" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J128" t="s">
         <v>75</v>
@@ -10608,14 +10601,14 @@
     </row>
     <row r="129" spans="5:11">
       <c r="E129" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F129" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G129" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J129" t="s">
         <v>75</v>
@@ -10626,14 +10619,14 @@
     </row>
     <row r="130" spans="5:11">
       <c r="E130" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F130" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G130" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J130" t="s">
         <v>75</v>
@@ -10644,14 +10637,14 @@
     </row>
     <row r="131" spans="5:11">
       <c r="E131" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F131" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G131" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J131" t="s">
         <v>75</v>
@@ -10662,14 +10655,14 @@
     </row>
     <row r="132" spans="5:11">
       <c r="E132" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F132" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G132" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J132" t="s">
         <v>75</v>
@@ -10680,14 +10673,14 @@
     </row>
     <row r="133" spans="5:11">
       <c r="E133" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F133" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G133" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J133" t="s">
         <v>75</v>
@@ -10698,14 +10691,14 @@
     </row>
     <row r="134" spans="5:11">
       <c r="E134" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F134" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G134" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J134" t="s">
         <v>75</v>
@@ -10716,14 +10709,14 @@
     </row>
     <row r="135" spans="5:11">
       <c r="E135" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F135" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G135" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J135" t="s">
         <v>75</v>
@@ -10734,14 +10727,14 @@
     </row>
     <row r="136" spans="5:11">
       <c r="E136" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F136" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G136" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J136" t="s">
         <v>75</v>
@@ -10752,14 +10745,14 @@
     </row>
     <row r="137" spans="5:11">
       <c r="E137" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F137" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G137" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J137" t="s">
         <v>75</v>
@@ -10770,14 +10763,14 @@
     </row>
     <row r="138" spans="5:11">
       <c r="E138" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F138" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G138" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J138" t="s">
         <v>75</v>
@@ -10788,14 +10781,14 @@
     </row>
     <row r="139" spans="5:11">
       <c r="E139" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F139" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G139" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J139" t="s">
         <v>75</v>
@@ -10806,14 +10799,14 @@
     </row>
     <row r="140" spans="5:11">
       <c r="E140" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F140" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G140" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J140" t="s">
         <v>75</v>
@@ -10824,14 +10817,14 @@
     </row>
     <row r="141" spans="5:11">
       <c r="E141" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F141" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G141" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J141" t="s">
         <v>75</v>
@@ -10842,14 +10835,14 @@
     </row>
     <row r="142" spans="5:11">
       <c r="E142" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F142" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G142" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J142" t="s">
         <v>75</v>
@@ -10860,14 +10853,14 @@
     </row>
     <row r="143" spans="5:11">
       <c r="E143" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F143" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G143" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J143" t="s">
         <v>75</v>
@@ -10878,14 +10871,14 @@
     </row>
     <row r="144" spans="5:11">
       <c r="E144" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F144" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G144" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J144" t="s">
         <v>75</v>
@@ -10896,14 +10889,14 @@
     </row>
     <row r="145" spans="5:11">
       <c r="E145" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F145" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-64</v>
       </c>
       <c r="G145" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J145" t="s">
         <v>75</v>
@@ -10914,14 +10907,14 @@
     </row>
     <row r="146" spans="5:11">
       <c r="E146" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F146" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-62</v>
       </c>
       <c r="G146" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J146" t="s">
         <v>75</v>
@@ -10932,14 +10925,14 @@
     </row>
     <row r="147" spans="5:11">
       <c r="E147" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F147" t="str">
         <f>消息模板!$E$22</f>
         <v>hmsg_message_template-52</v>
       </c>
       <c r="G147" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J147" t="s">
         <v>75</v>
@@ -10950,14 +10943,14 @@
     </row>
     <row r="148" spans="5:11">
       <c r="E148" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F148" t="str">
         <f>消息模板!$E$20</f>
         <v>hmsg_message_template-50</v>
       </c>
       <c r="G148" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J148" t="s">
         <v>75</v>
@@ -10968,14 +10961,14 @@
     </row>
     <row r="149" spans="5:11">
       <c r="E149" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F149" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-48</v>
       </c>
       <c r="G149" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J149" t="s">
         <v>75</v>
@@ -10986,14 +10979,14 @@
     </row>
     <row r="150" spans="5:11">
       <c r="E150" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F150" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-47</v>
       </c>
       <c r="G150" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J150" t="s">
         <v>75</v>
@@ -11004,14 +10997,14 @@
     </row>
     <row r="151" spans="5:11">
       <c r="E151" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F151" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-60</v>
       </c>
       <c r="G151" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J151" t="s">
         <v>75</v>
@@ -11022,14 +11015,14 @@
     </row>
     <row r="152" spans="5:11">
       <c r="E152" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F152" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-59</v>
       </c>
       <c r="G152" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J152" t="s">
         <v>75</v>
@@ -11040,14 +11033,14 @@
     </row>
     <row r="153" spans="5:11">
       <c r="E153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F153" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G153" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J153" t="s">
         <v>75</v>
@@ -11058,14 +11051,14 @@
     </row>
     <row r="154" spans="5:11">
       <c r="E154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F154" t="str">
         <f>消息模板!$E$36</f>
         <v>hmsg_message_template-107</v>
       </c>
       <c r="G154" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J154" t="s">
         <v>75</v>
@@ -11076,14 +11069,14 @@
     </row>
     <row r="155" spans="5:11">
       <c r="E155" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F155" t="str">
         <f>消息模板!$E$30</f>
         <v>hmsg_message_template-65</v>
       </c>
       <c r="G155" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J155" t="s">
         <v>75</v>
@@ -11094,14 +11087,14 @@
     </row>
     <row r="156" spans="5:11">
       <c r="E156" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F156" t="str">
         <f>消息模板!$E$30</f>
         <v>hmsg_message_template-65</v>
       </c>
       <c r="G156" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J156" t="s">
         <v>75</v>
@@ -11112,14 +11105,14 @@
     </row>
     <row r="157" spans="5:11">
       <c r="E157" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F157" t="str">
         <f>消息模板!$E$50</f>
         <v>hmsg_message_template-153</v>
       </c>
       <c r="G157" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J157" t="s">
         <v>75</v>
@@ -11130,14 +11123,14 @@
     </row>
     <row r="158" spans="5:11">
       <c r="E158" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F158" t="str">
         <f>消息模板!$E$50</f>
         <v>hmsg_message_template-153</v>
       </c>
       <c r="G158" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J158" t="s">
         <v>75</v>
@@ -11148,14 +11141,14 @@
     </row>
     <row r="159" spans="5:11">
       <c r="E159" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F159" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G159" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J159" t="s">
         <v>75</v>
@@ -11166,14 +11159,14 @@
     </row>
     <row r="160" spans="5:11">
       <c r="E160" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F160" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G160" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J160" t="s">
         <v>75</v>
@@ -11184,14 +11177,14 @@
     </row>
     <row r="161" spans="5:11">
       <c r="E161" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F161" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G161" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J161" t="s">
         <v>75</v>
@@ -11202,14 +11195,14 @@
     </row>
     <row r="162" spans="5:11">
       <c r="E162" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F162" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G162" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J162" t="s">
         <v>75</v>
@@ -11220,14 +11213,14 @@
     </row>
     <row r="163" spans="5:11">
       <c r="E163" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F163" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G163" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J163" t="s">
         <v>75</v>
@@ -11238,14 +11231,14 @@
     </row>
     <row r="164" spans="5:11">
       <c r="E164" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F164" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G164" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J164" t="s">
         <v>75</v>
@@ -11256,14 +11249,14 @@
     </row>
     <row r="165" spans="5:11">
       <c r="E165" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F165" t="str">
         <f>消息模板!$E$33</f>
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G165" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J165" t="s">
         <v>75</v>
@@ -11274,14 +11267,14 @@
     </row>
     <row r="166" spans="5:11">
       <c r="E166" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F166" t="str">
         <f>消息模板!$E$33</f>
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G166" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J166" t="s">
         <v>75</v>
@@ -11292,14 +11285,14 @@
     </row>
     <row r="167" spans="5:11">
       <c r="E167" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F167" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G167" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J167" t="s">
         <v>75</v>
@@ -11310,14 +11303,14 @@
     </row>
     <row r="168" spans="5:11">
       <c r="E168" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F168" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G168" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J168" t="s">
         <v>75</v>
@@ -11328,14 +11321,14 @@
     </row>
     <row r="169" spans="5:11">
       <c r="E169" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F169" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G169" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J169" t="s">
         <v>75</v>
@@ -11346,14 +11339,14 @@
     </row>
     <row r="170" spans="5:11">
       <c r="E170" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F170" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G170" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J170" t="s">
         <v>75</v>
@@ -11364,14 +11357,14 @@
     </row>
     <row r="171" spans="5:11">
       <c r="E171" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F171" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G171" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J171" t="s">
         <v>75</v>
@@ -11382,14 +11375,14 @@
     </row>
     <row r="172" spans="5:11">
       <c r="E172" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F172" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G172" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J172" t="s">
         <v>75</v>
@@ -11400,14 +11393,14 @@
     </row>
     <row r="173" spans="5:11">
       <c r="E173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F173" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G173" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J173" t="s">
         <v>75</v>
@@ -11418,14 +11411,14 @@
     </row>
     <row r="174" spans="5:11">
       <c r="E174" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F174" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G174" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J174" t="s">
         <v>75</v>
@@ -11436,14 +11429,14 @@
     </row>
     <row r="175" spans="5:11">
       <c r="E175" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F175" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G175" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J175" t="s">
         <v>75</v>
@@ -11454,14 +11447,14 @@
     </row>
     <row r="176" spans="5:11">
       <c r="E176" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F176" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G176" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J176" t="s">
         <v>75</v>
@@ -11472,14 +11465,14 @@
     </row>
     <row r="177" spans="5:11">
       <c r="E177" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F177" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G177" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J177" t="s">
         <v>75</v>
@@ -11490,14 +11483,14 @@
     </row>
     <row r="178" spans="5:11">
       <c r="E178" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F178" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G178" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J178" t="s">
         <v>75</v>
@@ -11508,14 +11501,14 @@
     </row>
     <row r="179" spans="5:11">
       <c r="E179" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F179" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G179" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J179" t="s">
         <v>75</v>
@@ -11526,14 +11519,14 @@
     </row>
     <row r="180" spans="5:11">
       <c r="E180" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F180" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G180" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J180" t="s">
         <v>75</v>
@@ -11544,14 +11537,14 @@
     </row>
     <row r="181" spans="5:11">
       <c r="E181" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F181" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G181" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J181" t="s">
         <v>75</v>
@@ -11562,14 +11555,14 @@
     </row>
     <row r="182" spans="5:11">
       <c r="E182" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F182" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G182" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J182" t="s">
         <v>75</v>
@@ -11580,14 +11573,14 @@
     </row>
     <row r="183" spans="5:11">
       <c r="E183" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F183" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G183" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J183" t="s">
         <v>75</v>
@@ -11598,14 +11591,14 @@
     </row>
     <row r="184" spans="5:11">
       <c r="E184" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F184" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G184" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J184" t="s">
         <v>75</v>
@@ -11616,7 +11609,7 @@
     </row>
     <row r="185" spans="5:11">
       <c r="E185" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F185" t="str">
         <f>消息模板!$E$31</f>
@@ -11634,14 +11627,14 @@
     </row>
     <row r="186" spans="5:11">
       <c r="E186" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F186" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G186" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J186" t="s">
         <v>75</v>
@@ -11652,14 +11645,14 @@
     </row>
     <row r="187" spans="5:11">
       <c r="E187" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F187" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G187" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J187" t="s">
         <v>75</v>
@@ -11670,14 +11663,14 @@
     </row>
     <row r="188" spans="5:11">
       <c r="E188" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F188" t="str">
         <f>消息模板!$E$48</f>
         <v>hmsg_message_template-151</v>
       </c>
       <c r="G188" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J188" t="s">
         <v>75</v>
@@ -11688,14 +11681,14 @@
     </row>
     <row r="189" spans="5:11">
       <c r="E189" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F189" t="str">
         <f>消息模板!$E$39</f>
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G189" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J189" t="s">
         <v>75</v>
@@ -11706,14 +11699,14 @@
     </row>
     <row r="190" spans="5:11">
       <c r="E190" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F190" t="str">
         <f>消息模板!$E$39</f>
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G190" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J190" t="s">
         <v>75</v>
@@ -11724,14 +11717,14 @@
     </row>
     <row r="191" spans="5:11">
       <c r="E191" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F191" t="str">
         <f>消息模板!$E$41</f>
         <v>hmsg_message_template-139</v>
       </c>
       <c r="G191" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J191" t="s">
         <v>75</v>
@@ -11742,14 +11735,14 @@
     </row>
     <row r="192" spans="5:11">
       <c r="E192" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F192" t="str">
         <f>E9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G192" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -11760,14 +11753,14 @@
     </row>
     <row r="193" spans="5:11">
       <c r="E193" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F193" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G193" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J193" t="s">
         <v>75</v>
@@ -11778,14 +11771,14 @@
     </row>
     <row r="194" spans="5:11">
       <c r="E194" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F194" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G194" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J194" t="s">
         <v>75</v>
@@ -11796,14 +11789,14 @@
     </row>
     <row r="195" spans="5:11">
       <c r="E195" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F195" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G195" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J195" t="s">
         <v>75</v>
@@ -11814,14 +11807,14 @@
     </row>
     <row r="196" spans="5:11">
       <c r="E196" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F196" t="str">
         <f>E38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G196" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -11832,14 +11825,14 @@
     </row>
     <row r="197" spans="5:11">
       <c r="E197" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F197" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G197" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J197" t="s">
         <v>75</v>
@@ -11850,14 +11843,14 @@
     </row>
     <row r="198" spans="5:11">
       <c r="E198" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F198" t="str">
         <f>消息模板!$E$40</f>
         <v>hmsg_message_template-138</v>
       </c>
       <c r="G198" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J198" t="s">
         <v>75</v>
@@ -11868,14 +11861,14 @@
     </row>
     <row r="199" spans="5:11">
       <c r="E199" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F199" t="str">
         <f>消息模板!$E$47</f>
         <v>hmsg_message_template-150</v>
       </c>
       <c r="G199" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J199" t="s">
         <v>75</v>
@@ -11886,14 +11879,14 @@
     </row>
     <row r="200" spans="5:11">
       <c r="E200" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F200" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G200" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J200" t="s">
         <v>75</v>
@@ -11904,14 +11897,14 @@
     </row>
     <row r="201" spans="5:11">
       <c r="E201" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F201" t="str">
         <f>消息模板!$E$51</f>
         <v>hmsg_message_template-154</v>
       </c>
-      <c r="G201" s="15" t="s">
-        <v>342</v>
+      <c r="G201" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="J201" t="s">
         <v>75</v>
@@ -11922,14 +11915,14 @@
     </row>
     <row r="202" spans="5:11">
       <c r="E202" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F202" t="str">
         <f>消息模板!$E$51</f>
         <v>hmsg_message_template-154</v>
       </c>
-      <c r="G202" s="15" t="s">
-        <v>343</v>
+      <c r="G202" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="J202" t="s">
         <v>75</v>
@@ -11940,14 +11933,14 @@
     </row>
     <row r="203" spans="5:11">
       <c r="E203" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F203" t="str">
         <f>消息模板!$E$52</f>
         <v>hmsg_message_template-155</v>
       </c>
-      <c r="G203" s="15" t="s">
-        <v>342</v>
+      <c r="G203" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="J203" t="s">
         <v>75</v>
@@ -11958,14 +11951,14 @@
     </row>
     <row r="204" spans="5:11">
       <c r="E204" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F204" t="str">
         <f>消息模板!$E$52</f>
         <v>hmsg_message_template-155</v>
       </c>
-      <c r="G204" s="15" t="s">
-        <v>343</v>
+      <c r="G204" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="J204" t="s">
         <v>75</v>
@@ -11976,14 +11969,14 @@
     </row>
     <row r="205" spans="5:11">
       <c r="E205" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F205" t="str">
         <f>消息模板!$E$53</f>
         <v>hmsg_message_template-156</v>
       </c>
-      <c r="G205" s="15" t="s">
-        <v>343</v>
+      <c r="G205" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="J205" t="s">
         <v>75</v>
@@ -11994,14 +11987,14 @@
     </row>
     <row r="206" spans="5:11">
       <c r="E206" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F206" t="str">
         <f>E54</f>
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G206" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -12022,7 +12015,7 @@
   <sheetPr/>
   <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H64" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C64" workbookViewId="0">
       <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
@@ -12066,7 +12059,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -12078,13 +12071,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>88</v>
@@ -12093,33 +12086,33 @@
         <v>89</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -12128,33 +12121,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K8" t="s">
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N8" t="s">
         <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -12163,33 +12156,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K9" t="s">
         <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N9" t="s">
         <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -12198,33 +12191,33 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I10" t="s">
         <v>223</v>
       </c>
       <c r="J10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K10" t="s">
         <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N10" t="s">
         <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -12233,33 +12226,33 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I11" t="s">
         <v>196</v>
       </c>
       <c r="J11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K11" t="s">
         <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N11" t="s">
         <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -12268,33 +12261,33 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I12" t="s">
         <v>174</v>
       </c>
       <c r="J12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N12" t="s">
         <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -12303,33 +12296,33 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K13" t="s">
         <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N13" t="s">
         <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -12338,33 +12331,33 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K14" t="s">
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N14" t="s">
         <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -12373,33 +12366,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K15" t="s">
         <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N15" t="s">
         <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -12408,33 +12401,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K16" t="s">
         <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N16" t="s">
         <v>74</v>
       </c>
       <c r="O16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
@@ -12443,33 +12436,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K17" t="s">
         <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N17" t="s">
         <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -12478,33 +12471,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I18" t="s">
         <v>238</v>
       </c>
       <c r="J18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K18" t="s">
         <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N18" t="s">
         <v>75</v>
       </c>
       <c r="O18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -12513,33 +12506,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N19" t="s">
         <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
@@ -12548,33 +12541,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K20" t="s">
         <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N20" t="s">
         <v>75</v>
       </c>
       <c r="O20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -12583,33 +12576,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I21" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J21" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K21" t="s">
         <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N21" t="s">
         <v>74</v>
       </c>
       <c r="O21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -12618,33 +12611,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K22" t="s">
         <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N22" t="s">
         <v>75</v>
       </c>
       <c r="O22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -12653,33 +12646,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K23" t="s">
         <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N23" t="s">
         <v>75</v>
       </c>
       <c r="O23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -12688,33 +12681,33 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M24" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N24" t="s">
         <v>75</v>
       </c>
       <c r="O24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -12723,33 +12716,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I25" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J25" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K25" t="s">
         <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M25" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N25" t="s">
         <v>75</v>
       </c>
       <c r="O25" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
@@ -12758,33 +12751,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I26" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M26" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N26" t="s">
         <v>74</v>
       </c>
       <c r="O26" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -12793,33 +12786,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K27" t="s">
         <v>74</v>
       </c>
       <c r="L27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N27" t="s">
         <v>74</v>
       </c>
       <c r="O27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -12828,33 +12821,33 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I28" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K28" t="s">
         <v>74</v>
       </c>
       <c r="L28" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N28" t="s">
         <v>74</v>
       </c>
       <c r="O28" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="5:15">
       <c r="E29" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
@@ -12863,33 +12856,33 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J29" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K29" t="s">
         <v>74</v>
       </c>
       <c r="L29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M29" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N29" t="s">
         <v>74</v>
       </c>
       <c r="O29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
@@ -12898,33 +12891,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K30" t="s">
         <v>74</v>
       </c>
       <c r="L30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N30" t="s">
         <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -12933,33 +12926,33 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K31" t="s">
         <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M31" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N31" t="s">
         <v>74</v>
       </c>
       <c r="O31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -12968,33 +12961,33 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K32" s="9">
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>395</v>
+        <v>360</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="5:15">
       <c r="E33" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F33" s="10">
         <v>0</v>
@@ -13003,19 +12996,19 @@
         <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="I33" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="J33" s="17" t="s">
-        <v>358</v>
+      <c r="I33" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="K33" s="10">
         <v>1</v>
       </c>
-      <c r="L33" s="18" t="s">
-        <v>359</v>
+      <c r="L33" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>282</v>
@@ -13024,12 +13017,12 @@
         <v>1</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="5:15">
       <c r="E34" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
@@ -13038,19 +13031,19 @@
         <v>0</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="I34" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="J34" s="17" t="s">
-        <v>358</v>
+      <c r="I34" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="K34" s="10">
         <v>1</v>
       </c>
-      <c r="L34" s="18" t="s">
-        <v>359</v>
+      <c r="L34" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>282</v>
@@ -13059,12 +13052,12 @@
         <v>1</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="5:15">
       <c r="E35" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
@@ -13073,19 +13066,19 @@
         <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="I35" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="J35" s="17" t="s">
-        <v>358</v>
+      <c r="I35" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="K35" s="10">
         <v>1</v>
       </c>
-      <c r="L35" s="18" t="s">
-        <v>359</v>
+      <c r="L35" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>282</v>
@@ -13094,12 +13087,12 @@
         <v>1</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="5:15">
       <c r="E36" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F36" s="10">
         <v>0</v>
@@ -13108,19 +13101,19 @@
         <v>0</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="I36" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="J36" s="17" t="s">
-        <v>358</v>
+      <c r="I36" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="K36" s="10">
         <v>1</v>
       </c>
-      <c r="L36" s="18" t="s">
-        <v>359</v>
+      <c r="L36" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>295</v>
@@ -13129,7 +13122,7 @@
         <v>1</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -13140,31 +13133,31 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>108</v>
       </c>
       <c r="I38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J38" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K38" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L38" t="s">
         <v>84</v>
@@ -13175,14 +13168,14 @@
     </row>
     <row r="39" spans="5:13">
       <c r="E39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F39" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G39" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H39" t="s">
         <v>201</v>
@@ -13203,14 +13196,14 @@
     </row>
     <row r="40" spans="5:13">
       <c r="E40" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F40" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G40" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H40" t="s">
         <v>134</v>
@@ -13231,14 +13224,14 @@
     </row>
     <row r="41" spans="5:13">
       <c r="E41" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F41" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G41" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H41" t="s">
         <v>138</v>
@@ -13252,14 +13245,14 @@
     </row>
     <row r="42" spans="5:13">
       <c r="E42" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F42" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G42" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H42" t="s">
         <v>222</v>
@@ -13273,14 +13266,14 @@
     </row>
     <row r="43" spans="5:13">
       <c r="E43" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F43" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G43" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H43" t="s">
         <v>195</v>
@@ -13301,14 +13294,14 @@
     </row>
     <row r="44" spans="5:13">
       <c r="E44" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F44" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G44" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H44" t="s">
         <v>199</v>
@@ -13322,14 +13315,14 @@
     </row>
     <row r="45" spans="5:13">
       <c r="E45" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G45" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H45" t="s">
         <v>191</v>
@@ -13343,14 +13336,14 @@
     </row>
     <row r="46" spans="5:13">
       <c r="E46" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F46" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G46" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H46" t="s">
         <v>188</v>
@@ -13364,14 +13357,14 @@
     </row>
     <row r="47" spans="5:13">
       <c r="E47" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F47" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G47" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H47" t="s">
         <v>173</v>
@@ -13392,14 +13385,14 @@
     </row>
     <row r="48" spans="5:13">
       <c r="E48" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F48" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G48" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H48" t="s">
         <v>177</v>
@@ -13413,14 +13406,14 @@
     </row>
     <row r="49" spans="5:13">
       <c r="E49" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G49" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H49" t="s">
         <v>169</v>
@@ -13434,14 +13427,14 @@
     </row>
     <row r="50" spans="5:13">
       <c r="E50" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F50" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G50" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H50" t="s">
         <v>165</v>
@@ -13455,14 +13448,14 @@
     </row>
     <row r="51" spans="5:13">
       <c r="E51" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F51" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G51" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H51" t="s">
         <v>186</v>
@@ -13476,14 +13469,14 @@
     </row>
     <row r="52" spans="5:13">
       <c r="E52" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F52" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G52" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H52" t="s">
         <v>182</v>
@@ -13497,14 +13490,14 @@
     </row>
     <row r="53" spans="5:13">
       <c r="E53" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F53" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G53" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H53" t="s">
         <v>179</v>
@@ -13518,14 +13511,14 @@
     </row>
     <row r="54" spans="5:13">
       <c r="E54" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F54" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G54" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H54" t="s">
         <v>163</v>
@@ -13539,14 +13532,14 @@
     </row>
     <row r="55" spans="5:13">
       <c r="E55" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F55" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G55" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H55" t="s">
         <v>159</v>
@@ -13560,14 +13553,14 @@
     </row>
     <row r="56" spans="5:13">
       <c r="E56" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F56" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G56" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H56" t="s">
         <v>155</v>
@@ -13581,14 +13574,14 @@
     </row>
     <row r="57" spans="5:13">
       <c r="E57" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F57" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G57" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H57" t="s">
         <v>220</v>
@@ -13602,14 +13595,14 @@
     </row>
     <row r="58" spans="5:13">
       <c r="E58" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F58" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G58" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H58" t="s">
         <v>217</v>
@@ -13623,14 +13616,14 @@
     </row>
     <row r="59" spans="5:13">
       <c r="E59" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F59" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G59" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H59" t="s">
         <v>213</v>
@@ -13644,14 +13637,14 @@
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G60" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H60" t="s">
         <v>209</v>
@@ -13665,14 +13658,14 @@
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G61" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H61" t="s">
         <v>237</v>
@@ -13693,14 +13686,14 @@
     </row>
     <row r="62" spans="5:13">
       <c r="E62" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F62" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G62" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H62" t="s">
         <v>241</v>
@@ -13714,14 +13707,14 @@
     </row>
     <row r="63" spans="5:13">
       <c r="E63" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F63" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G63" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H63" t="s">
         <v>254</v>
@@ -13735,14 +13728,14 @@
     </row>
     <row r="64" spans="5:13">
       <c r="E64" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F64" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-35</v>
       </c>
       <c r="G64" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H64" t="s">
         <v>205</v>
@@ -13763,17 +13756,17 @@
     </row>
     <row r="65" spans="5:13">
       <c r="E65" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F65" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G65" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H65" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I65" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -13791,17 +13784,17 @@
     </row>
     <row r="66" spans="5:13">
       <c r="E66" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F66" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G66" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H66" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L66" t="s">
         <v>75</v>
@@ -13812,17 +13805,17 @@
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G67" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H67" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L67" t="s">
         <v>75</v>
@@ -13833,17 +13826,17 @@
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G68" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H68" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L68" t="s">
         <v>75</v>
@@ -13854,14 +13847,14 @@
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G69" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H69" t="s">
         <v>127</v>
@@ -13882,14 +13875,14 @@
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F70" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G70" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H70" t="s">
         <v>131</v>
@@ -13903,14 +13896,14 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G71" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H71" t="s">
         <v>119</v>
@@ -13924,14 +13917,14 @@
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G72" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H72" t="s">
         <v>263</v>
@@ -13952,14 +13945,14 @@
     </row>
     <row r="73" spans="5:13">
       <c r="E73" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F73" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G73" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H73" t="s">
         <v>267</v>
@@ -13973,14 +13966,14 @@
     </row>
     <row r="74" spans="5:13">
       <c r="E74" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G74" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H74" t="s">
         <v>230</v>
@@ -14001,14 +13994,14 @@
     </row>
     <row r="75" spans="5:13">
       <c r="E75" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F75" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G75" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H75" t="s">
         <v>234</v>
@@ -14022,14 +14015,14 @@
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G76" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H76" t="s">
         <v>226</v>
@@ -14043,14 +14036,14 @@
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G77" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H77" t="s">
         <v>257</v>
@@ -14071,14 +14064,14 @@
     </row>
     <row r="78" spans="5:13">
       <c r="E78" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F78" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G78" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H78" t="s">
         <v>260</v>
@@ -14092,20 +14085,20 @@
     </row>
     <row r="79" spans="5:13">
       <c r="E79" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F79" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-63</v>
       </c>
       <c r="G79" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H79" t="s">
         <v>145</v>
       </c>
       <c r="L79" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M79" t="s">
         <v>74</v>
@@ -14113,20 +14106,20 @@
     </row>
     <row r="80" spans="5:13">
       <c r="E80" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F80" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G80" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H80" t="s">
         <v>151</v>
       </c>
       <c r="L80" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M80" t="s">
         <v>74</v>
@@ -14134,20 +14127,20 @@
     </row>
     <row r="81" spans="5:13">
       <c r="E81" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F81" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-70</v>
       </c>
       <c r="G81" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H81" t="s">
         <v>270</v>
       </c>
       <c r="L81" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M81" t="s">
         <v>74</v>
@@ -14155,20 +14148,20 @@
     </row>
     <row r="82" spans="5:13">
       <c r="E82" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F82" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G82" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H82" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L82" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M82" t="s">
         <v>74</v>
@@ -14176,14 +14169,14 @@
     </row>
     <row r="83" spans="5:13">
       <c r="E83" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F83" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-66</v>
       </c>
       <c r="G83" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H83" t="s">
         <v>250</v>
@@ -14197,14 +14190,14 @@
     </row>
     <row r="84" spans="5:13">
       <c r="E84" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" ref="F84" si="0">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
-      <c r="G84" s="15" t="s">
-        <v>477</v>
+      <c r="G84" s="7" t="s">
+        <v>478</v>
       </c>
       <c r="H84" t="s">
         <v>274</v>
@@ -14218,17 +14211,17 @@
     </row>
     <row r="85" spans="5:13">
       <c r="E85" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F85" t="str">
         <f>E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G85" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H85" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -14239,16 +14232,16 @@
     </row>
     <row r="86" spans="5:13">
       <c r="E86" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F86" t="str">
         <f>E33</f>
         <v>hmsg_template_server-97</v>
       </c>
-      <c r="G86" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="H86" s="15" t="s">
+      <c r="G86" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H86" s="7" t="s">
         <v>278</v>
       </c>
       <c r="L86">
@@ -14260,16 +14253,16 @@
     </row>
     <row r="87" spans="5:13">
       <c r="E87" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F87" t="str">
         <f>E34</f>
         <v>hmsg_template_server-98</v>
       </c>
-      <c r="G87" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="H87" s="15" t="s">
+      <c r="G87" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H87" s="7" t="s">
         <v>284</v>
       </c>
       <c r="L87">
@@ -14281,16 +14274,16 @@
     </row>
     <row r="88" spans="5:13">
       <c r="E88" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F88" t="str">
         <f>E35</f>
         <v>hmsg_template_server-99</v>
       </c>
-      <c r="G88" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="H88" s="15" t="s">
+      <c r="G88" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H88" s="7" t="s">
         <v>288</v>
       </c>
       <c r="L88">
@@ -14302,16 +14295,16 @@
     </row>
     <row r="89" spans="5:13">
       <c r="E89" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F89" t="str">
         <f>E36</f>
         <v>hmsg_template_server-100</v>
       </c>
-      <c r="G89" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="H89" s="15" t="s">
+      <c r="G89" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="H89" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I89" t="str">
@@ -14329,37 +14322,37 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="19">
+      <c r="A91" s="16">
         <v>44036</v>
       </c>
       <c r="B91" t="s">
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H91" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="92" spans="5:8">
       <c r="E92" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F92" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -14370,10 +14363,10 @@
     </row>
     <row r="93" spans="5:8">
       <c r="E93" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F93" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -14384,10 +14377,10 @@
     </row>
     <row r="94" spans="5:8">
       <c r="E94" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F94" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -14398,10 +14391,10 @@
     </row>
     <row r="95" spans="5:8">
       <c r="E95" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F95" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -14412,10 +14405,10 @@
     </row>
     <row r="96" spans="5:8">
       <c r="E96" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F96" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -14426,10 +14419,10 @@
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F97" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -14440,10 +14433,10 @@
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F98" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -14454,10 +14447,10 @@
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F99" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -14468,10 +14461,10 @@
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F100" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -14482,10 +14475,10 @@
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F101" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -14496,10 +14489,10 @@
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -14510,10 +14503,10 @@
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>547</v>
-      </c>
-      <c r="F103" s="20" t="s">
-        <v>404</v>
+        <v>548</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>405</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -14524,10 +14517,10 @@
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F104" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -14538,10 +14531,10 @@
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F105" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -14552,10 +14545,10 @@
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F106" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -14566,10 +14559,10 @@
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F107" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -14580,10 +14573,10 @@
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F108" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -14594,10 +14587,10 @@
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F109" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -14608,10 +14601,10 @@
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F110" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -14622,10 +14615,10 @@
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F111" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -14636,10 +14629,10 @@
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F112" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -14650,10 +14643,10 @@
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F113" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -14664,10 +14657,10 @@
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F114" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G114">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="561">
   <si>
     <r>
       <rPr>
@@ -4961,7 +4961,7 @@
     <t>Choerodon短信登录模板</t>
   </si>
   <si>
-    <t>&lt;p&gt;【Cheorodon猪齿鱼】您的验证码是 ${code}，1分钟内有效，请勿泄露。&lt;/p&gt;</t>
+    <t>&lt;p&gt;【Cheorodon猪齿鱼】您的验证码是 ${code}，${expireTime}分钟内有效，请勿泄露，请勿泄露。&lt;/p&gt;</t>
   </si>
   <si>
     <t>SMS-CAPTCHA-NOTICE</t>
@@ -5129,6 +5129,9 @@
   </si>
   <si>
     <t>instanceId</t>
+  </si>
+  <si>
+    <t>expireTime</t>
   </si>
   <si>
     <r>
@@ -5807,10 +5810,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -5908,6 +5911,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5918,6 +5943,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5937,31 +5969,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5975,32 +5992,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6012,11 +6008,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6035,16 +6037,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6138,6 +6141,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6150,7 +6213,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6162,13 +6291,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6186,139 +6321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6425,6 +6428,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6440,11 +6452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6469,21 +6487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6499,21 +6502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -6522,149 +6510,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7732,10 +7735,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q206"/>
+  <dimension ref="A1:Q207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="J49" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F173" workbookViewId="0">
+      <selection activeCell="K207" sqref="K207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -12000,6 +12003,24 @@
         <v>0</v>
       </c>
       <c r="K206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="5:11">
+      <c r="E207" t="s">
+        <v>304</v>
+      </c>
+      <c r="F207" t="str">
+        <f>E54</f>
+        <v>hmsg_message_template-157</v>
+      </c>
+      <c r="G207" t="s">
+        <v>345</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
         <v>0</v>
       </c>
     </row>
@@ -12059,7 +12080,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -12071,13 +12092,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>88</v>
@@ -12086,33 +12107,33 @@
         <v>89</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -12121,33 +12142,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K8" t="s">
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N8" t="s">
         <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -12156,33 +12177,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K9" t="s">
         <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N9" t="s">
         <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -12191,33 +12212,33 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I10" t="s">
         <v>223</v>
       </c>
       <c r="J10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K10" t="s">
         <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N10" t="s">
         <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -12226,33 +12247,33 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I11" t="s">
         <v>196</v>
       </c>
       <c r="J11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K11" t="s">
         <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N11" t="s">
         <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -12261,33 +12282,33 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I12" t="s">
         <v>174</v>
       </c>
       <c r="J12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N12" t="s">
         <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -12296,33 +12317,33 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K13" t="s">
         <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N13" t="s">
         <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -12331,33 +12352,33 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K14" t="s">
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N14" t="s">
         <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -12366,33 +12387,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K15" t="s">
         <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N15" t="s">
         <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -12401,33 +12422,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K16" t="s">
         <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N16" t="s">
         <v>74</v>
       </c>
       <c r="O16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
@@ -12436,33 +12457,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K17" t="s">
         <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N17" t="s">
         <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -12471,33 +12492,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I18" t="s">
         <v>238</v>
       </c>
       <c r="J18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K18" t="s">
         <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N18" t="s">
         <v>75</v>
       </c>
       <c r="O18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -12506,33 +12527,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I19" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N19" t="s">
         <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
@@ -12541,33 +12562,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K20" t="s">
         <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N20" t="s">
         <v>75</v>
       </c>
       <c r="O20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -12576,33 +12597,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K21" t="s">
         <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N21" t="s">
         <v>74</v>
       </c>
       <c r="O21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -12611,33 +12632,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J22" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K22" t="s">
         <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N22" t="s">
         <v>75</v>
       </c>
       <c r="O22" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -12646,33 +12667,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K23" t="s">
         <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N23" t="s">
         <v>75</v>
       </c>
       <c r="O23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -12681,33 +12702,33 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M24" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N24" t="s">
         <v>75</v>
       </c>
       <c r="O24" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -12716,33 +12737,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I25" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K25" t="s">
         <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N25" t="s">
         <v>75</v>
       </c>
       <c r="O25" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
@@ -12751,33 +12772,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I26" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J26" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M26" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N26" t="s">
         <v>74</v>
       </c>
       <c r="O26" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -12786,33 +12807,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K27" t="s">
         <v>74</v>
       </c>
       <c r="L27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N27" t="s">
         <v>74</v>
       </c>
       <c r="O27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -12821,33 +12842,33 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K28" t="s">
         <v>74</v>
       </c>
       <c r="L28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N28" t="s">
         <v>74</v>
       </c>
       <c r="O28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="5:15">
       <c r="E29" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
@@ -12856,33 +12877,33 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J29" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K29" t="s">
         <v>74</v>
       </c>
       <c r="L29" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M29" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N29" t="s">
         <v>74</v>
       </c>
       <c r="O29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
@@ -12891,33 +12912,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K30" t="s">
         <v>74</v>
       </c>
       <c r="L30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M30" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N30" t="s">
         <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -12926,33 +12947,33 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I31" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K31" t="s">
         <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N31" t="s">
         <v>74</v>
       </c>
       <c r="O31" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -12961,33 +12982,33 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K32" s="9">
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="5:15">
       <c r="E33" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F33" s="10">
         <v>0</v>
@@ -12996,19 +13017,19 @@
         <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K33" s="10">
         <v>1</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>282</v>
@@ -13017,12 +13038,12 @@
         <v>1</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="5:15">
       <c r="E34" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
@@ -13031,19 +13052,19 @@
         <v>0</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K34" s="10">
         <v>1</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>282</v>
@@ -13052,12 +13073,12 @@
         <v>1</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="5:15">
       <c r="E35" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
@@ -13066,19 +13087,19 @@
         <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K35" s="10">
         <v>1</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>282</v>
@@ -13087,12 +13108,12 @@
         <v>1</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="5:15">
       <c r="E36" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F36" s="10">
         <v>0</v>
@@ -13101,19 +13122,19 @@
         <v>0</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K36" s="10">
         <v>1</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>295</v>
@@ -13122,7 +13143,7 @@
         <v>1</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -13133,31 +13154,31 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>108</v>
       </c>
       <c r="I38" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J38" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K38" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L38" t="s">
         <v>84</v>
@@ -13168,14 +13189,14 @@
     </row>
     <row r="39" spans="5:13">
       <c r="E39" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F39" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G39" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H39" t="s">
         <v>201</v>
@@ -13196,14 +13217,14 @@
     </row>
     <row r="40" spans="5:13">
       <c r="E40" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F40" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G40" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H40" t="s">
         <v>134</v>
@@ -13224,14 +13245,14 @@
     </row>
     <row r="41" spans="5:13">
       <c r="E41" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F41" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G41" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H41" t="s">
         <v>138</v>
@@ -13245,14 +13266,14 @@
     </row>
     <row r="42" spans="5:13">
       <c r="E42" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F42" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G42" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H42" t="s">
         <v>222</v>
@@ -13266,14 +13287,14 @@
     </row>
     <row r="43" spans="5:13">
       <c r="E43" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F43" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G43" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H43" t="s">
         <v>195</v>
@@ -13294,14 +13315,14 @@
     </row>
     <row r="44" spans="5:13">
       <c r="E44" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F44" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G44" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H44" t="s">
         <v>199</v>
@@ -13315,14 +13336,14 @@
     </row>
     <row r="45" spans="5:13">
       <c r="E45" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G45" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H45" t="s">
         <v>191</v>
@@ -13336,14 +13357,14 @@
     </row>
     <row r="46" spans="5:13">
       <c r="E46" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F46" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G46" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H46" t="s">
         <v>188</v>
@@ -13357,14 +13378,14 @@
     </row>
     <row r="47" spans="5:13">
       <c r="E47" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F47" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G47" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H47" t="s">
         <v>173</v>
@@ -13385,14 +13406,14 @@
     </row>
     <row r="48" spans="5:13">
       <c r="E48" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F48" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G48" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H48" t="s">
         <v>177</v>
@@ -13406,14 +13427,14 @@
     </row>
     <row r="49" spans="5:13">
       <c r="E49" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G49" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H49" t="s">
         <v>169</v>
@@ -13427,14 +13448,14 @@
     </row>
     <row r="50" spans="5:13">
       <c r="E50" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F50" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G50" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H50" t="s">
         <v>165</v>
@@ -13448,14 +13469,14 @@
     </row>
     <row r="51" spans="5:13">
       <c r="E51" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F51" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G51" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H51" t="s">
         <v>186</v>
@@ -13469,14 +13490,14 @@
     </row>
     <row r="52" spans="5:13">
       <c r="E52" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F52" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G52" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H52" t="s">
         <v>182</v>
@@ -13490,14 +13511,14 @@
     </row>
     <row r="53" spans="5:13">
       <c r="E53" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F53" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G53" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H53" t="s">
         <v>179</v>
@@ -13511,14 +13532,14 @@
     </row>
     <row r="54" spans="5:13">
       <c r="E54" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F54" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G54" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H54" t="s">
         <v>163</v>
@@ -13532,14 +13553,14 @@
     </row>
     <row r="55" spans="5:13">
       <c r="E55" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F55" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G55" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H55" t="s">
         <v>159</v>
@@ -13553,14 +13574,14 @@
     </row>
     <row r="56" spans="5:13">
       <c r="E56" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F56" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G56" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H56" t="s">
         <v>155</v>
@@ -13574,14 +13595,14 @@
     </row>
     <row r="57" spans="5:13">
       <c r="E57" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F57" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G57" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H57" t="s">
         <v>220</v>
@@ -13595,14 +13616,14 @@
     </row>
     <row r="58" spans="5:13">
       <c r="E58" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F58" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G58" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H58" t="s">
         <v>217</v>
@@ -13616,14 +13637,14 @@
     </row>
     <row r="59" spans="5:13">
       <c r="E59" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F59" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G59" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H59" t="s">
         <v>213</v>
@@ -13637,14 +13658,14 @@
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G60" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H60" t="s">
         <v>209</v>
@@ -13658,14 +13679,14 @@
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G61" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H61" t="s">
         <v>237</v>
@@ -13686,14 +13707,14 @@
     </row>
     <row r="62" spans="5:13">
       <c r="E62" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F62" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G62" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H62" t="s">
         <v>241</v>
@@ -13707,14 +13728,14 @@
     </row>
     <row r="63" spans="5:13">
       <c r="E63" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F63" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G63" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H63" t="s">
         <v>254</v>
@@ -13728,14 +13749,14 @@
     </row>
     <row r="64" spans="5:13">
       <c r="E64" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F64" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-35</v>
       </c>
       <c r="G64" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H64" t="s">
         <v>205</v>
@@ -13756,17 +13777,17 @@
     </row>
     <row r="65" spans="5:13">
       <c r="E65" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F65" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G65" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H65" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I65" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -13784,17 +13805,17 @@
     </row>
     <row r="66" spans="5:13">
       <c r="E66" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F66" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G66" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H66" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L66" t="s">
         <v>75</v>
@@ -13805,17 +13826,17 @@
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G67" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H67" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L67" t="s">
         <v>75</v>
@@ -13826,17 +13847,17 @@
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G68" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H68" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L68" t="s">
         <v>75</v>
@@ -13847,14 +13868,14 @@
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G69" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H69" t="s">
         <v>127</v>
@@ -13875,14 +13896,14 @@
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F70" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G70" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H70" t="s">
         <v>131</v>
@@ -13896,14 +13917,14 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G71" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H71" t="s">
         <v>119</v>
@@ -13917,14 +13938,14 @@
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G72" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H72" t="s">
         <v>263</v>
@@ -13945,14 +13966,14 @@
     </row>
     <row r="73" spans="5:13">
       <c r="E73" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F73" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G73" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H73" t="s">
         <v>267</v>
@@ -13966,14 +13987,14 @@
     </row>
     <row r="74" spans="5:13">
       <c r="E74" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G74" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H74" t="s">
         <v>230</v>
@@ -13994,14 +14015,14 @@
     </row>
     <row r="75" spans="5:13">
       <c r="E75" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F75" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G75" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H75" t="s">
         <v>234</v>
@@ -14015,14 +14036,14 @@
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G76" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H76" t="s">
         <v>226</v>
@@ -14036,14 +14057,14 @@
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G77" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H77" t="s">
         <v>257</v>
@@ -14064,14 +14085,14 @@
     </row>
     <row r="78" spans="5:13">
       <c r="E78" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F78" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G78" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H78" t="s">
         <v>260</v>
@@ -14085,20 +14106,20 @@
     </row>
     <row r="79" spans="5:13">
       <c r="E79" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F79" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-63</v>
       </c>
       <c r="G79" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H79" t="s">
         <v>145</v>
       </c>
       <c r="L79" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M79" t="s">
         <v>74</v>
@@ -14106,20 +14127,20 @@
     </row>
     <row r="80" spans="5:13">
       <c r="E80" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F80" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G80" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H80" t="s">
         <v>151</v>
       </c>
       <c r="L80" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M80" t="s">
         <v>74</v>
@@ -14127,20 +14148,20 @@
     </row>
     <row r="81" spans="5:13">
       <c r="E81" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F81" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-70</v>
       </c>
       <c r="G81" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H81" t="s">
         <v>270</v>
       </c>
       <c r="L81" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M81" t="s">
         <v>74</v>
@@ -14148,20 +14169,20 @@
     </row>
     <row r="82" spans="5:13">
       <c r="E82" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F82" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G82" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H82" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L82" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M82" t="s">
         <v>74</v>
@@ -14169,14 +14190,14 @@
     </row>
     <row r="83" spans="5:13">
       <c r="E83" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F83" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-66</v>
       </c>
       <c r="G83" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H83" t="s">
         <v>250</v>
@@ -14190,14 +14211,14 @@
     </row>
     <row r="84" spans="5:13">
       <c r="E84" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" ref="F84" si="0">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H84" t="s">
         <v>274</v>
@@ -14211,17 +14232,17 @@
     </row>
     <row r="85" spans="5:13">
       <c r="E85" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F85" t="str">
         <f>E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G85" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H85" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -14232,14 +14253,14 @@
     </row>
     <row r="86" spans="5:13">
       <c r="E86" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F86" t="str">
         <f>E33</f>
         <v>hmsg_template_server-97</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>278</v>
@@ -14253,14 +14274,14 @@
     </row>
     <row r="87" spans="5:13">
       <c r="E87" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F87" t="str">
         <f>E34</f>
         <v>hmsg_template_server-98</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>284</v>
@@ -14274,14 +14295,14 @@
     </row>
     <row r="88" spans="5:13">
       <c r="E88" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F88" t="str">
         <f>E35</f>
         <v>hmsg_template_server-99</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>288</v>
@@ -14295,14 +14316,14 @@
     </row>
     <row r="89" spans="5:13">
       <c r="E89" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F89" t="str">
         <f>E36</f>
         <v>hmsg_template_server-100</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>292</v>
@@ -14329,30 +14350,30 @@
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H91" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="92" spans="5:8">
       <c r="E92" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F92" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -14363,10 +14384,10 @@
     </row>
     <row r="93" spans="5:8">
       <c r="E93" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -14377,10 +14398,10 @@
     </row>
     <row r="94" spans="5:8">
       <c r="E94" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F94" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -14391,10 +14412,10 @@
     </row>
     <row r="95" spans="5:8">
       <c r="E95" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F95" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -14405,10 +14426,10 @@
     </row>
     <row r="96" spans="5:8">
       <c r="E96" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F96" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -14419,10 +14440,10 @@
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F97" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -14433,10 +14454,10 @@
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F98" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -14447,10 +14468,10 @@
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F99" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -14461,10 +14482,10 @@
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F100" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -14475,10 +14496,10 @@
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F101" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -14489,10 +14510,10 @@
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -14503,10 +14524,10 @@
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -14517,10 +14538,10 @@
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F104" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -14531,10 +14552,10 @@
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F105" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -14545,10 +14566,10 @@
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F106" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -14559,10 +14580,10 @@
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F107" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -14573,10 +14594,10 @@
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F108" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -14587,10 +14608,10 @@
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F109" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -14601,10 +14622,10 @@
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F110" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -14615,10 +14636,10 @@
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F111" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -14629,10 +14650,10 @@
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F112" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -14643,10 +14664,10 @@
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F113" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -14657,10 +14678,10 @@
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F114" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G114">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="585">
   <si>
     <r>
       <rPr>
@@ -4970,6 +4970,492 @@
     <t>SMS_222255148</t>
   </si>
   <si>
+    <t>hmsg_message_template-158</t>
+  </si>
+  <si>
+    <t>SITE_CREATE_USER.EMAIL</t>
+  </si>
+  <si>
+    <t>平台层创建用户</t>
+  </si>
+  <si>
+    <t>&lt;!doctype html&gt;
+&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
+      xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
+&lt;head&gt;
+  &lt;title&gt;&lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width: 480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix {
+      width: 100% !important;
+    }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width: 480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+&lt;div style=""&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:600px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+            &lt;tr&gt;
+              &lt;td
+                      class="" style="vertical-align:top;width:600px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix"
+               style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
+                   style="vertical-align:top;" width="100%"&gt;
+              &lt;tr&gt;
+                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
+                  &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
+                    &lt;body&gt;
+                    &lt;div style="width: 600px;
+      background: #FFFFFF;
+      margin: 0 auto;"&gt;
+                      &lt;div style="height: 55px;
+      background-color: #ffffff;
+      border-bottom: 8px solid #3F51B5;"&gt;
+                        &lt;table&gt;
+                          &lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt;&lt;img height="auto"
+                                                                src="https://file.choerodon.com.cn/static/choerodon.png"
+                                                                style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;"
+                                                                width="190"/&gt;&lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/table&gt;
+                            &lt;td&gt;
+                          &lt;/tr&gt;
+                        &lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 30px 40px;
+      border-bottom: 0;
+      border-top: 0;
+      border-left:1px solid #E6E6E6;
+      border-right:1px solid #E6E6E6;
+      border-radius: 2px;
+      background: #FFFFFF;"&gt;
+                        &lt;div&gt;
+                          &lt;p&gt;"HZERO】已为您创建账号[${email}]，初始密码为[${sitePassword}]。您可使用该账号密码登录云平台，地址：${loginUrl}，登录后请及时修改初始密码。"进行系统登录&lt;/p&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tr&gt;
+                                    &lt;td&gt;&lt;img height="auto"
+                                             style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;"
+                                             width="90"
+                                             src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt;
+                                  &lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/table&gt;
+                              &lt;td&gt;
+                              &lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px"
+                                                          href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a
+                                          style="text-decoration:none;font-size: 12px"
+                                          href="http://choerodon.io/zh/docs/"
+                                          target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px"
+                                               href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="width: 600px;
+      height: 34px;
+      background: #3F51B5;
+      "&gt;
+                        &lt;p style="opacity: 0.8;
+      font-size: 10px;
+      color: #FFFFFF;
+      text-align: center;
+      display: inline-block;
+      line-height: 34px;
+      width: 100%;
+      margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+                      &lt;/div&gt;
+                    &lt;/div&gt;
+                    &lt;/body&gt;
+                  &lt;/div&gt;
+                &lt;/td&gt;
+              &lt;/tr&gt;
+            &lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>SITE-CRETAE-USER</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-159</t>
+  </si>
+  <si>
+    <t>ORG_CREATE_USER.EMAIL</t>
+  </si>
+  <si>
+    <t>组织层创建用户</t>
+  </si>
+  <si>
+    <t>&lt;!doctype html&gt;
+&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
+&lt;head&gt;
+  &lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+&lt;div style=""&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="600"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:600px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+            &lt;tr&gt;
+              &lt;td
+                      class="" style="vertical-align:top;width:600px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tr&gt;
+                &lt;td align="left" style="font-size:0px;padding:10px 25px;word-break:break-word;"&gt;
+                  &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
+                    &lt;body&gt;
+                    &lt;div style="width: 600px;background: #FFFFFF;margin: 0 auto;"&gt;
+                      &lt;div style="height: 115px;background-color: #ffffff;border-bottom: 8px solid #3F51B5;"&gt;
+                        &lt;table&gt;
+                          &lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width: 190px;" width="100%"  /&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/table&gt;
+                            &lt;td&gt;
+                            &lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;color: #252528;letter-spacing: 0;display: inline-block;text-align: right;width: 558px;padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px;border-bottom: 0;border-top: 0;border-left:1px solid #E6E6E6;border-right:1px solid #E6E6E6;border-radius: 2px;background: #FFFFFF;"&gt;
+                        &lt;div&gt;
+                          &lt;p style="margin-top: 0"&gt;亲爱的${realName}，您好！&lt;/p&gt;
+                          &lt;p style="text-align: justify; margin-bottom: 0; line-height: 14px; font-size: 14px"&gt;
+       【组织管理员${orgAdmin}】邀请您加入组织： ${tenantName}，并且已为您创建账号[${email}]，初始密码为[${orgPassword}]。请点击以下按钮接受邀请并加入，登录后请及时修改初始密码。
+        &lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                      完善信息并加入
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/table&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/table&gt;
+                        &lt;/div&gt;
+                        &lt;p style="text-align: justify; margin-bottom: 0; line-height: 14px; font-size: 14px"&gt;如果按钮无法点击，请点击或复制以下链接到浏览器地址栏打开。&lt;/p&gt;
+                        &lt;p style="text-align: justify; margin-bottom: 0; line-height: 14px; font-size: 14px"&gt;${inviteLink}&lt;/p&gt;
+                      &lt;/div&gt;
+                      &lt;div&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/table&gt;
+                              &lt;td&gt;
+                              &lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;     margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;color: #626774; letter-spacing: 0;text-align: left;margin-bottom: 6px;      margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="width: 600px;height: 34px;background: #3F51B5;"&gt;
+                        &lt;p style="opacity: 0.8;font-size: 10px;color: #FFFFFF;text-align: center;display: inline-block;line-height: 34px;width: 100%;margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+                      &lt;/div&gt;
+                    &lt;/div&gt;
+                    &lt;/body&gt;
+                  &lt;/div&gt;
+                &lt;/td&gt;
+              &lt;/tr&gt;
+            &lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>ORG-CREATE-USER</t>
+  </si>
+  <si>
     <t>消息模板参数</t>
   </si>
   <si>
@@ -5132,6 +5618,27 @@
   </si>
   <si>
     <t>expireTime</t>
+  </si>
+  <si>
+    <t>sitePassword</t>
+  </si>
+  <si>
+    <t>loginUrl</t>
+  </si>
+  <si>
+    <t>realName</t>
+  </si>
+  <si>
+    <t>orgAdmin</t>
+  </si>
+  <si>
+    <t>tenantName</t>
+  </si>
+  <si>
+    <t>orgPassword</t>
+  </si>
+  <si>
+    <t>inviteLink</t>
   </si>
   <si>
     <r>
@@ -5523,6 +6030,21 @@
     <t>短信验证码通知</t>
   </si>
   <si>
+    <t>hmsg_template_server-101</t>
+  </si>
+  <si>
+    <t>SITE_CREATE_USER</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-102</t>
+  </si>
+  <si>
+    <t>SAAS_ORG_CREATE_USER</t>
+  </si>
+  <si>
+    <t>ORG_CREATE_USER</t>
+  </si>
+  <si>
     <t>发送配置(其它)</t>
   </si>
   <si>
@@ -5722,6 +6244,12 @@
   </si>
   <si>
     <t>hmsg_template_server_line-252</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-253</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-254</t>
   </si>
   <si>
     <t>notify_message_setting_config</t>
@@ -5810,8 +6338,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -5917,6 +6445,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -5946,39 +6482,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6000,9 +6506,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6015,8 +6543,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6045,9 +6574,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6141,13 +6669,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6159,13 +6747,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6183,7 +6795,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6195,37 +6819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6237,91 +6837,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6428,6 +6956,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -6448,6 +6991,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6481,193 +7048,154 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7735,10 +8263,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q207"/>
+  <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F173" workbookViewId="0">
-      <selection activeCell="K207" sqref="K207"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -8551,7 +9079,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="5:17">
+    <row r="31" ht="409.5" spans="5:17">
       <c r="E31" t="s">
         <v>204</v>
       </c>
@@ -8564,7 +9092,7 @@
       <c r="H31" t="s">
         <v>206</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="13" t="s">
         <v>207</v>
       </c>
       <c r="N31" t="s">
@@ -9027,7 +9555,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="5:17">
+    <row r="47" ht="409.5" spans="5:17">
       <c r="E47" t="s">
         <v>262</v>
       </c>
@@ -9040,7 +9568,7 @@
       <c r="H47" t="s">
         <v>264</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="13" t="s">
         <v>265</v>
       </c>
       <c r="N47" t="s">
@@ -9289,87 +9817,121 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" t="s">
+    <row r="55" ht="409.5" spans="5:17">
+      <c r="E55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F55" t="s">
+        <v>298</v>
+      </c>
+      <c r="G55" t="s">
+        <v>299</v>
+      </c>
+      <c r="H55" t="s">
+        <v>299</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="J55" t="s">
+        <v>281</v>
+      </c>
+      <c r="K55" t="s">
+        <v>301</v>
+      </c>
+      <c r="N55" t="s">
+        <v>124</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" ht="409.5" spans="5:17">
+      <c r="E56" t="s">
+        <v>302</v>
+      </c>
+      <c r="F56" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" t="s">
+        <v>304</v>
+      </c>
+      <c r="H56" t="s">
+        <v>304</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="J56" t="s">
+        <v>122</v>
+      </c>
+      <c r="K56" t="s">
+        <v>306</v>
+      </c>
+      <c r="N56" t="s">
+        <v>124</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
         <v>104</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>51</v>
       </c>
-      <c r="C57" t="s">
-        <v>297</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H57" t="s">
-        <v>302</v>
-      </c>
-      <c r="I57" t="s">
-        <v>303</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="C59" t="s">
+        <v>307</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H59" t="s">
+        <v>312</v>
+      </c>
+      <c r="I59" t="s">
+        <v>313</v>
+      </c>
+      <c r="J59" t="s">
         <v>88</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K59" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="5:11">
-      <c r="E58" t="s">
-        <v>304</v>
-      </c>
-      <c r="F58" t="str">
-        <f>消息模板!$E$8</f>
-        <v>hmsg_message_template-9</v>
-      </c>
-      <c r="G58" t="s">
-        <v>305</v>
-      </c>
-      <c r="J58" t="s">
-        <v>75</v>
-      </c>
-      <c r="K58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="5:11">
-      <c r="E59" t="s">
-        <v>304</v>
-      </c>
-      <c r="F59" t="str">
-        <f>消息模板!$E$8</f>
-        <v>hmsg_message_template-9</v>
-      </c>
-      <c r="G59" t="s">
-        <v>306</v>
-      </c>
-      <c r="J59" t="s">
-        <v>75</v>
-      </c>
-      <c r="K59" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="60" spans="5:11">
       <c r="E60" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="J60" t="s">
         <v>75</v>
@@ -9380,14 +9942,14 @@
     </row>
     <row r="61" spans="5:11">
       <c r="E61" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G61" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="J61" t="s">
         <v>75</v>
@@ -9398,14 +9960,14 @@
     </row>
     <row r="62" spans="5:11">
       <c r="E62" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G62" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="J62" t="s">
         <v>75</v>
@@ -9416,14 +9978,14 @@
     </row>
     <row r="63" spans="5:11">
       <c r="E63" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G63" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J63" t="s">
         <v>75</v>
@@ -9434,14 +9996,14 @@
     </row>
     <row r="64" spans="5:11">
       <c r="E64" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G64" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="J64" t="s">
         <v>75</v>
@@ -9452,14 +10014,14 @@
     </row>
     <row r="65" spans="5:11">
       <c r="E65" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G65" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="J65" t="s">
         <v>75</v>
@@ -9470,14 +10032,14 @@
     </row>
     <row r="66" spans="5:11">
       <c r="E66" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F66" t="str">
-        <f>消息模板!$E$13</f>
-        <v>hmsg_message_template-30</v>
+        <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-9</v>
       </c>
       <c r="G66" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="J66" t="s">
         <v>75</v>
@@ -9488,14 +10050,14 @@
     </row>
     <row r="67" spans="5:11">
       <c r="E67" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F67" t="str">
-        <f>消息模板!$E$13</f>
-        <v>hmsg_message_template-30</v>
+        <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-9</v>
       </c>
       <c r="G67" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="J67" t="s">
         <v>75</v>
@@ -9506,14 +10068,14 @@
     </row>
     <row r="68" spans="5:11">
       <c r="E68" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G68" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="J68" t="s">
         <v>75</v>
@@ -9524,14 +10086,14 @@
     </row>
     <row r="69" spans="5:11">
       <c r="E69" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G69" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="J69" t="s">
         <v>75</v>
@@ -9542,14 +10104,14 @@
     </row>
     <row r="70" spans="5:11">
       <c r="E70" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G70" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="J70" t="s">
         <v>75</v>
@@ -9560,14 +10122,14 @@
     </row>
     <row r="71" spans="5:11">
       <c r="E71" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G71" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J71" t="s">
         <v>75</v>
@@ -9578,14 +10140,14 @@
     </row>
     <row r="72" spans="5:11">
       <c r="E72" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G72" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="J72" t="s">
         <v>75</v>
@@ -9596,14 +10158,14 @@
     </row>
     <row r="73" spans="5:11">
       <c r="E73" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G73" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="J73" t="s">
         <v>75</v>
@@ -9614,14 +10176,14 @@
     </row>
     <row r="74" spans="5:11">
       <c r="E74" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G74" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="J74" t="s">
         <v>75</v>
@@ -9632,14 +10194,14 @@
     </row>
     <row r="75" spans="5:11">
       <c r="E75" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F75" t="str">
-        <f>消息模板!$E$14</f>
-        <v>hmsg_message_template-31</v>
+        <f>消息模板!$E$13</f>
+        <v>hmsg_message_template-30</v>
       </c>
       <c r="G75" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="J75" t="s">
         <v>75</v>
@@ -9650,14 +10212,14 @@
     </row>
     <row r="76" spans="5:11">
       <c r="E76" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F76" t="str">
-        <f>消息模板!$E$14</f>
-        <v>hmsg_message_template-31</v>
+        <f>消息模板!$E$13</f>
+        <v>hmsg_message_template-30</v>
       </c>
       <c r="G76" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="J76" t="s">
         <v>75</v>
@@ -9668,14 +10230,14 @@
     </row>
     <row r="77" spans="5:11">
       <c r="E77" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G77" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="J77" t="s">
         <v>75</v>
@@ -9686,14 +10248,14 @@
     </row>
     <row r="78" spans="5:11">
       <c r="E78" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G78" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="J78" t="s">
         <v>75</v>
@@ -9704,14 +10266,14 @@
     </row>
     <row r="79" spans="5:11">
       <c r="E79" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G79" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="J79" t="s">
         <v>75</v>
@@ -9722,14 +10284,14 @@
     </row>
     <row r="80" spans="5:11">
       <c r="E80" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F80" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G80" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="J80" t="s">
         <v>75</v>
@@ -9740,14 +10302,14 @@
     </row>
     <row r="81" spans="5:11">
       <c r="E81" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F81" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G81" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J81" t="s">
         <v>75</v>
@@ -9758,14 +10320,14 @@
     </row>
     <row r="82" spans="5:11">
       <c r="E82" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F82" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G82" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="J82" t="s">
         <v>75</v>
@@ -9776,14 +10338,14 @@
     </row>
     <row r="83" spans="5:11">
       <c r="E83" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F83" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G83" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="J83" t="s">
         <v>75</v>
@@ -9794,14 +10356,14 @@
     </row>
     <row r="84" spans="5:11">
       <c r="E84" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F84" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G84" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J84" t="s">
         <v>75</v>
@@ -9812,14 +10374,14 @@
     </row>
     <row r="85" spans="5:11">
       <c r="E85" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F85" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G85" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="J85" t="s">
         <v>75</v>
@@ -9830,14 +10392,14 @@
     </row>
     <row r="86" spans="5:11">
       <c r="E86" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F86" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-40</v>
+        <f>消息模板!$E$14</f>
+        <v>hmsg_message_template-31</v>
       </c>
       <c r="G86" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="J86" t="s">
         <v>75</v>
@@ -9848,14 +10410,14 @@
     </row>
     <row r="87" spans="5:11">
       <c r="E87" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F87" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-40</v>
+        <f>消息模板!$E$14</f>
+        <v>hmsg_message_template-31</v>
       </c>
       <c r="G87" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="J87" t="s">
         <v>75</v>
@@ -9866,14 +10428,14 @@
     </row>
     <row r="88" spans="5:11">
       <c r="E88" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F88" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G88" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="J88" t="s">
         <v>75</v>
@@ -9884,14 +10446,14 @@
     </row>
     <row r="89" spans="5:11">
       <c r="E89" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F89" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G89" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="J89" t="s">
         <v>75</v>
@@ -9902,14 +10464,14 @@
     </row>
     <row r="90" spans="5:11">
       <c r="E90" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F90" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G90" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J90" t="s">
         <v>75</v>
@@ -9920,14 +10482,14 @@
     </row>
     <row r="91" spans="5:11">
       <c r="E91" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F91" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G91" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="J91" t="s">
         <v>75</v>
@@ -9938,14 +10500,14 @@
     </row>
     <row r="92" spans="5:11">
       <c r="E92" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F92" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-46</v>
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-40</v>
       </c>
       <c r="G92" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="J92" t="s">
         <v>75</v>
@@ -9956,14 +10518,14 @@
     </row>
     <row r="93" spans="5:11">
       <c r="E93" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F93" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-46</v>
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-40</v>
       </c>
       <c r="G93" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="J93" t="s">
         <v>75</v>
@@ -9974,14 +10536,14 @@
     </row>
     <row r="94" spans="5:11">
       <c r="E94" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G94" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="J94" t="s">
         <v>75</v>
@@ -9992,14 +10554,14 @@
     </row>
     <row r="95" spans="5:11">
       <c r="E95" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G95" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="J95" t="s">
         <v>75</v>
@@ -10010,14 +10572,14 @@
     </row>
     <row r="96" spans="5:11">
       <c r="E96" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G96" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="J96" t="s">
         <v>75</v>
@@ -10028,14 +10590,14 @@
     </row>
     <row r="97" spans="5:11">
       <c r="E97" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G97" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J97" t="s">
         <v>75</v>
@@ -10046,14 +10608,14 @@
     </row>
     <row r="98" spans="5:11">
       <c r="E98" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G98" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="J98" t="s">
         <v>75</v>
@@ -10064,14 +10626,14 @@
     </row>
     <row r="99" spans="5:11">
       <c r="E99" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G99" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="J99" t="s">
         <v>75</v>
@@ -10082,14 +10644,14 @@
     </row>
     <row r="100" spans="5:11">
       <c r="E100" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G100" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="J100" t="s">
         <v>75</v>
@@ -10100,14 +10662,14 @@
     </row>
     <row r="101" spans="5:11">
       <c r="E101" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F101" t="str">
-        <f>消息模板!$E$19</f>
-        <v>hmsg_message_template-49</v>
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-46</v>
       </c>
       <c r="G101" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="J101" t="s">
         <v>75</v>
@@ -10118,14 +10680,14 @@
     </row>
     <row r="102" spans="5:11">
       <c r="E102" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F102" t="str">
-        <f>消息模板!$E$19</f>
-        <v>hmsg_message_template-49</v>
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-46</v>
       </c>
       <c r="G102" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="J102" t="s">
         <v>75</v>
@@ -10136,14 +10698,14 @@
     </row>
     <row r="103" spans="5:11">
       <c r="E103" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G103" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="J103" t="s">
         <v>75</v>
@@ -10154,14 +10716,14 @@
     </row>
     <row r="104" spans="5:11">
       <c r="E104" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G104" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="J104" t="s">
         <v>75</v>
@@ -10172,14 +10734,14 @@
     </row>
     <row r="105" spans="5:11">
       <c r="E105" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G105" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="J105" t="s">
         <v>75</v>
@@ -10190,14 +10752,14 @@
     </row>
     <row r="106" spans="5:11">
       <c r="E106" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F106" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J106" t="s">
         <v>75</v>
@@ -10208,14 +10770,14 @@
     </row>
     <row r="107" spans="5:11">
       <c r="E107" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G107" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="J107" t="s">
         <v>75</v>
@@ -10226,14 +10788,14 @@
     </row>
     <row r="108" spans="5:11">
       <c r="E108" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F108" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-58</v>
+        <f>消息模板!$E$19</f>
+        <v>hmsg_message_template-49</v>
       </c>
       <c r="G108" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="J108" t="s">
         <v>75</v>
@@ -10244,14 +10806,14 @@
     </row>
     <row r="109" spans="5:11">
       <c r="E109" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F109" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-58</v>
+        <f>消息模板!$E$19</f>
+        <v>hmsg_message_template-49</v>
       </c>
       <c r="G109" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="J109" t="s">
         <v>75</v>
@@ -10262,14 +10824,14 @@
     </row>
     <row r="110" spans="5:11">
       <c r="E110" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F110" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G110" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="J110" t="s">
         <v>75</v>
@@ -10280,14 +10842,14 @@
     </row>
     <row r="111" spans="5:11">
       <c r="E111" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G111" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="J111" t="s">
         <v>75</v>
@@ -10298,14 +10860,14 @@
     </row>
     <row r="112" spans="5:11">
       <c r="E112" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G112" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="J112" t="s">
         <v>75</v>
@@ -10316,14 +10878,14 @@
     </row>
     <row r="113" spans="5:11">
       <c r="E113" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F113" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G113" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J113" t="s">
         <v>75</v>
@@ -10334,14 +10896,14 @@
     </row>
     <row r="114" spans="5:11">
       <c r="E114" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F114" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G114" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="J114" t="s">
         <v>75</v>
@@ -10352,14 +10914,14 @@
     </row>
     <row r="115" spans="5:11">
       <c r="E115" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F115" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G115" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="J115" t="s">
         <v>75</v>
@@ -10370,14 +10932,14 @@
     </row>
     <row r="116" spans="5:11">
       <c r="E116" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F116" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G116" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="J116" t="s">
         <v>75</v>
@@ -10388,14 +10950,14 @@
     </row>
     <row r="117" spans="5:11">
       <c r="E117" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F117" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-61</v>
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-58</v>
       </c>
       <c r="G117" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="J117" t="s">
         <v>75</v>
@@ -10406,14 +10968,14 @@
     </row>
     <row r="118" spans="5:11">
       <c r="E118" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F118" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-61</v>
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-58</v>
       </c>
       <c r="G118" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="J118" t="s">
         <v>75</v>
@@ -10424,14 +10986,14 @@
     </row>
     <row r="119" spans="5:11">
       <c r="E119" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G119" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="J119" t="s">
         <v>75</v>
@@ -10442,14 +11004,14 @@
     </row>
     <row r="120" spans="5:11">
       <c r="E120" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G120" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="J120" t="s">
         <v>75</v>
@@ -10460,14 +11022,14 @@
     </row>
     <row r="121" spans="5:11">
       <c r="E121" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F121" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G121" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="J121" t="s">
         <v>75</v>
@@ -10478,14 +11040,14 @@
     </row>
     <row r="122" spans="5:11">
       <c r="E122" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F122" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G122" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J122" t="s">
         <v>75</v>
@@ -10496,14 +11058,14 @@
     </row>
     <row r="123" spans="5:11">
       <c r="E123" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F123" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G123" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="J123" t="s">
         <v>75</v>
@@ -10514,14 +11076,14 @@
     </row>
     <row r="124" spans="5:11">
       <c r="E124" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F124" t="str">
-        <f>消息模板!$E$32</f>
-        <v>hmsg_message_template-99</v>
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-61</v>
       </c>
       <c r="G124" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="J124" t="s">
         <v>75</v>
@@ -10532,14 +11094,14 @@
     </row>
     <row r="125" spans="5:11">
       <c r="E125" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F125" t="str">
-        <f>消息模板!$E$32</f>
-        <v>hmsg_message_template-99</v>
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-61</v>
       </c>
       <c r="G125" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J125" t="s">
         <v>75</v>
@@ -10550,14 +11112,14 @@
     </row>
     <row r="126" spans="5:11">
       <c r="E126" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F126" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G126" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J126" t="s">
         <v>75</v>
@@ -10568,14 +11130,14 @@
     </row>
     <row r="127" spans="5:11">
       <c r="E127" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F127" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G127" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="J127" t="s">
         <v>75</v>
@@ -10586,14 +11148,14 @@
     </row>
     <row r="128" spans="5:11">
       <c r="E128" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F128" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G128" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="J128" t="s">
         <v>75</v>
@@ -10604,14 +11166,14 @@
     </row>
     <row r="129" spans="5:11">
       <c r="E129" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F129" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G129" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="J129" t="s">
         <v>75</v>
@@ -10622,14 +11184,14 @@
     </row>
     <row r="130" spans="5:11">
       <c r="E130" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F130" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G130" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J130" t="s">
         <v>75</v>
@@ -10640,14 +11202,14 @@
     </row>
     <row r="131" spans="5:11">
       <c r="E131" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F131" t="str">
-        <f>消息模板!$E$37</f>
-        <v>hmsg_message_template-128</v>
+        <f>消息模板!$E$32</f>
+        <v>hmsg_message_template-99</v>
       </c>
       <c r="G131" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="J131" t="s">
         <v>75</v>
@@ -10658,14 +11220,14 @@
     </row>
     <row r="132" spans="5:11">
       <c r="E132" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F132" t="str">
-        <f>消息模板!$E$37</f>
-        <v>hmsg_message_template-128</v>
+        <f>消息模板!$E$32</f>
+        <v>hmsg_message_template-99</v>
       </c>
       <c r="G132" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="J132" t="s">
         <v>75</v>
@@ -10676,14 +11238,14 @@
     </row>
     <row r="133" spans="5:11">
       <c r="E133" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F133" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G133" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="J133" t="s">
         <v>75</v>
@@ -10694,14 +11256,14 @@
     </row>
     <row r="134" spans="5:11">
       <c r="E134" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F134" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G134" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="J134" t="s">
         <v>75</v>
@@ -10712,14 +11274,14 @@
     </row>
     <row r="135" spans="5:11">
       <c r="E135" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F135" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G135" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="J135" t="s">
         <v>75</v>
@@ -10730,14 +11292,14 @@
     </row>
     <row r="136" spans="5:11">
       <c r="E136" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F136" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G136" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J136" t="s">
         <v>75</v>
@@ -10748,14 +11310,14 @@
     </row>
     <row r="137" spans="5:11">
       <c r="E137" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F137" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G137" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="J137" t="s">
         <v>75</v>
@@ -10766,14 +11328,14 @@
     </row>
     <row r="138" spans="5:11">
       <c r="E138" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F138" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G138" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="J138" t="s">
         <v>75</v>
@@ -10784,14 +11346,14 @@
     </row>
     <row r="139" spans="5:11">
       <c r="E139" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F139" t="str">
-        <f>消息模板!$E$49</f>
-        <v>hmsg_message_template-152</v>
+        <f>消息模板!$E$37</f>
+        <v>hmsg_message_template-128</v>
       </c>
       <c r="G139" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="J139" t="s">
         <v>75</v>
@@ -10802,14 +11364,14 @@
     </row>
     <row r="140" spans="5:11">
       <c r="E140" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F140" t="str">
-        <f>消息模板!$E$49</f>
-        <v>hmsg_message_template-152</v>
+        <f>消息模板!$E$37</f>
+        <v>hmsg_message_template-128</v>
       </c>
       <c r="G140" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="J140" t="s">
         <v>75</v>
@@ -10820,14 +11382,14 @@
     </row>
     <row r="141" spans="5:11">
       <c r="E141" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F141" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G141" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="J141" t="s">
         <v>75</v>
@@ -10838,14 +11400,14 @@
     </row>
     <row r="142" spans="5:11">
       <c r="E142" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F142" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G142" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="J142" t="s">
         <v>75</v>
@@ -10856,14 +11418,14 @@
     </row>
     <row r="143" spans="5:11">
       <c r="E143" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F143" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G143" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="J143" t="s">
         <v>75</v>
@@ -10874,14 +11436,14 @@
     </row>
     <row r="144" spans="5:11">
       <c r="E144" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F144" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G144" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J144" t="s">
         <v>75</v>
@@ -10892,284 +11454,284 @@
     </row>
     <row r="145" spans="5:11">
       <c r="E145" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F145" t="str">
+        <f>消息模板!$E$49</f>
+        <v>hmsg_message_template-152</v>
+      </c>
+      <c r="G145" t="s">
+        <v>319</v>
+      </c>
+      <c r="J145" t="s">
+        <v>75</v>
+      </c>
+      <c r="K145" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="5:11">
+      <c r="E146" t="s">
+        <v>314</v>
+      </c>
+      <c r="F146" t="str">
+        <f>消息模板!$E$49</f>
+        <v>hmsg_message_template-152</v>
+      </c>
+      <c r="G146" t="s">
+        <v>322</v>
+      </c>
+      <c r="J146" t="s">
+        <v>75</v>
+      </c>
+      <c r="K146" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147" spans="5:11">
+      <c r="E147" t="s">
+        <v>314</v>
+      </c>
+      <c r="F147" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-64</v>
       </c>
-      <c r="G145" t="s">
-        <v>322</v>
-      </c>
-      <c r="J145" t="s">
-        <v>75</v>
-      </c>
-      <c r="K145" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="146" spans="5:11">
-      <c r="E146" t="s">
-        <v>304</v>
-      </c>
-      <c r="F146" t="str">
+      <c r="G147" t="s">
+        <v>332</v>
+      </c>
+      <c r="J147" t="s">
+        <v>75</v>
+      </c>
+      <c r="K147" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="5:11">
+      <c r="E148" t="s">
+        <v>314</v>
+      </c>
+      <c r="F148" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-62</v>
       </c>
-      <c r="G146" t="s">
-        <v>322</v>
-      </c>
-      <c r="J146" t="s">
-        <v>75</v>
-      </c>
-      <c r="K146" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="147" spans="5:11">
-      <c r="E147" t="s">
-        <v>304</v>
-      </c>
-      <c r="F147" t="str">
+      <c r="G148" t="s">
+        <v>332</v>
+      </c>
+      <c r="J148" t="s">
+        <v>75</v>
+      </c>
+      <c r="K148" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="5:11">
+      <c r="E149" t="s">
+        <v>314</v>
+      </c>
+      <c r="F149" t="str">
         <f>消息模板!$E$22</f>
         <v>hmsg_message_template-52</v>
       </c>
-      <c r="G147" t="s">
-        <v>322</v>
-      </c>
-      <c r="J147" t="s">
-        <v>75</v>
-      </c>
-      <c r="K147" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="148" spans="5:11">
-      <c r="E148" t="s">
-        <v>304</v>
-      </c>
-      <c r="F148" t="str">
+      <c r="G149" t="s">
+        <v>332</v>
+      </c>
+      <c r="J149" t="s">
+        <v>75</v>
+      </c>
+      <c r="K149" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="5:11">
+      <c r="E150" t="s">
+        <v>314</v>
+      </c>
+      <c r="F150" t="str">
         <f>消息模板!$E$20</f>
         <v>hmsg_message_template-50</v>
       </c>
-      <c r="G148" t="s">
-        <v>322</v>
-      </c>
-      <c r="J148" t="s">
-        <v>75</v>
-      </c>
-      <c r="K148" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="149" spans="5:11">
-      <c r="E149" t="s">
-        <v>304</v>
-      </c>
-      <c r="F149" t="str">
+      <c r="G150" t="s">
+        <v>332</v>
+      </c>
+      <c r="J150" t="s">
+        <v>75</v>
+      </c>
+      <c r="K150" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="5:11">
+      <c r="E151" t="s">
+        <v>314</v>
+      </c>
+      <c r="F151" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-48</v>
       </c>
-      <c r="G149" t="s">
-        <v>323</v>
-      </c>
-      <c r="J149" t="s">
-        <v>75</v>
-      </c>
-      <c r="K149" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="150" spans="5:11">
-      <c r="E150" t="s">
-        <v>304</v>
-      </c>
-      <c r="F150" t="str">
+      <c r="G151" t="s">
+        <v>333</v>
+      </c>
+      <c r="J151" t="s">
+        <v>75</v>
+      </c>
+      <c r="K151" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="5:11">
+      <c r="E152" t="s">
+        <v>314</v>
+      </c>
+      <c r="F152" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-47</v>
       </c>
-      <c r="G150" t="s">
-        <v>323</v>
-      </c>
-      <c r="J150" t="s">
-        <v>75</v>
-      </c>
-      <c r="K150" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="151" spans="5:11">
-      <c r="E151" t="s">
-        <v>304</v>
-      </c>
-      <c r="F151" t="str">
+      <c r="G152" t="s">
+        <v>333</v>
+      </c>
+      <c r="J152" t="s">
+        <v>75</v>
+      </c>
+      <c r="K152" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="5:11">
+      <c r="E153" t="s">
+        <v>314</v>
+      </c>
+      <c r="F153" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-60</v>
       </c>
-      <c r="G151" t="s">
-        <v>323</v>
-      </c>
-      <c r="J151" t="s">
-        <v>75</v>
-      </c>
-      <c r="K151" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="152" spans="5:11">
-      <c r="E152" t="s">
-        <v>304</v>
-      </c>
-      <c r="F152" t="str">
+      <c r="G153" t="s">
+        <v>333</v>
+      </c>
+      <c r="J153" t="s">
+        <v>75</v>
+      </c>
+      <c r="K153" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="154" spans="5:11">
+      <c r="E154" t="s">
+        <v>314</v>
+      </c>
+      <c r="F154" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-59</v>
       </c>
-      <c r="G152" t="s">
-        <v>323</v>
-      </c>
-      <c r="J152" t="s">
-        <v>75</v>
-      </c>
-      <c r="K152" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="153" spans="5:11">
-      <c r="E153" t="s">
-        <v>304</v>
-      </c>
-      <c r="F153" t="str">
+      <c r="G154" t="s">
+        <v>333</v>
+      </c>
+      <c r="J154" t="s">
+        <v>75</v>
+      </c>
+      <c r="K154" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="155" spans="5:11">
+      <c r="E155" t="s">
+        <v>314</v>
+      </c>
+      <c r="F155" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-13</v>
       </c>
-      <c r="G153" t="s">
-        <v>305</v>
-      </c>
-      <c r="J153" t="s">
-        <v>75</v>
-      </c>
-      <c r="K153" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="154" spans="5:11">
-      <c r="E154" t="s">
-        <v>304</v>
-      </c>
-      <c r="F154" t="str">
+      <c r="G155" t="s">
+        <v>315</v>
+      </c>
+      <c r="J155" t="s">
+        <v>75</v>
+      </c>
+      <c r="K155" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156" spans="5:11">
+      <c r="E156" t="s">
+        <v>314</v>
+      </c>
+      <c r="F156" t="str">
         <f>消息模板!$E$36</f>
         <v>hmsg_message_template-107</v>
       </c>
-      <c r="G154" t="s">
-        <v>312</v>
-      </c>
-      <c r="J154" t="s">
-        <v>75</v>
-      </c>
-      <c r="K154" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="155" spans="5:11">
-      <c r="E155" t="s">
-        <v>304</v>
-      </c>
-      <c r="F155" t="str">
+      <c r="G156" t="s">
+        <v>322</v>
+      </c>
+      <c r="J156" t="s">
+        <v>75</v>
+      </c>
+      <c r="K156" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="157" spans="5:11">
+      <c r="E157" t="s">
+        <v>314</v>
+      </c>
+      <c r="F157" t="str">
         <f>消息模板!$E$30</f>
         <v>hmsg_message_template-65</v>
       </c>
-      <c r="G155" t="s">
-        <v>324</v>
-      </c>
-      <c r="J155" t="s">
-        <v>75</v>
-      </c>
-      <c r="K155" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="156" spans="5:11">
-      <c r="E156" t="s">
-        <v>304</v>
-      </c>
-      <c r="F156" t="str">
+      <c r="G157" t="s">
+        <v>334</v>
+      </c>
+      <c r="J157" t="s">
+        <v>75</v>
+      </c>
+      <c r="K157" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="158" spans="5:11">
+      <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="str">
         <f>消息模板!$E$30</f>
         <v>hmsg_message_template-65</v>
       </c>
-      <c r="G156" t="s">
-        <v>312</v>
-      </c>
-      <c r="J156" t="s">
-        <v>75</v>
-      </c>
-      <c r="K156" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="157" spans="5:11">
-      <c r="E157" t="s">
-        <v>304</v>
-      </c>
-      <c r="F157" t="str">
+      <c r="G158" t="s">
+        <v>322</v>
+      </c>
+      <c r="J158" t="s">
+        <v>75</v>
+      </c>
+      <c r="K158" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="159" spans="5:11">
+      <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="str">
         <f>消息模板!$E$50</f>
         <v>hmsg_message_template-153</v>
       </c>
-      <c r="G157" t="s">
-        <v>325</v>
-      </c>
-      <c r="J157" t="s">
-        <v>75</v>
-      </c>
-      <c r="K157" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="158" spans="5:11">
-      <c r="E158" t="s">
-        <v>304</v>
-      </c>
-      <c r="F158" t="str">
+      <c r="G159" t="s">
+        <v>335</v>
+      </c>
+      <c r="J159" t="s">
+        <v>75</v>
+      </c>
+      <c r="K159" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="5:11">
+      <c r="E160" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" t="str">
         <f>消息模板!$E$50</f>
         <v>hmsg_message_template-153</v>
       </c>
-      <c r="G158" t="s">
-        <v>326</v>
-      </c>
-      <c r="J158" t="s">
-        <v>75</v>
-      </c>
-      <c r="K158" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="159" spans="5:11">
-      <c r="E159" t="s">
-        <v>304</v>
-      </c>
-      <c r="F159" t="str">
-        <f>消息模板!$E$35</f>
-        <v>hmsg_message_template-102</v>
-      </c>
-      <c r="G159" t="s">
-        <v>319</v>
-      </c>
-      <c r="J159" t="s">
-        <v>75</v>
-      </c>
-      <c r="K159" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="160" spans="5:11">
-      <c r="E160" t="s">
-        <v>304</v>
-      </c>
-      <c r="F160" t="str">
-        <f>消息模板!$E$35</f>
-        <v>hmsg_message_template-102</v>
-      </c>
       <c r="G160" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="J160" t="s">
         <v>75</v>
@@ -11180,14 +11742,14 @@
     </row>
     <row r="161" spans="5:11">
       <c r="E161" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F161" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G161" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="J161" t="s">
         <v>75</v>
@@ -11198,14 +11760,14 @@
     </row>
     <row r="162" spans="5:11">
       <c r="E162" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F162" t="str">
-        <f>消息模板!$E$34</f>
-        <v>hmsg_message_template-101</v>
+        <f>消息模板!$E$35</f>
+        <v>hmsg_message_template-102</v>
       </c>
       <c r="G162" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="J162" t="s">
         <v>75</v>
@@ -11216,14 +11778,14 @@
     </row>
     <row r="163" spans="5:11">
       <c r="E163" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F163" t="str">
-        <f>消息模板!$E$34</f>
-        <v>hmsg_message_template-101</v>
+        <f>消息模板!$E$35</f>
+        <v>hmsg_message_template-102</v>
       </c>
       <c r="G163" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J163" t="s">
         <v>75</v>
@@ -11234,14 +11796,14 @@
     </row>
     <row r="164" spans="5:11">
       <c r="E164" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F164" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G164" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="J164" t="s">
         <v>75</v>
@@ -11252,68 +11814,68 @@
     </row>
     <row r="165" spans="5:11">
       <c r="E165" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F165" t="str">
+        <f>消息模板!$E$34</f>
+        <v>hmsg_message_template-101</v>
+      </c>
+      <c r="G165" t="s">
+        <v>330</v>
+      </c>
+      <c r="J165" t="s">
+        <v>75</v>
+      </c>
+      <c r="K165" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="5:11">
+      <c r="E166" t="s">
+        <v>314</v>
+      </c>
+      <c r="F166" t="str">
+        <f>消息模板!$E$34</f>
+        <v>hmsg_message_template-101</v>
+      </c>
+      <c r="G166" t="s">
+        <v>322</v>
+      </c>
+      <c r="J166" t="s">
+        <v>75</v>
+      </c>
+      <c r="K166" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="167" spans="5:11">
+      <c r="E167" t="s">
+        <v>314</v>
+      </c>
+      <c r="F167" t="str">
         <f>消息模板!$E$33</f>
         <v>hmsg_message_template-100</v>
       </c>
-      <c r="G165" t="s">
-        <v>319</v>
-      </c>
-      <c r="J165" t="s">
-        <v>75</v>
-      </c>
-      <c r="K165" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="166" spans="5:11">
-      <c r="E166" t="s">
-        <v>304</v>
-      </c>
-      <c r="F166" t="str">
+      <c r="G167" t="s">
+        <v>329</v>
+      </c>
+      <c r="J167" t="s">
+        <v>75</v>
+      </c>
+      <c r="K167" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="5:11">
+      <c r="E168" t="s">
+        <v>314</v>
+      </c>
+      <c r="F168" t="str">
         <f>消息模板!$E$33</f>
         <v>hmsg_message_template-100</v>
       </c>
-      <c r="G166" t="s">
-        <v>320</v>
-      </c>
-      <c r="J166" t="s">
-        <v>75</v>
-      </c>
-      <c r="K166" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="167" spans="5:11">
-      <c r="E167" t="s">
-        <v>304</v>
-      </c>
-      <c r="F167" t="str">
-        <f>消息模板!$E$44</f>
-        <v>hmsg_message_template-145</v>
-      </c>
-      <c r="G167" t="s">
-        <v>327</v>
-      </c>
-      <c r="J167" t="s">
-        <v>75</v>
-      </c>
-      <c r="K167" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="168" spans="5:11">
-      <c r="E168" t="s">
-        <v>304</v>
-      </c>
-      <c r="F168" t="str">
-        <f>消息模板!$E$44</f>
-        <v>hmsg_message_template-145</v>
-      </c>
       <c r="G168" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J168" t="s">
         <v>75</v>
@@ -11324,14 +11886,14 @@
     </row>
     <row r="169" spans="5:11">
       <c r="E169" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F169" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G169" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="J169" t="s">
         <v>75</v>
@@ -11342,14 +11904,14 @@
     </row>
     <row r="170" spans="5:11">
       <c r="E170" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F170" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G170" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="J170" t="s">
         <v>75</v>
@@ -11360,14 +11922,14 @@
     </row>
     <row r="171" spans="5:11">
       <c r="E171" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F171" t="str">
-        <f>消息模板!$E$43</f>
-        <v>hmsg_message_template-144</v>
+        <f>消息模板!$E$44</f>
+        <v>hmsg_message_template-145</v>
       </c>
       <c r="G171" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="J171" t="s">
         <v>75</v>
@@ -11378,14 +11940,14 @@
     </row>
     <row r="172" spans="5:11">
       <c r="E172" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F172" t="str">
-        <f>消息模板!$E$43</f>
-        <v>hmsg_message_template-144</v>
+        <f>消息模板!$E$44</f>
+        <v>hmsg_message_template-145</v>
       </c>
       <c r="G172" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J172" t="s">
         <v>75</v>
@@ -11396,14 +11958,14 @@
     </row>
     <row r="173" spans="5:11">
       <c r="E173" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F173" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G173" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="J173" t="s">
         <v>75</v>
@@ -11414,14 +11976,14 @@
     </row>
     <row r="174" spans="5:11">
       <c r="E174" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F174" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G174" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="J174" t="s">
         <v>75</v>
@@ -11432,14 +11994,14 @@
     </row>
     <row r="175" spans="5:11">
       <c r="E175" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F175" t="str">
-        <f>消息模板!$E$42</f>
-        <v>hmsg_message_template-141</v>
+        <f>消息模板!$E$43</f>
+        <v>hmsg_message_template-144</v>
       </c>
       <c r="G175" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J175" t="s">
         <v>75</v>
@@ -11450,14 +12012,14 @@
     </row>
     <row r="176" spans="5:11">
       <c r="E176" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F176" t="str">
-        <f>消息模板!$E$42</f>
-        <v>hmsg_message_template-141</v>
+        <f>消息模板!$E$43</f>
+        <v>hmsg_message_template-144</v>
       </c>
       <c r="G176" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J176" t="s">
         <v>75</v>
@@ -11468,14 +12030,14 @@
     </row>
     <row r="177" spans="5:11">
       <c r="E177" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F177" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G177" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="J177" t="s">
         <v>75</v>
@@ -11486,14 +12048,14 @@
     </row>
     <row r="178" spans="5:11">
       <c r="E178" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F178" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G178" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="J178" t="s">
         <v>75</v>
@@ -11504,14 +12066,14 @@
     </row>
     <row r="179" spans="5:11">
       <c r="E179" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F179" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G179" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="J179" t="s">
         <v>75</v>
@@ -11522,14 +12084,14 @@
     </row>
     <row r="180" spans="5:11">
       <c r="E180" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F180" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G180" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="J180" t="s">
         <v>75</v>
@@ -11540,14 +12102,14 @@
     </row>
     <row r="181" spans="5:11">
       <c r="E181" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F181" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G181" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J181" t="s">
         <v>75</v>
@@ -11558,14 +12120,14 @@
     </row>
     <row r="182" spans="5:11">
       <c r="E182" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F182" t="str">
-        <f>消息模板!$E$31</f>
-        <v>hmsg_message_template-86</v>
+        <f>消息模板!$E$42</f>
+        <v>hmsg_message_template-141</v>
       </c>
       <c r="G182" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="J182" t="s">
         <v>75</v>
@@ -11576,14 +12138,14 @@
     </row>
     <row r="183" spans="5:11">
       <c r="E183" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F183" t="str">
-        <f>消息模板!$E$31</f>
-        <v>hmsg_message_template-86</v>
+        <f>消息模板!$E$42</f>
+        <v>hmsg_message_template-141</v>
       </c>
       <c r="G183" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="J183" t="s">
         <v>75</v>
@@ -11594,14 +12156,14 @@
     </row>
     <row r="184" spans="5:11">
       <c r="E184" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F184" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G184" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="J184" t="s">
         <v>75</v>
@@ -11612,14 +12174,14 @@
     </row>
     <row r="185" spans="5:11">
       <c r="E185" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F185" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G185" t="s">
-        <v>148</v>
+        <v>348</v>
       </c>
       <c r="J185" t="s">
         <v>75</v>
@@ -11630,212 +12192,212 @@
     </row>
     <row r="186" spans="5:11">
       <c r="E186" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F186" t="str">
+        <f>消息模板!$E$31</f>
+        <v>hmsg_message_template-86</v>
+      </c>
+      <c r="G186" t="s">
+        <v>349</v>
+      </c>
+      <c r="J186" t="s">
+        <v>75</v>
+      </c>
+      <c r="K186" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="187" spans="5:11">
+      <c r="E187" t="s">
+        <v>314</v>
+      </c>
+      <c r="F187" t="str">
+        <f>消息模板!$E$31</f>
+        <v>hmsg_message_template-86</v>
+      </c>
+      <c r="G187" t="s">
+        <v>148</v>
+      </c>
+      <c r="J187" t="s">
+        <v>75</v>
+      </c>
+      <c r="K187" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="188" spans="5:11">
+      <c r="E188" t="s">
+        <v>314</v>
+      </c>
+      <c r="F188" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-11</v>
       </c>
-      <c r="G186" t="s">
-        <v>323</v>
-      </c>
-      <c r="J186" t="s">
-        <v>75</v>
-      </c>
-      <c r="K186" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="187" spans="5:11">
-      <c r="E187" t="s">
-        <v>304</v>
-      </c>
-      <c r="F187" t="str">
+      <c r="G188" t="s">
+        <v>333</v>
+      </c>
+      <c r="J188" t="s">
+        <v>75</v>
+      </c>
+      <c r="K188" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="189" spans="5:11">
+      <c r="E189" t="s">
+        <v>314</v>
+      </c>
+      <c r="F189" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-11</v>
       </c>
-      <c r="G187" t="s">
-        <v>340</v>
-      </c>
-      <c r="J187" t="s">
-        <v>75</v>
-      </c>
-      <c r="K187" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="188" spans="5:11">
-      <c r="E188" t="s">
-        <v>304</v>
-      </c>
-      <c r="F188" t="str">
+      <c r="G189" t="s">
+        <v>350</v>
+      </c>
+      <c r="J189" t="s">
+        <v>75</v>
+      </c>
+      <c r="K189" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190" spans="5:11">
+      <c r="E190" t="s">
+        <v>314</v>
+      </c>
+      <c r="F190" t="str">
         <f>消息模板!$E$48</f>
         <v>hmsg_message_template-151</v>
       </c>
-      <c r="G188" t="s">
-        <v>340</v>
-      </c>
-      <c r="J188" t="s">
-        <v>75</v>
-      </c>
-      <c r="K188" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="189" spans="5:11">
-      <c r="E189" t="s">
-        <v>304</v>
-      </c>
-      <c r="F189" t="str">
+      <c r="G190" t="s">
+        <v>350</v>
+      </c>
+      <c r="J190" t="s">
+        <v>75</v>
+      </c>
+      <c r="K190" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="191" spans="5:11">
+      <c r="E191" t="s">
+        <v>314</v>
+      </c>
+      <c r="F191" t="str">
         <f>消息模板!$E$39</f>
         <v>hmsg_message_template-130</v>
       </c>
-      <c r="G189" t="s">
-        <v>322</v>
-      </c>
-      <c r="J189" t="s">
-        <v>75</v>
-      </c>
-      <c r="K189" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="190" spans="5:11">
-      <c r="E190" t="s">
-        <v>304</v>
-      </c>
-      <c r="F190" t="str">
+      <c r="G191" t="s">
+        <v>332</v>
+      </c>
+      <c r="J191" t="s">
+        <v>75</v>
+      </c>
+      <c r="K191" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="192" spans="5:11">
+      <c r="E192" t="s">
+        <v>314</v>
+      </c>
+      <c r="F192" t="str">
         <f>消息模板!$E$39</f>
         <v>hmsg_message_template-130</v>
       </c>
-      <c r="G190" t="s">
-        <v>340</v>
-      </c>
-      <c r="J190" t="s">
-        <v>75</v>
-      </c>
-      <c r="K190" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="191" spans="5:11">
-      <c r="E191" t="s">
-        <v>304</v>
-      </c>
-      <c r="F191" t="str">
+      <c r="G192" t="s">
+        <v>350</v>
+      </c>
+      <c r="J192" t="s">
+        <v>75</v>
+      </c>
+      <c r="K192" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="193" spans="5:11">
+      <c r="E193" t="s">
+        <v>314</v>
+      </c>
+      <c r="F193" t="str">
         <f>消息模板!$E$41</f>
         <v>hmsg_message_template-139</v>
       </c>
-      <c r="G191" t="s">
-        <v>341</v>
-      </c>
-      <c r="J191" t="s">
-        <v>75</v>
-      </c>
-      <c r="K191" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="192" spans="5:11">
-      <c r="E192" t="s">
-        <v>304</v>
-      </c>
-      <c r="F192" t="str">
+      <c r="G193" t="s">
+        <v>351</v>
+      </c>
+      <c r="J193" t="s">
+        <v>75</v>
+      </c>
+      <c r="K193" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="194" spans="5:11">
+      <c r="E194" t="s">
+        <v>314</v>
+      </c>
+      <c r="F194" t="str">
         <f>E9</f>
         <v>hmsg_message_template-10</v>
       </c>
-      <c r="G192" t="s">
-        <v>342</v>
-      </c>
-      <c r="J192">
+      <c r="G194" t="s">
+        <v>352</v>
+      </c>
+      <c r="J194">
         <v>0</v>
       </c>
-      <c r="K192">
+      <c r="K194">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="5:11">
-      <c r="E193" t="s">
-        <v>304</v>
-      </c>
-      <c r="F193" t="str">
+    <row r="195" spans="5:11">
+      <c r="E195" t="s">
+        <v>314</v>
+      </c>
+      <c r="F195" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
-      <c r="G193" t="s">
-        <v>323</v>
-      </c>
-      <c r="J193" t="s">
-        <v>75</v>
-      </c>
-      <c r="K193" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="194" spans="5:11">
-      <c r="E194" t="s">
-        <v>304</v>
-      </c>
-      <c r="F194" t="str">
+      <c r="G195" t="s">
+        <v>333</v>
+      </c>
+      <c r="J195" t="s">
+        <v>75</v>
+      </c>
+      <c r="K195" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="196" spans="5:11">
+      <c r="E196" t="s">
+        <v>314</v>
+      </c>
+      <c r="F196" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
-      <c r="G194" t="s">
-        <v>340</v>
-      </c>
-      <c r="J194" t="s">
-        <v>75</v>
-      </c>
-      <c r="K194" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="195" spans="5:11">
-      <c r="E195" t="s">
-        <v>304</v>
-      </c>
-      <c r="F195" t="str">
-        <f>消息模板!$E$38</f>
-        <v>hmsg_message_template-129</v>
-      </c>
-      <c r="G195" t="s">
-        <v>322</v>
-      </c>
-      <c r="J195" t="s">
-        <v>75</v>
-      </c>
-      <c r="K195" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="196" spans="5:11">
-      <c r="E196" t="s">
-        <v>304</v>
-      </c>
-      <c r="F196" t="str">
-        <f>E38</f>
-        <v>hmsg_message_template-129</v>
-      </c>
       <c r="G196" t="s">
-        <v>342</v>
-      </c>
-      <c r="J196">
-        <v>0</v>
-      </c>
-      <c r="K196">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="J196" t="s">
+        <v>75</v>
+      </c>
+      <c r="K196" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="197" spans="5:11">
       <c r="E197" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F197" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G197" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="J197" t="s">
         <v>75</v>
@@ -11846,181 +12408,397 @@
     </row>
     <row r="198" spans="5:11">
       <c r="E198" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F198" t="str">
+        <f>E38</f>
+        <v>hmsg_message_template-129</v>
+      </c>
+      <c r="G198" t="s">
+        <v>352</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="5:11">
+      <c r="E199" t="s">
+        <v>314</v>
+      </c>
+      <c r="F199" t="str">
+        <f>消息模板!$E$38</f>
+        <v>hmsg_message_template-129</v>
+      </c>
+      <c r="G199" t="s">
+        <v>350</v>
+      </c>
+      <c r="J199" t="s">
+        <v>75</v>
+      </c>
+      <c r="K199" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="200" spans="5:11">
+      <c r="E200" t="s">
+        <v>314</v>
+      </c>
+      <c r="F200" t="str">
         <f>消息模板!$E$40</f>
         <v>hmsg_message_template-138</v>
       </c>
-      <c r="G198" t="s">
-        <v>341</v>
-      </c>
-      <c r="J198" t="s">
-        <v>75</v>
-      </c>
-      <c r="K198" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="199" spans="5:11">
-      <c r="E199" t="s">
-        <v>304</v>
-      </c>
-      <c r="F199" t="str">
+      <c r="G200" t="s">
+        <v>351</v>
+      </c>
+      <c r="J200" t="s">
+        <v>75</v>
+      </c>
+      <c r="K200" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="201" spans="5:11">
+      <c r="E201" t="s">
+        <v>314</v>
+      </c>
+      <c r="F201" t="str">
         <f>消息模板!$E$47</f>
         <v>hmsg_message_template-150</v>
       </c>
-      <c r="G199" t="s">
-        <v>340</v>
-      </c>
-      <c r="J199" t="s">
-        <v>75</v>
-      </c>
-      <c r="K199" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="200" spans="5:11">
-      <c r="E200" t="s">
-        <v>304</v>
-      </c>
-      <c r="F200" t="str">
+      <c r="G201" t="s">
+        <v>350</v>
+      </c>
+      <c r="J201" t="s">
+        <v>75</v>
+      </c>
+      <c r="K201" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="202" spans="5:11">
+      <c r="E202" t="s">
+        <v>314</v>
+      </c>
+      <c r="F202" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-12</v>
       </c>
-      <c r="G200" t="s">
-        <v>305</v>
-      </c>
-      <c r="J200" t="s">
-        <v>75</v>
-      </c>
-      <c r="K200" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="201" spans="5:11">
-      <c r="E201" t="s">
-        <v>304</v>
-      </c>
-      <c r="F201" t="str">
+      <c r="G202" t="s">
+        <v>315</v>
+      </c>
+      <c r="J202" t="s">
+        <v>75</v>
+      </c>
+      <c r="K202" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="203" spans="5:11">
+      <c r="E203" t="s">
+        <v>314</v>
+      </c>
+      <c r="F203" t="str">
         <f>消息模板!$E$51</f>
         <v>hmsg_message_template-154</v>
       </c>
-      <c r="G201" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="J201" t="s">
-        <v>75</v>
-      </c>
-      <c r="K201" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="202" spans="5:11">
-      <c r="E202" t="s">
-        <v>304</v>
-      </c>
-      <c r="F202" t="str">
+      <c r="G203" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J203" t="s">
+        <v>75</v>
+      </c>
+      <c r="K203" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="204" spans="5:11">
+      <c r="E204" t="s">
+        <v>314</v>
+      </c>
+      <c r="F204" t="str">
         <f>消息模板!$E$51</f>
         <v>hmsg_message_template-154</v>
       </c>
-      <c r="G202" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="J202" t="s">
-        <v>75</v>
-      </c>
-      <c r="K202" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="203" spans="5:11">
-      <c r="E203" t="s">
-        <v>304</v>
-      </c>
-      <c r="F203" t="str">
+      <c r="G204" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="J204" t="s">
+        <v>75</v>
+      </c>
+      <c r="K204" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="205" spans="5:11">
+      <c r="E205" t="s">
+        <v>314</v>
+      </c>
+      <c r="F205" t="str">
         <f>消息模板!$E$52</f>
         <v>hmsg_message_template-155</v>
       </c>
-      <c r="G203" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="J203" t="s">
-        <v>75</v>
-      </c>
-      <c r="K203" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="204" spans="5:11">
-      <c r="E204" t="s">
-        <v>304</v>
-      </c>
-      <c r="F204" t="str">
+      <c r="G205" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J205" t="s">
+        <v>75</v>
+      </c>
+      <c r="K205" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="206" spans="5:11">
+      <c r="E206" t="s">
+        <v>314</v>
+      </c>
+      <c r="F206" t="str">
         <f>消息模板!$E$52</f>
         <v>hmsg_message_template-155</v>
       </c>
-      <c r="G204" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="J204" t="s">
-        <v>75</v>
-      </c>
-      <c r="K204" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="205" spans="5:11">
-      <c r="E205" t="s">
-        <v>304</v>
-      </c>
-      <c r="F205" t="str">
+      <c r="G206" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="J206" t="s">
+        <v>75</v>
+      </c>
+      <c r="K206" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="207" spans="5:11">
+      <c r="E207" t="s">
+        <v>314</v>
+      </c>
+      <c r="F207" t="str">
         <f>消息模板!$E$53</f>
         <v>hmsg_message_template-156</v>
       </c>
-      <c r="G205" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="J205" t="s">
-        <v>75</v>
-      </c>
-      <c r="K205" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="206" spans="5:11">
-      <c r="E206" t="s">
-        <v>304</v>
-      </c>
-      <c r="F206" t="str">
+      <c r="G207" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="J207" t="s">
+        <v>75</v>
+      </c>
+      <c r="K207" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="208" spans="5:11">
+      <c r="E208" t="s">
+        <v>314</v>
+      </c>
+      <c r="F208" t="str">
         <f>E54</f>
         <v>hmsg_message_template-157</v>
       </c>
-      <c r="G206" t="s">
-        <v>314</v>
-      </c>
-      <c r="J206">
+      <c r="G208" t="s">
+        <v>324</v>
+      </c>
+      <c r="J208">
         <v>0</v>
       </c>
-      <c r="K206">
+      <c r="K208">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="5:11">
-      <c r="E207" t="s">
-        <v>304</v>
-      </c>
-      <c r="F207" t="str">
+    <row r="209" spans="5:11">
+      <c r="E209" t="s">
+        <v>314</v>
+      </c>
+      <c r="F209" t="str">
         <f>E54</f>
         <v>hmsg_message_template-157</v>
       </c>
-      <c r="G207" t="s">
-        <v>345</v>
-      </c>
-      <c r="J207">
+      <c r="G209" t="s">
+        <v>355</v>
+      </c>
+      <c r="J209">
         <v>0</v>
       </c>
-      <c r="K207">
+      <c r="K209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="5:11">
+      <c r="E210" t="s">
+        <v>314</v>
+      </c>
+      <c r="F210" t="str">
+        <f>E55</f>
+        <v>hmsg_message_template-158</v>
+      </c>
+      <c r="G210" t="s">
+        <v>347</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="5:11">
+      <c r="E211" t="s">
+        <v>314</v>
+      </c>
+      <c r="F211" t="str">
+        <f>E55</f>
+        <v>hmsg_message_template-158</v>
+      </c>
+      <c r="G211" t="s">
+        <v>356</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="5:11">
+      <c r="E212" t="s">
+        <v>314</v>
+      </c>
+      <c r="F212" t="str">
+        <f>E55</f>
+        <v>hmsg_message_template-158</v>
+      </c>
+      <c r="G212" t="s">
+        <v>357</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="5:11">
+      <c r="E213" t="s">
+        <v>314</v>
+      </c>
+      <c r="F213" t="str">
+        <f>E56</f>
+        <v>hmsg_message_template-159</v>
+      </c>
+      <c r="G213" t="s">
+        <v>358</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="5:11">
+      <c r="E214" t="s">
+        <v>314</v>
+      </c>
+      <c r="F214" t="str">
+        <f>E56</f>
+        <v>hmsg_message_template-159</v>
+      </c>
+      <c r="G214" t="s">
+        <v>359</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="5:11">
+      <c r="E215" t="s">
+        <v>314</v>
+      </c>
+      <c r="F215" t="str">
+        <f>E56</f>
+        <v>hmsg_message_template-159</v>
+      </c>
+      <c r="G215" t="s">
+        <v>360</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="5:11">
+      <c r="E216" t="s">
+        <v>314</v>
+      </c>
+      <c r="F216" t="str">
+        <f>E56</f>
+        <v>hmsg_message_template-159</v>
+      </c>
+      <c r="G216" t="s">
+        <v>347</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="5:11">
+      <c r="E217" t="s">
+        <v>314</v>
+      </c>
+      <c r="F217" t="str">
+        <f>E56</f>
+        <v>hmsg_message_template-159</v>
+      </c>
+      <c r="G217" t="s">
+        <v>361</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="5:11">
+      <c r="E218" t="s">
+        <v>314</v>
+      </c>
+      <c r="F218" t="str">
+        <f>E56</f>
+        <v>hmsg_message_template-159</v>
+      </c>
+      <c r="G218" t="s">
+        <v>349</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="5:11">
+      <c r="E219" t="s">
+        <v>314</v>
+      </c>
+      <c r="F219" t="str">
+        <f>E56</f>
+        <v>hmsg_message_template-159</v>
+      </c>
+      <c r="G219" t="s">
+        <v>362</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
         <v>0</v>
       </c>
     </row>
@@ -12034,10 +12812,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C64" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I65" workbookViewId="0">
+      <selection activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -12080,7 +12858,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -12092,13 +12870,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>88</v>
@@ -12107,33 +12885,33 @@
         <v>89</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="I7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="J7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="M7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="N7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="O7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -12142,33 +12920,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="I8" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="J8" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K8" t="s">
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M8" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="N8" t="s">
         <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -12177,33 +12955,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="I9" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="J9" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K9" t="s">
         <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M9" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="N9" t="s">
         <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -12212,33 +12990,33 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="I10" t="s">
         <v>223</v>
       </c>
       <c r="J10" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K10" t="s">
         <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M10" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="N10" t="s">
         <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -12247,33 +13025,33 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="I11" t="s">
         <v>196</v>
       </c>
       <c r="J11" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K11" t="s">
         <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M11" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="N11" t="s">
         <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -12282,33 +13060,33 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="I12" t="s">
         <v>174</v>
       </c>
       <c r="J12" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M12" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="N12" t="s">
         <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -12317,33 +13095,33 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="I13" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="J13" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K13" t="s">
         <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M13" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="N13" t="s">
         <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -12352,33 +13130,33 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="I14" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="J14" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K14" t="s">
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M14" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="N14" t="s">
         <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -12387,33 +13165,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="I15" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="J15" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K15" t="s">
         <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M15" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="N15" t="s">
         <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -12422,33 +13200,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="I16" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="J16" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K16" t="s">
         <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M16" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="N16" t="s">
         <v>74</v>
       </c>
       <c r="O16" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
@@ -12457,33 +13235,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="I17" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="J17" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K17" t="s">
         <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M17" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="N17" t="s">
         <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -12492,33 +13270,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="I18" t="s">
         <v>238</v>
       </c>
       <c r="J18" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K18" t="s">
         <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M18" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="N18" t="s">
         <v>75</v>
       </c>
       <c r="O18" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -12527,33 +13305,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="I19" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="J19" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M19" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="N19" t="s">
         <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
@@ -12562,33 +13340,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="I20" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="J20" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K20" t="s">
         <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M20" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="N20" t="s">
         <v>75</v>
       </c>
       <c r="O20" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -12597,33 +13375,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="I21" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="J21" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K21" t="s">
         <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M21" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="N21" t="s">
         <v>74</v>
       </c>
       <c r="O21" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -12632,33 +13410,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="I22" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="J22" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K22" t="s">
         <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M22" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="N22" t="s">
         <v>75</v>
       </c>
       <c r="O22" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -12667,33 +13445,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="I23" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="J23" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K23" t="s">
         <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M23" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="N23" t="s">
         <v>75</v>
       </c>
       <c r="O23" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -12702,33 +13480,33 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="I24" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="J24" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M24" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="N24" t="s">
         <v>75</v>
       </c>
       <c r="O24" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -12737,33 +13515,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="I25" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="J25" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K25" t="s">
         <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M25" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="N25" t="s">
         <v>75</v>
       </c>
       <c r="O25" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
@@ -12772,33 +13550,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="I26" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="J26" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M26" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="N26" t="s">
         <v>74</v>
       </c>
       <c r="O26" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -12807,33 +13585,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="I27" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="J27" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K27" t="s">
         <v>74</v>
       </c>
       <c r="L27" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M27" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="N27" t="s">
         <v>74</v>
       </c>
       <c r="O27" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -12842,33 +13620,33 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="I28" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="J28" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K28" t="s">
         <v>74</v>
       </c>
       <c r="L28" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M28" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="N28" t="s">
         <v>74</v>
       </c>
       <c r="O28" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="5:15">
       <c r="E29" s="8" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
@@ -12877,33 +13655,33 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="I29" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="J29" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K29" t="s">
         <v>74</v>
       </c>
       <c r="L29" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M29" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="N29" t="s">
         <v>74</v>
       </c>
       <c r="O29" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
@@ -12912,33 +13690,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="I30" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="J30" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K30" t="s">
         <v>74</v>
       </c>
       <c r="L30" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M30" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="N30" t="s">
         <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -12947,33 +13725,33 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="I31" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="J31" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K31" t="s">
         <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M31" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="N31" t="s">
         <v>74</v>
       </c>
       <c r="O31" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -12982,33 +13760,33 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K32" s="9">
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="5:15">
       <c r="E33" s="1" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="F33" s="10">
         <v>0</v>
@@ -13017,19 +13795,19 @@
         <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K33" s="10">
         <v>1</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>282</v>
@@ -13038,12 +13816,12 @@
         <v>1</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="5:15">
       <c r="E34" s="1" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
@@ -13052,19 +13830,19 @@
         <v>0</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K34" s="10">
         <v>1</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>282</v>
@@ -13073,12 +13851,12 @@
         <v>1</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="5:15">
       <c r="E35" s="1" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
@@ -13087,19 +13865,19 @@
         <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K35" s="10">
         <v>1</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>282</v>
@@ -13108,12 +13886,12 @@
         <v>1</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="5:15">
       <c r="E36" s="1" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="F36" s="10">
         <v>0</v>
@@ -13122,19 +13900,19 @@
         <v>0</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K36" s="10">
         <v>1</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>295</v>
@@ -13143,189 +13921,210 @@
         <v>1</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="5:15">
+      <c r="E37" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="K37" s="10">
+        <v>1</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="N37" s="10">
+        <v>1</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="5:15">
+      <c r="E38" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="K38" s="10">
+        <v>1</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="N38" s="10">
+        <v>1</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
         <v>104</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>51</v>
       </c>
-      <c r="C38" t="s">
-        <v>467</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="H38" s="12" t="s">
+      <c r="C40" t="s">
+        <v>489</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I38" t="s">
-        <v>472</v>
-      </c>
-      <c r="J38" t="s">
-        <v>473</v>
-      </c>
-      <c r="K38" t="s">
-        <v>474</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="I40" t="s">
+        <v>494</v>
+      </c>
+      <c r="J40" t="s">
+        <v>495</v>
+      </c>
+      <c r="K40" t="s">
+        <v>496</v>
+      </c>
+      <c r="L40" t="s">
         <v>84</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="5:13">
-      <c r="E39" t="s">
-        <v>475</v>
-      </c>
-      <c r="F39" t="str">
+    <row r="41" spans="5:13">
+      <c r="E41" t="s">
+        <v>497</v>
+      </c>
+      <c r="F41" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
-      <c r="G39" t="s">
-        <v>476</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G41" t="s">
+        <v>498</v>
+      </c>
+      <c r="H41" t="s">
         <v>201</v>
       </c>
-      <c r="I39" t="str">
+      <c r="I41" t="str">
         <f>邮箱服务配置!$E$8</f>
         <v>hmsg_email_server-9</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K41" t="s">
         <v>91</v>
       </c>
-      <c r="L39" t="s">
-        <v>75</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="L41" t="s">
+        <v>75</v>
+      </c>
+      <c r="M41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="5:13">
-      <c r="E40" t="s">
-        <v>477</v>
-      </c>
-      <c r="F40" t="str">
+    <row r="42" spans="5:13">
+      <c r="E42" t="s">
+        <v>499</v>
+      </c>
+      <c r="F42" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
-      <c r="G40" t="s">
-        <v>476</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G42" t="s">
+        <v>498</v>
+      </c>
+      <c r="H42" t="s">
         <v>134</v>
       </c>
-      <c r="I40" t="str">
+      <c r="I42" t="str">
         <f>邮箱服务配置!$E$8</f>
         <v>hmsg_email_server-9</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K42" t="s">
         <v>91</v>
       </c>
-      <c r="L40">
+      <c r="L42">
         <v>0</v>
       </c>
-      <c r="M40">
+      <c r="M42">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="5:13">
-      <c r="E41" t="s">
-        <v>478</v>
-      </c>
-      <c r="F41" t="str">
+    <row r="43" spans="5:13">
+      <c r="E43" t="s">
+        <v>500</v>
+      </c>
+      <c r="F43" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
-      <c r="G41" t="s">
-        <v>479</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G43" t="s">
+        <v>501</v>
+      </c>
+      <c r="H43" t="s">
         <v>138</v>
       </c>
-      <c r="L41" t="s">
-        <v>75</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="L43" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="5:13">
-      <c r="E42" t="s">
-        <v>480</v>
-      </c>
-      <c r="F42" t="str">
+    <row r="44" spans="5:13">
+      <c r="E44" t="s">
+        <v>502</v>
+      </c>
+      <c r="F44" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
-      <c r="G42" t="s">
-        <v>479</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G44" t="s">
+        <v>501</v>
+      </c>
+      <c r="H44" t="s">
         <v>222</v>
-      </c>
-      <c r="L42" t="s">
-        <v>75</v>
-      </c>
-      <c r="M42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="5:13">
-      <c r="E43" t="s">
-        <v>481</v>
-      </c>
-      <c r="F43" t="str">
-        <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
-      </c>
-      <c r="G43" t="s">
-        <v>476</v>
-      </c>
-      <c r="H43" t="s">
-        <v>195</v>
-      </c>
-      <c r="I43" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K43" t="s">
-        <v>91</v>
-      </c>
-      <c r="L43" t="s">
-        <v>75</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="5:13">
-      <c r="E44" t="s">
-        <v>482</v>
-      </c>
-      <c r="F44" t="str">
-        <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
-      </c>
-      <c r="G44" t="s">
-        <v>479</v>
-      </c>
-      <c r="H44" t="s">
-        <v>199</v>
       </c>
       <c r="L44" t="s">
         <v>75</v>
@@ -13336,38 +14135,45 @@
     </row>
     <row r="45" spans="5:13">
       <c r="E45" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G45" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="H45" t="s">
-        <v>191</v>
+        <v>195</v>
+      </c>
+      <c r="I45" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K45" t="s">
+        <v>91</v>
       </c>
       <c r="L45" t="s">
         <v>75</v>
       </c>
-      <c r="M45" t="s">
-        <v>74</v>
+      <c r="M45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="5:13">
       <c r="E46" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="F46" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G46" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="H46" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="L46" t="s">
         <v>75</v>
@@ -13378,45 +14184,38 @@
     </row>
     <row r="47" spans="5:13">
       <c r="E47" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="F47" t="str">
-        <f>发送配置!$E$12</f>
-        <v>hmsg_template_server-12</v>
+        <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
       </c>
       <c r="G47" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="H47" t="s">
-        <v>173</v>
-      </c>
-      <c r="I47" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K47" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s">
         <v>75</v>
       </c>
-      <c r="M47">
-        <v>1</v>
+      <c r="M47" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="5:13">
       <c r="E48" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="F48" t="str">
-        <f>发送配置!$E$12</f>
-        <v>hmsg_template_server-12</v>
+        <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
       </c>
       <c r="G48" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="H48" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="L48" t="s">
         <v>75</v>
@@ -13427,38 +14226,45 @@
     </row>
     <row r="49" spans="5:13">
       <c r="E49" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G49" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="H49" t="s">
-        <v>169</v>
+        <v>173</v>
+      </c>
+      <c r="I49" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K49" t="s">
+        <v>91</v>
       </c>
       <c r="L49" t="s">
         <v>75</v>
       </c>
-      <c r="M49" t="s">
-        <v>74</v>
+      <c r="M49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="5:13">
       <c r="E50" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="F50" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G50" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="H50" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="L50" t="s">
         <v>75</v>
@@ -13469,17 +14275,17 @@
     </row>
     <row r="51" spans="5:13">
       <c r="E51" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="F51" t="str">
-        <f>发送配置!$E$13</f>
-        <v>hmsg_template_server-13</v>
+        <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
       </c>
       <c r="G51" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="H51" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="L51" t="s">
         <v>75</v>
@@ -13490,17 +14296,17 @@
     </row>
     <row r="52" spans="5:13">
       <c r="E52" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="F52" t="str">
-        <f>发送配置!$E$13</f>
-        <v>hmsg_template_server-13</v>
+        <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
       </c>
       <c r="G52" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="H52" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="L52" t="s">
         <v>75</v>
@@ -13511,17 +14317,17 @@
     </row>
     <row r="53" spans="5:13">
       <c r="E53" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="F53" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G53" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="H53" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L53" t="s">
         <v>75</v>
@@ -13532,17 +14338,17 @@
     </row>
     <row r="54" spans="5:13">
       <c r="E54" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="F54" t="str">
-        <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
+        <f>发送配置!$E$13</f>
+        <v>hmsg_template_server-13</v>
       </c>
       <c r="G54" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="H54" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="L54" t="s">
         <v>75</v>
@@ -13553,17 +14359,17 @@
     </row>
     <row r="55" spans="5:13">
       <c r="E55" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="F55" t="str">
-        <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
+        <f>发送配置!$E$13</f>
+        <v>hmsg_template_server-13</v>
       </c>
       <c r="G55" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="H55" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="L55" t="s">
         <v>75</v>
@@ -13574,17 +14380,17 @@
     </row>
     <row r="56" spans="5:13">
       <c r="E56" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="F56" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G56" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="L56" t="s">
         <v>75</v>
@@ -13595,59 +14401,59 @@
     </row>
     <row r="57" spans="5:13">
       <c r="E57" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="F57" t="str">
+        <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>506</v>
+      </c>
+      <c r="H57" t="s">
+        <v>159</v>
+      </c>
+      <c r="L57" t="s">
+        <v>75</v>
+      </c>
+      <c r="M57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="5:13">
+      <c r="E58" t="s">
+        <v>517</v>
+      </c>
+      <c r="F58" t="str">
+        <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>506</v>
+      </c>
+      <c r="H58" t="s">
+        <v>155</v>
+      </c>
+      <c r="L58" t="s">
+        <v>75</v>
+      </c>
+      <c r="M58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="5:13">
+      <c r="E59" t="s">
+        <v>518</v>
+      </c>
+      <c r="F59" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-19</v>
       </c>
-      <c r="G57" t="s">
-        <v>479</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G59" t="s">
+        <v>501</v>
+      </c>
+      <c r="H59" t="s">
         <v>220</v>
-      </c>
-      <c r="L57" t="s">
-        <v>75</v>
-      </c>
-      <c r="M57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="5:13">
-      <c r="E58" t="s">
-        <v>497</v>
-      </c>
-      <c r="F58" t="str">
-        <f>发送配置!$E$17</f>
-        <v>hmsg_template_server-20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>479</v>
-      </c>
-      <c r="H58" t="s">
-        <v>217</v>
-      </c>
-      <c r="L58" t="s">
-        <v>75</v>
-      </c>
-      <c r="M58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="5:13">
-      <c r="E59" t="s">
-        <v>498</v>
-      </c>
-      <c r="F59" t="str">
-        <f>发送配置!$E$17</f>
-        <v>hmsg_template_server-20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>484</v>
-      </c>
-      <c r="H59" t="s">
-        <v>213</v>
       </c>
       <c r="L59" t="s">
         <v>75</v>
@@ -13658,17 +14464,17 @@
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G60" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="H60" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L60" t="s">
         <v>75</v>
@@ -13679,143 +14485,136 @@
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="F61" t="str">
+        <f>发送配置!$E$17</f>
+        <v>hmsg_template_server-20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>506</v>
+      </c>
+      <c r="H61" t="s">
+        <v>213</v>
+      </c>
+      <c r="L61" t="s">
+        <v>75</v>
+      </c>
+      <c r="M61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="5:13">
+      <c r="E62" t="s">
+        <v>521</v>
+      </c>
+      <c r="F62" t="str">
+        <f>发送配置!$E$17</f>
+        <v>hmsg_template_server-20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>506</v>
+      </c>
+      <c r="H62" t="s">
+        <v>209</v>
+      </c>
+      <c r="L62" t="s">
+        <v>75</v>
+      </c>
+      <c r="M62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="5:13">
+      <c r="E63" t="s">
+        <v>522</v>
+      </c>
+      <c r="F63" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
-      <c r="G61" t="s">
-        <v>476</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="G63" t="s">
+        <v>498</v>
+      </c>
+      <c r="H63" t="s">
         <v>237</v>
       </c>
-      <c r="I61" t="str">
+      <c r="I63" t="str">
         <f>邮箱服务配置!$E$8</f>
         <v>hmsg_email_server-9</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K63" t="s">
         <v>91</v>
       </c>
-      <c r="L61" t="s">
-        <v>75</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="L63" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="5:13">
-      <c r="E62" t="s">
-        <v>501</v>
-      </c>
-      <c r="F62" t="str">
+    <row r="64" spans="5:13">
+      <c r="E64" t="s">
+        <v>523</v>
+      </c>
+      <c r="F64" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
-      <c r="G62" t="s">
-        <v>479</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G64" t="s">
+        <v>501</v>
+      </c>
+      <c r="H64" t="s">
         <v>241</v>
       </c>
-      <c r="L62" t="s">
-        <v>75</v>
-      </c>
-      <c r="M62" t="s">
+      <c r="L64" t="s">
+        <v>75</v>
+      </c>
+      <c r="M64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="5:13">
-      <c r="E63" t="s">
-        <v>502</v>
-      </c>
-      <c r="F63" t="str">
+    <row r="65" spans="5:13">
+      <c r="E65" t="s">
+        <v>524</v>
+      </c>
+      <c r="F65" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-22</v>
       </c>
-      <c r="G63" t="s">
-        <v>479</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G65" t="s">
+        <v>501</v>
+      </c>
+      <c r="H65" t="s">
         <v>254</v>
       </c>
-      <c r="L63" t="s">
-        <v>75</v>
-      </c>
-      <c r="M63" t="s">
+      <c r="L65" t="s">
+        <v>75</v>
+      </c>
+      <c r="M65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="5:13">
-      <c r="E64" t="s">
-        <v>503</v>
-      </c>
-      <c r="F64" t="str">
+    <row r="66" spans="5:13">
+      <c r="E66" t="s">
+        <v>525</v>
+      </c>
+      <c r="F66" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-35</v>
       </c>
-      <c r="G64" t="s">
-        <v>476</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G66" t="s">
+        <v>498</v>
+      </c>
+      <c r="H66" t="s">
         <v>205</v>
       </c>
-      <c r="I64" t="str">
+      <c r="I66" t="str">
         <f>邮箱服务配置!$E$8</f>
         <v>hmsg_email_server-9</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K66" t="s">
         <v>91</v>
-      </c>
-      <c r="L64" t="s">
-        <v>75</v>
-      </c>
-      <c r="M64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="5:13">
-      <c r="E65" t="s">
-        <v>504</v>
-      </c>
-      <c r="F65" t="str">
-        <f>发送配置!$E$21</f>
-        <v>hmsg_template_server-37</v>
-      </c>
-      <c r="G65" t="s">
-        <v>476</v>
-      </c>
-      <c r="H65" t="s">
-        <v>505</v>
-      </c>
-      <c r="I65" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K65" t="s">
-        <v>91</v>
-      </c>
-      <c r="L65" t="s">
-        <v>75</v>
-      </c>
-      <c r="M65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="5:13">
-      <c r="E66" t="s">
-        <v>506</v>
-      </c>
-      <c r="F66" t="str">
-        <f>发送配置!$E$21</f>
-        <v>hmsg_template_server-37</v>
-      </c>
-      <c r="G66" t="s">
-        <v>479</v>
-      </c>
-      <c r="H66" t="s">
-        <v>507</v>
       </c>
       <c r="L66" t="s">
         <v>75</v>
@@ -13826,17 +14625,24 @@
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G67" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="H67" t="s">
-        <v>509</v>
+        <v>527</v>
+      </c>
+      <c r="I67" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K67" t="s">
+        <v>91</v>
       </c>
       <c r="L67" t="s">
         <v>75</v>
@@ -13847,17 +14653,17 @@
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G68" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="H68" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="L68" t="s">
         <v>75</v>
@@ -13868,24 +14674,17 @@
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="F69" t="str">
-        <f>发送配置!$E$22</f>
-        <v>hmsg_template_server-49</v>
+        <f>发送配置!$E$21</f>
+        <v>hmsg_template_server-37</v>
       </c>
       <c r="G69" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="H69" t="s">
-        <v>127</v>
-      </c>
-      <c r="I69" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K69" t="s">
-        <v>91</v>
+        <v>531</v>
       </c>
       <c r="L69" t="s">
         <v>75</v>
@@ -13896,17 +14695,17 @@
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="F70" t="str">
-        <f>发送配置!$E$22</f>
-        <v>hmsg_template_server-49</v>
+        <f>发送配置!$E$21</f>
+        <v>hmsg_template_server-37</v>
       </c>
       <c r="G70" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="H70" t="s">
-        <v>131</v>
+        <v>533</v>
       </c>
       <c r="L70" t="s">
         <v>75</v>
@@ -13917,17 +14716,24 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G71" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="H71" t="s">
-        <v>119</v>
+        <v>127</v>
+      </c>
+      <c r="I71" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K71" t="s">
+        <v>91</v>
       </c>
       <c r="L71" t="s">
         <v>75</v>
@@ -13938,66 +14744,59 @@
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="F72" t="str">
+        <f>发送配置!$E$22</f>
+        <v>hmsg_template_server-49</v>
+      </c>
+      <c r="G72" t="s">
+        <v>501</v>
+      </c>
+      <c r="H72" t="s">
+        <v>131</v>
+      </c>
+      <c r="L72" t="s">
+        <v>75</v>
+      </c>
+      <c r="M72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="5:13">
+      <c r="E73" t="s">
+        <v>536</v>
+      </c>
+      <c r="F73" t="str">
+        <f>发送配置!$E$22</f>
+        <v>hmsg_template_server-49</v>
+      </c>
+      <c r="G73" t="s">
+        <v>506</v>
+      </c>
+      <c r="H73" t="s">
+        <v>119</v>
+      </c>
+      <c r="L73" t="s">
+        <v>75</v>
+      </c>
+      <c r="M73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="5:13">
+      <c r="E74" t="s">
+        <v>537</v>
+      </c>
+      <c r="F74" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
-      <c r="G72" t="s">
-        <v>476</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="G74" t="s">
+        <v>498</v>
+      </c>
+      <c r="H74" t="s">
         <v>263</v>
-      </c>
-      <c r="I72" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K72" t="s">
-        <v>91</v>
-      </c>
-      <c r="L72" t="s">
-        <v>75</v>
-      </c>
-      <c r="M72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="5:13">
-      <c r="E73" t="s">
-        <v>516</v>
-      </c>
-      <c r="F73" t="str">
-        <f>发送配置!$E$23</f>
-        <v>hmsg_template_server-50</v>
-      </c>
-      <c r="G73" t="s">
-        <v>479</v>
-      </c>
-      <c r="H73" t="s">
-        <v>267</v>
-      </c>
-      <c r="L73" t="s">
-        <v>75</v>
-      </c>
-      <c r="M73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="5:13">
-      <c r="E74" t="s">
-        <v>517</v>
-      </c>
-      <c r="F74" t="str">
-        <f>发送配置!$E$24</f>
-        <v>hmsg_template_server-51</v>
-      </c>
-      <c r="G74" t="s">
-        <v>476</v>
-      </c>
-      <c r="H74" t="s">
-        <v>230</v>
       </c>
       <c r="I74" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -14009,23 +14808,23 @@
       <c r="L74" t="s">
         <v>75</v>
       </c>
-      <c r="M74">
-        <v>1</v>
+      <c r="M74" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="5:13">
       <c r="E75" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="F75" t="str">
-        <f>发送配置!$E$24</f>
-        <v>hmsg_template_server-51</v>
+        <f>发送配置!$E$23</f>
+        <v>hmsg_template_server-50</v>
       </c>
       <c r="G75" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="H75" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="L75" t="s">
         <v>75</v>
@@ -14036,234 +14835,241 @@
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G76" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="H76" t="s">
-        <v>226</v>
+        <v>230</v>
+      </c>
+      <c r="I76" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K76" t="s">
+        <v>91</v>
       </c>
       <c r="L76" t="s">
         <v>75</v>
       </c>
-      <c r="M76" t="s">
-        <v>74</v>
+      <c r="M76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="F77" t="str">
+        <f>发送配置!$E$24</f>
+        <v>hmsg_template_server-51</v>
+      </c>
+      <c r="G77" t="s">
+        <v>501</v>
+      </c>
+      <c r="H77" t="s">
+        <v>234</v>
+      </c>
+      <c r="L77" t="s">
+        <v>75</v>
+      </c>
+      <c r="M77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="5:13">
+      <c r="E78" t="s">
+        <v>541</v>
+      </c>
+      <c r="F78" t="str">
+        <f>发送配置!$E$24</f>
+        <v>hmsg_template_server-51</v>
+      </c>
+      <c r="G78" t="s">
+        <v>506</v>
+      </c>
+      <c r="H78" t="s">
+        <v>226</v>
+      </c>
+      <c r="L78" t="s">
+        <v>75</v>
+      </c>
+      <c r="M78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="5:13">
+      <c r="E79" t="s">
+        <v>542</v>
+      </c>
+      <c r="F79" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
-      <c r="G77" t="s">
-        <v>476</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="G79" t="s">
+        <v>498</v>
+      </c>
+      <c r="H79" t="s">
         <v>257</v>
       </c>
-      <c r="I77" t="str">
+      <c r="I79" t="str">
         <f>邮箱服务配置!$E$8</f>
         <v>hmsg_email_server-9</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K79" t="s">
         <v>91</v>
       </c>
-      <c r="L77" t="s">
-        <v>75</v>
-      </c>
-      <c r="M77" t="s">
+      <c r="L79" t="s">
+        <v>75</v>
+      </c>
+      <c r="M79" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="5:13">
-      <c r="E78" t="s">
-        <v>521</v>
-      </c>
-      <c r="F78" t="str">
+    <row r="80" spans="5:13">
+      <c r="E80" t="s">
+        <v>543</v>
+      </c>
+      <c r="F80" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
-      <c r="G78" t="s">
-        <v>479</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="G80" t="s">
+        <v>501</v>
+      </c>
+      <c r="H80" t="s">
         <v>260</v>
       </c>
-      <c r="L78" t="s">
-        <v>75</v>
-      </c>
-      <c r="M78" t="s">
+      <c r="L80" t="s">
+        <v>75</v>
+      </c>
+      <c r="M80" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="5:13">
-      <c r="E79" t="s">
-        <v>522</v>
-      </c>
-      <c r="F79" t="str">
+    <row r="81" spans="5:13">
+      <c r="E81" t="s">
+        <v>544</v>
+      </c>
+      <c r="F81" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-63</v>
       </c>
-      <c r="G79" t="s">
-        <v>484</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="G81" t="s">
+        <v>506</v>
+      </c>
+      <c r="H81" t="s">
         <v>145</v>
       </c>
-      <c r="L79" t="s">
-        <v>523</v>
-      </c>
-      <c r="M79" t="s">
+      <c r="L81" t="s">
+        <v>545</v>
+      </c>
+      <c r="M81" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="5:13">
-      <c r="E80" t="s">
-        <v>524</v>
-      </c>
-      <c r="F80" t="str">
+    <row r="82" spans="5:13">
+      <c r="E82" t="s">
+        <v>546</v>
+      </c>
+      <c r="F82" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-65</v>
       </c>
-      <c r="G80" t="s">
-        <v>484</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="G82" t="s">
+        <v>506</v>
+      </c>
+      <c r="H82" t="s">
         <v>151</v>
       </c>
-      <c r="L80" t="s">
-        <v>523</v>
-      </c>
-      <c r="M80" t="s">
+      <c r="L82" t="s">
+        <v>545</v>
+      </c>
+      <c r="M82" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="5:13">
-      <c r="E81" t="s">
-        <v>525</v>
-      </c>
-      <c r="F81" t="str">
+    <row r="83" spans="5:13">
+      <c r="E83" t="s">
+        <v>547</v>
+      </c>
+      <c r="F83" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-70</v>
       </c>
-      <c r="G81" t="s">
-        <v>484</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="G83" t="s">
+        <v>506</v>
+      </c>
+      <c r="H83" t="s">
         <v>270</v>
       </c>
-      <c r="L81" t="s">
-        <v>523</v>
-      </c>
-      <c r="M81" t="s">
+      <c r="L83" t="s">
+        <v>545</v>
+      </c>
+      <c r="M83" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="5:13">
-      <c r="E82" t="s">
-        <v>526</v>
-      </c>
-      <c r="F82" t="str">
+    <row r="84" spans="5:13">
+      <c r="E84" t="s">
+        <v>548</v>
+      </c>
+      <c r="F84" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-72</v>
       </c>
-      <c r="G82" t="s">
-        <v>484</v>
-      </c>
-      <c r="H82" t="s">
-        <v>527</v>
-      </c>
-      <c r="L82" t="s">
-        <v>523</v>
-      </c>
-      <c r="M82" t="s">
+      <c r="G84" t="s">
+        <v>506</v>
+      </c>
+      <c r="H84" t="s">
+        <v>549</v>
+      </c>
+      <c r="L84" t="s">
+        <v>545</v>
+      </c>
+      <c r="M84" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="5:13">
-      <c r="E83" t="s">
-        <v>528</v>
-      </c>
-      <c r="F83" t="str">
+    <row r="85" spans="5:13">
+      <c r="E85" t="s">
+        <v>550</v>
+      </c>
+      <c r="F85" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-66</v>
       </c>
-      <c r="G83" t="s">
-        <v>484</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="G85" t="s">
+        <v>506</v>
+      </c>
+      <c r="H85" t="s">
         <v>250</v>
       </c>
-      <c r="L83" t="s">
-        <v>75</v>
-      </c>
-      <c r="M83" t="s">
+      <c r="L85" t="s">
+        <v>75</v>
+      </c>
+      <c r="M85" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="5:13">
-      <c r="E84" t="s">
-        <v>529</v>
-      </c>
-      <c r="F84" t="str">
-        <f t="shared" ref="F84" si="0">E32</f>
-        <v>hmsg_template_server-96</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H84" t="s">
-        <v>274</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="5:13">
-      <c r="E85" t="s">
-        <v>530</v>
-      </c>
-      <c r="F85" t="str">
-        <f>E32</f>
-        <v>hmsg_template_server-96</v>
-      </c>
-      <c r="G85" t="s">
-        <v>531</v>
-      </c>
-      <c r="H85" t="s">
-        <v>532</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
       </c>
     </row>
     <row r="86" spans="5:13">
       <c r="E86" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="F86" t="str">
-        <f>E33</f>
-        <v>hmsg_template_server-97</v>
+        <f t="shared" ref="F86" si="0">E32</f>
+        <v>hmsg_template_server-96</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>278</v>
+        <v>501</v>
+      </c>
+      <c r="H86" t="s">
+        <v>274</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -14274,17 +15080,17 @@
     </row>
     <row r="87" spans="5:13">
       <c r="E87" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="F87" t="str">
-        <f>E34</f>
-        <v>hmsg_template_server-98</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>284</v>
+        <f t="shared" ref="F87:F92" si="1">E32</f>
+        <v>hmsg_template_server-96</v>
+      </c>
+      <c r="G87" t="s">
+        <v>553</v>
+      </c>
+      <c r="H87" t="s">
+        <v>554</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -14295,17 +15101,17 @@
     </row>
     <row r="88" spans="5:13">
       <c r="E88" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="F88" t="str">
-        <f>E35</f>
-        <v>hmsg_template_server-99</v>
+        <f t="shared" si="1"/>
+        <v>hmsg_template_server-97</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -14316,123 +15122,165 @@
     </row>
     <row r="89" spans="5:13">
       <c r="E89" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="F89" t="str">
-        <f>E36</f>
+        <f t="shared" si="1"/>
+        <v>hmsg_template_server-98</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="5:13">
+      <c r="E90" t="s">
+        <v>552</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="1"/>
+        <v>hmsg_template_server-99</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="5:13">
+      <c r="E91" t="s">
+        <v>555</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="1"/>
         <v>hmsg_template_server-100</v>
       </c>
-      <c r="G89" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="H89" s="7" t="s">
+      <c r="G91" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H91" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="I89" t="str">
+      <c r="I91" t="str">
         <f>短信服务配置!E8</f>
         <v>hmsg_sms_server-8</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K91" t="s">
         <v>69</v>
       </c>
-      <c r="L89">
+      <c r="L91">
         <v>0</v>
       </c>
-      <c r="M89">
+      <c r="M91">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="16">
+    <row r="92" spans="5:13">
+      <c r="E92" t="s">
+        <v>556</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="1"/>
+        <v>hmsg_template_server-101</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I92" t="str">
+        <f>邮箱服务配置!E8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K92" t="s">
+        <v>91</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="5:13">
+      <c r="E93" t="s">
+        <v>557</v>
+      </c>
+      <c r="F93" t="str">
+        <f>E38</f>
+        <v>hmsg_template_server-102</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I93" t="str">
+        <f>邮箱服务配置!E8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K93" t="s">
+        <v>91</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="16">
         <v>44036</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B95" t="s">
         <v>51</v>
       </c>
-      <c r="C91" t="s">
-        <v>347</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="H91" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="92" spans="5:8">
-      <c r="E92" t="s">
-        <v>538</v>
-      </c>
-      <c r="F92" t="s">
-        <v>358</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="5:8">
-      <c r="E93" t="s">
-        <v>539</v>
-      </c>
-      <c r="F93" t="s">
-        <v>365</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="5:8">
-      <c r="E94" t="s">
-        <v>540</v>
-      </c>
-      <c r="F94" t="s">
-        <v>371</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="5:8">
-      <c r="E95" t="s">
-        <v>541</v>
-      </c>
-      <c r="F95" t="s">
-        <v>374</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
+      <c r="C95" t="s">
+        <v>364</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="H95" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="96" spans="5:8">
       <c r="E96" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="F96" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -14440,13 +15288,13 @@
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="F97" t="s">
         <v>382</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -14454,13 +15302,13 @@
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="F98" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -14468,10 +15316,10 @@
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="F99" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -14482,10 +15330,10 @@
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="F100" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -14496,10 +15344,10 @@
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="F101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -14510,7 +15358,7 @@
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="F102" t="s">
         <v>403</v>
@@ -14524,10 +15372,10 @@
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>549</v>
-      </c>
-      <c r="F103" s="17" t="s">
-        <v>406</v>
+        <v>569</v>
+      </c>
+      <c r="F103" t="s">
+        <v>407</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -14538,13 +15386,13 @@
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="F104" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -14552,10 +15400,10 @@
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="F105" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -14566,10 +15414,10 @@
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="F106" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -14580,13 +15428,13 @@
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>553</v>
-      </c>
-      <c r="F107" t="s">
-        <v>428</v>
+        <v>573</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>423</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -14594,10 +15442,10 @@
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="F108" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -14608,13 +15456,13 @@
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="F109" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -14622,13 +15470,13 @@
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="F110" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -14636,13 +15484,13 @@
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="F111" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -14650,10 +15498,10 @@
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="F112" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -14664,10 +15512,10 @@
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="F113" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -14678,15 +15526,71 @@
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="F114" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="5:8">
+      <c r="E115" t="s">
+        <v>581</v>
+      </c>
+      <c r="F115" t="s">
+        <v>458</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="5:8">
+      <c r="E116" t="s">
+        <v>582</v>
+      </c>
+      <c r="F116" t="s">
+        <v>460</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="5:8">
+      <c r="E117" t="s">
+        <v>583</v>
+      </c>
+      <c r="F117" t="s">
+        <v>462</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="5:8">
+      <c r="E118" t="s">
+        <v>584</v>
+      </c>
+      <c r="F118" t="s">
+        <v>469</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -6338,8 +6338,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -6438,28 +6438,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -6483,15 +6461,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6507,7 +6477,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6522,7 +6492,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6530,7 +6500,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6544,13 +6536,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -6575,7 +6560,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6669,7 +6669,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6681,49 +6825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6735,43 +6837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6783,73 +6849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6956,16 +6956,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -6975,6 +6999,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -6995,52 +7030,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7056,146 +7056,146 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8265,8 +8265,8 @@
   <sheetPr/>
   <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="G226" sqref="G226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -12814,7 +12814,7 @@
   <sheetPr/>
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I65" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F92" workbookViewId="0">
       <selection activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
@@ -15083,7 +15083,7 @@
         <v>552</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" ref="F87:F92" si="1">E32</f>
+        <f t="shared" ref="F87:F93" si="1">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G87" t="s">
@@ -15223,7 +15223,7 @@
         <v>557</v>
       </c>
       <c r="F93" t="str">
-        <f>E38</f>
+        <f t="shared" si="1"/>
         <v>hmsg_template_server-102</v>
       </c>
       <c r="G93" s="7" t="s">

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -6036,13 +6036,13 @@
     <t>SITE_CREATE_USER</t>
   </si>
   <si>
+    <t>SITE-CREATE-USER</t>
+  </si>
+  <si>
     <t>hmsg_template_server-102</t>
   </si>
   <si>
     <t>SAAS_ORG_CREATE_USER</t>
-  </si>
-  <si>
-    <t>ORG_CREATE_USER</t>
   </si>
   <si>
     <t>发送配置(其它)</t>
@@ -6338,10 +6338,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -6439,17 +6439,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6461,7 +6454,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6469,62 +6462,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6535,9 +6484,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6560,6 +6508,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6576,6 +6545,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6675,25 +6675,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6711,7 +6711,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6723,25 +6723,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6753,43 +6807,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6801,37 +6837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6843,13 +6849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6960,6 +6960,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -6976,41 +6985,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7053,149 +7027,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -12814,8 +12814,8 @@
   <sheetPr/>
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F92" workbookViewId="0">
-      <selection activeCell="N93" sqref="N93"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I25" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -13950,7 +13950,7 @@
         <v>378</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N37" s="10">
         <v>1</v>
@@ -13961,7 +13961,7 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="5:15">
       <c r="E38" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F38" s="10">
         <v>0</v>
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I38" s="15" t="s">
         <v>304</v>
@@ -13985,7 +13985,7 @@
         <v>384</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>488</v>
+        <v>306</v>
       </c>
       <c r="N38" s="10">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="574">
   <si>
     <r>
       <rPr>
@@ -4970,265 +4970,6 @@
     <t>SMS_222255148</t>
   </si>
   <si>
-    <t>hmsg_message_template-158</t>
-  </si>
-  <si>
-    <t>SITE_CREATE_USER.EMAIL</t>
-  </si>
-  <si>
-    <t>平台层创建用户</t>
-  </si>
-  <si>
-    <t>&lt;!doctype html&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
-      xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
-&lt;head&gt;
-  &lt;title&gt;&lt;/title&gt;
-  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-  &lt;style type="text/css"&gt;
-    #outlook a {
-      padding: 0;
-    }
-    .ReadMsgBody {
-      width: 100%;
-    }
-    .ExternalClass {
-      width: 100%;
-    }
-    .ExternalClass * {
-      line-height: 100%;
-    }
-    body {
-      margin: 0;
-      padding: 0;
-      -webkit-text-size-adjust: 100%;
-      -ms-text-size-adjust: 100%;
-    }
-    table,
-    td {
-      border-collapse: collapse;
-      mso-table-lspace: 0pt;
-      mso-table-rspace: 0pt;
-    }
-    img {
-      border: 0;
-      height: auto;
-      line-height: 100%;
-      outline: none;
-      text-decoration: none;
-      -ms-interpolation-mode: bicubic;
-    }
-    p {
-      display: block;
-      margin: 13px 0;
-    }
-  &lt;/style&gt;
-  &lt;!--[if !mso]&gt;&lt;!--&gt;
-  &lt;style type="text/css"&gt;
-    @media only screen and (max-width: 480px) {
-      @-ms-viewport {
-        width: 320px;
-      }
-      @viewport {
-        width: 320px;
-      }
-    }
-  &lt;/style&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;!--[if mso]&gt;
-  &lt;xml&gt;
-    &lt;o:OfficeDocumentSettings&gt;
-      &lt;o:AllowPNG/&gt;
-      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-    &lt;/o:OfficeDocumentSettings&gt;
-  &lt;/xml&gt;
-  &lt;![endif]--&gt;
-  &lt;!--[if lte mso 11]&gt;
-  &lt;style type="text/css"&gt;
-    .outlook-group-fix {
-      width: 100% !important;
-    }
-  &lt;/style&gt;
-  &lt;![endif]--&gt;
-  &lt;!--[if !mso]&gt;&lt;!--&gt;
-  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-  &lt;style type="text/css"&gt;
-    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-  &lt;/style&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;style type="text/css"&gt;
-    @media only screen and (min-width: 480px) {
-      .mj-column-per-100 {
-        width: 100% !important;
-        max-width: 100%;
-      }
-    }
-  &lt;/style&gt;
-  &lt;style type="text/css"&gt;
-  &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
-&lt;div style=""&gt;
-  &lt;!--[if mso | IE]&gt;
-  &lt;table
-          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
-  &gt;
-    &lt;tr&gt;
-      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-  &lt;![endif]--&gt;
-  &lt;div style="Margin:0px auto;max-width:600px;"&gt;
-    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-      &lt;tbody&gt;
-      &lt;tr&gt;
-        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
-          &lt;!--[if mso | IE]&gt;
-          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-            &lt;tr&gt;
-              &lt;td
-                      class="" style="vertical-align:top;width:600px;"
-              &gt;
-          &lt;![endif]--&gt;
-          &lt;div class="mj-column-per-100 outlook-group-fix"
-               style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
-                   style="vertical-align:top;" width="100%"&gt;
-              &lt;tr&gt;
-                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
-                  &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
-                    &lt;body&gt;
-                    &lt;div style="width: 600px;
-      background: #FFFFFF;
-      margin: 0 auto;"&gt;
-                      &lt;div style="height: 55px;
-      background-color: #ffffff;
-      border-bottom: 8px solid #3F51B5;"&gt;
-                        &lt;table&gt;
-                          &lt;tr&gt;
-                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                              &lt;table&gt;
-                                &lt;tr&gt;
-                                  &lt;td style="width:190px;"&gt;&lt;img height="auto"
-                                                                src="https://file.choerodon.com.cn/static/choerodon.png"
-                                                                style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;"
-                                                                width="190"/&gt;&lt;/td&gt;
-                                &lt;/tr&gt;
-                              &lt;/table&gt;
-                            &lt;td&gt;
-                          &lt;/tr&gt;
-                        &lt;/table&gt;
-                      &lt;/div&gt;
-                      &lt;div style="padding: 30px 40px;
-      border-bottom: 0;
-      border-top: 0;
-      border-left:1px solid #E6E6E6;
-      border-right:1px solid #E6E6E6;
-      border-radius: 2px;
-      background: #FFFFFF;"&gt;
-                        &lt;div&gt;
-                          &lt;p&gt;"HZERO】已为您创建账号[${email}]，初始密码为[${sitePassword}]。您可使用该账号密码登录云平台，地址：${loginUrl}，登录后请及时修改初始密码。"进行系统登录&lt;/p&gt;
-                        &lt;/div&gt;
-                      &lt;/div&gt;
-                      &lt;div&gt;
-                        &lt;div style="text-align: justify;"&gt;
-                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                            &lt;tr&gt;
-                              &lt;td style="padding-left: 29px;"&gt;
-                                &lt;table&gt;
-                                  &lt;tr&gt;
-                                    &lt;td&gt;&lt;img height="auto"
-                                             style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;"
-                                             width="90"
-                                             src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt;
-                                  &lt;/tr&gt;
-                                  &lt;tr&gt;
-                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                  &lt;/tr&gt;
-                                &lt;/table&gt;
-                              &lt;td&gt;
-                              &lt;td&gt;
-                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                                          href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a
-                                          style="text-decoration:none;font-size: 12px"
-                                          href="http://choerodon.io/zh/docs/"
-                                          target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                               href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
-                                &lt;/div&gt;
-                              &lt;/td&gt;
-                            &lt;/tr&gt;
-                          &lt;/table&gt;
-                        &lt;/div&gt;
-                      &lt;/div&gt;
-                      &lt;div style="width: 600px;
-      height: 34px;
-      background: #3F51B5;
-      "&gt;
-                        &lt;p style="opacity: 0.8;
-      font-size: 10px;
-      color: #FFFFFF;
-      text-align: center;
-      display: inline-block;
-      line-height: 34px;
-      width: 100%;
-      margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                      &lt;/div&gt;
-                    &lt;/div&gt;
-                    &lt;/body&gt;
-                  &lt;/div&gt;
-                &lt;/td&gt;
-              &lt;/tr&gt;
-            &lt;/table&gt;
-          &lt;/div&gt;
-          &lt;!--[if mso | IE]&gt;
-          &lt;/td&gt;
-          &lt;/tr&gt;
-          &lt;/table&gt;
-          &lt;![endif]--&gt;
-        &lt;/td&gt;
-      &lt;/tr&gt;
-      &lt;/tbody&gt;
-    &lt;/table&gt;
-  &lt;/div&gt;
-  &lt;!--[if mso | IE]&gt;
-  &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;/table&gt;
-  &lt;![endif]--&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>SITE-CRETAE-USER</t>
-  </si>
-  <si>
     <t>hmsg_message_template-159</t>
   </si>
   <si>
@@ -5620,12 +5361,6 @@
     <t>expireTime</t>
   </si>
   <si>
-    <t>sitePassword</t>
-  </si>
-  <si>
-    <t>loginUrl</t>
-  </si>
-  <si>
     <t>realName</t>
   </si>
   <si>
@@ -6030,15 +5765,6 @@
     <t>短信验证码通知</t>
   </si>
   <si>
-    <t>hmsg_template_server-101</t>
-  </si>
-  <si>
-    <t>SITE_CREATE_USER</t>
-  </si>
-  <si>
-    <t>SITE-CREATE-USER</t>
-  </si>
-  <si>
     <t>hmsg_template_server-102</t>
   </si>
   <si>
@@ -6244,9 +5970,6 @@
   </si>
   <si>
     <t>hmsg_template_server_line-252</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-253</t>
   </si>
   <si>
     <t>hmsg_template_server_line-254</t>
@@ -6438,26 +6161,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6469,9 +6183,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6485,44 +6198,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6537,14 +6236,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6552,9 +6244,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6578,6 +6270,37 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6669,7 +6392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6681,7 +6416,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6693,19 +6470,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6717,7 +6506,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6729,25 +6542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6759,55 +6554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6819,37 +6572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6956,39 +6679,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7022,8 +6712,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7045,6 +6735,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -7053,149 +6752,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8263,10 +7986,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q219"/>
+  <dimension ref="A1:Q215"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="G226" sqref="G226"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A55" sqref="$A55:$XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -9834,7 +9557,7 @@
         <v>300</v>
       </c>
       <c r="J55" t="s">
-        <v>281</v>
+        <v>122</v>
       </c>
       <c r="K55" t="s">
         <v>301</v>
@@ -9852,86 +9575,69 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" ht="409.5" spans="5:17">
-      <c r="E56" t="s">
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" t="s">
         <v>302</v>
       </c>
-      <c r="F56" t="s">
+      <c r="D58" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G56" t="s">
+      <c r="E58" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="H56" t="s">
-        <v>304</v>
-      </c>
-      <c r="I56" s="13" t="s">
+      <c r="F58" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="J56" t="s">
-        <v>122</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="G58" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="N56" t="s">
-        <v>124</v>
-      </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="H58" t="s">
         <v>307</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="I58" t="s">
         <v>308</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+      <c r="K58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11">
+      <c r="E59" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59" t="str">
+        <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-9</v>
+      </c>
+      <c r="G59" t="s">
         <v>310</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H59" t="s">
-        <v>312</v>
-      </c>
-      <c r="I59" t="s">
-        <v>313</v>
-      </c>
       <c r="J59" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K59" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="5:11">
       <c r="E60" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J60" t="s">
         <v>75</v>
@@ -9942,14 +9648,14 @@
     </row>
     <row r="61" spans="5:11">
       <c r="E61" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G61" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J61" t="s">
         <v>75</v>
@@ -9960,14 +9666,14 @@
     </row>
     <row r="62" spans="5:11">
       <c r="E62" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G62" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J62" t="s">
         <v>75</v>
@@ -9978,14 +9684,14 @@
     </row>
     <row r="63" spans="5:11">
       <c r="E63" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G63" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J63" t="s">
         <v>75</v>
@@ -9996,14 +9702,14 @@
     </row>
     <row r="64" spans="5:11">
       <c r="E64" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G64" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J64" t="s">
         <v>75</v>
@@ -10014,14 +9720,14 @@
     </row>
     <row r="65" spans="5:11">
       <c r="E65" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G65" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J65" t="s">
         <v>75</v>
@@ -10032,14 +9738,14 @@
     </row>
     <row r="66" spans="5:11">
       <c r="E66" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G66" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J66" t="s">
         <v>75</v>
@@ -10050,14 +9756,14 @@
     </row>
     <row r="67" spans="5:11">
       <c r="E67" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F67" t="str">
-        <f>消息模板!$E$8</f>
-        <v>hmsg_message_template-9</v>
+        <f>消息模板!$E$13</f>
+        <v>hmsg_message_template-30</v>
       </c>
       <c r="G67" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J67" t="s">
         <v>75</v>
@@ -10068,14 +9774,14 @@
     </row>
     <row r="68" spans="5:11">
       <c r="E68" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G68" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J68" t="s">
         <v>75</v>
@@ -10086,14 +9792,14 @@
     </row>
     <row r="69" spans="5:11">
       <c r="E69" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G69" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="J69" t="s">
         <v>75</v>
@@ -10104,14 +9810,14 @@
     </row>
     <row r="70" spans="5:11">
       <c r="E70" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G70" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J70" t="s">
         <v>75</v>
@@ -10122,14 +9828,14 @@
     </row>
     <row r="71" spans="5:11">
       <c r="E71" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G71" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J71" t="s">
         <v>75</v>
@@ -10140,14 +9846,14 @@
     </row>
     <row r="72" spans="5:11">
       <c r="E72" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G72" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J72" t="s">
         <v>75</v>
@@ -10158,14 +9864,14 @@
     </row>
     <row r="73" spans="5:11">
       <c r="E73" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G73" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="J73" t="s">
         <v>75</v>
@@ -10176,14 +9882,14 @@
     </row>
     <row r="74" spans="5:11">
       <c r="E74" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G74" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J74" t="s">
         <v>75</v>
@@ -10194,14 +9900,14 @@
     </row>
     <row r="75" spans="5:11">
       <c r="E75" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G75" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J75" t="s">
         <v>75</v>
@@ -10212,14 +9918,14 @@
     </row>
     <row r="76" spans="5:11">
       <c r="E76" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F76" t="str">
-        <f>消息模板!$E$13</f>
-        <v>hmsg_message_template-30</v>
+        <f>消息模板!$E$14</f>
+        <v>hmsg_message_template-31</v>
       </c>
       <c r="G76" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J76" t="s">
         <v>75</v>
@@ -10230,14 +9936,14 @@
     </row>
     <row r="77" spans="5:11">
       <c r="E77" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G77" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J77" t="s">
         <v>75</v>
@@ -10248,14 +9954,14 @@
     </row>
     <row r="78" spans="5:11">
       <c r="E78" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G78" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="J78" t="s">
         <v>75</v>
@@ -10266,14 +9972,14 @@
     </row>
     <row r="79" spans="5:11">
       <c r="E79" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G79" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J79" t="s">
         <v>75</v>
@@ -10284,14 +9990,14 @@
     </row>
     <row r="80" spans="5:11">
       <c r="E80" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F80" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G80" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="J80" t="s">
         <v>75</v>
@@ -10302,14 +10008,14 @@
     </row>
     <row r="81" spans="5:11">
       <c r="E81" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F81" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G81" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J81" t="s">
         <v>75</v>
@@ -10320,14 +10026,14 @@
     </row>
     <row r="82" spans="5:11">
       <c r="E82" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F82" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G82" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J82" t="s">
         <v>75</v>
@@ -10338,14 +10044,14 @@
     </row>
     <row r="83" spans="5:11">
       <c r="E83" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F83" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G83" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="J83" t="s">
         <v>75</v>
@@ -10356,14 +10062,14 @@
     </row>
     <row r="84" spans="5:11">
       <c r="E84" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F84" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G84" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J84" t="s">
         <v>75</v>
@@ -10374,14 +10080,14 @@
     </row>
     <row r="85" spans="5:11">
       <c r="E85" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F85" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G85" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J85" t="s">
         <v>75</v>
@@ -10392,14 +10098,14 @@
     </row>
     <row r="86" spans="5:11">
       <c r="E86" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F86" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G86" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="J86" t="s">
         <v>75</v>
@@ -10410,14 +10116,14 @@
     </row>
     <row r="87" spans="5:11">
       <c r="E87" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F87" t="str">
-        <f>消息模板!$E$14</f>
-        <v>hmsg_message_template-31</v>
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-40</v>
       </c>
       <c r="G87" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="J87" t="s">
         <v>75</v>
@@ -10428,14 +10134,14 @@
     </row>
     <row r="88" spans="5:11">
       <c r="E88" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F88" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G88" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J88" t="s">
         <v>75</v>
@@ -10446,14 +10152,14 @@
     </row>
     <row r="89" spans="5:11">
       <c r="E89" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F89" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G89" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J89" t="s">
         <v>75</v>
@@ -10464,14 +10170,14 @@
     </row>
     <row r="90" spans="5:11">
       <c r="E90" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F90" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G90" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J90" t="s">
         <v>75</v>
@@ -10482,14 +10188,14 @@
     </row>
     <row r="91" spans="5:11">
       <c r="E91" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F91" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G91" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J91" t="s">
         <v>75</v>
@@ -10500,14 +10206,14 @@
     </row>
     <row r="92" spans="5:11">
       <c r="E92" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F92" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G92" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="J92" t="s">
         <v>75</v>
@@ -10518,14 +10224,14 @@
     </row>
     <row r="93" spans="5:11">
       <c r="E93" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F93" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-40</v>
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-46</v>
       </c>
       <c r="G93" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J93" t="s">
         <v>75</v>
@@ -10536,14 +10242,14 @@
     </row>
     <row r="94" spans="5:11">
       <c r="E94" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G94" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="J94" t="s">
         <v>75</v>
@@ -10554,14 +10260,14 @@
     </row>
     <row r="95" spans="5:11">
       <c r="E95" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G95" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J95" t="s">
         <v>75</v>
@@ -10572,14 +10278,14 @@
     </row>
     <row r="96" spans="5:11">
       <c r="E96" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G96" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="J96" t="s">
         <v>75</v>
@@ -10590,14 +10296,14 @@
     </row>
     <row r="97" spans="5:11">
       <c r="E97" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G97" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J97" t="s">
         <v>75</v>
@@ -10608,14 +10314,14 @@
     </row>
     <row r="98" spans="5:11">
       <c r="E98" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G98" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J98" t="s">
         <v>75</v>
@@ -10626,14 +10332,14 @@
     </row>
     <row r="99" spans="5:11">
       <c r="E99" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G99" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="J99" t="s">
         <v>75</v>
@@ -10644,14 +10350,14 @@
     </row>
     <row r="100" spans="5:11">
       <c r="E100" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G100" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J100" t="s">
         <v>75</v>
@@ -10662,14 +10368,14 @@
     </row>
     <row r="101" spans="5:11">
       <c r="E101" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G101" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J101" t="s">
         <v>75</v>
@@ -10680,14 +10386,14 @@
     </row>
     <row r="102" spans="5:11">
       <c r="E102" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F102" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-46</v>
+        <f>消息模板!$E$19</f>
+        <v>hmsg_message_template-49</v>
       </c>
       <c r="G102" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="J102" t="s">
         <v>75</v>
@@ -10698,14 +10404,14 @@
     </row>
     <row r="103" spans="5:11">
       <c r="E103" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G103" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J103" t="s">
         <v>75</v>
@@ -10716,14 +10422,14 @@
     </row>
     <row r="104" spans="5:11">
       <c r="E104" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G104" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="J104" t="s">
         <v>75</v>
@@ -10734,14 +10440,14 @@
     </row>
     <row r="105" spans="5:11">
       <c r="E105" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G105" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J105" t="s">
         <v>75</v>
@@ -10752,14 +10458,14 @@
     </row>
     <row r="106" spans="5:11">
       <c r="E106" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F106" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G106" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J106" t="s">
         <v>75</v>
@@ -10770,14 +10476,14 @@
     </row>
     <row r="107" spans="5:11">
       <c r="E107" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G107" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J107" t="s">
         <v>75</v>
@@ -10788,14 +10494,14 @@
     </row>
     <row r="108" spans="5:11">
       <c r="E108" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F108" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G108" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="J108" t="s">
         <v>75</v>
@@ -10806,14 +10512,14 @@
     </row>
     <row r="109" spans="5:11">
       <c r="E109" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F109" t="str">
-        <f>消息模板!$E$19</f>
-        <v>hmsg_message_template-49</v>
+        <f>消息模板!$E$23</f>
+        <v>hmsg_message_template-58</v>
       </c>
       <c r="G109" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J109" t="s">
         <v>75</v>
@@ -10824,14 +10530,14 @@
     </row>
     <row r="110" spans="5:11">
       <c r="E110" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F110" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G110" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="J110" t="s">
         <v>75</v>
@@ -10842,14 +10548,14 @@
     </row>
     <row r="111" spans="5:11">
       <c r="E111" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G111" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J111" t="s">
         <v>75</v>
@@ -10860,14 +10566,14 @@
     </row>
     <row r="112" spans="5:11">
       <c r="E112" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G112" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="J112" t="s">
         <v>75</v>
@@ -10878,14 +10584,14 @@
     </row>
     <row r="113" spans="5:11">
       <c r="E113" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F113" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G113" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J113" t="s">
         <v>75</v>
@@ -10896,14 +10602,14 @@
     </row>
     <row r="114" spans="5:11">
       <c r="E114" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F114" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G114" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J114" t="s">
         <v>75</v>
@@ -10914,14 +10620,14 @@
     </row>
     <row r="115" spans="5:11">
       <c r="E115" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F115" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G115" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="J115" t="s">
         <v>75</v>
@@ -10932,14 +10638,14 @@
     </row>
     <row r="116" spans="5:11">
       <c r="E116" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F116" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G116" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J116" t="s">
         <v>75</v>
@@ -10950,14 +10656,14 @@
     </row>
     <row r="117" spans="5:11">
       <c r="E117" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F117" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G117" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J117" t="s">
         <v>75</v>
@@ -10968,14 +10674,14 @@
     </row>
     <row r="118" spans="5:11">
       <c r="E118" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F118" t="str">
-        <f>消息模板!$E$23</f>
-        <v>hmsg_message_template-58</v>
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-61</v>
       </c>
       <c r="G118" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="J118" t="s">
         <v>75</v>
@@ -10986,14 +10692,14 @@
     </row>
     <row r="119" spans="5:11">
       <c r="E119" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G119" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J119" t="s">
         <v>75</v>
@@ -11004,14 +10710,14 @@
     </row>
     <row r="120" spans="5:11">
       <c r="E120" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G120" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="J120" t="s">
         <v>75</v>
@@ -11022,14 +10728,14 @@
     </row>
     <row r="121" spans="5:11">
       <c r="E121" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F121" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G121" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J121" t="s">
         <v>75</v>
@@ -11040,14 +10746,14 @@
     </row>
     <row r="122" spans="5:11">
       <c r="E122" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F122" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G122" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J122" t="s">
         <v>75</v>
@@ -11058,14 +10764,14 @@
     </row>
     <row r="123" spans="5:11">
       <c r="E123" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F123" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G123" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J123" t="s">
         <v>75</v>
@@ -11076,14 +10782,14 @@
     </row>
     <row r="124" spans="5:11">
       <c r="E124" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F124" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G124" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="J124" t="s">
         <v>75</v>
@@ -11094,14 +10800,14 @@
     </row>
     <row r="125" spans="5:11">
       <c r="E125" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F125" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-61</v>
+        <f>消息模板!$E$32</f>
+        <v>hmsg_message_template-99</v>
       </c>
       <c r="G125" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="J125" t="s">
         <v>75</v>
@@ -11112,14 +10818,14 @@
     </row>
     <row r="126" spans="5:11">
       <c r="E126" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F126" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G126" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="J126" t="s">
         <v>75</v>
@@ -11130,14 +10836,14 @@
     </row>
     <row r="127" spans="5:11">
       <c r="E127" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F127" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G127" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J127" t="s">
         <v>75</v>
@@ -11148,14 +10854,14 @@
     </row>
     <row r="128" spans="5:11">
       <c r="E128" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F128" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G128" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J128" t="s">
         <v>75</v>
@@ -11166,14 +10872,14 @@
     </row>
     <row r="129" spans="5:11">
       <c r="E129" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F129" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G129" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="J129" t="s">
         <v>75</v>
@@ -11184,14 +10890,14 @@
     </row>
     <row r="130" spans="5:11">
       <c r="E130" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F130" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G130" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J130" t="s">
         <v>75</v>
@@ -11202,14 +10908,14 @@
     </row>
     <row r="131" spans="5:11">
       <c r="E131" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F131" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G131" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="J131" t="s">
         <v>75</v>
@@ -11220,14 +10926,14 @@
     </row>
     <row r="132" spans="5:11">
       <c r="E132" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F132" t="str">
-        <f>消息模板!$E$32</f>
-        <v>hmsg_message_template-99</v>
+        <f>消息模板!$E$37</f>
+        <v>hmsg_message_template-128</v>
       </c>
       <c r="G132" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="J132" t="s">
         <v>75</v>
@@ -11238,14 +10944,14 @@
     </row>
     <row r="133" spans="5:11">
       <c r="E133" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F133" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G133" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J133" t="s">
         <v>75</v>
@@ -11256,14 +10962,14 @@
     </row>
     <row r="134" spans="5:11">
       <c r="E134" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F134" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G134" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J134" t="s">
         <v>75</v>
@@ -11274,14 +10980,14 @@
     </row>
     <row r="135" spans="5:11">
       <c r="E135" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F135" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G135" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J135" t="s">
         <v>75</v>
@@ -11292,14 +10998,14 @@
     </row>
     <row r="136" spans="5:11">
       <c r="E136" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F136" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G136" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J136" t="s">
         <v>75</v>
@@ -11310,14 +11016,14 @@
     </row>
     <row r="137" spans="5:11">
       <c r="E137" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F137" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G137" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J137" t="s">
         <v>75</v>
@@ -11328,14 +11034,14 @@
     </row>
     <row r="138" spans="5:11">
       <c r="E138" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F138" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G138" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J138" t="s">
         <v>75</v>
@@ -11346,14 +11052,14 @@
     </row>
     <row r="139" spans="5:11">
       <c r="E139" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F139" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G139" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J139" t="s">
         <v>75</v>
@@ -11364,14 +11070,14 @@
     </row>
     <row r="140" spans="5:11">
       <c r="E140" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F140" t="str">
-        <f>消息模板!$E$37</f>
-        <v>hmsg_message_template-128</v>
+        <f>消息模板!$E$49</f>
+        <v>hmsg_message_template-152</v>
       </c>
       <c r="G140" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="J140" t="s">
         <v>75</v>
@@ -11382,14 +11088,14 @@
     </row>
     <row r="141" spans="5:11">
       <c r="E141" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F141" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G141" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J141" t="s">
         <v>75</v>
@@ -11400,14 +11106,14 @@
     </row>
     <row r="142" spans="5:11">
       <c r="E142" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F142" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G142" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="J142" t="s">
         <v>75</v>
@@ -11418,14 +11124,14 @@
     </row>
     <row r="143" spans="5:11">
       <c r="E143" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F143" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G143" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J143" t="s">
         <v>75</v>
@@ -11436,14 +11142,14 @@
     </row>
     <row r="144" spans="5:11">
       <c r="E144" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F144" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G144" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J144" t="s">
         <v>75</v>
@@ -11454,14 +11160,14 @@
     </row>
     <row r="145" spans="5:11">
       <c r="E145" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F145" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G145" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J145" t="s">
         <v>75</v>
@@ -11472,14 +11178,14 @@
     </row>
     <row r="146" spans="5:11">
       <c r="E146" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F146" t="str">
-        <f>消息模板!$E$49</f>
-        <v>hmsg_message_template-152</v>
+        <f>消息模板!$E$29</f>
+        <v>hmsg_message_template-64</v>
       </c>
       <c r="G146" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J146" t="s">
         <v>75</v>
@@ -11490,14 +11196,14 @@
     </row>
     <row r="147" spans="5:11">
       <c r="E147" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F147" t="str">
-        <f>消息模板!$E$29</f>
-        <v>hmsg_message_template-64</v>
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-62</v>
       </c>
       <c r="G147" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J147" t="s">
         <v>75</v>
@@ -11508,14 +11214,14 @@
     </row>
     <row r="148" spans="5:11">
       <c r="E148" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F148" t="str">
-        <f>消息模板!$E$27</f>
-        <v>hmsg_message_template-62</v>
+        <f>消息模板!$E$22</f>
+        <v>hmsg_message_template-52</v>
       </c>
       <c r="G148" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J148" t="s">
         <v>75</v>
@@ -11526,14 +11232,14 @@
     </row>
     <row r="149" spans="5:11">
       <c r="E149" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F149" t="str">
-        <f>消息模板!$E$22</f>
-        <v>hmsg_message_template-52</v>
+        <f>消息模板!$E$20</f>
+        <v>hmsg_message_template-50</v>
       </c>
       <c r="G149" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J149" t="s">
         <v>75</v>
@@ -11544,14 +11250,14 @@
     </row>
     <row r="150" spans="5:11">
       <c r="E150" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F150" t="str">
-        <f>消息模板!$E$20</f>
-        <v>hmsg_message_template-50</v>
+        <f>消息模板!$E$18</f>
+        <v>hmsg_message_template-48</v>
       </c>
       <c r="G150" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J150" t="s">
         <v>75</v>
@@ -11562,14 +11268,14 @@
     </row>
     <row r="151" spans="5:11">
       <c r="E151" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F151" t="str">
-        <f>消息模板!$E$18</f>
-        <v>hmsg_message_template-48</v>
+        <f>消息模板!$E$17</f>
+        <v>hmsg_message_template-47</v>
       </c>
       <c r="G151" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J151" t="s">
         <v>75</v>
@@ -11580,14 +11286,14 @@
     </row>
     <row r="152" spans="5:11">
       <c r="E152" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F152" t="str">
-        <f>消息模板!$E$17</f>
-        <v>hmsg_message_template-47</v>
+        <f>消息模板!$E$25</f>
+        <v>hmsg_message_template-60</v>
       </c>
       <c r="G152" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J152" t="s">
         <v>75</v>
@@ -11598,14 +11304,14 @@
     </row>
     <row r="153" spans="5:11">
       <c r="E153" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F153" t="str">
-        <f>消息模板!$E$25</f>
-        <v>hmsg_message_template-60</v>
+        <f>消息模板!$E$24</f>
+        <v>hmsg_message_template-59</v>
       </c>
       <c r="G153" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J153" t="s">
         <v>75</v>
@@ -11616,14 +11322,14 @@
     </row>
     <row r="154" spans="5:11">
       <c r="E154" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F154" t="str">
-        <f>消息模板!$E$24</f>
-        <v>hmsg_message_template-59</v>
+        <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-13</v>
       </c>
       <c r="G154" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="J154" t="s">
         <v>75</v>
@@ -11634,14 +11340,14 @@
     </row>
     <row r="155" spans="5:11">
       <c r="E155" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F155" t="str">
-        <f>消息模板!$E$12</f>
-        <v>hmsg_message_template-13</v>
+        <f>消息模板!$E$36</f>
+        <v>hmsg_message_template-107</v>
       </c>
       <c r="G155" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J155" t="s">
         <v>75</v>
@@ -11652,14 +11358,14 @@
     </row>
     <row r="156" spans="5:11">
       <c r="E156" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F156" t="str">
-        <f>消息模板!$E$36</f>
-        <v>hmsg_message_template-107</v>
+        <f>消息模板!$E$30</f>
+        <v>hmsg_message_template-65</v>
       </c>
       <c r="G156" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="J156" t="s">
         <v>75</v>
@@ -11670,14 +11376,14 @@
     </row>
     <row r="157" spans="5:11">
       <c r="E157" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F157" t="str">
         <f>消息模板!$E$30</f>
         <v>hmsg_message_template-65</v>
       </c>
       <c r="G157" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="J157" t="s">
         <v>75</v>
@@ -11688,14 +11394,14 @@
     </row>
     <row r="158" spans="5:11">
       <c r="E158" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F158" t="str">
-        <f>消息模板!$E$30</f>
-        <v>hmsg_message_template-65</v>
+        <f>消息模板!$E$50</f>
+        <v>hmsg_message_template-153</v>
       </c>
       <c r="G158" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="J158" t="s">
         <v>75</v>
@@ -11706,14 +11412,14 @@
     </row>
     <row r="159" spans="5:11">
       <c r="E159" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F159" t="str">
         <f>消息模板!$E$50</f>
         <v>hmsg_message_template-153</v>
       </c>
       <c r="G159" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J159" t="s">
         <v>75</v>
@@ -11724,14 +11430,14 @@
     </row>
     <row r="160" spans="5:11">
       <c r="E160" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F160" t="str">
-        <f>消息模板!$E$50</f>
-        <v>hmsg_message_template-153</v>
+        <f>消息模板!$E$35</f>
+        <v>hmsg_message_template-102</v>
       </c>
       <c r="G160" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="J160" t="s">
         <v>75</v>
@@ -11742,14 +11448,14 @@
     </row>
     <row r="161" spans="5:11">
       <c r="E161" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F161" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G161" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J161" t="s">
         <v>75</v>
@@ -11760,14 +11466,14 @@
     </row>
     <row r="162" spans="5:11">
       <c r="E162" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F162" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G162" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J162" t="s">
         <v>75</v>
@@ -11778,14 +11484,14 @@
     </row>
     <row r="163" spans="5:11">
       <c r="E163" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F163" t="str">
-        <f>消息模板!$E$35</f>
-        <v>hmsg_message_template-102</v>
+        <f>消息模板!$E$34</f>
+        <v>hmsg_message_template-101</v>
       </c>
       <c r="G163" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J163" t="s">
         <v>75</v>
@@ -11796,14 +11502,14 @@
     </row>
     <row r="164" spans="5:11">
       <c r="E164" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F164" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G164" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J164" t="s">
         <v>75</v>
@@ -11814,14 +11520,14 @@
     </row>
     <row r="165" spans="5:11">
       <c r="E165" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F165" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G165" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J165" t="s">
         <v>75</v>
@@ -11832,14 +11538,14 @@
     </row>
     <row r="166" spans="5:11">
       <c r="E166" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F166" t="str">
-        <f>消息模板!$E$34</f>
-        <v>hmsg_message_template-101</v>
+        <f>消息模板!$E$33</f>
+        <v>hmsg_message_template-100</v>
       </c>
       <c r="G166" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J166" t="s">
         <v>75</v>
@@ -11850,14 +11556,14 @@
     </row>
     <row r="167" spans="5:11">
       <c r="E167" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F167" t="str">
         <f>消息模板!$E$33</f>
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G167" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J167" t="s">
         <v>75</v>
@@ -11868,14 +11574,14 @@
     </row>
     <row r="168" spans="5:11">
       <c r="E168" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F168" t="str">
-        <f>消息模板!$E$33</f>
-        <v>hmsg_message_template-100</v>
+        <f>消息模板!$E$44</f>
+        <v>hmsg_message_template-145</v>
       </c>
       <c r="G168" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J168" t="s">
         <v>75</v>
@@ -11886,14 +11592,14 @@
     </row>
     <row r="169" spans="5:11">
       <c r="E169" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F169" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G169" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J169" t="s">
         <v>75</v>
@@ -11904,14 +11610,14 @@
     </row>
     <row r="170" spans="5:11">
       <c r="E170" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F170" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G170" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J170" t="s">
         <v>75</v>
@@ -11922,14 +11628,14 @@
     </row>
     <row r="171" spans="5:11">
       <c r="E171" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F171" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G171" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="J171" t="s">
         <v>75</v>
@@ -11940,14 +11646,14 @@
     </row>
     <row r="172" spans="5:11">
       <c r="E172" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F172" t="str">
-        <f>消息模板!$E$44</f>
-        <v>hmsg_message_template-145</v>
+        <f>消息模板!$E$43</f>
+        <v>hmsg_message_template-144</v>
       </c>
       <c r="G172" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="J172" t="s">
         <v>75</v>
@@ -11958,14 +11664,14 @@
     </row>
     <row r="173" spans="5:11">
       <c r="E173" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F173" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G173" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J173" t="s">
         <v>75</v>
@@ -11976,14 +11682,14 @@
     </row>
     <row r="174" spans="5:11">
       <c r="E174" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F174" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G174" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J174" t="s">
         <v>75</v>
@@ -11994,14 +11700,14 @@
     </row>
     <row r="175" spans="5:11">
       <c r="E175" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F175" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G175" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="J175" t="s">
         <v>75</v>
@@ -12012,14 +11718,14 @@
     </row>
     <row r="176" spans="5:11">
       <c r="E176" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F176" t="str">
-        <f>消息模板!$E$43</f>
-        <v>hmsg_message_template-144</v>
+        <f>消息模板!$E$42</f>
+        <v>hmsg_message_template-141</v>
       </c>
       <c r="G176" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="J176" t="s">
         <v>75</v>
@@ -12030,14 +11736,14 @@
     </row>
     <row r="177" spans="5:11">
       <c r="E177" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F177" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G177" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J177" t="s">
         <v>75</v>
@@ -12048,14 +11754,14 @@
     </row>
     <row r="178" spans="5:11">
       <c r="E178" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F178" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G178" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J178" t="s">
         <v>75</v>
@@ -12066,14 +11772,14 @@
     </row>
     <row r="179" spans="5:11">
       <c r="E179" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F179" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G179" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J179" t="s">
         <v>75</v>
@@ -12084,14 +11790,14 @@
     </row>
     <row r="180" spans="5:11">
       <c r="E180" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F180" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G180" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J180" t="s">
         <v>75</v>
@@ -12102,14 +11808,14 @@
     </row>
     <row r="181" spans="5:11">
       <c r="E181" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F181" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G181" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J181" t="s">
         <v>75</v>
@@ -12120,14 +11826,14 @@
     </row>
     <row r="182" spans="5:11">
       <c r="E182" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F182" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G182" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J182" t="s">
         <v>75</v>
@@ -12138,14 +11844,14 @@
     </row>
     <row r="183" spans="5:11">
       <c r="E183" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F183" t="str">
-        <f>消息模板!$E$42</f>
-        <v>hmsg_message_template-141</v>
+        <f>消息模板!$E$31</f>
+        <v>hmsg_message_template-86</v>
       </c>
       <c r="G183" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J183" t="s">
         <v>75</v>
@@ -12156,14 +11862,14 @@
     </row>
     <row r="184" spans="5:11">
       <c r="E184" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F184" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G184" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J184" t="s">
         <v>75</v>
@@ -12174,14 +11880,14 @@
     </row>
     <row r="185" spans="5:11">
       <c r="E185" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F185" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G185" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J185" t="s">
         <v>75</v>
@@ -12192,14 +11898,14 @@
     </row>
     <row r="186" spans="5:11">
       <c r="E186" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F186" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G186" t="s">
-        <v>349</v>
+        <v>148</v>
       </c>
       <c r="J186" t="s">
         <v>75</v>
@@ -12210,14 +11916,14 @@
     </row>
     <row r="187" spans="5:11">
       <c r="E187" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F187" t="str">
-        <f>消息模板!$E$31</f>
-        <v>hmsg_message_template-86</v>
+        <f>消息模板!$E$10</f>
+        <v>hmsg_message_template-11</v>
       </c>
       <c r="G187" t="s">
-        <v>148</v>
+        <v>328</v>
       </c>
       <c r="J187" t="s">
         <v>75</v>
@@ -12228,14 +11934,14 @@
     </row>
     <row r="188" spans="5:11">
       <c r="E188" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F188" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G188" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="J188" t="s">
         <v>75</v>
@@ -12246,14 +11952,14 @@
     </row>
     <row r="189" spans="5:11">
       <c r="E189" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F189" t="str">
-        <f>消息模板!$E$10</f>
-        <v>hmsg_message_template-11</v>
+        <f>消息模板!$E$48</f>
+        <v>hmsg_message_template-151</v>
       </c>
       <c r="G189" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="J189" t="s">
         <v>75</v>
@@ -12264,14 +11970,14 @@
     </row>
     <row r="190" spans="5:11">
       <c r="E190" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F190" t="str">
-        <f>消息模板!$E$48</f>
-        <v>hmsg_message_template-151</v>
+        <f>消息模板!$E$39</f>
+        <v>hmsg_message_template-130</v>
       </c>
       <c r="G190" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="J190" t="s">
         <v>75</v>
@@ -12282,14 +11988,14 @@
     </row>
     <row r="191" spans="5:11">
       <c r="E191" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F191" t="str">
         <f>消息模板!$E$39</f>
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G191" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="J191" t="s">
         <v>75</v>
@@ -12300,14 +12006,14 @@
     </row>
     <row r="192" spans="5:11">
       <c r="E192" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F192" t="str">
-        <f>消息模板!$E$39</f>
-        <v>hmsg_message_template-130</v>
+        <f>消息模板!$E$41</f>
+        <v>hmsg_message_template-139</v>
       </c>
       <c r="G192" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J192" t="s">
         <v>75</v>
@@ -12318,50 +12024,50 @@
     </row>
     <row r="193" spans="5:11">
       <c r="E193" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F193" t="str">
-        <f>消息模板!$E$41</f>
-        <v>hmsg_message_template-139</v>
+        <f>E9</f>
+        <v>hmsg_message_template-10</v>
       </c>
       <c r="G193" t="s">
-        <v>351</v>
-      </c>
-      <c r="J193" t="s">
-        <v>75</v>
-      </c>
-      <c r="K193" t="s">
-        <v>75</v>
+        <v>347</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="5:11">
       <c r="E194" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F194" t="str">
-        <f>E9</f>
+        <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G194" t="s">
-        <v>352</v>
-      </c>
-      <c r="J194">
-        <v>0</v>
-      </c>
-      <c r="K194">
-        <v>0</v>
+        <v>328</v>
+      </c>
+      <c r="J194" t="s">
+        <v>75</v>
+      </c>
+      <c r="K194" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="5:11">
       <c r="E195" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F195" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G195" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="J195" t="s">
         <v>75</v>
@@ -12372,14 +12078,14 @@
     </row>
     <row r="196" spans="5:11">
       <c r="E196" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F196" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-10</v>
+        <f>消息模板!$E$38</f>
+        <v>hmsg_message_template-129</v>
       </c>
       <c r="G196" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="J196" t="s">
         <v>75</v>
@@ -12390,50 +12096,50 @@
     </row>
     <row r="197" spans="5:11">
       <c r="E197" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F197" t="str">
+        <f>E38</f>
+        <v>hmsg_message_template-129</v>
+      </c>
+      <c r="G197" t="s">
+        <v>347</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="5:11">
+      <c r="E198" t="s">
+        <v>309</v>
+      </c>
+      <c r="F198" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
-      <c r="G197" t="s">
-        <v>332</v>
-      </c>
-      <c r="J197" t="s">
-        <v>75</v>
-      </c>
-      <c r="K197" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="198" spans="5:11">
-      <c r="E198" t="s">
-        <v>314</v>
-      </c>
-      <c r="F198" t="str">
-        <f>E38</f>
-        <v>hmsg_message_template-129</v>
-      </c>
       <c r="G198" t="s">
-        <v>352</v>
-      </c>
-      <c r="J198">
-        <v>0</v>
-      </c>
-      <c r="K198">
-        <v>0</v>
+        <v>345</v>
+      </c>
+      <c r="J198" t="s">
+        <v>75</v>
+      </c>
+      <c r="K198" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="199" spans="5:11">
       <c r="E199" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F199" t="str">
-        <f>消息模板!$E$38</f>
-        <v>hmsg_message_template-129</v>
+        <f>消息模板!$E$40</f>
+        <v>hmsg_message_template-138</v>
       </c>
       <c r="G199" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J199" t="s">
         <v>75</v>
@@ -12444,14 +12150,14 @@
     </row>
     <row r="200" spans="5:11">
       <c r="E200" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F200" t="str">
-        <f>消息模板!$E$40</f>
-        <v>hmsg_message_template-138</v>
+        <f>消息模板!$E$47</f>
+        <v>hmsg_message_template-150</v>
       </c>
       <c r="G200" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J200" t="s">
         <v>75</v>
@@ -12462,14 +12168,14 @@
     </row>
     <row r="201" spans="5:11">
       <c r="E201" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F201" t="str">
-        <f>消息模板!$E$47</f>
-        <v>hmsg_message_template-150</v>
+        <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-12</v>
       </c>
       <c r="G201" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="J201" t="s">
         <v>75</v>
@@ -12480,14 +12186,14 @@
     </row>
     <row r="202" spans="5:11">
       <c r="E202" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F202" t="str">
-        <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-12</v>
-      </c>
-      <c r="G202" t="s">
-        <v>315</v>
+        <f>消息模板!$E$51</f>
+        <v>hmsg_message_template-154</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="J202" t="s">
         <v>75</v>
@@ -12498,14 +12204,14 @@
     </row>
     <row r="203" spans="5:11">
       <c r="E203" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F203" t="str">
         <f>消息模板!$E$51</f>
         <v>hmsg_message_template-154</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="J203" t="s">
         <v>75</v>
@@ -12516,14 +12222,14 @@
     </row>
     <row r="204" spans="5:11">
       <c r="E204" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F204" t="str">
-        <f>消息模板!$E$51</f>
-        <v>hmsg_message_template-154</v>
+        <f>消息模板!$E$52</f>
+        <v>hmsg_message_template-155</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J204" t="s">
         <v>75</v>
@@ -12534,14 +12240,14 @@
     </row>
     <row r="205" spans="5:11">
       <c r="E205" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F205" t="str">
         <f>消息模板!$E$52</f>
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="J205" t="s">
         <v>75</v>
@@ -12552,14 +12258,14 @@
     </row>
     <row r="206" spans="5:11">
       <c r="E206" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F206" t="str">
-        <f>消息模板!$E$52</f>
-        <v>hmsg_message_template-155</v>
+        <f>消息模板!$E$53</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="J206" t="s">
         <v>75</v>
@@ -12570,32 +12276,32 @@
     </row>
     <row r="207" spans="5:11">
       <c r="E207" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F207" t="str">
-        <f>消息模板!$E$53</f>
-        <v>hmsg_message_template-156</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="J207" t="s">
-        <v>75</v>
-      </c>
-      <c r="K207" t="s">
-        <v>75</v>
+        <f>E54</f>
+        <v>hmsg_message_template-157</v>
+      </c>
+      <c r="G207" t="s">
+        <v>319</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="5:11">
       <c r="E208" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F208" t="str">
         <f>E54</f>
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G208" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -12606,14 +12312,14 @@
     </row>
     <row r="209" spans="5:11">
       <c r="E209" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F209" t="str">
-        <f>E54</f>
-        <v>hmsg_message_template-157</v>
+        <f>E55</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G209" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -12624,14 +12330,14 @@
     </row>
     <row r="210" spans="5:11">
       <c r="E210" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F210" t="str">
         <f>E55</f>
-        <v>hmsg_message_template-158</v>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G210" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="J210">
         <v>0</v>
@@ -12642,14 +12348,14 @@
     </row>
     <row r="211" spans="5:11">
       <c r="E211" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F211" t="str">
         <f>E55</f>
-        <v>hmsg_message_template-158</v>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G211" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J211">
         <v>0</v>
@@ -12660,14 +12366,14 @@
     </row>
     <row r="212" spans="5:11">
       <c r="E212" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F212" t="str">
         <f>E55</f>
-        <v>hmsg_message_template-158</v>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G212" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -12678,14 +12384,14 @@
     </row>
     <row r="213" spans="5:11">
       <c r="E213" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F213" t="str">
-        <f>E56</f>
+        <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G213" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -12696,14 +12402,14 @@
     </row>
     <row r="214" spans="5:11">
       <c r="E214" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F214" t="str">
-        <f>E56</f>
+        <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G214" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -12714,91 +12420,19 @@
     </row>
     <row r="215" spans="5:11">
       <c r="E215" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F215" t="str">
-        <f>E56</f>
+        <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G215" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J215">
         <v>0</v>
       </c>
       <c r="K215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="5:11">
-      <c r="E216" t="s">
-        <v>314</v>
-      </c>
-      <c r="F216" t="str">
-        <f>E56</f>
-        <v>hmsg_message_template-159</v>
-      </c>
-      <c r="G216" t="s">
-        <v>347</v>
-      </c>
-      <c r="J216">
-        <v>0</v>
-      </c>
-      <c r="K216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="5:11">
-      <c r="E217" t="s">
-        <v>314</v>
-      </c>
-      <c r="F217" t="str">
-        <f>E56</f>
-        <v>hmsg_message_template-159</v>
-      </c>
-      <c r="G217" t="s">
-        <v>361</v>
-      </c>
-      <c r="J217">
-        <v>0</v>
-      </c>
-      <c r="K217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="5:11">
-      <c r="E218" t="s">
-        <v>314</v>
-      </c>
-      <c r="F218" t="str">
-        <f>E56</f>
-        <v>hmsg_message_template-159</v>
-      </c>
-      <c r="G218" t="s">
-        <v>349</v>
-      </c>
-      <c r="J218">
-        <v>0</v>
-      </c>
-      <c r="K218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="5:11">
-      <c r="E219" t="s">
-        <v>314</v>
-      </c>
-      <c r="F219" t="str">
-        <f>E56</f>
-        <v>hmsg_message_template-159</v>
-      </c>
-      <c r="G219" t="s">
-        <v>362</v>
-      </c>
-      <c r="J219">
-        <v>0</v>
-      </c>
-      <c r="K219">
         <v>0</v>
       </c>
     </row>
@@ -12812,10 +12446,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I25" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E76" workbookViewId="0">
+      <selection activeCell="E91" sqref="$A91:$XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -12858,7 +12492,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -12870,13 +12504,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>88</v>
@@ -12885,33 +12519,33 @@
         <v>89</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="I7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="J7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="N7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="O7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -12920,33 +12554,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="I8" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="J8" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K8" t="s">
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M8" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="N8" t="s">
         <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -12955,33 +12589,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I9" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K9" t="s">
         <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="N9" t="s">
         <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -12990,33 +12624,33 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="I10" t="s">
         <v>223</v>
       </c>
       <c r="J10" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K10" t="s">
         <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M10" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="N10" t="s">
         <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -13025,33 +12659,33 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I11" t="s">
         <v>196</v>
       </c>
       <c r="J11" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K11" t="s">
         <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="N11" t="s">
         <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -13060,33 +12694,33 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I12" t="s">
         <v>174</v>
       </c>
       <c r="J12" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M12" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="N12" t="s">
         <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -13095,33 +12729,33 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="I13" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="J13" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K13" t="s">
         <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M13" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="N13" t="s">
         <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -13130,33 +12764,33 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I14" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="J14" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K14" t="s">
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M14" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="N14" t="s">
         <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -13165,33 +12799,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I15" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J15" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K15" t="s">
         <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M15" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="N15" t="s">
         <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -13200,33 +12834,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="I16" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="J16" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K16" t="s">
         <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M16" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="N16" t="s">
         <v>74</v>
       </c>
       <c r="O16" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
@@ -13235,33 +12869,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="I17" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="J17" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K17" t="s">
         <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M17" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="N17" t="s">
         <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -13270,33 +12904,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="I18" t="s">
         <v>238</v>
       </c>
       <c r="J18" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K18" t="s">
         <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M18" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="N18" t="s">
         <v>75</v>
       </c>
       <c r="O18" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -13305,33 +12939,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="I19" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="J19" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M19" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="N19" t="s">
         <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
@@ -13340,33 +12974,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I20" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="J20" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K20" t="s">
         <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M20" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="N20" t="s">
         <v>75</v>
       </c>
       <c r="O20" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -13375,33 +13009,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="I21" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="J21" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K21" t="s">
         <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M21" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="N21" t="s">
         <v>74</v>
       </c>
       <c r="O21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -13410,33 +13044,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="I22" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J22" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K22" t="s">
         <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M22" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="N22" t="s">
         <v>75</v>
       </c>
       <c r="O22" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -13445,33 +13079,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="I23" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="J23" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K23" t="s">
         <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M23" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="N23" t="s">
         <v>75</v>
       </c>
       <c r="O23" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -13480,33 +13114,33 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="I24" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J24" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M24" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="N24" t="s">
         <v>75</v>
       </c>
       <c r="O24" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -13515,33 +13149,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I25" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="J25" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K25" t="s">
         <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M25" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="N25" t="s">
         <v>75</v>
       </c>
       <c r="O25" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
@@ -13550,33 +13184,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="I26" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="J26" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M26" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="N26" t="s">
         <v>74</v>
       </c>
       <c r="O26" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -13585,33 +13219,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="I27" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="J27" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K27" t="s">
         <v>74</v>
       </c>
       <c r="L27" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M27" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="N27" t="s">
         <v>74</v>
       </c>
       <c r="O27" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -13620,33 +13254,33 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="I28" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="J28" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K28" t="s">
         <v>74</v>
       </c>
       <c r="L28" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M28" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="N28" t="s">
         <v>74</v>
       </c>
       <c r="O28" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="5:15">
       <c r="E29" s="8" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
@@ -13655,33 +13289,33 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="I29" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J29" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K29" t="s">
         <v>74</v>
       </c>
       <c r="L29" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M29" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="N29" t="s">
         <v>74</v>
       </c>
       <c r="O29" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
@@ -13690,33 +13324,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="I30" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J30" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K30" t="s">
         <v>74</v>
       </c>
       <c r="L30" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M30" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="N30" t="s">
         <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -13725,33 +13359,33 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="I31" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="J31" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K31" t="s">
         <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M31" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="N31" t="s">
         <v>74</v>
       </c>
       <c r="O31" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -13760,33 +13394,33 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K32" s="9">
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="5:15">
       <c r="E33" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F33" s="10">
         <v>0</v>
@@ -13795,19 +13429,19 @@
         <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K33" s="10">
         <v>1</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>282</v>
@@ -13816,12 +13450,12 @@
         <v>1</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="5:15">
       <c r="E34" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
@@ -13830,19 +13464,19 @@
         <v>0</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K34" s="10">
         <v>1</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>282</v>
@@ -13851,12 +13485,12 @@
         <v>1</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="5:15">
       <c r="E35" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
@@ -13865,19 +13499,19 @@
         <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K35" s="10">
         <v>1</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>282</v>
@@ -13886,12 +13520,12 @@
         <v>1</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="5:15">
       <c r="E36" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F36" s="10">
         <v>0</v>
@@ -13900,19 +13534,19 @@
         <v>0</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K36" s="10">
         <v>1</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>295</v>
@@ -13921,12 +13555,12 @@
         <v>1</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="5:15">
       <c r="E37" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F37" s="10">
         <v>0</v>
@@ -13935,22 +13569,22 @@
         <v>0</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>299</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K37" s="10">
         <v>1</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>486</v>
+        <v>301</v>
       </c>
       <c r="N37" s="10">
         <v>1</v>
@@ -13959,95 +13593,88 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="5:15">
-      <c r="E38" s="1" t="s">
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>479</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" t="s">
+        <v>484</v>
+      </c>
+      <c r="J39" t="s">
+        <v>485</v>
+      </c>
+      <c r="K39" t="s">
+        <v>486</v>
+      </c>
+      <c r="L39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13">
+      <c r="E40" t="s">
         <v>487</v>
       </c>
-      <c r="F38" s="10">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11" t="s">
+      <c r="F40" t="str">
+        <f>发送配置!$E$8</f>
+        <v>hmsg_template_server-8</v>
+      </c>
+      <c r="G40" t="s">
         <v>488</v>
       </c>
-      <c r="I38" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="K38" s="10">
-        <v>1</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="N38" s="10">
-        <v>1</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="s">
-        <v>489</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" t="s">
-        <v>494</v>
-      </c>
-      <c r="J40" t="s">
-        <v>495</v>
+      <c r="H40" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
       </c>
       <c r="K40" t="s">
-        <v>496</v>
+        <v>91</v>
       </c>
       <c r="L40" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M40" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="5:13">
       <c r="E41" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F41" t="str">
-        <f>发送配置!$E$8</f>
-        <v>hmsg_template_server-8</v>
+        <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G41" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="H41" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="I41" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -14056,124 +13683,117 @@
       <c r="K41" t="s">
         <v>91</v>
       </c>
-      <c r="L41" t="s">
-        <v>75</v>
-      </c>
-      <c r="M41" t="s">
-        <v>74</v>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="5:13">
       <c r="E42" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F42" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G42" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" t="str">
+        <v>138</v>
+      </c>
+      <c r="L42" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13">
+      <c r="E43" t="s">
+        <v>492</v>
+      </c>
+      <c r="F43" t="str">
+        <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>491</v>
+      </c>
+      <c r="H43" t="s">
+        <v>222</v>
+      </c>
+      <c r="L43" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13">
+      <c r="E44" t="s">
+        <v>493</v>
+      </c>
+      <c r="F44" t="str">
+        <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>488</v>
+      </c>
+      <c r="H44" t="s">
+        <v>195</v>
+      </c>
+      <c r="I44" t="str">
         <f>邮箱服务配置!$E$8</f>
         <v>hmsg_email_server-9</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K44" t="s">
         <v>91</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="L44" t="s">
+        <v>75</v>
+      </c>
+      <c r="M44">
         <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="5:13">
-      <c r="E43" t="s">
-        <v>500</v>
-      </c>
-      <c r="F43" t="str">
-        <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
-      </c>
-      <c r="G43" t="s">
-        <v>501</v>
-      </c>
-      <c r="H43" t="s">
-        <v>138</v>
-      </c>
-      <c r="L43" t="s">
-        <v>75</v>
-      </c>
-      <c r="M43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="5:13">
-      <c r="E44" t="s">
-        <v>502</v>
-      </c>
-      <c r="F44" t="str">
-        <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
-      </c>
-      <c r="G44" t="s">
-        <v>501</v>
-      </c>
-      <c r="H44" t="s">
-        <v>222</v>
-      </c>
-      <c r="L44" t="s">
-        <v>75</v>
-      </c>
-      <c r="M44" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="45" spans="5:13">
       <c r="E45" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G45" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H45" t="s">
-        <v>195</v>
-      </c>
-      <c r="I45" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K45" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="L45" t="s">
         <v>75</v>
       </c>
-      <c r="M45">
-        <v>1</v>
+      <c r="M45" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="5:13">
       <c r="E46" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F46" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G46" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H46" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L46" t="s">
         <v>75</v>
@@ -14184,17 +13804,17 @@
     </row>
     <row r="47" spans="5:13">
       <c r="E47" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F47" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G47" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L47" t="s">
         <v>75</v>
@@ -14205,66 +13825,66 @@
     </row>
     <row r="48" spans="5:13">
       <c r="E48" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F48" t="str">
-        <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
+        <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
       </c>
       <c r="G48" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="H48" t="s">
-        <v>188</v>
+        <v>173</v>
+      </c>
+      <c r="I48" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>91</v>
       </c>
       <c r="L48" t="s">
         <v>75</v>
       </c>
-      <c r="M48" t="s">
-        <v>74</v>
+      <c r="M48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="5:13">
       <c r="E49" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G49" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H49" t="s">
-        <v>173</v>
-      </c>
-      <c r="I49" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K49" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="L49" t="s">
         <v>75</v>
       </c>
-      <c r="M49">
-        <v>1</v>
+      <c r="M49" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="5:13">
       <c r="E50" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F50" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G50" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H50" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="L50" t="s">
         <v>75</v>
@@ -14275,17 +13895,17 @@
     </row>
     <row r="51" spans="5:13">
       <c r="E51" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F51" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G51" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H51" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L51" t="s">
         <v>75</v>
@@ -14296,17 +13916,17 @@
     </row>
     <row r="52" spans="5:13">
       <c r="E52" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F52" t="str">
-        <f>发送配置!$E$12</f>
-        <v>hmsg_template_server-12</v>
+        <f>发送配置!$E$13</f>
+        <v>hmsg_template_server-13</v>
       </c>
       <c r="G52" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="H52" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="L52" t="s">
         <v>75</v>
@@ -14317,17 +13937,17 @@
     </row>
     <row r="53" spans="5:13">
       <c r="E53" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F53" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G53" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L53" t="s">
         <v>75</v>
@@ -14338,17 +13958,17 @@
     </row>
     <row r="54" spans="5:13">
       <c r="E54" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F54" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G54" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L54" t="s">
         <v>75</v>
@@ -14359,17 +13979,17 @@
     </row>
     <row r="55" spans="5:13">
       <c r="E55" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F55" t="str">
-        <f>发送配置!$E$13</f>
-        <v>hmsg_template_server-13</v>
+        <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
       </c>
       <c r="G55" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="H55" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="L55" t="s">
         <v>75</v>
@@ -14380,17 +14000,17 @@
     </row>
     <row r="56" spans="5:13">
       <c r="E56" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F56" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G56" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H56" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L56" t="s">
         <v>75</v>
@@ -14401,17 +14021,17 @@
     </row>
     <row r="57" spans="5:13">
       <c r="E57" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F57" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G57" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H57" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L57" t="s">
         <v>75</v>
@@ -14422,17 +14042,17 @@
     </row>
     <row r="58" spans="5:13">
       <c r="E58" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F58" t="str">
-        <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
+        <f>发送配置!$E$16</f>
+        <v>hmsg_template_server-19</v>
       </c>
       <c r="G58" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="L58" t="s">
         <v>75</v>
@@ -14443,17 +14063,17 @@
     </row>
     <row r="59" spans="5:13">
       <c r="E59" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="F59" t="str">
-        <f>发送配置!$E$16</f>
-        <v>hmsg_template_server-19</v>
+        <f>发送配置!$E$17</f>
+        <v>hmsg_template_server-20</v>
       </c>
       <c r="G59" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="H59" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L59" t="s">
         <v>75</v>
@@ -14464,17 +14084,17 @@
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G60" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H60" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L60" t="s">
         <v>75</v>
@@ -14485,17 +14105,17 @@
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G61" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H61" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s">
         <v>75</v>
@@ -14506,17 +14126,24 @@
     </row>
     <row r="62" spans="5:13">
       <c r="E62" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F62" t="str">
-        <f>发送配置!$E$17</f>
-        <v>hmsg_template_server-20</v>
+        <f>发送配置!$E$18</f>
+        <v>hmsg_template_server-21</v>
       </c>
       <c r="G62" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="H62" t="s">
-        <v>209</v>
+        <v>237</v>
+      </c>
+      <c r="I62" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K62" t="s">
+        <v>91</v>
       </c>
       <c r="L62" t="s">
         <v>75</v>
@@ -14527,66 +14154,66 @@
     </row>
     <row r="63" spans="5:13">
       <c r="E63" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="F63" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G63" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H63" t="s">
-        <v>237</v>
-      </c>
-      <c r="I63" t="str">
+        <v>241</v>
+      </c>
+      <c r="L63" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="5:13">
+      <c r="E64" t="s">
+        <v>514</v>
+      </c>
+      <c r="F64" t="str">
+        <f>发送配置!$E$19</f>
+        <v>hmsg_template_server-22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>491</v>
+      </c>
+      <c r="H64" t="s">
+        <v>254</v>
+      </c>
+      <c r="L64" t="s">
+        <v>75</v>
+      </c>
+      <c r="M64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="5:13">
+      <c r="E65" t="s">
+        <v>515</v>
+      </c>
+      <c r="F65" t="str">
+        <f>发送配置!$E$20</f>
+        <v>hmsg_template_server-35</v>
+      </c>
+      <c r="G65" t="s">
+        <v>488</v>
+      </c>
+      <c r="H65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" t="str">
         <f>邮箱服务配置!$E$8</f>
         <v>hmsg_email_server-9</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K65" t="s">
         <v>91</v>
-      </c>
-      <c r="L63" t="s">
-        <v>75</v>
-      </c>
-      <c r="M63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="5:13">
-      <c r="E64" t="s">
-        <v>523</v>
-      </c>
-      <c r="F64" t="str">
-        <f>发送配置!$E$18</f>
-        <v>hmsg_template_server-21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>501</v>
-      </c>
-      <c r="H64" t="s">
-        <v>241</v>
-      </c>
-      <c r="L64" t="s">
-        <v>75</v>
-      </c>
-      <c r="M64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="5:13">
-      <c r="E65" t="s">
-        <v>524</v>
-      </c>
-      <c r="F65" t="str">
-        <f>发送配置!$E$19</f>
-        <v>hmsg_template_server-22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>501</v>
-      </c>
-      <c r="H65" t="s">
-        <v>254</v>
       </c>
       <c r="L65" t="s">
         <v>75</v>
@@ -14597,17 +14224,17 @@
     </row>
     <row r="66" spans="5:13">
       <c r="E66" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F66" t="str">
-        <f>发送配置!$E$20</f>
-        <v>hmsg_template_server-35</v>
+        <f>发送配置!$E$21</f>
+        <v>hmsg_template_server-37</v>
       </c>
       <c r="G66" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="H66" t="s">
-        <v>205</v>
+        <v>517</v>
       </c>
       <c r="I66" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -14625,24 +14252,17 @@
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G67" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H67" t="s">
-        <v>527</v>
-      </c>
-      <c r="I67" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K67" t="s">
-        <v>91</v>
+        <v>519</v>
       </c>
       <c r="L67" t="s">
         <v>75</v>
@@ -14653,17 +14273,17 @@
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G68" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H68" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="L68" t="s">
         <v>75</v>
@@ -14674,17 +14294,17 @@
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G69" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H69" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="L69" t="s">
         <v>75</v>
@@ -14695,17 +14315,24 @@
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F70" t="str">
-        <f>发送配置!$E$21</f>
-        <v>hmsg_template_server-37</v>
+        <f>发送配置!$E$22</f>
+        <v>hmsg_template_server-49</v>
       </c>
       <c r="G70" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="H70" t="s">
-        <v>533</v>
+        <v>127</v>
+      </c>
+      <c r="I70" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K70" t="s">
+        <v>91</v>
       </c>
       <c r="L70" t="s">
         <v>75</v>
@@ -14716,24 +14343,17 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G71" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H71" t="s">
-        <v>127</v>
-      </c>
-      <c r="I71" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K71" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s">
         <v>75</v>
@@ -14744,17 +14364,17 @@
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G72" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H72" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L72" t="s">
         <v>75</v>
@@ -14765,17 +14385,24 @@
     </row>
     <row r="73" spans="5:13">
       <c r="E73" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="F73" t="str">
-        <f>发送配置!$E$22</f>
-        <v>hmsg_template_server-49</v>
+        <f>发送配置!$E$23</f>
+        <v>hmsg_template_server-50</v>
       </c>
       <c r="G73" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="H73" t="s">
-        <v>119</v>
+        <v>263</v>
+      </c>
+      <c r="I73" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K73" t="s">
+        <v>91</v>
       </c>
       <c r="L73" t="s">
         <v>75</v>
@@ -14786,94 +14413,87 @@
     </row>
     <row r="74" spans="5:13">
       <c r="E74" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G74" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H74" t="s">
-        <v>263</v>
-      </c>
-      <c r="I74" t="str">
+        <v>267</v>
+      </c>
+      <c r="L74" t="s">
+        <v>75</v>
+      </c>
+      <c r="M74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="5:13">
+      <c r="E75" t="s">
+        <v>529</v>
+      </c>
+      <c r="F75" t="str">
+        <f>发送配置!$E$24</f>
+        <v>hmsg_template_server-51</v>
+      </c>
+      <c r="G75" t="s">
+        <v>488</v>
+      </c>
+      <c r="H75" t="s">
+        <v>230</v>
+      </c>
+      <c r="I75" t="str">
         <f>邮箱服务配置!$E$8</f>
         <v>hmsg_email_server-9</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K75" t="s">
         <v>91</v>
       </c>
-      <c r="L74" t="s">
-        <v>75</v>
-      </c>
-      <c r="M74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="5:13">
-      <c r="E75" t="s">
-        <v>538</v>
-      </c>
-      <c r="F75" t="str">
-        <f>发送配置!$E$23</f>
-        <v>hmsg_template_server-50</v>
-      </c>
-      <c r="G75" t="s">
-        <v>501</v>
-      </c>
-      <c r="H75" t="s">
-        <v>267</v>
-      </c>
       <c r="L75" t="s">
         <v>75</v>
       </c>
-      <c r="M75" t="s">
-        <v>74</v>
+      <c r="M75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G76" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H76" t="s">
-        <v>230</v>
-      </c>
-      <c r="I76" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K76" t="s">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="L76" t="s">
         <v>75</v>
       </c>
-      <c r="M76">
-        <v>1</v>
+      <c r="M76" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G77" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H77" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L77" t="s">
         <v>75</v>
@@ -14884,17 +14504,24 @@
     </row>
     <row r="78" spans="5:13">
       <c r="E78" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F78" t="str">
-        <f>发送配置!$E$24</f>
-        <v>hmsg_template_server-51</v>
+        <f>发送配置!$E$25</f>
+        <v>hmsg_template_server-52</v>
       </c>
       <c r="G78" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="H78" t="s">
-        <v>226</v>
+        <v>257</v>
+      </c>
+      <c r="I78" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K78" t="s">
+        <v>91</v>
       </c>
       <c r="L78" t="s">
         <v>75</v>
@@ -14905,24 +14532,17 @@
     </row>
     <row r="79" spans="5:13">
       <c r="E79" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="F79" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G79" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H79" t="s">
-        <v>257</v>
-      </c>
-      <c r="I79" t="str">
-        <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K79" t="s">
-        <v>91</v>
+        <v>260</v>
       </c>
       <c r="L79" t="s">
         <v>75</v>
@@ -14933,20 +14553,20 @@
     </row>
     <row r="80" spans="5:13">
       <c r="E80" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F80" t="str">
-        <f>发送配置!$E$25</f>
-        <v>hmsg_template_server-52</v>
+        <f>发送配置!$E$26</f>
+        <v>hmsg_template_server-63</v>
       </c>
       <c r="G80" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H80" t="s">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="L80" t="s">
-        <v>75</v>
+        <v>535</v>
       </c>
       <c r="M80" t="s">
         <v>74</v>
@@ -14954,20 +14574,20 @@
     </row>
     <row r="81" spans="5:13">
       <c r="E81" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F81" t="str">
-        <f>发送配置!$E$26</f>
-        <v>hmsg_template_server-63</v>
+        <f>发送配置!$E$27</f>
+        <v>hmsg_template_server-65</v>
       </c>
       <c r="G81" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H81" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L81" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="M81" t="s">
         <v>74</v>
@@ -14975,20 +14595,20 @@
     </row>
     <row r="82" spans="5:13">
       <c r="E82" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F82" t="str">
-        <f>发送配置!$E$27</f>
-        <v>hmsg_template_server-65</v>
+        <f>发送配置!$E$30</f>
+        <v>hmsg_template_server-70</v>
       </c>
       <c r="G82" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H82" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="L82" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="M82" t="s">
         <v>74</v>
@@ -14996,20 +14616,20 @@
     </row>
     <row r="83" spans="5:13">
       <c r="E83" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F83" t="str">
-        <f>发送配置!$E$30</f>
-        <v>hmsg_template_server-70</v>
+        <f>发送配置!$E$31</f>
+        <v>hmsg_template_server-72</v>
       </c>
       <c r="G83" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H83" t="s">
-        <v>270</v>
+        <v>539</v>
       </c>
       <c r="L83" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="M83" t="s">
         <v>74</v>
@@ -15017,20 +14637,20 @@
     </row>
     <row r="84" spans="5:13">
       <c r="E84" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="F84" t="str">
-        <f>发送配置!$E$31</f>
-        <v>hmsg_template_server-72</v>
+        <f>发送配置!$E$28</f>
+        <v>hmsg_template_server-66</v>
       </c>
       <c r="G84" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H84" t="s">
-        <v>549</v>
+        <v>250</v>
       </c>
       <c r="L84" t="s">
-        <v>545</v>
+        <v>75</v>
       </c>
       <c r="M84" t="s">
         <v>74</v>
@@ -15038,38 +14658,38 @@
     </row>
     <row r="85" spans="5:13">
       <c r="E85" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F85" t="str">
-        <f>发送配置!$E$28</f>
-        <v>hmsg_template_server-66</v>
-      </c>
-      <c r="G85" t="s">
-        <v>506</v>
+        <f t="shared" ref="F85" si="0">E32</f>
+        <v>hmsg_template_server-96</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>491</v>
       </c>
       <c r="H85" t="s">
-        <v>250</v>
-      </c>
-      <c r="L85" t="s">
-        <v>75</v>
-      </c>
-      <c r="M85" t="s">
-        <v>74</v>
+        <v>274</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="5:13">
       <c r="E86" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" ref="F86" si="0">E32</f>
+        <f>E32</f>
         <v>hmsg_template_server-96</v>
       </c>
-      <c r="G86" s="7" t="s">
-        <v>501</v>
+      <c r="G86" t="s">
+        <v>543</v>
       </c>
       <c r="H86" t="s">
-        <v>274</v>
+        <v>544</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -15080,17 +14700,17 @@
     </row>
     <row r="87" spans="5:13">
       <c r="E87" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" ref="F87:F93" si="1">E32</f>
-        <v>hmsg_template_server-96</v>
-      </c>
-      <c r="G87" t="s">
-        <v>553</v>
-      </c>
-      <c r="H87" t="s">
-        <v>554</v>
+        <f>E33</f>
+        <v>hmsg_template_server-97</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -15101,17 +14721,17 @@
     </row>
     <row r="88" spans="5:13">
       <c r="E88" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="1"/>
-        <v>hmsg_template_server-97</v>
+        <f>E34</f>
+        <v>hmsg_template_server-98</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -15122,17 +14742,17 @@
     </row>
     <row r="89" spans="5:13">
       <c r="E89" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="1"/>
-        <v>hmsg_template_server-98</v>
+        <f>E35</f>
+        <v>hmsg_template_server-99</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -15143,17 +14763,24 @@
     </row>
     <row r="90" spans="5:13">
       <c r="E90" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="1"/>
-        <v>hmsg_template_server-99</v>
+        <f>E36</f>
+        <v>hmsg_template_server-100</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>501</v>
+        <v>543</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
+      </c>
+      <c r="I90" t="str">
+        <f>短信服务配置!E8</f>
+        <v>hmsg_sms_server-8</v>
+      </c>
+      <c r="K90" t="s">
+        <v>69</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -15164,24 +14791,24 @@
     </row>
     <row r="91" spans="5:13">
       <c r="E91" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="1"/>
-        <v>hmsg_template_server-100</v>
+        <f>E37</f>
+        <v>hmsg_template_server-102</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>553</v>
+        <v>488</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I91" t="str">
-        <f>短信服务配置!E8</f>
-        <v>hmsg_sms_server-8</v>
+        <f>邮箱服务配置!E8</f>
+        <v>hmsg_email_server-9</v>
       </c>
       <c r="K91" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -15190,97 +14817,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="5:13">
-      <c r="E92" t="s">
-        <v>556</v>
-      </c>
-      <c r="F92" t="str">
-        <f t="shared" si="1"/>
-        <v>hmsg_template_server-101</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="I92" t="str">
-        <f>邮箱服务配置!E8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K92" t="s">
-        <v>91</v>
-      </c>
-      <c r="L92">
+    <row r="93" spans="1:8">
+      <c r="A93" s="16">
+        <v>44036</v>
+      </c>
+      <c r="B93" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" t="s">
+        <v>357</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="H93" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="94" spans="5:8">
+      <c r="E94" t="s">
+        <v>551</v>
+      </c>
+      <c r="F94" t="s">
+        <v>368</v>
+      </c>
+      <c r="G94">
         <v>0</v>
       </c>
-      <c r="M92">
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="5:8">
+      <c r="E95" t="s">
+        <v>552</v>
+      </c>
+      <c r="F95" t="s">
+        <v>375</v>
+      </c>
+      <c r="G95">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="5:13">
-      <c r="E93" t="s">
-        <v>557</v>
-      </c>
-      <c r="F93" t="str">
-        <f t="shared" si="1"/>
-        <v>hmsg_template_server-102</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="I93" t="str">
-        <f>邮箱服务配置!E8</f>
-        <v>hmsg_email_server-9</v>
-      </c>
-      <c r="K93" t="s">
-        <v>91</v>
-      </c>
-      <c r="L93">
+      <c r="H95">
         <v>0</v>
-      </c>
-      <c r="M93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="16">
-        <v>44036</v>
-      </c>
-      <c r="B95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C95" t="s">
-        <v>364</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="H95" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="96" spans="5:8">
       <c r="E96" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="F96" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -15288,10 +14887,10 @@
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F97" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -15302,10 +14901,10 @@
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="F98" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -15316,13 +14915,13 @@
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F99" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -15330,13 +14929,13 @@
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="F100" t="s">
         <v>396</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -15344,13 +14943,13 @@
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F101" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -15358,13 +14957,13 @@
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F102" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -15372,13 +14971,13 @@
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F103" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -15386,13 +14985,13 @@
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="F104" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -15400,13 +14999,13 @@
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>571</v>
-      </c>
-      <c r="F105" t="s">
-        <v>417</v>
+        <v>562</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>416</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -15414,7 +15013,7 @@
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="F106" t="s">
         <v>420</v>
@@ -15428,13 +15027,13 @@
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>573</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>423</v>
+        <v>564</v>
+      </c>
+      <c r="F107" t="s">
+        <v>429</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -15442,10 +15041,10 @@
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="F108" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -15456,10 +15055,10 @@
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F109" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -15470,10 +15069,10 @@
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F110" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -15484,13 +15083,13 @@
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F111" t="s">
         <v>445</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -15498,13 +15097,13 @@
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="F112" t="s">
         <v>448</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -15512,10 +15111,10 @@
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F113" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -15526,13 +15125,13 @@
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F114" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -15540,10 +15139,10 @@
     </row>
     <row r="115" spans="5:8">
       <c r="E115" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F115" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -15554,43 +15153,15 @@
     </row>
     <row r="116" spans="5:8">
       <c r="E116" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F116" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="5:8">
-      <c r="E117" t="s">
-        <v>583</v>
-      </c>
-      <c r="F117" t="s">
-        <v>462</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="5:8">
-      <c r="E118" t="s">
-        <v>584</v>
-      </c>
-      <c r="F118" t="s">
-        <v>469</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -4976,7 +4976,7 @@
     <t>ORG_CREATE_USER.EMAIL</t>
   </si>
   <si>
-    <t>组织层创建用户</t>
+    <t>创建账号成功</t>
   </si>
   <si>
     <t>&lt;!doctype html&gt;
@@ -6061,10 +6061,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -6183,17 +6183,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6213,7 +6221,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6221,22 +6237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6258,16 +6259,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6290,17 +6298,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6398,7 +6398,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6410,19 +6476,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6434,67 +6536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6512,49 +6560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6566,13 +6572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6694,6 +6694,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6709,15 +6718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6729,6 +6729,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6752,173 +6776,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7988,8 +7988,8 @@
   <sheetPr/>
   <dimension ref="A1:Q215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A55" sqref="$A55:$XFD55"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -12448,8 +12448,8 @@
   <sheetPr/>
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E76" workbookViewId="0">
-      <selection activeCell="E91" sqref="$A91:$XFD91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -14682,7 +14682,7 @@
         <v>542</v>
       </c>
       <c r="F86" t="str">
-        <f>E32</f>
+        <f t="shared" ref="F86:F91" si="1">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G86" t="s">
@@ -14703,7 +14703,7 @@
         <v>542</v>
       </c>
       <c r="F87" t="str">
-        <f>E33</f>
+        <f t="shared" si="1"/>
         <v>hmsg_template_server-97</v>
       </c>
       <c r="G87" s="7" t="s">
@@ -14724,7 +14724,7 @@
         <v>542</v>
       </c>
       <c r="F88" t="str">
-        <f>E34</f>
+        <f t="shared" si="1"/>
         <v>hmsg_template_server-98</v>
       </c>
       <c r="G88" s="7" t="s">
@@ -14745,7 +14745,7 @@
         <v>542</v>
       </c>
       <c r="F89" t="str">
-        <f>E35</f>
+        <f t="shared" si="1"/>
         <v>hmsg_template_server-99</v>
       </c>
       <c r="G89" s="7" t="s">
@@ -14766,7 +14766,7 @@
         <v>545</v>
       </c>
       <c r="F90" t="str">
-        <f>E36</f>
+        <f t="shared" si="1"/>
         <v>hmsg_template_server-100</v>
       </c>
       <c r="G90" s="7" t="s">
@@ -14794,7 +14794,7 @@
         <v>546</v>
       </c>
       <c r="F91" t="str">
-        <f>E37</f>
+        <f t="shared" si="1"/>
         <v>hmsg_template_server-102</v>
       </c>
       <c r="G91" s="7" t="s">

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="575">
   <si>
     <r>
       <rPr>
@@ -5118,7 +5118,7 @@
                         &lt;div&gt;
                           &lt;p style="margin-top: 0"&gt;亲爱的${realName}，您好！&lt;/p&gt;
                           &lt;p style="text-align: justify; margin-bottom: 0; line-height: 14px; font-size: 14px"&gt;
-       【组织管理员${orgAdmin}】邀请您加入组织： ${tenantName}，并且已为您创建账号[${email}]，初始密码为[${orgPassword}]。请点击以下按钮接受邀请并加入，登录后请及时修改初始密码。
+       【组织管理员${orgAdmin}】邀请您加入组织： ${tenantName}，并且已为您创建账号[${email}]，初始密码为[${orgPassword}]。您可使用该账号密码登录云平台，地址：${frontUrl} 也可以点击以下按钮修改初始密码，完善信息后登录。
         &lt;/p&gt;
                         &lt;/div&gt;
                         &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
@@ -5374,6 +5374,9 @@
   </si>
   <si>
     <t>inviteLink</t>
+  </si>
+  <si>
+    <t>frontUrl</t>
   </si>
   <si>
     <r>
@@ -6175,6 +6178,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -6205,6 +6215,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -6221,14 +6239,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -6237,7 +6247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6261,7 +6271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6269,13 +6279,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6298,7 +6301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6398,30 +6401,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6434,7 +6413,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6446,67 +6449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6530,19 +6485,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6560,7 +6521,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6572,7 +6563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6703,6 +6706,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6713,21 +6727,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -6751,8 +6750,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6760,165 +6774,154 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7658,7 +7661,7 @@
   <sheetPr/>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -7986,10 +7989,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q215"/>
+  <dimension ref="A1:Q216"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="H182" workbookViewId="0">
+      <selection activeCell="K216" sqref="K216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -12436,6 +12439,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="216" spans="5:11">
+      <c r="E216" t="s">
+        <v>309</v>
+      </c>
+      <c r="F216" t="str">
+        <f>E55</f>
+        <v>hmsg_message_template-159</v>
+      </c>
+      <c r="G216" t="s">
+        <v>356</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12448,7 +12469,7 @@
   <sheetPr/>
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I22" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="J22" workbookViewId="0">
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
@@ -12492,7 +12513,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -12504,13 +12525,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>88</v>
@@ -12519,33 +12540,33 @@
         <v>89</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -12554,33 +12575,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K8" t="s">
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N8" t="s">
         <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -12589,33 +12610,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K9" t="s">
         <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N9" t="s">
         <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -12624,33 +12645,33 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I10" t="s">
         <v>223</v>
       </c>
       <c r="J10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K10" t="s">
         <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N10" t="s">
         <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -12659,33 +12680,33 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I11" t="s">
         <v>196</v>
       </c>
       <c r="J11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K11" t="s">
         <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N11" t="s">
         <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -12694,33 +12715,33 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I12" t="s">
         <v>174</v>
       </c>
       <c r="J12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N12" t="s">
         <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -12729,33 +12750,33 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K13" t="s">
         <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N13" t="s">
         <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -12764,33 +12785,33 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K14" t="s">
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N14" t="s">
         <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -12799,33 +12820,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K15" t="s">
         <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N15" t="s">
         <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -12834,33 +12855,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K16" t="s">
         <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N16" t="s">
         <v>74</v>
       </c>
       <c r="O16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
@@ -12869,33 +12890,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K17" t="s">
         <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N17" t="s">
         <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -12904,33 +12925,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I18" t="s">
         <v>238</v>
       </c>
       <c r="J18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K18" t="s">
         <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N18" t="s">
         <v>75</v>
       </c>
       <c r="O18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -12939,33 +12960,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I19" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M19" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N19" t="s">
         <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
@@ -12974,33 +12995,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K20" t="s">
         <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N20" t="s">
         <v>75</v>
       </c>
       <c r="O20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -13009,33 +13030,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I21" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K21" t="s">
         <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M21" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N21" t="s">
         <v>74</v>
       </c>
       <c r="O21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -13044,33 +13065,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I22" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J22" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K22" t="s">
         <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M22" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N22" t="s">
         <v>75</v>
       </c>
       <c r="O22" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -13079,33 +13100,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K23" t="s">
         <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M23" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N23" t="s">
         <v>75</v>
       </c>
       <c r="O23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -13114,33 +13135,33 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N24" t="s">
         <v>75</v>
       </c>
       <c r="O24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -13149,33 +13170,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I25" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K25" t="s">
         <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M25" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N25" t="s">
         <v>75</v>
       </c>
       <c r="O25" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
@@ -13184,33 +13205,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J26" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M26" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N26" t="s">
         <v>74</v>
       </c>
       <c r="O26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -13219,33 +13240,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I27" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K27" t="s">
         <v>74</v>
       </c>
       <c r="L27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N27" t="s">
         <v>74</v>
       </c>
       <c r="O27" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -13254,33 +13275,33 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J28" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K28" t="s">
         <v>74</v>
       </c>
       <c r="L28" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N28" t="s">
         <v>74</v>
       </c>
       <c r="O28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="5:15">
       <c r="E29" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
@@ -13289,33 +13310,33 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I29" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K29" t="s">
         <v>74</v>
       </c>
       <c r="L29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M29" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N29" t="s">
         <v>74</v>
       </c>
       <c r="O29" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
@@ -13324,33 +13345,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I30" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K30" t="s">
         <v>74</v>
       </c>
       <c r="L30" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M30" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N30" t="s">
         <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -13359,33 +13380,33 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I31" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K31" t="s">
         <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N31" t="s">
         <v>74</v>
       </c>
       <c r="O31" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -13394,33 +13415,33 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K32" s="9">
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="5:15">
       <c r="E33" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F33" s="10">
         <v>0</v>
@@ -13429,19 +13450,19 @@
         <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K33" s="10">
         <v>1</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>282</v>
@@ -13450,12 +13471,12 @@
         <v>1</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="5:15">
       <c r="E34" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
@@ -13464,19 +13485,19 @@
         <v>0</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K34" s="10">
         <v>1</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>282</v>
@@ -13485,12 +13506,12 @@
         <v>1</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="5:15">
       <c r="E35" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
@@ -13499,19 +13520,19 @@
         <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K35" s="10">
         <v>1</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>282</v>
@@ -13520,12 +13541,12 @@
         <v>1</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="5:15">
       <c r="E36" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F36" s="10">
         <v>0</v>
@@ -13534,19 +13555,19 @@
         <v>0</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K36" s="10">
         <v>1</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>295</v>
@@ -13555,12 +13576,12 @@
         <v>1</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="5:15">
       <c r="E37" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F37" s="10">
         <v>0</v>
@@ -13569,19 +13590,19 @@
         <v>0</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>299</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K37" s="10">
         <v>1</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M37" s="11" t="s">
         <v>301</v>
@@ -13601,31 +13622,31 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>108</v>
       </c>
       <c r="I39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J39" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K39" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L39" t="s">
         <v>84</v>
@@ -13636,14 +13657,14 @@
     </row>
     <row r="40" spans="5:13">
       <c r="E40" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F40" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G40" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H40" t="s">
         <v>201</v>
@@ -13664,14 +13685,14 @@
     </row>
     <row r="41" spans="5:13">
       <c r="E41" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F41" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G41" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H41" t="s">
         <v>134</v>
@@ -13692,14 +13713,14 @@
     </row>
     <row r="42" spans="5:13">
       <c r="E42" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F42" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G42" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H42" t="s">
         <v>138</v>
@@ -13713,14 +13734,14 @@
     </row>
     <row r="43" spans="5:13">
       <c r="E43" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F43" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G43" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H43" t="s">
         <v>222</v>
@@ -13734,14 +13755,14 @@
     </row>
     <row r="44" spans="5:13">
       <c r="E44" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F44" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H44" t="s">
         <v>195</v>
@@ -13762,14 +13783,14 @@
     </row>
     <row r="45" spans="5:13">
       <c r="E45" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G45" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H45" t="s">
         <v>199</v>
@@ -13783,14 +13804,14 @@
     </row>
     <row r="46" spans="5:13">
       <c r="E46" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F46" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G46" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H46" t="s">
         <v>191</v>
@@ -13804,14 +13825,14 @@
     </row>
     <row r="47" spans="5:13">
       <c r="E47" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F47" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G47" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H47" t="s">
         <v>188</v>
@@ -13825,14 +13846,14 @@
     </row>
     <row r="48" spans="5:13">
       <c r="E48" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F48" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G48" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H48" t="s">
         <v>173</v>
@@ -13853,14 +13874,14 @@
     </row>
     <row r="49" spans="5:13">
       <c r="E49" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G49" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H49" t="s">
         <v>177</v>
@@ -13874,14 +13895,14 @@
     </row>
     <row r="50" spans="5:13">
       <c r="E50" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F50" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G50" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H50" t="s">
         <v>169</v>
@@ -13895,14 +13916,14 @@
     </row>
     <row r="51" spans="5:13">
       <c r="E51" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F51" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G51" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H51" t="s">
         <v>165</v>
@@ -13916,14 +13937,14 @@
     </row>
     <row r="52" spans="5:13">
       <c r="E52" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F52" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G52" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H52" t="s">
         <v>186</v>
@@ -13937,14 +13958,14 @@
     </row>
     <row r="53" spans="5:13">
       <c r="E53" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F53" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G53" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H53" t="s">
         <v>182</v>
@@ -13958,14 +13979,14 @@
     </row>
     <row r="54" spans="5:13">
       <c r="E54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F54" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G54" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H54" t="s">
         <v>179</v>
@@ -13979,14 +14000,14 @@
     </row>
     <row r="55" spans="5:13">
       <c r="E55" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F55" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G55" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H55" t="s">
         <v>163</v>
@@ -14000,14 +14021,14 @@
     </row>
     <row r="56" spans="5:13">
       <c r="E56" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F56" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G56" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H56" t="s">
         <v>159</v>
@@ -14021,14 +14042,14 @@
     </row>
     <row r="57" spans="5:13">
       <c r="E57" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F57" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G57" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H57" t="s">
         <v>155</v>
@@ -14042,14 +14063,14 @@
     </row>
     <row r="58" spans="5:13">
       <c r="E58" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F58" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G58" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H58" t="s">
         <v>220</v>
@@ -14063,14 +14084,14 @@
     </row>
     <row r="59" spans="5:13">
       <c r="E59" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F59" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G59" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H59" t="s">
         <v>217</v>
@@ -14084,14 +14105,14 @@
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G60" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H60" t="s">
         <v>213</v>
@@ -14105,14 +14126,14 @@
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G61" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H61" t="s">
         <v>209</v>
@@ -14126,14 +14147,14 @@
     </row>
     <row r="62" spans="5:13">
       <c r="E62" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F62" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G62" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H62" t="s">
         <v>237</v>
@@ -14154,14 +14175,14 @@
     </row>
     <row r="63" spans="5:13">
       <c r="E63" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F63" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H63" t="s">
         <v>241</v>
@@ -14175,14 +14196,14 @@
     </row>
     <row r="64" spans="5:13">
       <c r="E64" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F64" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G64" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H64" t="s">
         <v>254</v>
@@ -14196,14 +14217,14 @@
     </row>
     <row r="65" spans="5:13">
       <c r="E65" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F65" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-35</v>
       </c>
       <c r="G65" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H65" t="s">
         <v>205</v>
@@ -14224,17 +14245,17 @@
     </row>
     <row r="66" spans="5:13">
       <c r="E66" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F66" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G66" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H66" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I66" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -14252,17 +14273,17 @@
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G67" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H67" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L67" t="s">
         <v>75</v>
@@ -14273,17 +14294,17 @@
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G68" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H68" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L68" t="s">
         <v>75</v>
@@ -14294,17 +14315,17 @@
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G69" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H69" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L69" t="s">
         <v>75</v>
@@ -14315,14 +14336,14 @@
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F70" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G70" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H70" t="s">
         <v>127</v>
@@ -14343,14 +14364,14 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G71" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H71" t="s">
         <v>131</v>
@@ -14364,14 +14385,14 @@
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G72" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H72" t="s">
         <v>119</v>
@@ -14385,14 +14406,14 @@
     </row>
     <row r="73" spans="5:13">
       <c r="E73" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F73" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G73" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H73" t="s">
         <v>263</v>
@@ -14413,14 +14434,14 @@
     </row>
     <row r="74" spans="5:13">
       <c r="E74" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G74" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H74" t="s">
         <v>267</v>
@@ -14434,14 +14455,14 @@
     </row>
     <row r="75" spans="5:13">
       <c r="E75" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F75" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G75" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H75" t="s">
         <v>230</v>
@@ -14462,14 +14483,14 @@
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G76" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H76" t="s">
         <v>234</v>
@@ -14483,14 +14504,14 @@
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G77" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H77" t="s">
         <v>226</v>
@@ -14504,14 +14525,14 @@
     </row>
     <row r="78" spans="5:13">
       <c r="E78" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F78" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G78" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H78" t="s">
         <v>257</v>
@@ -14532,14 +14553,14 @@
     </row>
     <row r="79" spans="5:13">
       <c r="E79" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F79" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G79" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H79" t="s">
         <v>260</v>
@@ -14553,20 +14574,20 @@
     </row>
     <row r="80" spans="5:13">
       <c r="E80" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F80" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-63</v>
       </c>
       <c r="G80" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H80" t="s">
         <v>145</v>
       </c>
       <c r="L80" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M80" t="s">
         <v>74</v>
@@ -14574,20 +14595,20 @@
     </row>
     <row r="81" spans="5:13">
       <c r="E81" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F81" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G81" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H81" t="s">
         <v>151</v>
       </c>
       <c r="L81" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M81" t="s">
         <v>74</v>
@@ -14595,20 +14616,20 @@
     </row>
     <row r="82" spans="5:13">
       <c r="E82" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F82" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-70</v>
       </c>
       <c r="G82" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H82" t="s">
         <v>270</v>
       </c>
       <c r="L82" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M82" t="s">
         <v>74</v>
@@ -14616,20 +14637,20 @@
     </row>
     <row r="83" spans="5:13">
       <c r="E83" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F83" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G83" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H83" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L83" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M83" t="s">
         <v>74</v>
@@ -14637,14 +14658,14 @@
     </row>
     <row r="84" spans="5:13">
       <c r="E84" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F84" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-66</v>
       </c>
       <c r="G84" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H84" t="s">
         <v>250</v>
@@ -14658,14 +14679,14 @@
     </row>
     <row r="85" spans="5:13">
       <c r="E85" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" ref="F85" si="0">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H85" t="s">
         <v>274</v>
@@ -14679,17 +14700,17 @@
     </row>
     <row r="86" spans="5:13">
       <c r="E86" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" ref="F86:F91" si="1">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G86" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H86" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -14700,14 +14721,14 @@
     </row>
     <row r="87" spans="5:13">
       <c r="E87" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-97</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>278</v>
@@ -14721,14 +14742,14 @@
     </row>
     <row r="88" spans="5:13">
       <c r="E88" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-98</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>284</v>
@@ -14742,14 +14763,14 @@
     </row>
     <row r="89" spans="5:13">
       <c r="E89" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-99</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>288</v>
@@ -14763,14 +14784,14 @@
     </row>
     <row r="90" spans="5:13">
       <c r="E90" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-100</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>292</v>
@@ -14791,14 +14812,14 @@
     </row>
     <row r="91" spans="5:13">
       <c r="E91" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-102</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>298</v>
@@ -14825,30 +14846,30 @@
         <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H93" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="94" spans="5:8">
       <c r="E94" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -14859,10 +14880,10 @@
     </row>
     <row r="95" spans="5:8">
       <c r="E95" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F95" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -14873,10 +14894,10 @@
     </row>
     <row r="96" spans="5:8">
       <c r="E96" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -14887,10 +14908,10 @@
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F97" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -14901,10 +14922,10 @@
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F98" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -14915,10 +14936,10 @@
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F99" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -14929,10 +14950,10 @@
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F100" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -14943,10 +14964,10 @@
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F101" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -14957,10 +14978,10 @@
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F102" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -14971,10 +14992,10 @@
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F103" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -14985,10 +15006,10 @@
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F104" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -14999,10 +15020,10 @@
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -15013,10 +15034,10 @@
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F106" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -15027,10 +15048,10 @@
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F107" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -15041,10 +15062,10 @@
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F108" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -15055,10 +15076,10 @@
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F109" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -15069,10 +15090,10 @@
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F110" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -15083,10 +15104,10 @@
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F111" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -15097,10 +15118,10 @@
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F112" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -15111,10 +15132,10 @@
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F113" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -15125,10 +15146,10 @@
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F114" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -15139,10 +15160,10 @@
     </row>
     <row r="115" spans="5:8">
       <c r="E115" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F115" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -15153,10 +15174,10 @@
     </row>
     <row r="116" spans="5:8">
       <c r="E116" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F116" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G116">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -5118,7 +5118,7 @@
                         &lt;div&gt;
                           &lt;p style="margin-top: 0"&gt;亲爱的${realName}，您好！&lt;/p&gt;
                           &lt;p style="text-align: justify; margin-bottom: 0; line-height: 14px; font-size: 14px"&gt;
-       【组织管理员${orgAdmin}】邀请您加入组织： ${tenantName}，并且已为您创建账号[${email}]，初始密码为[${orgPassword}]。您可使用该账号密码登录云平台，地址：${frontUrl} 也可以点击以下按钮修改初始密码，完善信息后登录。
+       【组织管理员${orgAdmin}】邀请您加入组织： ${tenantName}，并且已为您创建账号[${email}]，初始密码为[${orgPassword}]。您可使用该账号密码登录云平台，地址：${loginUrl} 也可以点击以下按钮修改初始密码，完善信息后登录。
         &lt;/p&gt;
                         &lt;/div&gt;
                         &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
@@ -5376,7 +5376,7 @@
     <t>inviteLink</t>
   </si>
   <si>
-    <t>frontUrl</t>
+    <t>loginUrl</t>
   </si>
   <si>
     <r>
@@ -6064,10 +6064,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -6164,6 +6164,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -6179,30 +6180,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6216,10 +6194,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6230,24 +6208,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6269,6 +6245,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -6277,8 +6283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6295,13 +6302,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6395,7 +6395,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6407,13 +6443,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6431,151 +6569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6682,30 +6682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6717,17 +6693,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6750,8 +6720,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6770,158 +6779,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7991,8 +7991,8 @@
   <sheetPr/>
   <dimension ref="A1:Q216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="H182" workbookViewId="0">
-      <selection activeCell="K216" sqref="K216"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="G216" sqref="G216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="576">
   <si>
     <r>
       <rPr>
@@ -3844,7 +3844,7 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -4069,7 +4069,7 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -4294,7 +4294,7 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -4519,7 +4519,7 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -4745,7 +4745,7 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -4973,7 +4973,7 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -5199,7 +5199,7 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -5424,7 +5424,7 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -5649,7 +5649,7 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -5874,7 +5874,7 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -6102,14 +6102,18 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD-OR-IMPORT-USER-SITE</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -6138,6 +6142,7 @@
       <sz val="11"/>
       <color rgb="FF003366"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6151,6 +6156,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6163,6 +6169,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6170,6 +6177,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6177,6 +6185,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6195,6 +6204,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6259,35 +6269,6 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF003366"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6443,7 +6424,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6527,11 +6508,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6542,9 +6526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6915,11 +6897,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
@@ -6932,17 +6914,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="50"/>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
@@ -7053,11 +7035,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="46" t="s">
@@ -7124,7 +7106,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -7276,7 +7258,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J8" r:id="rId1"/>
   </hyperlinks>
@@ -7453,7 +7435,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7462,8 +7444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView topLeftCell="F35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -7609,7 +7591,7 @@
       <c r="H9" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="49" t="s">
         <v>564</v>
       </c>
       <c r="N9" t="s">
@@ -7667,7 +7649,7 @@
       <c r="H11" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="49" t="s">
         <v>565</v>
       </c>
       <c r="N11" t="s">
@@ -7987,7 +7969,7 @@
       <c r="H21" t="s">
         <v>172</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="49" t="s">
         <v>566</v>
       </c>
       <c r="N21" t="s">
@@ -8202,7 +8184,7 @@
       <c r="H28" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="54" t="s">
+      <c r="I28" s="49" t="s">
         <v>567</v>
       </c>
       <c r="N28" t="s">
@@ -8260,7 +8242,7 @@
       <c r="H30" t="s">
         <v>198</v>
       </c>
-      <c r="I30" s="54" t="s">
+      <c r="I30" s="49" t="s">
         <v>568</v>
       </c>
       <c r="N30" t="s">
@@ -8289,7 +8271,7 @@
       <c r="H31" t="s">
         <v>201</v>
       </c>
-      <c r="I31" s="54" t="s">
+      <c r="I31" s="49" t="s">
         <v>569</v>
       </c>
       <c r="N31" t="s">
@@ -8504,7 +8486,7 @@
       <c r="H38" t="s">
         <v>225</v>
       </c>
-      <c r="I38" s="54" t="s">
+      <c r="I38" s="49" t="s">
         <v>570</v>
       </c>
       <c r="N38" t="s">
@@ -8562,7 +8544,7 @@
       <c r="H40" t="s">
         <v>231</v>
       </c>
-      <c r="I40" s="54" t="s">
+      <c r="I40" s="49" t="s">
         <v>571</v>
       </c>
       <c r="N40" t="s">
@@ -8707,7 +8689,7 @@
       <c r="H45" t="s">
         <v>225</v>
       </c>
-      <c r="I45" s="54" t="s">
+      <c r="I45" s="49" t="s">
         <v>572</v>
       </c>
       <c r="N45" t="s">
@@ -8765,7 +8747,7 @@
       <c r="H47" t="s">
         <v>255</v>
       </c>
-      <c r="I47" s="54" t="s">
+      <c r="I47" s="49" t="s">
         <v>573</v>
       </c>
       <c r="N47" t="s">
@@ -9027,7 +9009,7 @@
       <c r="H55" t="s">
         <v>289</v>
       </c>
-      <c r="I55" s="54" t="s">
+      <c r="I55" s="49" t="s">
         <v>574</v>
       </c>
       <c r="J55" t="s">
@@ -11929,7 +11911,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -11939,8 +11921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView topLeftCell="J22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="J14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -12584,8 +12566,8 @@
       <c r="L23" t="s">
         <v>361</v>
       </c>
-      <c r="M23" t="s">
-        <v>425</v>
+      <c r="M23" s="55" t="s">
+        <v>575</v>
       </c>
       <c r="N23" t="s">
         <v>75</v>
@@ -12654,8 +12636,8 @@
       <c r="L25" t="s">
         <v>361</v>
       </c>
-      <c r="M25" t="s">
-        <v>425</v>
+      <c r="M25" s="55" t="s">
+        <v>575</v>
       </c>
       <c r="N25" t="s">
         <v>75</v>
@@ -14657,7 +14639,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -4872,13 +4872,13 @@
     <t>Choerodon短信登录模板</t>
   </si>
   <si>
-    <t>&lt;p&gt;【Cheorodon猪齿鱼】您的验证码是 ${code}，${expireTime}分钟内有效，请勿泄露，请勿泄露。&lt;/p&gt;</t>
+    <t>&lt;p&gt;【甄知科技】您的验证码是 ${code}，5分钟内有效，请勿泄露。&lt;/p&gt;</t>
   </si>
   <si>
     <t>SMS-CAPTCHA-NOTICE</t>
   </si>
   <si>
-    <t>SMS_222255148</t>
+    <t>2fe32cc7935f40518a4e8a76cc49abfe</t>
   </si>
   <si>
     <t>hmsg_message_template-159</t>
@@ -5990,12 +5990,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -6047,12 +6047,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -6097,7 +6091,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6113,29 +6130,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6147,8 +6141,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6171,15 +6190,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6187,15 +6220,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6203,37 +6228,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6327,19 +6321,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6351,37 +6381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6399,13 +6399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6417,85 +6423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6508,6 +6448,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6615,26 +6609,24 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -6655,44 +6647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6711,155 +6676,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6877,7 +6871,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6888,16 +6881,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6905,44 +6895,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6955,7 +6945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7359,8 +7349,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="27" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="25" customWidth="1"/>
     <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
@@ -7376,79 +7366,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="31"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="26"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -7456,56 +7446,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="49" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7515,30 +7505,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="51" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -7546,7 +7536,7 @@
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="51" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -7554,25 +7544,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="32"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="32"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="53" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7597,155 +7587,155 @@
   <sheetPr/>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="17.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="4" width="8.66666666666667" style="20"/>
-    <col min="5" max="5" width="19.5833333333333" style="20" customWidth="1"/>
-    <col min="6" max="6" width="19.4166666666667" style="20" customWidth="1"/>
-    <col min="7" max="7" width="25.8333333333333" style="20" customWidth="1"/>
-    <col min="8" max="8" width="21" style="20" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="20" customWidth="1"/>
-    <col min="10" max="10" width="35.8333333333333" style="20" customWidth="1"/>
-    <col min="11" max="11" width="19.75" style="20" customWidth="1"/>
-    <col min="12" max="12" width="22" style="20" customWidth="1"/>
-    <col min="13" max="13" width="23.3333333333333" style="20" customWidth="1"/>
-    <col min="14" max="14" width="13.25" style="20" customWidth="1"/>
-    <col min="15" max="15" width="13.6666666666667" style="20" customWidth="1"/>
-    <col min="16" max="16" width="8.66666666666667" style="20"/>
-    <col min="17" max="17" width="16.9166666666667" style="20" customWidth="1"/>
-    <col min="18" max="18" width="15.75" style="20" customWidth="1"/>
-    <col min="19" max="16384" width="8.66666666666667" style="20"/>
+    <col min="1" max="4" width="8.66666666666667" style="18"/>
+    <col min="5" max="5" width="19.5833333333333" style="18" customWidth="1"/>
+    <col min="6" max="6" width="19.4166666666667" style="18" customWidth="1"/>
+    <col min="7" max="7" width="25.8333333333333" style="18" customWidth="1"/>
+    <col min="8" max="8" width="21" style="18" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="18" customWidth="1"/>
+    <col min="10" max="10" width="35.8333333333333" style="18" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="18" customWidth="1"/>
+    <col min="12" max="12" width="22" style="18" customWidth="1"/>
+    <col min="13" max="13" width="23.3333333333333" style="18" customWidth="1"/>
+    <col min="14" max="14" width="13.25" style="18" customWidth="1"/>
+    <col min="15" max="15" width="13.6666666666667" style="18" customWidth="1"/>
+    <col min="16" max="16" width="8.66666666666667" style="18"/>
+    <col min="17" max="17" width="16.9166666666667" style="18" customWidth="1"/>
+    <col min="18" max="18" width="15.75" style="18" customWidth="1"/>
+    <col min="19" max="16384" width="8.66666666666667" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="20" t="s">
+      <c r="S7" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="5:19">
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="R8" s="20" t="s">
+      <c r="O8" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="S8" s="20" t="s">
+      <c r="S8" s="18" t="s">
         <v>78</v>
       </c>
     </row>
@@ -7938,8 +7928,8 @@
   <sheetPr/>
   <dimension ref="A1:Q216"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="F35" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -8085,7 +8075,7 @@
       <c r="H9" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="14" t="s">
         <v>131</v>
       </c>
       <c r="N9" t="s">
@@ -8143,7 +8133,7 @@
       <c r="H11" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="14" t="s">
         <v>138</v>
       </c>
       <c r="N11" t="s">
@@ -8463,7 +8453,7 @@
       <c r="H21" t="s">
         <v>176</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="14" t="s">
         <v>177</v>
       </c>
       <c r="N21" t="s">
@@ -8678,7 +8668,7 @@
       <c r="H28" t="s">
         <v>198</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="14" t="s">
         <v>199</v>
       </c>
       <c r="N28" t="s">
@@ -8736,7 +8726,7 @@
       <c r="H30" t="s">
         <v>204</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="14" t="s">
         <v>205</v>
       </c>
       <c r="N30" t="s">
@@ -8765,7 +8755,7 @@
       <c r="H31" t="s">
         <v>208</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="14" t="s">
         <v>209</v>
       </c>
       <c r="N31" t="s">
@@ -8980,7 +8970,7 @@
       <c r="H38" t="s">
         <v>233</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="14" t="s">
         <v>234</v>
       </c>
       <c r="N38" t="s">
@@ -9038,7 +9028,7 @@
       <c r="H40" t="s">
         <v>240</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="14" t="s">
         <v>241</v>
       </c>
       <c r="N40" t="s">
@@ -9183,7 +9173,7 @@
       <c r="H45" t="s">
         <v>233</v>
       </c>
-      <c r="I45" s="19" t="s">
+      <c r="I45" s="14" t="s">
         <v>260</v>
       </c>
       <c r="N45" t="s">
@@ -9241,7 +9231,7 @@
       <c r="H47" t="s">
         <v>266</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="I47" s="14" t="s">
         <v>267</v>
       </c>
       <c r="N47" t="s">
@@ -9363,7 +9353,7 @@
       <c r="H51" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="14" t="s">
         <v>282</v>
       </c>
       <c r="J51" s="7" t="s">
@@ -9398,7 +9388,7 @@
       <c r="H52" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="14" t="s">
         <v>288</v>
       </c>
       <c r="J52" s="7" t="s">
@@ -9433,7 +9423,7 @@
       <c r="H53" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="I53" s="14" t="s">
         <v>292</v>
       </c>
       <c r="J53" s="7" t="s">
@@ -9503,7 +9493,7 @@
       <c r="H55" t="s">
         <v>301</v>
       </c>
-      <c r="I55" s="19" t="s">
+      <c r="I55" s="14" t="s">
         <v>302</v>
       </c>
       <c r="J55" t="s">
@@ -13061,7 +13051,7 @@
       <c r="L23" t="s">
         <v>374</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="7" t="s">
         <v>438</v>
       </c>
       <c r="N23" t="s">
@@ -13131,7 +13121,7 @@
       <c r="L25" t="s">
         <v>374</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="7" t="s">
         <v>438</v>
       </c>
       <c r="N25" t="s">
@@ -13364,7 +13354,7 @@
       <c r="H32" t="s">
         <v>466</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="13" t="s">
         <v>467</v>
       </c>
       <c r="J32" s="7" t="s">
@@ -13373,7 +13363,7 @@
       <c r="K32" s="9">
         <v>1</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="L32" s="14" t="s">
         <v>374</v>
       </c>
       <c r="M32" s="7" t="s">
@@ -13399,7 +13389,7 @@
       <c r="H33" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="15" t="s">
         <v>471</v>
       </c>
       <c r="J33" s="11" t="s">
@@ -13408,7 +13398,7 @@
       <c r="K33" s="10">
         <v>1</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="15" t="s">
         <v>374</v>
       </c>
       <c r="M33" s="11" t="s">
@@ -13434,7 +13424,7 @@
       <c r="H34" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="15" t="s">
         <v>474</v>
       </c>
       <c r="J34" s="11" t="s">
@@ -13443,7 +13433,7 @@
       <c r="K34" s="10">
         <v>1</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="L34" s="15" t="s">
         <v>374</v>
       </c>
       <c r="M34" s="11" t="s">
@@ -13469,7 +13459,7 @@
       <c r="H35" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="15" t="s">
         <v>477</v>
       </c>
       <c r="J35" s="11" t="s">
@@ -13478,7 +13468,7 @@
       <c r="K35" s="10">
         <v>1</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="L35" s="15" t="s">
         <v>374</v>
       </c>
       <c r="M35" s="11" t="s">
@@ -13504,7 +13494,7 @@
       <c r="H36" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="15" t="s">
         <v>480</v>
       </c>
       <c r="J36" s="11" t="s">
@@ -13513,7 +13503,7 @@
       <c r="K36" s="10">
         <v>1</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="15" t="s">
         <v>374</v>
       </c>
       <c r="M36" s="11" t="s">
@@ -13539,7 +13529,7 @@
       <c r="H37" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="I37" s="15" t="s">
         <v>301</v>
       </c>
       <c r="J37" s="11" t="s">
@@ -13548,7 +13538,7 @@
       <c r="K37" s="10">
         <v>1</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="L37" s="15" t="s">
         <v>380</v>
       </c>
       <c r="M37" s="11" t="s">
@@ -14786,7 +14776,7 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="17">
+      <c r="A93" s="16">
         <v>44036</v>
       </c>
       <c r="B93" t="s">
@@ -14969,7 +14959,7 @@
       <c r="E105" t="s">
         <v>566</v>
       </c>
-      <c r="F105" s="18" t="s">
+      <c r="F105" s="17" t="s">
         <v>419</v>
       </c>
       <c r="G105">

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="580">
   <si>
     <r>
       <rPr>
@@ -2098,6 +2098,9 @@
   </si>
   <si>
     <t>editor_type</t>
+  </si>
+  <si>
+    <t>external_param</t>
   </si>
   <si>
     <t>hmsg_message_template-9</t>
@@ -4881,6 +4884,9 @@
     <t>2fe32cc7935f40518a4e8a76cc49abfe</t>
   </si>
   <si>
+    <t>8822022312415</t>
+  </si>
+  <si>
     <t>hmsg_message_template-159</t>
   </si>
   <si>
@@ -5990,10 +5996,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -6091,6 +6097,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6104,9 +6117,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6120,6 +6140,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -6128,14 +6170,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6144,6 +6179,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6165,16 +6215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6191,43 +6234,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6321,49 +6327,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6387,7 +6393,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6399,13 +6435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6417,19 +6459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6441,55 +6483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6501,7 +6495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6609,16 +6615,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6647,17 +6664,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6685,169 +6711,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6952,6 +6958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7926,10 +7933,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q216"/>
+  <dimension ref="A1:R216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="K52" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -7947,6 +7954,7 @@
     <col min="14" max="14" width="23.4166666666667" customWidth="1"/>
     <col min="15" max="15" width="29.4166666666667" customWidth="1"/>
     <col min="16" max="16" width="29.8333333333333" customWidth="1"/>
+    <col min="17" max="17" width="14.2777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7974,7 +7982,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -8026,31 +8034,34 @@
       <c r="Q7" t="s">
         <v>119</v>
       </c>
+      <c r="R7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="5:17">
       <c r="E8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" t="s">
         <v>75</v>
@@ -8059,27 +8070,27 @@
         <v>76</v>
       </c>
       <c r="Q8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" ht="409.5" spans="5:17">
       <c r="E9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O9" t="s">
         <v>75</v>
@@ -8088,27 +8099,27 @@
         <v>76</v>
       </c>
       <c r="Q9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="5:17">
       <c r="E10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
         <v>75</v>
@@ -8117,27 +8128,27 @@
         <v>76</v>
       </c>
       <c r="Q10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" ht="409.5" spans="5:17">
       <c r="E11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
         <v>75</v>
@@ -8146,27 +8157,27 @@
         <v>76</v>
       </c>
       <c r="Q11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="5:17">
       <c r="E12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
         <v>75</v>
@@ -8175,33 +8186,33 @@
         <v>76</v>
       </c>
       <c r="Q12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="5:17">
       <c r="E13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
         <v>75</v>
@@ -8210,33 +8221,33 @@
         <v>76</v>
       </c>
       <c r="Q13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="5:17">
       <c r="E14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
         <v>75</v>
@@ -8245,33 +8256,33 @@
         <v>76</v>
       </c>
       <c r="Q14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="5:17">
       <c r="E15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
         <v>152</v>
       </c>
-      <c r="F15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" t="s">
-        <v>154</v>
-      </c>
-      <c r="I15" t="s">
-        <v>155</v>
-      </c>
-      <c r="J15" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" t="s">
-        <v>151</v>
-      </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O15" t="s">
         <v>75</v>
@@ -8280,33 +8291,33 @@
         <v>76</v>
       </c>
       <c r="Q15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="5:17">
       <c r="E16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O16" t="s">
         <v>75</v>
@@ -8315,27 +8326,27 @@
         <v>76</v>
       </c>
       <c r="Q16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="5:17">
       <c r="E17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O17" t="s">
         <v>75</v>
@@ -8344,27 +8355,27 @@
         <v>76</v>
       </c>
       <c r="Q17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="5:17">
       <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" t="s">
         <v>164</v>
       </c>
-      <c r="F18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G18" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" t="s">
-        <v>163</v>
-      </c>
       <c r="N18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O18" t="s">
         <v>75</v>
@@ -8373,33 +8384,33 @@
         <v>76</v>
       </c>
       <c r="Q18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="5:17">
       <c r="E19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O19" t="s">
         <v>75</v>
@@ -8408,27 +8419,27 @@
         <v>76</v>
       </c>
       <c r="Q19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="5:17">
       <c r="E20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O20" t="s">
         <v>75</v>
@@ -8437,27 +8448,27 @@
         <v>76</v>
       </c>
       <c r="Q20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" ht="409.5" spans="5:17">
       <c r="E21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O21" t="s">
         <v>75</v>
@@ -8466,27 +8477,27 @@
         <v>76</v>
       </c>
       <c r="Q21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="5:17">
       <c r="E22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O22" t="s">
         <v>75</v>
@@ -8495,33 +8506,33 @@
         <v>76</v>
       </c>
       <c r="Q22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="5:17">
       <c r="E23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O23" t="s">
         <v>75</v>
@@ -8530,27 +8541,27 @@
         <v>76</v>
       </c>
       <c r="Q23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="5:17">
       <c r="E24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O24" t="s">
         <v>75</v>
@@ -8559,27 +8570,27 @@
         <v>76</v>
       </c>
       <c r="Q24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="5:17">
       <c r="E25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25" t="s">
         <v>187</v>
       </c>
-      <c r="F25" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" t="s">
-        <v>185</v>
-      </c>
-      <c r="H25" t="s">
-        <v>185</v>
-      </c>
-      <c r="I25" t="s">
-        <v>186</v>
-      </c>
       <c r="N25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O25" t="s">
         <v>75</v>
@@ -8588,33 +8599,33 @@
         <v>76</v>
       </c>
       <c r="Q25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="5:17">
       <c r="E26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O26" t="s">
         <v>75</v>
@@ -8623,27 +8634,27 @@
         <v>76</v>
       </c>
       <c r="Q26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="5:17">
       <c r="E27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O27" t="s">
         <v>75</v>
@@ -8652,27 +8663,27 @@
         <v>76</v>
       </c>
       <c r="Q27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" ht="409.5" spans="5:17">
       <c r="E28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O28" t="s">
         <v>75</v>
@@ -8681,27 +8692,27 @@
         <v>76</v>
       </c>
       <c r="Q28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="5:17">
       <c r="E29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O29" t="s">
         <v>75</v>
@@ -8710,27 +8721,27 @@
         <v>76</v>
       </c>
       <c r="Q29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" ht="409.5" spans="5:17">
       <c r="E30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O30" t="s">
         <v>75</v>
@@ -8739,27 +8750,27 @@
         <v>76</v>
       </c>
       <c r="Q30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" ht="409.5" spans="5:17">
       <c r="E31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O31" t="s">
         <v>75</v>
@@ -8768,33 +8779,33 @@
         <v>76</v>
       </c>
       <c r="Q31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="5:17">
       <c r="E32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O32" t="s">
         <v>75</v>
@@ -8803,27 +8814,27 @@
         <v>76</v>
       </c>
       <c r="Q32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="5:17">
       <c r="E33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O33" t="s">
         <v>75</v>
@@ -8832,27 +8843,27 @@
         <v>76</v>
       </c>
       <c r="Q33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="5:17">
       <c r="E34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O34" t="s">
         <v>75</v>
@@ -8861,27 +8872,27 @@
         <v>76</v>
       </c>
       <c r="Q34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="5:17">
       <c r="E35" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" t="s">
+        <v>217</v>
+      </c>
+      <c r="I35" t="s">
         <v>221</v>
       </c>
-      <c r="F35" t="s">
-        <v>222</v>
-      </c>
-      <c r="G35" t="s">
-        <v>216</v>
-      </c>
-      <c r="H35" t="s">
-        <v>216</v>
-      </c>
-      <c r="I35" t="s">
-        <v>220</v>
-      </c>
       <c r="N35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O35" t="s">
         <v>75</v>
@@ -8890,27 +8901,27 @@
         <v>76</v>
       </c>
       <c r="Q35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="5:17">
       <c r="E36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O36" t="s">
         <v>75</v>
@@ -8919,33 +8930,33 @@
         <v>76</v>
       </c>
       <c r="Q36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="5:17">
       <c r="E37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O37" t="s">
         <v>75</v>
@@ -8954,27 +8965,27 @@
         <v>76</v>
       </c>
       <c r="Q37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" ht="409.5" spans="5:17">
       <c r="E38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O38" t="s">
         <v>75</v>
@@ -8983,27 +8994,27 @@
         <v>76</v>
       </c>
       <c r="Q38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="5:17">
       <c r="E39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" t="s">
         <v>75</v>
@@ -9012,27 +9023,27 @@
         <v>76</v>
       </c>
       <c r="Q39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" ht="409.5" spans="5:17">
       <c r="E40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" t="s">
         <v>75</v>
@@ -9041,27 +9052,27 @@
         <v>76</v>
       </c>
       <c r="Q40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="5:17">
       <c r="E41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" t="s">
         <v>75</v>
@@ -9070,27 +9081,27 @@
         <v>76</v>
       </c>
       <c r="Q41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="5:17">
       <c r="E42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H42" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" t="s">
         <v>75</v>
@@ -9099,27 +9110,27 @@
         <v>76</v>
       </c>
       <c r="Q42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="5:17">
       <c r="E43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O43" t="s">
         <v>75</v>
@@ -9128,27 +9139,27 @@
         <v>76</v>
       </c>
       <c r="Q43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="5:17">
       <c r="E44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O44" t="s">
         <v>75</v>
@@ -9157,27 +9168,27 @@
         <v>76</v>
       </c>
       <c r="Q44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="409.5" spans="5:17">
       <c r="E45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O45" t="s">
         <v>75</v>
@@ -9186,27 +9197,27 @@
         <v>76</v>
       </c>
       <c r="Q45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="5:17">
       <c r="E46" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O46" t="s">
         <v>75</v>
@@ -9215,27 +9226,27 @@
         <v>76</v>
       </c>
       <c r="Q46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" ht="409.5" spans="5:17">
       <c r="E47" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F47" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O47" t="s">
         <v>75</v>
@@ -9244,27 +9255,27 @@
         <v>76</v>
       </c>
       <c r="Q47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="5:17">
       <c r="E48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F48" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G48" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H48" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I48" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O48" t="s">
         <v>75</v>
@@ -9273,33 +9284,33 @@
         <v>76</v>
       </c>
       <c r="Q48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="5:17">
       <c r="E49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G49" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H49" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O49" t="s">
         <v>75</v>
@@ -9308,27 +9319,27 @@
         <v>76</v>
       </c>
       <c r="Q49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="5:17">
       <c r="E50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O50" t="s">
         <v>75</v>
@@ -9337,33 +9348,33 @@
         <v>76</v>
       </c>
       <c r="Q50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" ht="69.6" spans="5:17">
       <c r="E51" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O51" t="s">
         <v>75</v>
@@ -9372,33 +9383,33 @@
         <v>76</v>
       </c>
       <c r="Q51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" ht="69.6" spans="5:17">
       <c r="E52" t="s">
+        <v>286</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="N52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O52" t="s">
         <v>75</v>
@@ -9407,33 +9418,33 @@
         <v>76</v>
       </c>
       <c r="Q52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" ht="69.6" spans="5:17">
       <c r="E53" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N53" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -9442,33 +9453,33 @@
         <v>0</v>
       </c>
       <c r="Q53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="5:18">
+      <c r="E54" t="s">
+        <v>294</v>
+      </c>
+      <c r="F54" t="s">
+        <v>295</v>
+      </c>
+      <c r="G54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H54" t="s">
+        <v>296</v>
+      </c>
+      <c r="I54" t="s">
+        <v>297</v>
+      </c>
+      <c r="K54" t="s">
+        <v>298</v>
+      </c>
+      <c r="L54" t="s">
+        <v>299</v>
+      </c>
+      <c r="N54" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="5:17">
-      <c r="E54" t="s">
-        <v>293</v>
-      </c>
-      <c r="F54" t="s">
-        <v>294</v>
-      </c>
-      <c r="G54" t="s">
-        <v>295</v>
-      </c>
-      <c r="H54" t="s">
-        <v>295</v>
-      </c>
-      <c r="I54" t="s">
-        <v>296</v>
-      </c>
-      <c r="K54" t="s">
-        <v>297</v>
-      </c>
-      <c r="L54" t="s">
-        <v>298</v>
-      </c>
-      <c r="N54" t="s">
-        <v>126</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -9477,33 +9488,36 @@
         <v>0</v>
       </c>
       <c r="Q54" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="R54" s="54" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="55" ht="409.5" spans="5:17">
       <c r="E55" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F55" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G55" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H55" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K55" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N55" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -9512,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -9523,25 +9537,25 @@
         <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H58" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I58" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J58" t="s">
         <v>90</v>
@@ -9552,14 +9566,14 @@
     </row>
     <row r="59" spans="5:11">
       <c r="E59" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G59" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J59" t="s">
         <v>76</v>
@@ -9570,14 +9584,14 @@
     </row>
     <row r="60" spans="5:11">
       <c r="E60" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J60" t="s">
         <v>76</v>
@@ -9588,14 +9602,14 @@
     </row>
     <row r="61" spans="5:11">
       <c r="E61" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G61" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J61" t="s">
         <v>76</v>
@@ -9606,14 +9620,14 @@
     </row>
     <row r="62" spans="5:11">
       <c r="E62" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G62" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J62" t="s">
         <v>76</v>
@@ -9624,14 +9638,14 @@
     </row>
     <row r="63" spans="5:11">
       <c r="E63" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G63" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J63" t="s">
         <v>76</v>
@@ -9642,14 +9656,14 @@
     </row>
     <row r="64" spans="5:11">
       <c r="E64" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G64" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J64" t="s">
         <v>76</v>
@@ -9660,14 +9674,14 @@
     </row>
     <row r="65" spans="5:11">
       <c r="E65" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G65" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J65" t="s">
         <v>76</v>
@@ -9678,14 +9692,14 @@
     </row>
     <row r="66" spans="5:11">
       <c r="E66" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G66" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J66" t="s">
         <v>76</v>
@@ -9696,14 +9710,14 @@
     </row>
     <row r="67" spans="5:11">
       <c r="E67" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G67" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J67" t="s">
         <v>76</v>
@@ -9714,14 +9728,14 @@
     </row>
     <row r="68" spans="5:11">
       <c r="E68" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G68" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J68" t="s">
         <v>76</v>
@@ -9732,14 +9746,14 @@
     </row>
     <row r="69" spans="5:11">
       <c r="E69" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G69" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J69" t="s">
         <v>76</v>
@@ -9750,14 +9764,14 @@
     </row>
     <row r="70" spans="5:11">
       <c r="E70" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G70" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J70" t="s">
         <v>76</v>
@@ -9768,14 +9782,14 @@
     </row>
     <row r="71" spans="5:11">
       <c r="E71" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G71" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J71" t="s">
         <v>76</v>
@@ -9786,14 +9800,14 @@
     </row>
     <row r="72" spans="5:11">
       <c r="E72" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G72" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J72" t="s">
         <v>76</v>
@@ -9804,14 +9818,14 @@
     </row>
     <row r="73" spans="5:11">
       <c r="E73" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G73" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J73" t="s">
         <v>76</v>
@@ -9822,14 +9836,14 @@
     </row>
     <row r="74" spans="5:11">
       <c r="E74" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G74" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J74" t="s">
         <v>76</v>
@@ -9840,14 +9854,14 @@
     </row>
     <row r="75" spans="5:11">
       <c r="E75" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G75" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J75" t="s">
         <v>76</v>
@@ -9858,14 +9872,14 @@
     </row>
     <row r="76" spans="5:11">
       <c r="E76" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G76" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J76" t="s">
         <v>76</v>
@@ -9876,14 +9890,14 @@
     </row>
     <row r="77" spans="5:11">
       <c r="E77" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G77" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J77" t="s">
         <v>76</v>
@@ -9894,14 +9908,14 @@
     </row>
     <row r="78" spans="5:11">
       <c r="E78" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G78" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J78" t="s">
         <v>76</v>
@@ -9912,14 +9926,14 @@
     </row>
     <row r="79" spans="5:11">
       <c r="E79" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G79" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J79" t="s">
         <v>76</v>
@@ -9930,14 +9944,14 @@
     </row>
     <row r="80" spans="5:11">
       <c r="E80" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F80" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G80" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J80" t="s">
         <v>76</v>
@@ -9948,14 +9962,14 @@
     </row>
     <row r="81" spans="5:11">
       <c r="E81" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F81" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G81" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J81" t="s">
         <v>76</v>
@@ -9966,14 +9980,14 @@
     </row>
     <row r="82" spans="5:11">
       <c r="E82" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F82" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G82" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J82" t="s">
         <v>76</v>
@@ -9984,14 +9998,14 @@
     </row>
     <row r="83" spans="5:11">
       <c r="E83" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F83" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G83" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J83" t="s">
         <v>76</v>
@@ -10002,14 +10016,14 @@
     </row>
     <row r="84" spans="5:11">
       <c r="E84" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F84" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G84" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J84" t="s">
         <v>76</v>
@@ -10020,14 +10034,14 @@
     </row>
     <row r="85" spans="5:11">
       <c r="E85" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F85" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G85" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J85" t="s">
         <v>76</v>
@@ -10038,14 +10052,14 @@
     </row>
     <row r="86" spans="5:11">
       <c r="E86" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F86" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G86" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J86" t="s">
         <v>76</v>
@@ -10056,14 +10070,14 @@
     </row>
     <row r="87" spans="5:11">
       <c r="E87" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F87" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G87" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J87" t="s">
         <v>76</v>
@@ -10074,14 +10088,14 @@
     </row>
     <row r="88" spans="5:11">
       <c r="E88" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F88" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G88" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J88" t="s">
         <v>76</v>
@@ -10092,14 +10106,14 @@
     </row>
     <row r="89" spans="5:11">
       <c r="E89" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F89" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G89" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J89" t="s">
         <v>76</v>
@@ -10110,14 +10124,14 @@
     </row>
     <row r="90" spans="5:11">
       <c r="E90" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F90" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G90" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J90" t="s">
         <v>76</v>
@@ -10128,14 +10142,14 @@
     </row>
     <row r="91" spans="5:11">
       <c r="E91" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F91" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G91" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J91" t="s">
         <v>76</v>
@@ -10146,14 +10160,14 @@
     </row>
     <row r="92" spans="5:11">
       <c r="E92" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F92" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G92" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J92" t="s">
         <v>76</v>
@@ -10164,14 +10178,14 @@
     </row>
     <row r="93" spans="5:11">
       <c r="E93" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F93" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G93" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J93" t="s">
         <v>76</v>
@@ -10182,14 +10196,14 @@
     </row>
     <row r="94" spans="5:11">
       <c r="E94" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G94" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J94" t="s">
         <v>76</v>
@@ -10200,14 +10214,14 @@
     </row>
     <row r="95" spans="5:11">
       <c r="E95" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G95" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J95" t="s">
         <v>76</v>
@@ -10218,14 +10232,14 @@
     </row>
     <row r="96" spans="5:11">
       <c r="E96" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G96" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J96" t="s">
         <v>76</v>
@@ -10236,14 +10250,14 @@
     </row>
     <row r="97" spans="5:11">
       <c r="E97" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G97" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J97" t="s">
         <v>76</v>
@@ -10254,14 +10268,14 @@
     </row>
     <row r="98" spans="5:11">
       <c r="E98" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G98" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J98" t="s">
         <v>76</v>
@@ -10272,14 +10286,14 @@
     </row>
     <row r="99" spans="5:11">
       <c r="E99" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G99" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J99" t="s">
         <v>76</v>
@@ -10290,14 +10304,14 @@
     </row>
     <row r="100" spans="5:11">
       <c r="E100" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G100" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J100" t="s">
         <v>76</v>
@@ -10308,14 +10322,14 @@
     </row>
     <row r="101" spans="5:11">
       <c r="E101" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G101" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J101" t="s">
         <v>76</v>
@@ -10326,14 +10340,14 @@
     </row>
     <row r="102" spans="5:11">
       <c r="E102" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G102" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J102" t="s">
         <v>76</v>
@@ -10344,14 +10358,14 @@
     </row>
     <row r="103" spans="5:11">
       <c r="E103" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G103" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J103" t="s">
         <v>76</v>
@@ -10362,14 +10376,14 @@
     </row>
     <row r="104" spans="5:11">
       <c r="E104" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G104" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J104" t="s">
         <v>76</v>
@@ -10380,14 +10394,14 @@
     </row>
     <row r="105" spans="5:11">
       <c r="E105" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G105" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J105" t="s">
         <v>76</v>
@@ -10398,14 +10412,14 @@
     </row>
     <row r="106" spans="5:11">
       <c r="E106" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F106" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J106" t="s">
         <v>76</v>
@@ -10416,14 +10430,14 @@
     </row>
     <row r="107" spans="5:11">
       <c r="E107" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G107" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J107" t="s">
         <v>76</v>
@@ -10434,14 +10448,14 @@
     </row>
     <row r="108" spans="5:11">
       <c r="E108" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F108" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G108" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J108" t="s">
         <v>76</v>
@@ -10452,14 +10466,14 @@
     </row>
     <row r="109" spans="5:11">
       <c r="E109" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F109" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G109" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J109" t="s">
         <v>76</v>
@@ -10470,14 +10484,14 @@
     </row>
     <row r="110" spans="5:11">
       <c r="E110" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F110" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G110" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J110" t="s">
         <v>76</v>
@@ -10488,14 +10502,14 @@
     </row>
     <row r="111" spans="5:11">
       <c r="E111" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G111" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J111" t="s">
         <v>76</v>
@@ -10506,14 +10520,14 @@
     </row>
     <row r="112" spans="5:11">
       <c r="E112" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G112" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J112" t="s">
         <v>76</v>
@@ -10524,14 +10538,14 @@
     </row>
     <row r="113" spans="5:11">
       <c r="E113" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F113" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G113" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J113" t="s">
         <v>76</v>
@@ -10542,14 +10556,14 @@
     </row>
     <row r="114" spans="5:11">
       <c r="E114" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F114" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G114" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J114" t="s">
         <v>76</v>
@@ -10560,14 +10574,14 @@
     </row>
     <row r="115" spans="5:11">
       <c r="E115" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F115" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G115" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J115" t="s">
         <v>76</v>
@@ -10578,14 +10592,14 @@
     </row>
     <row r="116" spans="5:11">
       <c r="E116" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F116" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G116" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J116" t="s">
         <v>76</v>
@@ -10596,14 +10610,14 @@
     </row>
     <row r="117" spans="5:11">
       <c r="E117" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F117" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G117" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J117" t="s">
         <v>76</v>
@@ -10614,14 +10628,14 @@
     </row>
     <row r="118" spans="5:11">
       <c r="E118" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F118" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G118" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J118" t="s">
         <v>76</v>
@@ -10632,14 +10646,14 @@
     </row>
     <row r="119" spans="5:11">
       <c r="E119" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G119" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J119" t="s">
         <v>76</v>
@@ -10650,14 +10664,14 @@
     </row>
     <row r="120" spans="5:11">
       <c r="E120" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G120" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J120" t="s">
         <v>76</v>
@@ -10668,14 +10682,14 @@
     </row>
     <row r="121" spans="5:11">
       <c r="E121" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F121" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G121" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J121" t="s">
         <v>76</v>
@@ -10686,14 +10700,14 @@
     </row>
     <row r="122" spans="5:11">
       <c r="E122" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F122" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G122" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J122" t="s">
         <v>76</v>
@@ -10704,14 +10718,14 @@
     </row>
     <row r="123" spans="5:11">
       <c r="E123" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F123" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G123" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J123" t="s">
         <v>76</v>
@@ -10722,14 +10736,14 @@
     </row>
     <row r="124" spans="5:11">
       <c r="E124" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F124" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G124" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J124" t="s">
         <v>76</v>
@@ -10740,14 +10754,14 @@
     </row>
     <row r="125" spans="5:11">
       <c r="E125" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F125" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G125" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J125" t="s">
         <v>76</v>
@@ -10758,14 +10772,14 @@
     </row>
     <row r="126" spans="5:11">
       <c r="E126" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F126" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G126" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J126" t="s">
         <v>76</v>
@@ -10776,14 +10790,14 @@
     </row>
     <row r="127" spans="5:11">
       <c r="E127" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F127" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G127" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J127" t="s">
         <v>76</v>
@@ -10794,14 +10808,14 @@
     </row>
     <row r="128" spans="5:11">
       <c r="E128" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F128" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G128" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J128" t="s">
         <v>76</v>
@@ -10812,14 +10826,14 @@
     </row>
     <row r="129" spans="5:11">
       <c r="E129" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F129" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G129" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J129" t="s">
         <v>76</v>
@@ -10830,14 +10844,14 @@
     </row>
     <row r="130" spans="5:11">
       <c r="E130" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F130" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G130" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J130" t="s">
         <v>76</v>
@@ -10848,14 +10862,14 @@
     </row>
     <row r="131" spans="5:11">
       <c r="E131" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F131" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G131" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J131" t="s">
         <v>76</v>
@@ -10866,14 +10880,14 @@
     </row>
     <row r="132" spans="5:11">
       <c r="E132" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F132" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G132" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J132" t="s">
         <v>76</v>
@@ -10884,14 +10898,14 @@
     </row>
     <row r="133" spans="5:11">
       <c r="E133" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F133" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G133" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J133" t="s">
         <v>76</v>
@@ -10902,14 +10916,14 @@
     </row>
     <row r="134" spans="5:11">
       <c r="E134" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F134" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G134" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J134" t="s">
         <v>76</v>
@@ -10920,14 +10934,14 @@
     </row>
     <row r="135" spans="5:11">
       <c r="E135" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F135" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G135" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J135" t="s">
         <v>76</v>
@@ -10938,14 +10952,14 @@
     </row>
     <row r="136" spans="5:11">
       <c r="E136" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F136" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G136" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J136" t="s">
         <v>76</v>
@@ -10956,14 +10970,14 @@
     </row>
     <row r="137" spans="5:11">
       <c r="E137" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F137" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G137" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J137" t="s">
         <v>76</v>
@@ -10974,14 +10988,14 @@
     </row>
     <row r="138" spans="5:11">
       <c r="E138" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F138" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G138" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J138" t="s">
         <v>76</v>
@@ -10992,14 +11006,14 @@
     </row>
     <row r="139" spans="5:11">
       <c r="E139" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F139" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G139" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J139" t="s">
         <v>76</v>
@@ -11010,14 +11024,14 @@
     </row>
     <row r="140" spans="5:11">
       <c r="E140" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F140" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G140" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J140" t="s">
         <v>76</v>
@@ -11028,14 +11042,14 @@
     </row>
     <row r="141" spans="5:11">
       <c r="E141" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F141" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G141" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J141" t="s">
         <v>76</v>
@@ -11046,14 +11060,14 @@
     </row>
     <row r="142" spans="5:11">
       <c r="E142" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F142" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G142" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J142" t="s">
         <v>76</v>
@@ -11064,14 +11078,14 @@
     </row>
     <row r="143" spans="5:11">
       <c r="E143" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F143" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G143" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J143" t="s">
         <v>76</v>
@@ -11082,14 +11096,14 @@
     </row>
     <row r="144" spans="5:11">
       <c r="E144" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F144" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G144" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J144" t="s">
         <v>76</v>
@@ -11100,14 +11114,14 @@
     </row>
     <row r="145" spans="5:11">
       <c r="E145" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F145" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G145" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J145" t="s">
         <v>76</v>
@@ -11118,14 +11132,14 @@
     </row>
     <row r="146" spans="5:11">
       <c r="E146" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F146" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-64</v>
       </c>
       <c r="G146" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J146" t="s">
         <v>76</v>
@@ -11136,14 +11150,14 @@
     </row>
     <row r="147" spans="5:11">
       <c r="E147" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F147" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-62</v>
       </c>
       <c r="G147" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J147" t="s">
         <v>76</v>
@@ -11154,14 +11168,14 @@
     </row>
     <row r="148" spans="5:11">
       <c r="E148" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F148" t="str">
         <f>消息模板!$E$22</f>
         <v>hmsg_message_template-52</v>
       </c>
       <c r="G148" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J148" t="s">
         <v>76</v>
@@ -11172,14 +11186,14 @@
     </row>
     <row r="149" spans="5:11">
       <c r="E149" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F149" t="str">
         <f>消息模板!$E$20</f>
         <v>hmsg_message_template-50</v>
       </c>
       <c r="G149" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J149" t="s">
         <v>76</v>
@@ -11190,14 +11204,14 @@
     </row>
     <row r="150" spans="5:11">
       <c r="E150" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F150" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-48</v>
       </c>
       <c r="G150" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J150" t="s">
         <v>76</v>
@@ -11208,14 +11222,14 @@
     </row>
     <row r="151" spans="5:11">
       <c r="E151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F151" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-47</v>
       </c>
       <c r="G151" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J151" t="s">
         <v>76</v>
@@ -11226,14 +11240,14 @@
     </row>
     <row r="152" spans="5:11">
       <c r="E152" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F152" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-60</v>
       </c>
       <c r="G152" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J152" t="s">
         <v>76</v>
@@ -11244,14 +11258,14 @@
     </row>
     <row r="153" spans="5:11">
       <c r="E153" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F153" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-59</v>
       </c>
       <c r="G153" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J153" t="s">
         <v>76</v>
@@ -11262,14 +11276,14 @@
     </row>
     <row r="154" spans="5:11">
       <c r="E154" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F154" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G154" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J154" t="s">
         <v>76</v>
@@ -11280,14 +11294,14 @@
     </row>
     <row r="155" spans="5:11">
       <c r="E155" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F155" t="str">
         <f>消息模板!$E$36</f>
         <v>hmsg_message_template-107</v>
       </c>
       <c r="G155" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J155" t="s">
         <v>76</v>
@@ -11298,14 +11312,14 @@
     </row>
     <row r="156" spans="5:11">
       <c r="E156" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F156" t="str">
         <f>消息模板!$E$30</f>
         <v>hmsg_message_template-65</v>
       </c>
       <c r="G156" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J156" t="s">
         <v>76</v>
@@ -11316,14 +11330,14 @@
     </row>
     <row r="157" spans="5:11">
       <c r="E157" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F157" t="str">
         <f>消息模板!$E$30</f>
         <v>hmsg_message_template-65</v>
       </c>
       <c r="G157" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J157" t="s">
         <v>76</v>
@@ -11334,14 +11348,14 @@
     </row>
     <row r="158" spans="5:11">
       <c r="E158" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F158" t="str">
         <f>消息模板!$E$50</f>
         <v>hmsg_message_template-153</v>
       </c>
       <c r="G158" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J158" t="s">
         <v>76</v>
@@ -11352,14 +11366,14 @@
     </row>
     <row r="159" spans="5:11">
       <c r="E159" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F159" t="str">
         <f>消息模板!$E$50</f>
         <v>hmsg_message_template-153</v>
       </c>
       <c r="G159" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J159" t="s">
         <v>76</v>
@@ -11370,14 +11384,14 @@
     </row>
     <row r="160" spans="5:11">
       <c r="E160" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F160" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G160" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J160" t="s">
         <v>76</v>
@@ -11388,14 +11402,14 @@
     </row>
     <row r="161" spans="5:11">
       <c r="E161" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F161" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G161" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J161" t="s">
         <v>76</v>
@@ -11406,14 +11420,14 @@
     </row>
     <row r="162" spans="5:11">
       <c r="E162" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F162" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G162" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J162" t="s">
         <v>76</v>
@@ -11424,14 +11438,14 @@
     </row>
     <row r="163" spans="5:11">
       <c r="E163" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F163" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G163" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J163" t="s">
         <v>76</v>
@@ -11442,14 +11456,14 @@
     </row>
     <row r="164" spans="5:11">
       <c r="E164" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F164" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G164" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J164" t="s">
         <v>76</v>
@@ -11460,14 +11474,14 @@
     </row>
     <row r="165" spans="5:11">
       <c r="E165" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F165" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G165" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J165" t="s">
         <v>76</v>
@@ -11478,14 +11492,14 @@
     </row>
     <row r="166" spans="5:11">
       <c r="E166" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F166" t="str">
         <f>消息模板!$E$33</f>
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G166" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J166" t="s">
         <v>76</v>
@@ -11496,14 +11510,14 @@
     </row>
     <row r="167" spans="5:11">
       <c r="E167" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F167" t="str">
         <f>消息模板!$E$33</f>
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G167" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J167" t="s">
         <v>76</v>
@@ -11514,14 +11528,14 @@
     </row>
     <row r="168" spans="5:11">
       <c r="E168" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F168" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G168" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J168" t="s">
         <v>76</v>
@@ -11532,14 +11546,14 @@
     </row>
     <row r="169" spans="5:11">
       <c r="E169" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F169" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G169" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J169" t="s">
         <v>76</v>
@@ -11550,14 +11564,14 @@
     </row>
     <row r="170" spans="5:11">
       <c r="E170" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F170" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G170" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J170" t="s">
         <v>76</v>
@@ -11568,14 +11582,14 @@
     </row>
     <row r="171" spans="5:11">
       <c r="E171" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F171" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G171" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J171" t="s">
         <v>76</v>
@@ -11586,14 +11600,14 @@
     </row>
     <row r="172" spans="5:11">
       <c r="E172" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F172" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G172" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J172" t="s">
         <v>76</v>
@@ -11604,14 +11618,14 @@
     </row>
     <row r="173" spans="5:11">
       <c r="E173" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F173" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G173" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J173" t="s">
         <v>76</v>
@@ -11622,14 +11636,14 @@
     </row>
     <row r="174" spans="5:11">
       <c r="E174" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F174" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G174" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J174" t="s">
         <v>76</v>
@@ -11640,14 +11654,14 @@
     </row>
     <row r="175" spans="5:11">
       <c r="E175" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F175" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G175" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J175" t="s">
         <v>76</v>
@@ -11658,14 +11672,14 @@
     </row>
     <row r="176" spans="5:11">
       <c r="E176" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F176" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G176" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J176" t="s">
         <v>76</v>
@@ -11676,14 +11690,14 @@
     </row>
     <row r="177" spans="5:11">
       <c r="E177" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F177" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G177" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J177" t="s">
         <v>76</v>
@@ -11694,14 +11708,14 @@
     </row>
     <row r="178" spans="5:11">
       <c r="E178" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F178" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G178" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J178" t="s">
         <v>76</v>
@@ -11712,14 +11726,14 @@
     </row>
     <row r="179" spans="5:11">
       <c r="E179" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F179" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G179" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J179" t="s">
         <v>76</v>
@@ -11730,14 +11744,14 @@
     </row>
     <row r="180" spans="5:11">
       <c r="E180" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F180" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G180" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J180" t="s">
         <v>76</v>
@@ -11748,14 +11762,14 @@
     </row>
     <row r="181" spans="5:11">
       <c r="E181" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F181" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G181" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J181" t="s">
         <v>76</v>
@@ -11766,14 +11780,14 @@
     </row>
     <row r="182" spans="5:11">
       <c r="E182" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F182" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G182" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J182" t="s">
         <v>76</v>
@@ -11784,14 +11798,14 @@
     </row>
     <row r="183" spans="5:11">
       <c r="E183" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F183" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G183" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J183" t="s">
         <v>76</v>
@@ -11802,14 +11816,14 @@
     </row>
     <row r="184" spans="5:11">
       <c r="E184" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F184" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G184" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J184" t="s">
         <v>76</v>
@@ -11820,14 +11834,14 @@
     </row>
     <row r="185" spans="5:11">
       <c r="E185" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F185" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G185" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J185" t="s">
         <v>76</v>
@@ -11838,14 +11852,14 @@
     </row>
     <row r="186" spans="5:11">
       <c r="E186" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F186" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G186" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J186" t="s">
         <v>76</v>
@@ -11856,14 +11870,14 @@
     </row>
     <row r="187" spans="5:11">
       <c r="E187" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F187" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G187" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J187" t="s">
         <v>76</v>
@@ -11874,14 +11888,14 @@
     </row>
     <row r="188" spans="5:11">
       <c r="E188" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F188" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G188" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J188" t="s">
         <v>76</v>
@@ -11892,14 +11906,14 @@
     </row>
     <row r="189" spans="5:11">
       <c r="E189" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F189" t="str">
         <f>消息模板!$E$48</f>
         <v>hmsg_message_template-151</v>
       </c>
       <c r="G189" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J189" t="s">
         <v>76</v>
@@ -11910,14 +11924,14 @@
     </row>
     <row r="190" spans="5:11">
       <c r="E190" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F190" t="str">
         <f>消息模板!$E$39</f>
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G190" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J190" t="s">
         <v>76</v>
@@ -11928,14 +11942,14 @@
     </row>
     <row r="191" spans="5:11">
       <c r="E191" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F191" t="str">
         <f>消息模板!$E$39</f>
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G191" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J191" t="s">
         <v>76</v>
@@ -11946,14 +11960,14 @@
     </row>
     <row r="192" spans="5:11">
       <c r="E192" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F192" t="str">
         <f>消息模板!$E$41</f>
         <v>hmsg_message_template-139</v>
       </c>
       <c r="G192" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J192" t="s">
         <v>76</v>
@@ -11964,14 +11978,14 @@
     </row>
     <row r="193" spans="5:11">
       <c r="E193" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F193" t="str">
         <f>E9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G193" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -11982,14 +11996,14 @@
     </row>
     <row r="194" spans="5:11">
       <c r="E194" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F194" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G194" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J194" t="s">
         <v>76</v>
@@ -12000,14 +12014,14 @@
     </row>
     <row r="195" spans="5:11">
       <c r="E195" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F195" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G195" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J195" t="s">
         <v>76</v>
@@ -12018,14 +12032,14 @@
     </row>
     <row r="196" spans="5:11">
       <c r="E196" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F196" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G196" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J196" t="s">
         <v>76</v>
@@ -12036,14 +12050,14 @@
     </row>
     <row r="197" spans="5:11">
       <c r="E197" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F197" t="str">
         <f>E38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G197" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -12054,14 +12068,14 @@
     </row>
     <row r="198" spans="5:11">
       <c r="E198" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F198" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G198" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J198" t="s">
         <v>76</v>
@@ -12072,14 +12086,14 @@
     </row>
     <row r="199" spans="5:11">
       <c r="E199" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F199" t="str">
         <f>消息模板!$E$40</f>
         <v>hmsg_message_template-138</v>
       </c>
       <c r="G199" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J199" t="s">
         <v>76</v>
@@ -12090,14 +12104,14 @@
     </row>
     <row r="200" spans="5:11">
       <c r="E200" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F200" t="str">
         <f>消息模板!$E$47</f>
         <v>hmsg_message_template-150</v>
       </c>
       <c r="G200" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J200" t="s">
         <v>76</v>
@@ -12108,14 +12122,14 @@
     </row>
     <row r="201" spans="5:11">
       <c r="E201" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F201" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G201" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J201" t="s">
         <v>76</v>
@@ -12126,14 +12140,14 @@
     </row>
     <row r="202" spans="5:11">
       <c r="E202" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F202" t="str">
         <f>消息模板!$E$51</f>
         <v>hmsg_message_template-154</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J202" t="s">
         <v>76</v>
@@ -12144,14 +12158,14 @@
     </row>
     <row r="203" spans="5:11">
       <c r="E203" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F203" t="str">
         <f>消息模板!$E$51</f>
         <v>hmsg_message_template-154</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J203" t="s">
         <v>76</v>
@@ -12162,14 +12176,14 @@
     </row>
     <row r="204" spans="5:11">
       <c r="E204" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F204" t="str">
         <f>消息模板!$E$52</f>
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J204" t="s">
         <v>76</v>
@@ -12180,14 +12194,14 @@
     </row>
     <row r="205" spans="5:11">
       <c r="E205" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F205" t="str">
         <f>消息模板!$E$52</f>
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J205" t="s">
         <v>76</v>
@@ -12198,14 +12212,14 @@
     </row>
     <row r="206" spans="5:11">
       <c r="E206" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F206" t="str">
         <f>消息模板!$E$53</f>
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J206" t="s">
         <v>76</v>
@@ -12216,14 +12230,14 @@
     </row>
     <row r="207" spans="5:11">
       <c r="E207" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F207" t="str">
         <f>E54</f>
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G207" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -12234,14 +12248,14 @@
     </row>
     <row r="208" spans="5:11">
       <c r="E208" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F208" t="str">
         <f>E54</f>
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G208" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -12252,14 +12266,14 @@
     </row>
     <row r="209" spans="5:11">
       <c r="E209" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F209" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G209" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -12270,14 +12284,14 @@
     </row>
     <row r="210" spans="5:11">
       <c r="E210" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F210" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G210" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J210">
         <v>0</v>
@@ -12288,14 +12302,14 @@
     </row>
     <row r="211" spans="5:11">
       <c r="E211" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F211" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G211" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J211">
         <v>0</v>
@@ -12306,14 +12320,14 @@
     </row>
     <row r="212" spans="5:11">
       <c r="E212" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F212" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G212" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -12324,14 +12338,14 @@
     </row>
     <row r="213" spans="5:11">
       <c r="E213" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F213" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G213" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -12342,14 +12356,14 @@
     </row>
     <row r="214" spans="5:11">
       <c r="E214" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F214" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G214" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -12360,14 +12374,14 @@
     </row>
     <row r="215" spans="5:11">
       <c r="E215" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F215" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G215" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -12378,14 +12392,14 @@
     </row>
     <row r="216" spans="5:11">
       <c r="E216" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F216" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G216" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -12450,7 +12464,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -12462,13 +12476,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>90</v>
@@ -12477,33 +12491,33 @@
         <v>91</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="J7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -12512,33 +12526,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K8" t="s">
         <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N8" t="s">
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F9" t="s">
         <v>76</v>
@@ -12547,33 +12561,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K9" t="s">
         <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N9" t="s">
         <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -12582,33 +12596,33 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K10" t="s">
         <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N10" t="s">
         <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -12617,33 +12631,33 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K11" t="s">
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M11" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N11" t="s">
         <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -12652,33 +12666,33 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K12" t="s">
         <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N12" t="s">
         <v>75</v>
       </c>
       <c r="O12" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -12687,33 +12701,33 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I13" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J13" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K13" t="s">
         <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M13" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N13" t="s">
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -12722,33 +12736,33 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J14" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K14" t="s">
         <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N14" t="s">
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -12757,33 +12771,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I15" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J15" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K15" t="s">
         <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M15" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N15" t="s">
         <v>75</v>
       </c>
       <c r="O15" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -12792,33 +12806,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I16" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="J16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K16" t="s">
         <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M16" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N16" t="s">
         <v>75</v>
       </c>
       <c r="O16" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F17" t="s">
         <v>76</v>
@@ -12827,33 +12841,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I17" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J17" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K17" t="s">
         <v>75</v>
       </c>
       <c r="L17" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M17" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N17" t="s">
         <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -12862,33 +12876,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J18" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K18" t="s">
         <v>75</v>
       </c>
       <c r="L18" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M18" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N18" t="s">
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
@@ -12897,33 +12911,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I19" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J19" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K19" t="s">
         <v>75</v>
       </c>
       <c r="L19" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M19" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N19" t="s">
         <v>75</v>
       </c>
       <c r="O19" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
@@ -12932,33 +12946,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I20" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J20" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K20" t="s">
         <v>75</v>
       </c>
       <c r="L20" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M20" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N20" t="s">
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F21" t="s">
         <v>76</v>
@@ -12967,33 +12981,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I21" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J21" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K21" t="s">
         <v>75</v>
       </c>
       <c r="L21" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M21" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N21" t="s">
         <v>75</v>
       </c>
       <c r="O21" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F22" t="s">
         <v>76</v>
@@ -13002,33 +13016,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I22" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J22" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K22" t="s">
         <v>75</v>
       </c>
       <c r="L22" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M22" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N22" t="s">
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F23" t="s">
         <v>76</v>
@@ -13037,33 +13051,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I23" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J23" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K23" t="s">
         <v>75</v>
       </c>
       <c r="L23" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N23" t="s">
         <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F24" t="s">
         <v>76</v>
@@ -13072,33 +13086,33 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I24" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J24" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M24" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N24" t="s">
         <v>76</v>
       </c>
       <c r="O24" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F25" t="s">
         <v>76</v>
@@ -13107,33 +13121,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I25" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J25" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K25" t="s">
         <v>75</v>
       </c>
       <c r="L25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N25" t="s">
         <v>76</v>
       </c>
       <c r="O25" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F26" t="s">
         <v>76</v>
@@ -13142,33 +13156,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J26" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K26" t="s">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M26" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N26" t="s">
         <v>75</v>
       </c>
       <c r="O26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F27" t="s">
         <v>76</v>
@@ -13177,33 +13191,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I27" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J27" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K27" t="s">
         <v>75</v>
       </c>
       <c r="L27" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M27" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N27" t="s">
         <v>75</v>
       </c>
       <c r="O27" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F28" t="s">
         <v>76</v>
@@ -13212,33 +13226,33 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I28" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J28" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K28" t="s">
         <v>75</v>
       </c>
       <c r="L28" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M28" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N28" t="s">
         <v>75</v>
       </c>
       <c r="O28" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="5:15">
       <c r="E29" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F29" t="s">
         <v>76</v>
@@ -13247,33 +13261,33 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I29" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J29" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K29" t="s">
         <v>75</v>
       </c>
       <c r="L29" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M29" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N29" t="s">
         <v>75</v>
       </c>
       <c r="O29" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F30" t="s">
         <v>76</v>
@@ -13282,33 +13296,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I30" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J30" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K30" t="s">
         <v>75</v>
       </c>
       <c r="L30" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M30" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N30" t="s">
         <v>75</v>
       </c>
       <c r="O30" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F31" t="s">
         <v>76</v>
@@ -13317,33 +13331,33 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="I31" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="J31" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K31" t="s">
         <v>75</v>
       </c>
       <c r="L31" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M31" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N31" t="s">
         <v>75</v>
       </c>
       <c r="O31" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -13352,33 +13366,33 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K32" s="9">
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="5:15">
       <c r="E33" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F33" s="10">
         <v>0</v>
@@ -13387,33 +13401,33 @@
         <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K33" s="10">
         <v>1</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N33" s="10">
         <v>1</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="5:15">
       <c r="E34" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
@@ -13422,33 +13436,33 @@
         <v>0</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K34" s="10">
         <v>1</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N34" s="10">
         <v>1</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="5:15">
       <c r="E35" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
@@ -13457,33 +13471,33 @@
         <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K35" s="10">
         <v>1</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N35" s="10">
         <v>1</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="5:15">
       <c r="E36" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F36" s="10">
         <v>0</v>
@@ -13492,33 +13506,33 @@
         <v>0</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K36" s="10">
         <v>1</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N36" s="10">
         <v>1</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="5:15">
       <c r="E37" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F37" s="10">
         <v>0</v>
@@ -13527,28 +13541,28 @@
         <v>0</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K37" s="10">
         <v>1</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N37" s="10">
         <v>1</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -13559,31 +13573,31 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>110</v>
       </c>
       <c r="I39" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J39" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K39" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L39" t="s">
         <v>86</v>
@@ -13594,17 +13608,17 @@
     </row>
     <row r="40" spans="5:13">
       <c r="E40" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F40" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G40" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I40" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -13622,17 +13636,17 @@
     </row>
     <row r="41" spans="5:13">
       <c r="E41" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F41" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G41" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I41" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -13650,17 +13664,17 @@
     </row>
     <row r="42" spans="5:13">
       <c r="E42" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F42" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G42" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L42" t="s">
         <v>76</v>
@@ -13671,17 +13685,17 @@
     </row>
     <row r="43" spans="5:13">
       <c r="E43" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F43" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G43" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s">
         <v>76</v>
@@ -13692,17 +13706,17 @@
     </row>
     <row r="44" spans="5:13">
       <c r="E44" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F44" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G44" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I44" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -13720,17 +13734,17 @@
     </row>
     <row r="45" spans="5:13">
       <c r="E45" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G45" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L45" t="s">
         <v>76</v>
@@ -13741,17 +13755,17 @@
     </row>
     <row r="46" spans="5:13">
       <c r="E46" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F46" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G46" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L46" t="s">
         <v>76</v>
@@ -13762,17 +13776,17 @@
     </row>
     <row r="47" spans="5:13">
       <c r="E47" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F47" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G47" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s">
         <v>76</v>
@@ -13783,17 +13797,17 @@
     </row>
     <row r="48" spans="5:13">
       <c r="E48" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F48" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G48" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I48" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -13811,17 +13825,17 @@
     </row>
     <row r="49" spans="5:13">
       <c r="E49" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G49" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L49" t="s">
         <v>76</v>
@@ -13832,17 +13846,17 @@
     </row>
     <row r="50" spans="5:13">
       <c r="E50" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F50" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G50" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L50" t="s">
         <v>76</v>
@@ -13853,17 +13867,17 @@
     </row>
     <row r="51" spans="5:13">
       <c r="E51" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F51" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G51" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L51" t="s">
         <v>76</v>
@@ -13874,17 +13888,17 @@
     </row>
     <row r="52" spans="5:13">
       <c r="E52" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F52" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G52" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L52" t="s">
         <v>76</v>
@@ -13895,17 +13909,17 @@
     </row>
     <row r="53" spans="5:13">
       <c r="E53" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F53" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G53" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L53" t="s">
         <v>76</v>
@@ -13916,17 +13930,17 @@
     </row>
     <row r="54" spans="5:13">
       <c r="E54" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F54" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G54" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L54" t="s">
         <v>76</v>
@@ -13937,17 +13951,17 @@
     </row>
     <row r="55" spans="5:13">
       <c r="E55" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F55" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G55" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L55" t="s">
         <v>76</v>
@@ -13958,17 +13972,17 @@
     </row>
     <row r="56" spans="5:13">
       <c r="E56" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F56" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G56" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L56" t="s">
         <v>76</v>
@@ -13979,17 +13993,17 @@
     </row>
     <row r="57" spans="5:13">
       <c r="E57" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F57" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G57" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L57" t="s">
         <v>76</v>
@@ -14000,17 +14014,17 @@
     </row>
     <row r="58" spans="5:13">
       <c r="E58" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F58" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G58" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L58" t="s">
         <v>76</v>
@@ -14021,17 +14035,17 @@
     </row>
     <row r="59" spans="5:13">
       <c r="E59" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F59" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G59" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L59" t="s">
         <v>76</v>
@@ -14042,17 +14056,17 @@
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G60" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L60" t="s">
         <v>76</v>
@@ -14063,17 +14077,17 @@
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G61" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L61" t="s">
         <v>76</v>
@@ -14084,17 +14098,17 @@
     </row>
     <row r="62" spans="5:13">
       <c r="E62" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F62" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G62" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I62" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -14112,17 +14126,17 @@
     </row>
     <row r="63" spans="5:13">
       <c r="E63" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F63" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G63" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L63" t="s">
         <v>76</v>
@@ -14133,17 +14147,17 @@
     </row>
     <row r="64" spans="5:13">
       <c r="E64" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F64" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G64" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L64" t="s">
         <v>76</v>
@@ -14154,17 +14168,17 @@
     </row>
     <row r="65" spans="5:13">
       <c r="E65" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F65" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-35</v>
       </c>
       <c r="G65" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I65" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -14182,17 +14196,17 @@
     </row>
     <row r="66" spans="5:13">
       <c r="E66" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F66" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G66" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H66" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="I66" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -14210,17 +14224,17 @@
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G67" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H67" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L67" t="s">
         <v>76</v>
@@ -14231,17 +14245,17 @@
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G68" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H68" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L68" t="s">
         <v>76</v>
@@ -14252,17 +14266,17 @@
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G69" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H69" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L69" t="s">
         <v>76</v>
@@ -14273,17 +14287,17 @@
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F70" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G70" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I70" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -14301,17 +14315,17 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G71" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L71" t="s">
         <v>76</v>
@@ -14322,17 +14336,17 @@
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G72" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L72" t="s">
         <v>76</v>
@@ -14343,17 +14357,17 @@
     </row>
     <row r="73" spans="5:13">
       <c r="E73" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F73" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G73" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H73" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I73" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -14371,17 +14385,17 @@
     </row>
     <row r="74" spans="5:13">
       <c r="E74" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G74" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H74" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L74" t="s">
         <v>76</v>
@@ -14392,17 +14406,17 @@
     </row>
     <row r="75" spans="5:13">
       <c r="E75" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F75" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G75" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I75" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -14420,17 +14434,17 @@
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G76" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L76" t="s">
         <v>76</v>
@@ -14441,17 +14455,17 @@
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G77" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L77" t="s">
         <v>76</v>
@@ -14462,17 +14476,17 @@
     </row>
     <row r="78" spans="5:13">
       <c r="E78" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F78" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G78" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H78" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I78" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -14490,17 +14504,17 @@
     </row>
     <row r="79" spans="5:13">
       <c r="E79" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F79" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G79" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H79" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L79" t="s">
         <v>76</v>
@@ -14511,20 +14525,20 @@
     </row>
     <row r="80" spans="5:13">
       <c r="E80" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F80" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-63</v>
       </c>
       <c r="G80" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L80" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M80" t="s">
         <v>75</v>
@@ -14532,20 +14546,20 @@
     </row>
     <row r="81" spans="5:13">
       <c r="E81" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F81" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G81" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H81" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L81" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M81" t="s">
         <v>75</v>
@@ -14553,20 +14567,20 @@
     </row>
     <row r="82" spans="5:13">
       <c r="E82" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F82" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-70</v>
       </c>
       <c r="G82" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H82" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L82" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M82" t="s">
         <v>75</v>
@@ -14574,20 +14588,20 @@
     </row>
     <row r="83" spans="5:13">
       <c r="E83" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F83" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G83" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H83" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L83" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M83" t="s">
         <v>75</v>
@@ -14595,17 +14609,17 @@
     </row>
     <row r="84" spans="5:13">
       <c r="E84" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F84" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-66</v>
       </c>
       <c r="G84" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L84" t="s">
         <v>76</v>
@@ -14616,17 +14630,17 @@
     </row>
     <row r="85" spans="5:13">
       <c r="E85" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" ref="F85" si="0">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H85" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -14637,17 +14651,17 @@
     </row>
     <row r="86" spans="5:13">
       <c r="E86" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" ref="F86:F91" si="1">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G86" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H86" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -14658,17 +14672,17 @@
     </row>
     <row r="87" spans="5:13">
       <c r="E87" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-97</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -14679,17 +14693,17 @@
     </row>
     <row r="88" spans="5:13">
       <c r="E88" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-98</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -14700,17 +14714,17 @@
     </row>
     <row r="89" spans="5:13">
       <c r="E89" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-99</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -14721,17 +14735,17 @@
     </row>
     <row r="90" spans="5:13">
       <c r="E90" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-100</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I90" t="str">
         <f>短信服务配置!E8</f>
@@ -14749,17 +14763,17 @@
     </row>
     <row r="91" spans="5:13">
       <c r="E91" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-102</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I91" t="str">
         <f>邮箱服务配置!E8</f>
@@ -14783,30 +14797,30 @@
         <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H93" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="94" spans="5:8">
       <c r="E94" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F94" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -14817,10 +14831,10 @@
     </row>
     <row r="95" spans="5:8">
       <c r="E95" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F95" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -14831,10 +14845,10 @@
     </row>
     <row r="96" spans="5:8">
       <c r="E96" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F96" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -14845,10 +14859,10 @@
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F97" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -14859,10 +14873,10 @@
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F98" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -14873,10 +14887,10 @@
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F99" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -14887,10 +14901,10 @@
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F100" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -14901,10 +14915,10 @@
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F101" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -14915,10 +14929,10 @@
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F102" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -14929,10 +14943,10 @@
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F103" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -14943,10 +14957,10 @@
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F104" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -14957,10 +14971,10 @@
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -14971,10 +14985,10 @@
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F106" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -14985,10 +14999,10 @@
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F107" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -14999,10 +15013,10 @@
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F108" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -15013,10 +15027,10 @@
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F109" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -15027,10 +15041,10 @@
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F110" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -15041,10 +15055,10 @@
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F111" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -15055,10 +15069,10 @@
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F112" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -15069,10 +15083,10 @@
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F113" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -15083,10 +15097,10 @@
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F114" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -15097,10 +15111,10 @@
     </row>
     <row r="115" spans="5:8">
       <c r="E115" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F115" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -15111,10 +15125,10 @@
     </row>
     <row r="116" spans="5:8">
       <c r="E116" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F116" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G116">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -5996,10 +5996,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -6097,13 +6097,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6117,6 +6110,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -6124,9 +6133,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6162,15 +6199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6178,24 +6209,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6209,31 +6233,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6327,31 +6327,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6363,13 +6351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6387,7 +6369,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6399,7 +6411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6411,25 +6435,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6441,49 +6465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6495,19 +6477,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6615,6 +6615,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -6631,35 +6655,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6705,155 +6703,157 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7935,7 +7935,7 @@
   <sheetPr/>
   <dimension ref="A1:R216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="K52" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="K49" workbookViewId="0">
       <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="22068" windowHeight="10020" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2253,8 +2253,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -2289,33 +2289,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -2495,8 +2495,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -2531,33 +2531,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -2833,8 +2833,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -2869,33 +2869,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -3120,8 +3120,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -3156,33 +3156,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -3359,8 +3359,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -3396,33 +3396,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -3593,8 +3593,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -3632,33 +3632,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -3892,8 +3892,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -3929,33 +3929,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -4135,8 +4135,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -4171,33 +4171,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -4439,8 +4439,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -4475,33 +4475,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -4681,8 +4681,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -4717,33 +4717,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -5013,8 +5013,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -5052,33 +5052,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -5996,9 +5996,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
@@ -6104,6 +6104,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6112,7 +6133,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6126,46 +6162,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6174,21 +6191,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6209,23 +6211,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6234,6 +6220,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6327,19 +6327,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6351,7 +6357,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6369,7 +6387,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6387,97 +6483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6489,19 +6495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6629,11 +6629,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6665,6 +6671,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -6686,21 +6701,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6714,143 +6714,143 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7935,8 +7935,8 @@
   <sheetPr/>
   <dimension ref="A1:R216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="K49" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -21,6 +21,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">消息模板!$A$7:$R$216</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2264,7 +2265,7 @@
                       &lt;div style="border-width: 1px 0px;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
                         &lt;div style="margin: 0px 10px;border-bottom: 1px solid #D9E6F2"&gt;
                             &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;您已被添加为组织【${organizationName}】中【${roleName}】的角色。&lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;您已被添加为组织【${organizationName}】中【${roleName}】的角色。&lt;/p&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
                       &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
@@ -2506,7 +2507,7 @@
                       &lt;div style="border-width: 1px 0px;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
                         &lt;div style="margin: 0px 10px;border-bottom: 1px solid #D9E6F2"&gt;
                             &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;您已经成功添加${addCount}名新用户！&lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;您已经成功添加${addCount}名新用户！&lt;/p&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
                       &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
@@ -2844,7 +2845,7 @@
                       &lt;div style="border-width: 1px 0px;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
                         &lt;div style="margin: 0px 10px;border-bottom: 1px solid #D9E6F2"&gt;
                             &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;您所在的项目：${projectName} 已被停用。&lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;您所在的项目：${projectName} 已被停用。&lt;/p&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
                       &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
@@ -3131,7 +3132,7 @@
                       &lt;div style="border-width: 1px 0px;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
                         &lt;div style="margin: 0px 10px;border-bottom: 1px solid #D9E6F2"&gt;
                             &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;您所在的项目：${projectName} 已被启用。&lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;您所在的项目：${projectName} 已被启用。&lt;/p&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
                       &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
@@ -3370,8 +3371,8 @@
                       &lt;div style="border-width: 1px 0px;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
                         &lt;div style="margin: 0px 10px;border-bottom: 1px solid #D9E6F2"&gt;
                             &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;亲爱的${userName}，您好！&lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;欢迎使用&amp;nbsp;Choerodon&amp;nbsp;平台，点击下方的“重置密码”按钮，即可跳转至密码修改界面。此链接30分钟内有效。&lt;/p&gt;
-                            &lt;p align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;width: 212px;margin:0 auto;cursor:auto;margin-top: 15px;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${redirectUrl}"  style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;重置密码&lt;/a&gt; &lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;欢迎使用&amp;nbsp;Choerodon&amp;nbsp;平台，点击下方的“重置密码”按钮，即可跳转至密码修改界面。此链接30分钟内有效。&lt;/p&gt;
+                            &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 212px;margin:0 auto;cursor:auto;margin-top: 15px;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${redirectUrl}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;重置密码&lt;/a&gt; &lt;/p&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
                       &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
@@ -3604,9 +3605,9 @@
                       &lt;div style="border-width: 1px 0px;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
                         &lt;div style="margin: 0px 10px;border-bottom: 1px solid #D9E6F2"&gt;
                             &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;亲爱的${userName}，您好！&lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;${inviteBy}邀请您加入项目：&amp;nbsp;${project} &amp;nbsp;。请点击以下按钮接受邀请并加入。&lt;/p&gt;
-                            &lt;p align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;width: 212px;margin:0 auto;cursor:auto;margin-top: 15px;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}"  style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;完善信息并加入&lt;/a&gt; &lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;如果按钮无法点击，请点击或复制以下链接到浏览器地址栏打开。&lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;${inviteBy}邀请您加入项目：&amp;nbsp;${project} &amp;nbsp;。请点击以下按钮接受邀请并加入。&lt;/p&gt;
+                            &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 212px;margin:0 auto;cursor:auto;margin-top: 15px;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;完善信息并加入&lt;/a&gt; &lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;如果按钮无法点击，请点击或复制以下链接到浏览器地址栏打开。&lt;/p&gt;
                             &lt;p style="text-align: justify; margin-bottom: 0; line-height: 14px; font-size: 14px"&gt;${link}&lt;/p&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
@@ -3903,8 +3904,8 @@
                       &lt;div style="border-width: 1px 0px;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
                         &lt;div style="margin: 0px 10px;border-bottom: 1px solid #D9E6F2"&gt;
                             &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;您已被添加为项目【${projectName}】中【${roleName}】的角色。&lt;/p&gt;
-                            &lt;p align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;width: 212px;margin:0 auto;cursor:auto;margin-top: 15px;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${resultDetailUrl}"  style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;前往项目&lt;/a&gt; &lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;您已被添加为项目【${projectName}】中【${roleName}】的角色。&lt;/p&gt;
+                            &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 212px;margin:0 auto;cursor:auto;margin-top: 15px;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${resultDetailUrl}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;前往项目&lt;/a&gt; &lt;/p&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
                       &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
@@ -4146,7 +4147,7 @@
                       &lt;div style="border-width: 1px 0px;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
                         &lt;div style="margin: 0px 10px;border-bottom: 1px solid #D9E6F2"&gt;
                             &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;您的登录密码已被管理员重置为默认密码：${password}&lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;您的登录密码已被管理员重置为默认密码：${password}&lt;/p&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
                       &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
@@ -4450,7 +4451,7 @@
                       &lt;div style="border-width: 1px 0px;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
                         &lt;div style="margin: 0px 10px;border-bottom: 1px solid #D9E6F2"&gt;
                             &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;您已被添加为Choerodon平台的【Root用户】。&lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;您已被添加为Choerodon平台的【Root用户】。&lt;/p&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
                       &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
@@ -4692,7 +4693,7 @@
                       &lt;div style="border-width: 1px 0px;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
                         &lt;div style="margin: 0px 10px;border-bottom: 1px solid #D9E6F2"&gt;
                             &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;您已被添加为Choerodon【${roleName}】的角色。&lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;您已被添加为Choerodon【${roleName}】的角色。&lt;/p&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
                       &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
@@ -5024,10 +5025,10 @@
                       &lt;div style="border-width: 1px 0px;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
                         &lt;div style="margin: 0px 10px;border-bottom: 1px solid #D9E6F2"&gt;
                             &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;亲爱的${realName}，您好！&lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;【组织管理员${orgAdmin}】邀请您加入组织： ${tenantName}，并且已为您创建账号[${email}]，初始密码为[${orgPassword}]。您可使用该账号密码登录云平台，地址：${loginUrl} 也可以点击以下按钮修改初始密码，完善信息后登录。&lt;/p&gt;
-                            &lt;p align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;width: 212px;margin:0 auto;cursor:auto;margin-top: 15px;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}"  style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;完善信息并加入&lt;/a&gt; &lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;如果按钮无法点击，请点击或复制以下链接到浏览器地址栏打开。&lt;/p&gt;
-                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px"&gt;${inviteLink}&lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;【组织管理员${orgAdmin}】邀请您加入组织： ${tenantName}，并且已为您创建账号[${email}]，初始密码为[${orgPassword}]。您可使用该账号密码登录云平台，地址：${loginUrl} 也可以点击以下按钮修改初始密码，完善信息后登录。&lt;/p&gt;
+                            &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 212px;margin:0 auto;cursor:auto;margin-top: 15px;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;完善信息并加入&lt;/a&gt; &lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;如果按钮无法点击，请点击或复制以下链接到浏览器地址栏打开。&lt;/p&gt;
+                            &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;${inviteLink}&lt;/p&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
                       &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
@@ -5996,9 +5997,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
@@ -6097,9 +6098,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6111,14 +6112,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6131,16 +6125,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6154,6 +6140,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -6163,7 +6179,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6179,7 +6195,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6187,15 +6203,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6209,6 +6218,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -6217,23 +6233,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6327,7 +6328,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6339,31 +6376,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6381,31 +6454,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6417,85 +6478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6508,6 +6497,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6615,16 +6616,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6644,26 +6645,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6685,76 +6712,50 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6763,97 +6764,97 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7935,8 +7936,8 @@
   <sheetPr/>
   <dimension ref="A1:R216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22068" windowHeight="10020" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="22068" windowHeight="10020" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -6170,8 +6170,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
@@ -6270,32 +6270,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6307,37 +6299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6352,14 +6314,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6399,7 +6376,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6407,6 +6400,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6500,13 +6500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6518,7 +6512,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6530,43 +6548,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6584,7 +6578,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6596,91 +6680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6789,10 +6789,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -6803,21 +6801,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6838,6 +6821,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -6852,30 +6850,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -6884,149 +6858,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8108,8 +8108,8 @@
   <sheetPr/>
   <dimension ref="A1:R234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -13133,8 +13133,8 @@
   <sheetPr/>
   <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView topLeftCell="C86" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="F74" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -15516,9 +15516,6 @@
       <c r="H92" t="s">
         <v>309</v>
       </c>
-      <c r="I92"/>
-      <c r="J92"/>
-      <c r="K92"/>
       <c r="L92" t="s">
         <v>76</v>
       </c>
@@ -15540,9 +15537,6 @@
       <c r="H93" t="s">
         <v>323</v>
       </c>
-      <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
       <c r="L93" t="s">
         <v>76</v>
       </c>
@@ -15564,9 +15558,6 @@
       <c r="H94" t="s">
         <v>317</v>
       </c>
-      <c r="I94"/>
-      <c r="J94"/>
-      <c r="K94"/>
       <c r="L94" t="s">
         <v>76</v>
       </c>
@@ -15588,9 +15579,6 @@
       <c r="H95" t="s">
         <v>313</v>
       </c>
-      <c r="I95"/>
-      <c r="J95"/>
-      <c r="K95"/>
       <c r="L95" t="s">
         <v>76</v>
       </c>
@@ -15612,9 +15600,6 @@
       <c r="H96" t="s">
         <v>315</v>
       </c>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
       <c r="L96" t="s">
         <v>76</v>
       </c>
@@ -15636,9 +15621,6 @@
       <c r="H97" t="s">
         <v>311</v>
       </c>
-      <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
       <c r="L97" t="s">
         <v>76</v>
       </c>
@@ -15651,8 +15633,8 @@
         <v>596</v>
       </c>
       <c r="F98" t="str">
-        <f>发送配置!$E$19</f>
-        <v>hmsg_template_server-22</v>
+        <f>发送配置!$E$16</f>
+        <v>hmsg_template_server-19</v>
       </c>
       <c r="G98" t="s">
         <v>590</v>
@@ -15660,9 +15642,6 @@
       <c r="H98" t="s">
         <v>321</v>
       </c>
-      <c r="I98"/>
-      <c r="J98"/>
-      <c r="K98"/>
       <c r="L98" t="s">
         <v>76</v>
       </c>
@@ -15684,9 +15663,6 @@
       <c r="H99" t="s">
         <v>319</v>
       </c>
-      <c r="I99"/>
-      <c r="J99"/>
-      <c r="K99"/>
       <c r="L99" t="s">
         <v>76</v>
       </c>
@@ -15708,9 +15684,6 @@
       <c r="H100" t="s">
         <v>327</v>
       </c>
-      <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100"/>
       <c r="L100" t="s">
         <v>76</v>
       </c>
@@ -15732,9 +15705,6 @@
       <c r="H101" t="s">
         <v>329</v>
       </c>
-      <c r="I101"/>
-      <c r="J101"/>
-      <c r="K101"/>
       <c r="L101" t="s">
         <v>76</v>
       </c>
@@ -15756,9 +15726,6 @@
       <c r="H102" t="s">
         <v>601</v>
       </c>
-      <c r="I102"/>
-      <c r="J102"/>
-      <c r="K102"/>
       <c r="L102" t="s">
         <v>76</v>
       </c>
@@ -15780,9 +15747,6 @@
       <c r="H103" t="s">
         <v>307</v>
       </c>
-      <c r="I103"/>
-      <c r="J103"/>
-      <c r="K103"/>
       <c r="L103" t="s">
         <v>76</v>
       </c>
@@ -15804,9 +15768,6 @@
       <c r="H104" t="s">
         <v>333</v>
       </c>
-      <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
       <c r="L104" t="s">
         <v>76</v>
       </c>
@@ -15828,9 +15789,6 @@
       <c r="H105" t="s">
         <v>325</v>
       </c>
-      <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
       <c r="L105" t="s">
         <v>76</v>
       </c>
@@ -15852,9 +15810,6 @@
       <c r="H106" t="s">
         <v>331</v>
       </c>
-      <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
       <c r="L106" t="s">
         <v>76</v>
       </c>
@@ -15876,9 +15831,6 @@
       <c r="H107" t="s">
         <v>335</v>
       </c>
-      <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107"/>
       <c r="L107">
         <v>0</v>
       </c>
@@ -15900,9 +15852,6 @@
       <c r="H108" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108"/>
       <c r="L108">
         <v>0</v>
       </c>
@@ -15924,9 +15873,6 @@
       <c r="H109" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
       <c r="L109">
         <v>0</v>
       </c>
@@ -15948,9 +15894,6 @@
       <c r="H110" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="I110"/>
-      <c r="J110"/>
-      <c r="K110"/>
       <c r="L110">
         <v>0</v>
       </c>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22068" windowHeight="10020" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="22068" windowHeight="10020" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="640">
   <si>
     <r>
       <rPr>
@@ -5224,16 +5224,28 @@
     <t>VINDICATOR_USER_FAILED.DT</t>
   </si>
   <si>
+    <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的用户，请及时处理。编号：${instanceId}。&lt;/p&gt;
+&lt;p&gt;&lt;a href="${prefixUrl}#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>hmsg_message_template-176</t>
   </si>
   <si>
     <t>VINDICATOR_PROJECT_FAILED.DT</t>
   </si>
   <si>
+    <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的项目，请及时处理。编号：${instanceId}。&lt;/p&gt;
+&lt;p&gt;&lt;a href="${prefixUrl}#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>hmsg_message_template-177</t>
   </si>
   <si>
     <t>VINDICATOR_ORGANIZATION_FAILED.DT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，平台中存在创建失败的组织，请及时处理。编号：${instanceId}。&lt;/p&gt;
+&lt;p&gt;&lt;a href="${prefixUrl}#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>消息模板参数</t>
@@ -6169,10 +6181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -6269,15 +6281,8 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6287,21 +6292,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6321,7 +6312,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6335,19 +6340,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6355,6 +6351,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6375,8 +6379,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6399,14 +6418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6500,13 +6512,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6518,13 +6554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6536,55 +6566,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6596,13 +6590,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6620,19 +6620,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6644,43 +6650,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6791,16 +6803,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6835,6 +6838,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6846,15 +6858,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6884,47 +6887,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6933,100 +6951,94 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8108,8 +8120,8 @@
   <sheetPr/>
   <dimension ref="A1:R234"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -10151,7 +10163,7 @@
         <v>282</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>284</v>
@@ -10174,10 +10186,10 @@
     </row>
     <row r="72" ht="69.6" spans="5:17">
       <c r="E72" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>288</v>
@@ -10186,7 +10198,7 @@
         <v>288</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>284</v>
@@ -10209,10 +10221,10 @@
     </row>
     <row r="73" ht="69.6" spans="5:17">
       <c r="E73" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>292</v>
@@ -10221,7 +10233,7 @@
         <v>292</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>284</v>
@@ -10250,25 +10262,25 @@
         <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H76" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I76" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J76" t="s">
         <v>90</v>
@@ -10279,14 +10291,14 @@
     </row>
     <row r="77" spans="5:11">
       <c r="E77" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G77" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J77" t="s">
         <v>76</v>
@@ -10297,14 +10309,14 @@
     </row>
     <row r="78" spans="5:11">
       <c r="E78" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G78" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J78" t="s">
         <v>76</v>
@@ -10315,14 +10327,14 @@
     </row>
     <row r="79" spans="5:11">
       <c r="E79" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G79" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J79" t="s">
         <v>76</v>
@@ -10333,14 +10345,14 @@
     </row>
     <row r="80" spans="5:11">
       <c r="E80" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F80" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G80" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J80" t="s">
         <v>76</v>
@@ -10351,14 +10363,14 @@
     </row>
     <row r="81" spans="5:11">
       <c r="E81" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F81" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G81" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J81" t="s">
         <v>76</v>
@@ -10369,14 +10381,14 @@
     </row>
     <row r="82" spans="5:11">
       <c r="E82" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F82" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G82" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J82" t="s">
         <v>76</v>
@@ -10387,14 +10399,14 @@
     </row>
     <row r="83" spans="5:11">
       <c r="E83" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F83" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G83" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J83" t="s">
         <v>76</v>
@@ -10405,14 +10417,14 @@
     </row>
     <row r="84" spans="5:11">
       <c r="E84" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F84" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G84" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J84" t="s">
         <v>76</v>
@@ -10423,14 +10435,14 @@
     </row>
     <row r="85" spans="5:11">
       <c r="E85" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F85" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G85" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J85" t="s">
         <v>76</v>
@@ -10441,14 +10453,14 @@
     </row>
     <row r="86" spans="5:11">
       <c r="E86" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F86" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G86" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="J86" t="s">
         <v>76</v>
@@ -10459,14 +10471,14 @@
     </row>
     <row r="87" spans="5:11">
       <c r="E87" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F87" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G87" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J87" t="s">
         <v>76</v>
@@ -10477,14 +10489,14 @@
     </row>
     <row r="88" spans="5:11">
       <c r="E88" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F88" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G88" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J88" t="s">
         <v>76</v>
@@ -10495,14 +10507,14 @@
     </row>
     <row r="89" spans="5:11">
       <c r="E89" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F89" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G89" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J89" t="s">
         <v>76</v>
@@ -10513,14 +10525,14 @@
     </row>
     <row r="90" spans="5:11">
       <c r="E90" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F90" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G90" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J90" t="s">
         <v>76</v>
@@ -10531,14 +10543,14 @@
     </row>
     <row r="91" spans="5:11">
       <c r="E91" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F91" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G91" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J91" t="s">
         <v>76</v>
@@ -10549,14 +10561,14 @@
     </row>
     <row r="92" spans="5:11">
       <c r="E92" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F92" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G92" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J92" t="s">
         <v>76</v>
@@ -10567,14 +10579,14 @@
     </row>
     <row r="93" spans="5:11">
       <c r="E93" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F93" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G93" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J93" t="s">
         <v>76</v>
@@ -10585,14 +10597,14 @@
     </row>
     <row r="94" spans="5:11">
       <c r="E94" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G94" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J94" t="s">
         <v>76</v>
@@ -10603,14 +10615,14 @@
     </row>
     <row r="95" spans="5:11">
       <c r="E95" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G95" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="J95" t="s">
         <v>76</v>
@@ -10621,14 +10633,14 @@
     </row>
     <row r="96" spans="5:11">
       <c r="E96" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G96" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J96" t="s">
         <v>76</v>
@@ -10639,14 +10651,14 @@
     </row>
     <row r="97" spans="5:11">
       <c r="E97" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G97" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J97" t="s">
         <v>76</v>
@@ -10657,14 +10669,14 @@
     </row>
     <row r="98" spans="5:11">
       <c r="E98" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G98" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J98" t="s">
         <v>76</v>
@@ -10675,14 +10687,14 @@
     </row>
     <row r="99" spans="5:11">
       <c r="E99" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G99" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J99" t="s">
         <v>76</v>
@@ -10693,14 +10705,14 @@
     </row>
     <row r="100" spans="5:11">
       <c r="E100" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G100" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J100" t="s">
         <v>76</v>
@@ -10711,14 +10723,14 @@
     </row>
     <row r="101" spans="5:11">
       <c r="E101" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G101" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J101" t="s">
         <v>76</v>
@@ -10729,14 +10741,14 @@
     </row>
     <row r="102" spans="5:11">
       <c r="E102" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G102" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J102" t="s">
         <v>76</v>
@@ -10747,14 +10759,14 @@
     </row>
     <row r="103" spans="5:11">
       <c r="E103" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G103" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J103" t="s">
         <v>76</v>
@@ -10765,14 +10777,14 @@
     </row>
     <row r="104" spans="5:11">
       <c r="E104" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G104" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J104" t="s">
         <v>76</v>
@@ -10783,14 +10795,14 @@
     </row>
     <row r="105" spans="5:11">
       <c r="E105" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G105" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J105" t="s">
         <v>76</v>
@@ -10801,14 +10813,14 @@
     </row>
     <row r="106" spans="5:11">
       <c r="E106" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F106" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G106" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J106" t="s">
         <v>76</v>
@@ -10819,14 +10831,14 @@
     </row>
     <row r="107" spans="5:11">
       <c r="E107" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G107" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J107" t="s">
         <v>76</v>
@@ -10837,14 +10849,14 @@
     </row>
     <row r="108" spans="5:11">
       <c r="E108" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F108" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G108" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J108" t="s">
         <v>76</v>
@@ -10855,14 +10867,14 @@
     </row>
     <row r="109" spans="5:11">
       <c r="E109" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F109" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G109" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J109" t="s">
         <v>76</v>
@@ -10873,14 +10885,14 @@
     </row>
     <row r="110" spans="5:11">
       <c r="E110" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F110" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G110" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J110" t="s">
         <v>76</v>
@@ -10891,14 +10903,14 @@
     </row>
     <row r="111" spans="5:11">
       <c r="E111" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G111" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="J111" t="s">
         <v>76</v>
@@ -10909,14 +10921,14 @@
     </row>
     <row r="112" spans="5:11">
       <c r="E112" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G112" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J112" t="s">
         <v>76</v>
@@ -10927,14 +10939,14 @@
     </row>
     <row r="113" spans="5:11">
       <c r="E113" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F113" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G113" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J113" t="s">
         <v>76</v>
@@ -10945,14 +10957,14 @@
     </row>
     <row r="114" spans="5:11">
       <c r="E114" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F114" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G114" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J114" t="s">
         <v>76</v>
@@ -10963,14 +10975,14 @@
     </row>
     <row r="115" spans="5:11">
       <c r="E115" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F115" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G115" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J115" t="s">
         <v>76</v>
@@ -10981,14 +10993,14 @@
     </row>
     <row r="116" spans="5:11">
       <c r="E116" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F116" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G116" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J116" t="s">
         <v>76</v>
@@ -10999,14 +11011,14 @@
     </row>
     <row r="117" spans="5:11">
       <c r="E117" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F117" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G117" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J117" t="s">
         <v>76</v>
@@ -11017,14 +11029,14 @@
     </row>
     <row r="118" spans="5:11">
       <c r="E118" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F118" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G118" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J118" t="s">
         <v>76</v>
@@ -11035,14 +11047,14 @@
     </row>
     <row r="119" spans="5:11">
       <c r="E119" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G119" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J119" t="s">
         <v>76</v>
@@ -11053,14 +11065,14 @@
     </row>
     <row r="120" spans="5:11">
       <c r="E120" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G120" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J120" t="s">
         <v>76</v>
@@ -11071,14 +11083,14 @@
     </row>
     <row r="121" spans="5:11">
       <c r="E121" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F121" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G121" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J121" t="s">
         <v>76</v>
@@ -11089,14 +11101,14 @@
     </row>
     <row r="122" spans="5:11">
       <c r="E122" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F122" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G122" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J122" t="s">
         <v>76</v>
@@ -11107,14 +11119,14 @@
     </row>
     <row r="123" spans="5:11">
       <c r="E123" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F123" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G123" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J123" t="s">
         <v>76</v>
@@ -11125,14 +11137,14 @@
     </row>
     <row r="124" spans="5:11">
       <c r="E124" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F124" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G124" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J124" t="s">
         <v>76</v>
@@ -11143,14 +11155,14 @@
     </row>
     <row r="125" spans="5:11">
       <c r="E125" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F125" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G125" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J125" t="s">
         <v>76</v>
@@ -11161,14 +11173,14 @@
     </row>
     <row r="126" spans="5:11">
       <c r="E126" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F126" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G126" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J126" t="s">
         <v>76</v>
@@ -11179,14 +11191,14 @@
     </row>
     <row r="127" spans="5:11">
       <c r="E127" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F127" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G127" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="J127" t="s">
         <v>76</v>
@@ -11197,14 +11209,14 @@
     </row>
     <row r="128" spans="5:11">
       <c r="E128" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F128" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G128" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J128" t="s">
         <v>76</v>
@@ -11215,14 +11227,14 @@
     </row>
     <row r="129" spans="5:11">
       <c r="E129" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F129" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G129" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J129" t="s">
         <v>76</v>
@@ -11233,14 +11245,14 @@
     </row>
     <row r="130" spans="5:11">
       <c r="E130" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F130" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G130" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J130" t="s">
         <v>76</v>
@@ -11251,14 +11263,14 @@
     </row>
     <row r="131" spans="5:11">
       <c r="E131" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F131" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G131" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J131" t="s">
         <v>76</v>
@@ -11269,14 +11281,14 @@
     </row>
     <row r="132" spans="5:11">
       <c r="E132" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F132" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G132" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J132" t="s">
         <v>76</v>
@@ -11287,14 +11299,14 @@
     </row>
     <row r="133" spans="5:11">
       <c r="E133" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F133" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G133" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J133" t="s">
         <v>76</v>
@@ -11305,14 +11317,14 @@
     </row>
     <row r="134" spans="5:11">
       <c r="E134" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F134" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G134" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J134" t="s">
         <v>76</v>
@@ -11323,14 +11335,14 @@
     </row>
     <row r="135" spans="5:11">
       <c r="E135" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F135" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G135" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J135" t="s">
         <v>76</v>
@@ -11341,14 +11353,14 @@
     </row>
     <row r="136" spans="5:11">
       <c r="E136" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F136" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G136" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J136" t="s">
         <v>76</v>
@@ -11359,14 +11371,14 @@
     </row>
     <row r="137" spans="5:11">
       <c r="E137" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F137" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G137" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J137" t="s">
         <v>76</v>
@@ -11377,14 +11389,14 @@
     </row>
     <row r="138" spans="5:11">
       <c r="E138" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F138" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G138" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J138" t="s">
         <v>76</v>
@@ -11395,14 +11407,14 @@
     </row>
     <row r="139" spans="5:11">
       <c r="E139" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F139" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G139" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J139" t="s">
         <v>76</v>
@@ -11413,14 +11425,14 @@
     </row>
     <row r="140" spans="5:11">
       <c r="E140" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F140" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G140" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J140" t="s">
         <v>76</v>
@@ -11431,14 +11443,14 @@
     </row>
     <row r="141" spans="5:11">
       <c r="E141" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F141" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G141" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J141" t="s">
         <v>76</v>
@@ -11449,14 +11461,14 @@
     </row>
     <row r="142" spans="5:11">
       <c r="E142" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F142" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G142" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J142" t="s">
         <v>76</v>
@@ -11467,14 +11479,14 @@
     </row>
     <row r="143" spans="5:11">
       <c r="E143" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F143" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G143" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J143" t="s">
         <v>76</v>
@@ -11485,14 +11497,14 @@
     </row>
     <row r="144" spans="5:11">
       <c r="E144" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F144" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G144" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J144" t="s">
         <v>76</v>
@@ -11503,14 +11515,14 @@
     </row>
     <row r="145" spans="5:11">
       <c r="E145" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F145" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G145" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J145" t="s">
         <v>76</v>
@@ -11521,14 +11533,14 @@
     </row>
     <row r="146" spans="5:11">
       <c r="E146" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F146" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G146" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J146" t="s">
         <v>76</v>
@@ -11539,14 +11551,14 @@
     </row>
     <row r="147" spans="5:11">
       <c r="E147" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F147" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G147" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J147" t="s">
         <v>76</v>
@@ -11557,14 +11569,14 @@
     </row>
     <row r="148" spans="5:11">
       <c r="E148" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F148" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G148" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J148" t="s">
         <v>76</v>
@@ -11575,14 +11587,14 @@
     </row>
     <row r="149" spans="5:11">
       <c r="E149" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F149" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G149" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="J149" t="s">
         <v>76</v>
@@ -11593,14 +11605,14 @@
     </row>
     <row r="150" spans="5:11">
       <c r="E150" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F150" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G150" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J150" t="s">
         <v>76</v>
@@ -11611,14 +11623,14 @@
     </row>
     <row r="151" spans="5:11">
       <c r="E151" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F151" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G151" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J151" t="s">
         <v>76</v>
@@ -11629,14 +11641,14 @@
     </row>
     <row r="152" spans="5:11">
       <c r="E152" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F152" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G152" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J152" t="s">
         <v>76</v>
@@ -11647,14 +11659,14 @@
     </row>
     <row r="153" spans="5:11">
       <c r="E153" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F153" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G153" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J153" t="s">
         <v>76</v>
@@ -11665,14 +11677,14 @@
     </row>
     <row r="154" spans="5:11">
       <c r="E154" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F154" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G154" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J154" t="s">
         <v>76</v>
@@ -11683,14 +11695,14 @@
     </row>
     <row r="155" spans="5:11">
       <c r="E155" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F155" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G155" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J155" t="s">
         <v>76</v>
@@ -11701,14 +11713,14 @@
     </row>
     <row r="156" spans="5:11">
       <c r="E156" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F156" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G156" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J156" t="s">
         <v>76</v>
@@ -11719,14 +11731,14 @@
     </row>
     <row r="157" spans="5:11">
       <c r="E157" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F157" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G157" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J157" t="s">
         <v>76</v>
@@ -11737,14 +11749,14 @@
     </row>
     <row r="158" spans="5:11">
       <c r="E158" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F158" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G158" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J158" t="s">
         <v>76</v>
@@ -11755,14 +11767,14 @@
     </row>
     <row r="159" spans="5:11">
       <c r="E159" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F159" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G159" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J159" t="s">
         <v>76</v>
@@ -11773,14 +11785,14 @@
     </row>
     <row r="160" spans="5:11">
       <c r="E160" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F160" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G160" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J160" t="s">
         <v>76</v>
@@ -11791,14 +11803,14 @@
     </row>
     <row r="161" spans="5:11">
       <c r="E161" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F161" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G161" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J161" t="s">
         <v>76</v>
@@ -11809,14 +11821,14 @@
     </row>
     <row r="162" spans="5:11">
       <c r="E162" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F162" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G162" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J162" t="s">
         <v>76</v>
@@ -11827,14 +11839,14 @@
     </row>
     <row r="163" spans="5:11">
       <c r="E163" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F163" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G163" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J163" t="s">
         <v>76</v>
@@ -11845,14 +11857,14 @@
     </row>
     <row r="164" spans="5:11">
       <c r="E164" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F164" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-64</v>
       </c>
       <c r="G164" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J164" t="s">
         <v>76</v>
@@ -11863,14 +11875,14 @@
     </row>
     <row r="165" spans="5:11">
       <c r="E165" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F165" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-62</v>
       </c>
       <c r="G165" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J165" t="s">
         <v>76</v>
@@ -11881,14 +11893,14 @@
     </row>
     <row r="166" spans="5:11">
       <c r="E166" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F166" t="str">
         <f>消息模板!$E$22</f>
         <v>hmsg_message_template-52</v>
       </c>
       <c r="G166" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J166" t="s">
         <v>76</v>
@@ -11899,14 +11911,14 @@
     </row>
     <row r="167" spans="5:11">
       <c r="E167" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F167" t="str">
         <f>消息模板!$E$20</f>
         <v>hmsg_message_template-50</v>
       </c>
       <c r="G167" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J167" t="s">
         <v>76</v>
@@ -11917,14 +11929,14 @@
     </row>
     <row r="168" spans="5:11">
       <c r="E168" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F168" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-48</v>
       </c>
       <c r="G168" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J168" t="s">
         <v>76</v>
@@ -11935,14 +11947,14 @@
     </row>
     <row r="169" spans="5:11">
       <c r="E169" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F169" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-47</v>
       </c>
       <c r="G169" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J169" t="s">
         <v>76</v>
@@ -11953,14 +11965,14 @@
     </row>
     <row r="170" spans="5:11">
       <c r="E170" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F170" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-60</v>
       </c>
       <c r="G170" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J170" t="s">
         <v>76</v>
@@ -11971,14 +11983,14 @@
     </row>
     <row r="171" spans="5:11">
       <c r="E171" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F171" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-59</v>
       </c>
       <c r="G171" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J171" t="s">
         <v>76</v>
@@ -11989,14 +12001,14 @@
     </row>
     <row r="172" spans="5:11">
       <c r="E172" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F172" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G172" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J172" t="s">
         <v>76</v>
@@ -12007,14 +12019,14 @@
     </row>
     <row r="173" spans="5:11">
       <c r="E173" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F173" t="str">
         <f>消息模板!$E$36</f>
         <v>hmsg_message_template-107</v>
       </c>
       <c r="G173" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J173" t="s">
         <v>76</v>
@@ -12025,14 +12037,14 @@
     </row>
     <row r="174" spans="5:11">
       <c r="E174" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F174" t="str">
         <f>消息模板!$E$30</f>
         <v>hmsg_message_template-65</v>
       </c>
       <c r="G174" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="J174" t="s">
         <v>76</v>
@@ -12043,14 +12055,14 @@
     </row>
     <row r="175" spans="5:11">
       <c r="E175" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F175" t="str">
         <f>消息模板!$E$30</f>
         <v>hmsg_message_template-65</v>
       </c>
       <c r="G175" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J175" t="s">
         <v>76</v>
@@ -12061,14 +12073,14 @@
     </row>
     <row r="176" spans="5:11">
       <c r="E176" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F176" t="str">
         <f>消息模板!$E$50</f>
         <v>hmsg_message_template-153</v>
       </c>
       <c r="G176" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="J176" t="s">
         <v>76</v>
@@ -12079,14 +12091,14 @@
     </row>
     <row r="177" spans="5:11">
       <c r="E177" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F177" t="str">
         <f>消息模板!$E$50</f>
         <v>hmsg_message_template-153</v>
       </c>
       <c r="G177" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J177" t="s">
         <v>76</v>
@@ -12097,14 +12109,14 @@
     </row>
     <row r="178" spans="5:11">
       <c r="E178" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F178" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G178" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J178" t="s">
         <v>76</v>
@@ -12115,14 +12127,14 @@
     </row>
     <row r="179" spans="5:11">
       <c r="E179" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F179" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G179" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J179" t="s">
         <v>76</v>
@@ -12133,14 +12145,14 @@
     </row>
     <row r="180" spans="5:11">
       <c r="E180" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F180" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G180" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J180" t="s">
         <v>76</v>
@@ -12151,14 +12163,14 @@
     </row>
     <row r="181" spans="5:11">
       <c r="E181" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F181" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G181" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J181" t="s">
         <v>76</v>
@@ -12169,14 +12181,14 @@
     </row>
     <row r="182" spans="5:11">
       <c r="E182" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F182" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G182" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J182" t="s">
         <v>76</v>
@@ -12187,14 +12199,14 @@
     </row>
     <row r="183" spans="5:11">
       <c r="E183" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F183" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G183" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J183" t="s">
         <v>76</v>
@@ -12205,14 +12217,14 @@
     </row>
     <row r="184" spans="5:11">
       <c r="E184" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F184" t="str">
         <f>消息模板!$E$33</f>
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G184" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J184" t="s">
         <v>76</v>
@@ -12223,14 +12235,14 @@
     </row>
     <row r="185" spans="5:11">
       <c r="E185" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F185" t="str">
         <f>消息模板!$E$33</f>
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G185" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J185" t="s">
         <v>76</v>
@@ -12241,14 +12253,14 @@
     </row>
     <row r="186" spans="5:11">
       <c r="E186" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F186" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G186" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J186" t="s">
         <v>76</v>
@@ -12259,14 +12271,14 @@
     </row>
     <row r="187" spans="5:11">
       <c r="E187" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F187" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G187" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J187" t="s">
         <v>76</v>
@@ -12277,14 +12289,14 @@
     </row>
     <row r="188" spans="5:11">
       <c r="E188" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F188" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G188" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="J188" t="s">
         <v>76</v>
@@ -12295,14 +12307,14 @@
     </row>
     <row r="189" spans="5:11">
       <c r="E189" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F189" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G189" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J189" t="s">
         <v>76</v>
@@ -12313,14 +12325,14 @@
     </row>
     <row r="190" spans="5:11">
       <c r="E190" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F190" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G190" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J190" t="s">
         <v>76</v>
@@ -12331,14 +12343,14 @@
     </row>
     <row r="191" spans="5:11">
       <c r="E191" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F191" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G191" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J191" t="s">
         <v>76</v>
@@ -12349,14 +12361,14 @@
     </row>
     <row r="192" spans="5:11">
       <c r="E192" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F192" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G192" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="J192" t="s">
         <v>76</v>
@@ -12367,14 +12379,14 @@
     </row>
     <row r="193" spans="5:11">
       <c r="E193" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F193" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G193" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J193" t="s">
         <v>76</v>
@@ -12385,14 +12397,14 @@
     </row>
     <row r="194" spans="5:11">
       <c r="E194" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F194" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G194" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="J194" t="s">
         <v>76</v>
@@ -12403,14 +12415,14 @@
     </row>
     <row r="195" spans="5:11">
       <c r="E195" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F195" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G195" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="J195" t="s">
         <v>76</v>
@@ -12421,14 +12433,14 @@
     </row>
     <row r="196" spans="5:11">
       <c r="E196" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F196" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G196" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J196" t="s">
         <v>76</v>
@@ -12439,14 +12451,14 @@
     </row>
     <row r="197" spans="5:11">
       <c r="E197" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F197" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G197" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J197" t="s">
         <v>76</v>
@@ -12457,14 +12469,14 @@
     </row>
     <row r="198" spans="5:11">
       <c r="E198" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F198" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G198" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J198" t="s">
         <v>76</v>
@@ -12475,14 +12487,14 @@
     </row>
     <row r="199" spans="5:11">
       <c r="E199" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F199" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G199" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="J199" t="s">
         <v>76</v>
@@ -12493,14 +12505,14 @@
     </row>
     <row r="200" spans="5:11">
       <c r="E200" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F200" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G200" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J200" t="s">
         <v>76</v>
@@ -12511,14 +12523,14 @@
     </row>
     <row r="201" spans="5:11">
       <c r="E201" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F201" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G201" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J201" t="s">
         <v>76</v>
@@ -12529,14 +12541,14 @@
     </row>
     <row r="202" spans="5:11">
       <c r="E202" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F202" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G202" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J202" t="s">
         <v>76</v>
@@ -12547,14 +12559,14 @@
     </row>
     <row r="203" spans="5:11">
       <c r="E203" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F203" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G203" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J203" t="s">
         <v>76</v>
@@ -12565,7 +12577,7 @@
     </row>
     <row r="204" spans="5:11">
       <c r="E204" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F204" t="str">
         <f>消息模板!$E$31</f>
@@ -12583,14 +12595,14 @@
     </row>
     <row r="205" spans="5:11">
       <c r="E205" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F205" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G205" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J205" t="s">
         <v>76</v>
@@ -12601,14 +12613,14 @@
     </row>
     <row r="206" spans="5:11">
       <c r="E206" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F206" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G206" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J206" t="s">
         <v>76</v>
@@ -12619,14 +12631,14 @@
     </row>
     <row r="207" spans="5:11">
       <c r="E207" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F207" t="str">
         <f>消息模板!$E$48</f>
         <v>hmsg_message_template-151</v>
       </c>
       <c r="G207" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J207" t="s">
         <v>76</v>
@@ -12637,14 +12649,14 @@
     </row>
     <row r="208" spans="5:11">
       <c r="E208" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F208" t="str">
         <f>消息模板!$E$39</f>
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G208" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J208" t="s">
         <v>76</v>
@@ -12655,14 +12667,14 @@
     </row>
     <row r="209" spans="5:11">
       <c r="E209" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F209" t="str">
         <f>消息模板!$E$39</f>
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G209" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J209" t="s">
         <v>76</v>
@@ -12673,14 +12685,14 @@
     </row>
     <row r="210" spans="5:11">
       <c r="E210" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F210" t="str">
         <f>消息模板!$E$41</f>
         <v>hmsg_message_template-139</v>
       </c>
       <c r="G210" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J210" t="s">
         <v>76</v>
@@ -12691,14 +12703,14 @@
     </row>
     <row r="211" spans="5:11">
       <c r="E211" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F211" t="str">
         <f>E9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G211" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J211">
         <v>0</v>
@@ -12709,14 +12721,14 @@
     </row>
     <row r="212" spans="5:11">
       <c r="E212" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F212" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G212" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J212" t="s">
         <v>76</v>
@@ -12727,14 +12739,14 @@
     </row>
     <row r="213" spans="5:11">
       <c r="E213" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F213" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G213" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J213" t="s">
         <v>76</v>
@@ -12745,14 +12757,14 @@
     </row>
     <row r="214" spans="5:11">
       <c r="E214" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F214" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G214" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J214" t="s">
         <v>76</v>
@@ -12763,14 +12775,14 @@
     </row>
     <row r="215" spans="5:11">
       <c r="E215" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F215" t="str">
         <f>E38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G215" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -12781,14 +12793,14 @@
     </row>
     <row r="216" spans="5:11">
       <c r="E216" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F216" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G216" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J216" t="s">
         <v>76</v>
@@ -12799,14 +12811,14 @@
     </row>
     <row r="217" spans="5:11">
       <c r="E217" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F217" t="str">
         <f>消息模板!$E$40</f>
         <v>hmsg_message_template-138</v>
       </c>
       <c r="G217" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J217" t="s">
         <v>76</v>
@@ -12817,14 +12829,14 @@
     </row>
     <row r="218" spans="5:11">
       <c r="E218" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F218" t="str">
         <f>消息模板!$E$47</f>
         <v>hmsg_message_template-150</v>
       </c>
       <c r="G218" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J218" t="s">
         <v>76</v>
@@ -12835,14 +12847,14 @@
     </row>
     <row r="219" spans="5:11">
       <c r="E219" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F219" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G219" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J219" t="s">
         <v>76</v>
@@ -12853,14 +12865,14 @@
     </row>
     <row r="220" spans="5:11">
       <c r="E220" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F220" t="str">
         <f>消息模板!$E$51</f>
         <v>hmsg_message_template-154</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="J220" t="s">
         <v>76</v>
@@ -12871,14 +12883,14 @@
     </row>
     <row r="221" spans="5:11">
       <c r="E221" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F221" t="str">
         <f>消息模板!$E$51</f>
         <v>hmsg_message_template-154</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J221" t="s">
         <v>76</v>
@@ -12889,14 +12901,14 @@
     </row>
     <row r="222" spans="5:11">
       <c r="E222" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F222" t="str">
         <f>消息模板!$E$52</f>
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="J222" t="s">
         <v>76</v>
@@ -12907,14 +12919,14 @@
     </row>
     <row r="223" spans="5:11">
       <c r="E223" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F223" t="str">
         <f>消息模板!$E$52</f>
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J223" t="s">
         <v>76</v>
@@ -12925,14 +12937,14 @@
     </row>
     <row r="224" spans="5:11">
       <c r="E224" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F224" t="str">
         <f>消息模板!$E$53</f>
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J224" t="s">
         <v>76</v>
@@ -12943,14 +12955,14 @@
     </row>
     <row r="225" spans="5:11">
       <c r="E225" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F225" t="str">
         <f>E54</f>
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G225" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -12961,14 +12973,14 @@
     </row>
     <row r="226" spans="5:11">
       <c r="E226" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F226" t="str">
         <f>E54</f>
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G226" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -12979,14 +12991,14 @@
     </row>
     <row r="227" spans="5:11">
       <c r="E227" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F227" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G227" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -12997,14 +13009,14 @@
     </row>
     <row r="228" spans="5:11">
       <c r="E228" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F228" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G228" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="J228">
         <v>0</v>
@@ -13015,14 +13027,14 @@
     </row>
     <row r="229" spans="5:11">
       <c r="E229" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F229" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G229" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -13033,14 +13045,14 @@
     </row>
     <row r="230" spans="5:11">
       <c r="E230" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F230" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G230" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J230">
         <v>0</v>
@@ -13051,14 +13063,14 @@
     </row>
     <row r="231" spans="5:11">
       <c r="E231" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F231" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G231" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J231">
         <v>0</v>
@@ -13069,14 +13081,14 @@
     </row>
     <row r="232" spans="5:11">
       <c r="E232" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F232" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G232" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J232">
         <v>0</v>
@@ -13087,14 +13099,14 @@
     </row>
     <row r="233" spans="5:11">
       <c r="E233" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F233" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G233" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="J233">
         <v>0</v>
@@ -13105,14 +13117,14 @@
     </row>
     <row r="234" spans="5:11">
       <c r="E234" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F234" t="str">
         <f>E55</f>
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G234" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J234">
         <v>0</v>
@@ -13133,8 +13145,8 @@
   <sheetPr/>
   <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F74" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView topLeftCell="F23" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -13177,7 +13189,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -13189,13 +13201,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>90</v>
@@ -13204,33 +13216,33 @@
         <v>91</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="J7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="N7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="O7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -13239,33 +13251,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="J8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K8" t="s">
         <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="N8" t="s">
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F9" t="s">
         <v>76</v>
@@ -13274,33 +13286,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="I9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K9" t="s">
         <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M9" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N9" t="s">
         <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -13309,33 +13321,33 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I10" t="s">
         <v>226</v>
       </c>
       <c r="J10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K10" t="s">
         <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="N10" t="s">
         <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -13344,33 +13356,33 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="I11" t="s">
         <v>199</v>
       </c>
       <c r="J11" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K11" t="s">
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M11" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="N11" t="s">
         <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -13379,33 +13391,33 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I12" t="s">
         <v>177</v>
       </c>
       <c r="J12" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K12" t="s">
         <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M12" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="N12" t="s">
         <v>75</v>
       </c>
       <c r="O12" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -13414,33 +13426,33 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="I13" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="J13" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K13" t="s">
         <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M13" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N13" t="s">
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -13449,33 +13461,33 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I14" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J14" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K14" t="s">
         <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M14" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N14" t="s">
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -13484,33 +13496,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="I15" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="J15" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K15" t="s">
         <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M15" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N15" t="s">
         <v>75</v>
       </c>
       <c r="O15" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -13519,33 +13531,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I16" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J16" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K16" t="s">
         <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M16" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="N16" t="s">
         <v>75</v>
       </c>
       <c r="O16" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F17" t="s">
         <v>76</v>
@@ -13554,33 +13566,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="I17" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="J17" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K17" t="s">
         <v>75</v>
       </c>
       <c r="L17" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M17" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N17" t="s">
         <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -13589,33 +13601,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I18" t="s">
         <v>241</v>
       </c>
       <c r="J18" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K18" t="s">
         <v>75</v>
       </c>
       <c r="L18" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M18" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N18" t="s">
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
@@ -13624,33 +13636,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="I19" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J19" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K19" t="s">
         <v>75</v>
       </c>
       <c r="L19" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M19" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="N19" t="s">
         <v>75</v>
       </c>
       <c r="O19" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
@@ -13659,33 +13671,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="I20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J20" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K20" t="s">
         <v>75</v>
       </c>
       <c r="L20" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M20" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="N20" t="s">
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F21" t="s">
         <v>76</v>
@@ -13694,33 +13706,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="I21" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="J21" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K21" t="s">
         <v>75</v>
       </c>
       <c r="L21" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M21" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="N21" t="s">
         <v>75</v>
       </c>
       <c r="O21" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F22" t="s">
         <v>76</v>
@@ -13729,33 +13741,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I22" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="J22" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K22" t="s">
         <v>75</v>
       </c>
       <c r="L22" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M22" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N22" t="s">
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F23" t="s">
         <v>76</v>
@@ -13764,33 +13776,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="I23" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="J23" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K23" t="s">
         <v>75</v>
       </c>
       <c r="L23" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="N23" t="s">
         <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F24" t="s">
         <v>76</v>
@@ -13799,33 +13811,33 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="I24" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J24" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M24" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="N24" t="s">
         <v>76</v>
       </c>
       <c r="O24" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F25" t="s">
         <v>76</v>
@@ -13834,33 +13846,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="I25" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="J25" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K25" t="s">
         <v>75</v>
       </c>
       <c r="L25" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="N25" t="s">
         <v>76</v>
       </c>
       <c r="O25" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F26" t="s">
         <v>76</v>
@@ -13869,33 +13881,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="I26" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="J26" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K26" t="s">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M26" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="N26" t="s">
         <v>75</v>
       </c>
       <c r="O26" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F27" t="s">
         <v>76</v>
@@ -13904,33 +13916,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="I27" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="J27" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K27" t="s">
         <v>75</v>
       </c>
       <c r="L27" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M27" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="N27" t="s">
         <v>75</v>
       </c>
       <c r="O27" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F28" t="s">
         <v>76</v>
@@ -13939,33 +13951,33 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="I28" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J28" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K28" t="s">
         <v>75</v>
       </c>
       <c r="L28" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M28" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N28" t="s">
         <v>75</v>
       </c>
       <c r="O28" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="5:15">
       <c r="E29" s="8" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F29" t="s">
         <v>76</v>
@@ -13974,33 +13986,33 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="I29" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J29" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K29" t="s">
         <v>75</v>
       </c>
       <c r="L29" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M29" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="N29" t="s">
         <v>75</v>
       </c>
       <c r="O29" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F30" t="s">
         <v>76</v>
@@ -14009,33 +14021,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="I30" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="J30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K30" t="s">
         <v>75</v>
       </c>
       <c r="L30" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M30" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N30" t="s">
         <v>75</v>
       </c>
       <c r="O30" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F31" t="s">
         <v>76</v>
@@ -14044,33 +14056,33 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="I31" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K31" t="s">
         <v>75</v>
       </c>
       <c r="L31" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M31" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="N31" t="s">
         <v>75</v>
       </c>
       <c r="O31" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -14079,33 +14091,33 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K32" s="9">
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="5:15">
       <c r="E33" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F33" s="10">
         <v>0</v>
@@ -14114,19 +14126,19 @@
         <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K33" s="10">
         <v>1</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>285</v>
@@ -14135,12 +14147,12 @@
         <v>1</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="5:15">
       <c r="E34" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
@@ -14149,19 +14161,19 @@
         <v>0</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K34" s="10">
         <v>1</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>285</v>
@@ -14170,12 +14182,12 @@
         <v>1</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="5:15">
       <c r="E35" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
@@ -14184,19 +14196,19 @@
         <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K35" s="10">
         <v>1</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>285</v>
@@ -14205,12 +14217,12 @@
         <v>1</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="5:15">
       <c r="E36" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F36" s="10">
         <v>0</v>
@@ -14219,19 +14231,19 @@
         <v>0</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K36" s="10">
         <v>1</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>298</v>
@@ -14240,12 +14252,12 @@
         <v>1</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="5:15">
       <c r="E37" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F37" s="10">
         <v>0</v>
@@ -14254,19 +14266,19 @@
         <v>0</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>303</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K37" s="10">
         <v>1</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M37" s="11" t="s">
         <v>305</v>
@@ -14286,31 +14298,31 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>110</v>
       </c>
       <c r="I39" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="J39" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K39" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L39" t="s">
         <v>86</v>
@@ -14321,14 +14333,14 @@
     </row>
     <row r="40" spans="5:13">
       <c r="E40" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F40" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G40" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H40" t="s">
         <v>204</v>
@@ -14349,14 +14361,14 @@
     </row>
     <row r="41" spans="5:13">
       <c r="E41" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F41" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G41" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H41" t="s">
         <v>137</v>
@@ -14377,14 +14389,14 @@
     </row>
     <row r="42" spans="5:13">
       <c r="E42" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F42" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G42" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H42" t="s">
         <v>141</v>
@@ -14398,14 +14410,14 @@
     </row>
     <row r="43" spans="5:13">
       <c r="E43" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F43" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G43" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H43" t="s">
         <v>225</v>
@@ -14419,14 +14431,14 @@
     </row>
     <row r="44" spans="5:13">
       <c r="E44" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F44" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G44" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H44" t="s">
         <v>198</v>
@@ -14447,14 +14459,14 @@
     </row>
     <row r="45" spans="5:13">
       <c r="E45" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G45" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H45" t="s">
         <v>202</v>
@@ -14468,14 +14480,14 @@
     </row>
     <row r="46" spans="5:13">
       <c r="E46" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F46" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G46" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H46" t="s">
         <v>194</v>
@@ -14489,14 +14501,14 @@
     </row>
     <row r="47" spans="5:13">
       <c r="E47" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F47" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G47" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H47" t="s">
         <v>191</v>
@@ -14510,14 +14522,14 @@
     </row>
     <row r="48" spans="5:13">
       <c r="E48" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F48" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G48" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H48" t="s">
         <v>176</v>
@@ -14538,14 +14550,14 @@
     </row>
     <row r="49" spans="5:13">
       <c r="E49" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G49" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H49" t="s">
         <v>180</v>
@@ -14559,14 +14571,14 @@
     </row>
     <row r="50" spans="5:13">
       <c r="E50" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F50" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G50" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H50" t="s">
         <v>172</v>
@@ -14580,14 +14592,14 @@
     </row>
     <row r="51" spans="5:13">
       <c r="E51" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F51" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G51" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H51" t="s">
         <v>168</v>
@@ -14601,14 +14613,14 @@
     </row>
     <row r="52" spans="5:13">
       <c r="E52" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F52" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G52" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H52" t="s">
         <v>189</v>
@@ -14622,14 +14634,14 @@
     </row>
     <row r="53" spans="5:13">
       <c r="E53" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F53" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G53" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H53" t="s">
         <v>185</v>
@@ -14643,14 +14655,14 @@
     </row>
     <row r="54" spans="5:13">
       <c r="E54" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F54" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G54" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H54" t="s">
         <v>182</v>
@@ -14664,14 +14676,14 @@
     </row>
     <row r="55" spans="5:13">
       <c r="E55" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F55" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G55" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H55" t="s">
         <v>166</v>
@@ -14685,14 +14697,14 @@
     </row>
     <row r="56" spans="5:13">
       <c r="E56" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F56" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G56" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H56" t="s">
         <v>162</v>
@@ -14706,14 +14718,14 @@
     </row>
     <row r="57" spans="5:13">
       <c r="E57" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F57" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G57" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H57" t="s">
         <v>158</v>
@@ -14727,14 +14739,14 @@
     </row>
     <row r="58" spans="5:13">
       <c r="E58" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F58" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G58" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H58" t="s">
         <v>223</v>
@@ -14748,14 +14760,14 @@
     </row>
     <row r="59" spans="5:13">
       <c r="E59" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F59" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G59" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H59" t="s">
         <v>220</v>
@@ -14769,14 +14781,14 @@
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G60" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H60" t="s">
         <v>216</v>
@@ -14790,14 +14802,14 @@
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G61" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H61" t="s">
         <v>212</v>
@@ -14811,14 +14823,14 @@
     </row>
     <row r="62" spans="5:13">
       <c r="E62" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F62" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G62" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H62" t="s">
         <v>240</v>
@@ -14839,14 +14851,14 @@
     </row>
     <row r="63" spans="5:13">
       <c r="E63" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F63" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G63" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H63" t="s">
         <v>244</v>
@@ -14860,14 +14872,14 @@
     </row>
     <row r="64" spans="5:13">
       <c r="E64" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F64" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G64" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H64" t="s">
         <v>257</v>
@@ -14881,14 +14893,14 @@
     </row>
     <row r="65" spans="5:13">
       <c r="E65" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F65" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-35</v>
       </c>
       <c r="G65" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H65" t="s">
         <v>208</v>
@@ -14909,17 +14921,17 @@
     </row>
     <row r="66" spans="5:13">
       <c r="E66" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F66" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G66" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H66" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="I66" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -14937,17 +14949,17 @@
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G67" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H67" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="L67" t="s">
         <v>76</v>
@@ -14958,17 +14970,17 @@
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G68" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H68" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="L68" t="s">
         <v>76</v>
@@ -14979,17 +14991,17 @@
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G69" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H69" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L69" t="s">
         <v>76</v>
@@ -15000,14 +15012,14 @@
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F70" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G70" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H70" t="s">
         <v>130</v>
@@ -15028,14 +15040,14 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G71" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H71" t="s">
         <v>134</v>
@@ -15049,14 +15061,14 @@
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G72" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H72" t="s">
         <v>122</v>
@@ -15070,14 +15082,14 @@
     </row>
     <row r="73" spans="5:13">
       <c r="E73" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F73" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G73" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H73" t="s">
         <v>266</v>
@@ -15098,14 +15110,14 @@
     </row>
     <row r="74" spans="5:13">
       <c r="E74" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G74" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H74" t="s">
         <v>270</v>
@@ -15119,14 +15131,14 @@
     </row>
     <row r="75" spans="5:13">
       <c r="E75" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="F75" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G75" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H75" t="s">
         <v>233</v>
@@ -15147,14 +15159,14 @@
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G76" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H76" t="s">
         <v>237</v>
@@ -15168,14 +15180,14 @@
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G77" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H77" t="s">
         <v>229</v>
@@ -15189,14 +15201,14 @@
     </row>
     <row r="78" spans="5:13">
       <c r="E78" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="F78" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G78" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H78" t="s">
         <v>260</v>
@@ -15217,14 +15229,14 @@
     </row>
     <row r="79" spans="5:13">
       <c r="E79" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="F79" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G79" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H79" t="s">
         <v>263</v>
@@ -15238,20 +15250,20 @@
     </row>
     <row r="80" spans="5:13">
       <c r="E80" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F80" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-63</v>
       </c>
       <c r="G80" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H80" t="s">
         <v>148</v>
       </c>
       <c r="L80" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M80" t="s">
         <v>75</v>
@@ -15259,20 +15271,20 @@
     </row>
     <row r="81" spans="5:13">
       <c r="E81" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F81" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G81" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H81" t="s">
         <v>154</v>
       </c>
       <c r="L81" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M81" t="s">
         <v>75</v>
@@ -15280,20 +15292,20 @@
     </row>
     <row r="82" spans="5:13">
       <c r="E82" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F82" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-70</v>
       </c>
       <c r="G82" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H82" t="s">
         <v>273</v>
       </c>
       <c r="L82" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M82" t="s">
         <v>75</v>
@@ -15301,20 +15313,20 @@
     </row>
     <row r="83" spans="5:13">
       <c r="E83" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F83" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G83" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H83" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L83" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M83" t="s">
         <v>75</v>
@@ -15322,14 +15334,14 @@
     </row>
     <row r="84" spans="5:13">
       <c r="E84" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F84" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-66</v>
       </c>
       <c r="G84" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H84" t="s">
         <v>253</v>
@@ -15343,14 +15355,14 @@
     </row>
     <row r="85" spans="5:13">
       <c r="E85" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" ref="F85" si="0">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H85" t="s">
         <v>277</v>
@@ -15364,17 +15376,17 @@
     </row>
     <row r="86" spans="5:13">
       <c r="E86" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" ref="F86:F91" si="1">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G86" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="H86" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -15385,14 +15397,14 @@
     </row>
     <row r="87" spans="5:13">
       <c r="E87" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-97</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>281</v>
@@ -15406,14 +15418,14 @@
     </row>
     <row r="88" spans="5:13">
       <c r="E88" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-98</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>287</v>
@@ -15427,14 +15439,14 @@
     </row>
     <row r="89" spans="5:13">
       <c r="E89" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-99</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>291</v>
@@ -15448,14 +15460,14 @@
     </row>
     <row r="90" spans="5:13">
       <c r="E90" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-100</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>295</v>
@@ -15476,14 +15488,14 @@
     </row>
     <row r="91" spans="5:13">
       <c r="E91" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
         <v>hmsg_template_server-102</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>302</v>
@@ -15504,14 +15516,14 @@
     </row>
     <row r="92" customFormat="1" spans="5:13">
       <c r="E92" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="F92" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G92" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H92" t="s">
         <v>309</v>
@@ -15525,14 +15537,14 @@
     </row>
     <row r="93" customFormat="1" spans="5:13">
       <c r="E93" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F93" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G93" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H93" t="s">
         <v>323</v>
@@ -15546,14 +15558,14 @@
     </row>
     <row r="94" customFormat="1" spans="5:13">
       <c r="E94" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F94" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G94" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H94" t="s">
         <v>317</v>
@@ -15567,14 +15579,14 @@
     </row>
     <row r="95" customFormat="1" spans="5:13">
       <c r="E95" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F95" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G95" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H95" t="s">
         <v>313</v>
@@ -15588,14 +15600,14 @@
     </row>
     <row r="96" customFormat="1" spans="5:13">
       <c r="E96" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F96" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G96" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H96" t="s">
         <v>315</v>
@@ -15609,14 +15621,14 @@
     </row>
     <row r="97" customFormat="1" spans="5:13">
       <c r="E97" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F97" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G97" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H97" t="s">
         <v>311</v>
@@ -15630,14 +15642,14 @@
     </row>
     <row r="98" customFormat="1" spans="5:13">
       <c r="E98" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="F98" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G98" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H98" t="s">
         <v>321</v>
@@ -15651,14 +15663,14 @@
     </row>
     <row r="99" customFormat="1" spans="5:13">
       <c r="E99" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F99" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G99" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H99" t="s">
         <v>319</v>
@@ -15672,14 +15684,14 @@
     </row>
     <row r="100" customFormat="1" spans="5:13">
       <c r="E100" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F100" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G100" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H100" t="s">
         <v>327</v>
@@ -15693,14 +15705,14 @@
     </row>
     <row r="101" customFormat="1" spans="5:13">
       <c r="E101" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F101" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-35</v>
       </c>
       <c r="G101" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H101" t="s">
         <v>329</v>
@@ -15714,17 +15726,17 @@
     </row>
     <row r="102" customFormat="1" spans="5:13">
       <c r="E102" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F102" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G102" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H102" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="L102" t="s">
         <v>76</v>
@@ -15735,14 +15747,14 @@
     </row>
     <row r="103" customFormat="1" spans="5:13">
       <c r="E103" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="F103" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G103" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H103" t="s">
         <v>307</v>
@@ -15756,14 +15768,14 @@
     </row>
     <row r="104" customFormat="1" spans="5:13">
       <c r="E104" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F104" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G104" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H104" t="s">
         <v>333</v>
@@ -15777,14 +15789,14 @@
     </row>
     <row r="105" customFormat="1" spans="5:13">
       <c r="E105" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F105" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G105" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H105" t="s">
         <v>325</v>
@@ -15798,14 +15810,14 @@
     </row>
     <row r="106" customFormat="1" spans="5:13">
       <c r="E106" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F106" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G106" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H106" t="s">
         <v>331</v>
@@ -15819,14 +15831,14 @@
     </row>
     <row r="107" customFormat="1" spans="5:13">
       <c r="E107" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F107" t="str">
         <f>发送配置!$E$32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G107" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H107" t="s">
         <v>335</v>
@@ -15840,14 +15852,14 @@
     </row>
     <row r="108" customFormat="1" spans="5:13">
       <c r="E108" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F108" t="str">
         <f>发送配置!$E$33</f>
         <v>hmsg_template_server-97</v>
       </c>
       <c r="G108" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>337</v>
@@ -15861,17 +15873,17 @@
     </row>
     <row r="109" customFormat="1" spans="5:13">
       <c r="E109" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F109" t="str">
         <f>发送配置!$E$34</f>
         <v>hmsg_template_server-98</v>
       </c>
       <c r="G109" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -15882,17 +15894,17 @@
     </row>
     <row r="110" customFormat="1" spans="5:13">
       <c r="E110" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F110" t="str">
         <f>发送配置!$E$35</f>
         <v>hmsg_template_server-99</v>
       </c>
       <c r="G110" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -15909,30 +15921,30 @@
         <v>51</v>
       </c>
       <c r="C112" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="H112" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F113" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -15943,10 +15955,10 @@
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F114" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -15957,10 +15969,10 @@
     </row>
     <row r="115" spans="5:8">
       <c r="E115" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="F115" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -15971,10 +15983,10 @@
     </row>
     <row r="116" spans="5:8">
       <c r="E116" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F116" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -15985,10 +15997,10 @@
     </row>
     <row r="117" spans="5:8">
       <c r="E117" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F117" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -15999,10 +16011,10 @@
     </row>
     <row r="118" spans="5:8">
       <c r="E118" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F118" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -16013,10 +16025,10 @@
     </row>
     <row r="119" spans="5:8">
       <c r="E119" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F119" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -16027,10 +16039,10 @@
     </row>
     <row r="120" spans="5:8">
       <c r="E120" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F120" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -16041,10 +16053,10 @@
     </row>
     <row r="121" spans="5:8">
       <c r="E121" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="F121" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -16055,10 +16067,10 @@
     </row>
     <row r="122" spans="5:8">
       <c r="E122" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F122" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -16069,10 +16081,10 @@
     </row>
     <row r="123" spans="5:8">
       <c r="E123" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F123" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -16083,10 +16095,10 @@
     </row>
     <row r="124" spans="5:8">
       <c r="E124" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -16097,10 +16109,10 @@
     </row>
     <row r="125" spans="5:8">
       <c r="E125" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F125" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -16111,10 +16123,10 @@
     </row>
     <row r="126" spans="5:8">
       <c r="E126" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F126" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -16125,10 +16137,10 @@
     </row>
     <row r="127" spans="5:8">
       <c r="E127" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F127" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -16139,10 +16151,10 @@
     </row>
     <row r="128" spans="5:8">
       <c r="E128" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F128" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -16153,10 +16165,10 @@
     </row>
     <row r="129" spans="5:8">
       <c r="E129" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F129" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -16167,10 +16179,10 @@
     </row>
     <row r="130" spans="5:8">
       <c r="E130" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F130" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -16181,10 +16193,10 @@
     </row>
     <row r="131" spans="5:8">
       <c r="E131" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F131" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -16195,10 +16207,10 @@
     </row>
     <row r="132" spans="5:8">
       <c r="E132" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F132" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -16209,10 +16221,10 @@
     </row>
     <row r="133" spans="5:8">
       <c r="E133" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F133" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -16223,10 +16235,10 @@
     </row>
     <row r="134" spans="5:8">
       <c r="E134" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="F134" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -16237,10 +16249,10 @@
     </row>
     <row r="135" spans="5:8">
       <c r="E135" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="F135" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G135">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -14,6 +14,7 @@
     <sheet name="发送配置" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">消息模板!$F$1:$F$234</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">发送配置!$G$1:$G$135</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -22,7 +23,6 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">消息模板!$F$1:$F$234</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -5225,7 +5225,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的用户，请及时处理。编号：${instanceId}。&lt;/p&gt;
-&lt;p&gt;&lt;a href="${prefixUrl}#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="${CHOERODON_FRONT_URL}#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-176</t>
@@ -5235,7 +5235,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的项目，请及时处理。编号：${instanceId}。&lt;/p&gt;
-&lt;p&gt;&lt;a href="${prefixUrl}#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="${CHOERODON_FRONT_URL}#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-177</t>
@@ -5245,7 +5245,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您好，平台中存在创建失败的组织，请及时处理。编号：${instanceId}。&lt;/p&gt;
-&lt;p&gt;&lt;a href="${prefixUrl}#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="${CHOERODON_FRONT_URL}#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>消息模板参数</t>
@@ -6181,10 +6181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -6281,11 +6281,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6303,6 +6309,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -6311,22 +6324,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6335,13 +6350,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6359,14 +6367,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6394,16 +6394,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6512,13 +6512,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6536,31 +6548,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6572,13 +6590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6590,7 +6602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6602,13 +6620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6626,13 +6650,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6644,55 +6686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6799,15 +6799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6819,6 +6810,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6899,50 +6899,47 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6951,34 +6948,37 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6987,58 +6987,58 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8117,11 +8117,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I238" sqref="I236:I238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -8156,7 +8156,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="2" hidden="1"/>
+    <row r="3" hidden="1"/>
+    <row r="4" hidden="1" spans="5:7">
       <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
@@ -8167,7 +8169,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="5" hidden="1"/>
+    <row r="6" hidden="1"/>
+    <row r="7" hidden="1" spans="1:18">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -8223,7 +8227,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="5:17">
+    <row r="8" hidden="1" spans="5:17">
       <c r="E8" t="s">
         <v>121</v>
       </c>
@@ -8258,7 +8262,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" ht="409.5" spans="5:17">
+    <row r="9" ht="409.5" hidden="1" spans="5:17">
       <c r="E9" t="s">
         <v>129</v>
       </c>
@@ -8287,7 +8291,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="5:17">
+    <row r="10" hidden="1" spans="5:17">
       <c r="E10" t="s">
         <v>133</v>
       </c>
@@ -8316,7 +8320,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" ht="409.5" spans="5:17">
+    <row r="11" ht="409.5" hidden="1" spans="5:17">
       <c r="E11" t="s">
         <v>136</v>
       </c>
@@ -8345,7 +8349,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="5:17">
+    <row r="12" hidden="1" spans="5:17">
       <c r="E12" t="s">
         <v>140</v>
       </c>
@@ -8374,7 +8378,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="5:17">
+    <row r="13" hidden="1" spans="5:17">
       <c r="E13" t="s">
         <v>143</v>
       </c>
@@ -8409,7 +8413,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="5:17">
+    <row r="14" hidden="1" spans="5:17">
       <c r="E14" t="s">
         <v>147</v>
       </c>
@@ -8444,7 +8448,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="5:17">
+    <row r="15" hidden="1" spans="5:17">
       <c r="E15" t="s">
         <v>153</v>
       </c>
@@ -8479,7 +8483,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="5:17">
+    <row r="16" hidden="1" spans="5:17">
       <c r="E16" t="s">
         <v>157</v>
       </c>
@@ -8514,7 +8518,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="5:17">
+    <row r="17" hidden="1" spans="5:17">
       <c r="E17" t="s">
         <v>161</v>
       </c>
@@ -8543,7 +8547,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="5:17">
+    <row r="18" hidden="1" spans="5:17">
       <c r="E18" t="s">
         <v>165</v>
       </c>
@@ -8572,7 +8576,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="5:17">
+    <row r="19" hidden="1" spans="5:17">
       <c r="E19" t="s">
         <v>167</v>
       </c>
@@ -8607,7 +8611,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="5:17">
+    <row r="20" hidden="1" spans="5:17">
       <c r="E20" t="s">
         <v>171</v>
       </c>
@@ -8636,7 +8640,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" ht="409.5" spans="5:17">
+    <row r="21" ht="409.5" hidden="1" spans="5:17">
       <c r="E21" t="s">
         <v>175</v>
       </c>
@@ -8665,7 +8669,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="5:17">
+    <row r="22" hidden="1" spans="5:17">
       <c r="E22" t="s">
         <v>179</v>
       </c>
@@ -8694,7 +8698,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="5:17">
+    <row r="23" hidden="1" spans="5:17">
       <c r="E23" t="s">
         <v>181</v>
       </c>
@@ -8729,7 +8733,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="5:17">
+    <row r="24" hidden="1" spans="5:17">
       <c r="E24" t="s">
         <v>184</v>
       </c>
@@ -8758,7 +8762,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="5:17">
+    <row r="25" hidden="1" spans="5:17">
       <c r="E25" t="s">
         <v>188</v>
       </c>
@@ -8787,7 +8791,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="5:17">
+    <row r="26" hidden="1" spans="5:17">
       <c r="E26" t="s">
         <v>190</v>
       </c>
@@ -8822,7 +8826,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="5:17">
+    <row r="27" hidden="1" spans="5:17">
       <c r="E27" t="s">
         <v>193</v>
       </c>
@@ -8851,7 +8855,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" ht="409.5" spans="5:17">
+    <row r="28" ht="409.5" hidden="1" spans="5:17">
       <c r="E28" t="s">
         <v>197</v>
       </c>
@@ -8880,7 +8884,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="5:17">
+    <row r="29" hidden="1" spans="5:17">
       <c r="E29" t="s">
         <v>201</v>
       </c>
@@ -8909,7 +8913,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" ht="409.5" spans="5:17">
+    <row r="30" ht="409.5" hidden="1" spans="5:17">
       <c r="E30" t="s">
         <v>203</v>
       </c>
@@ -8938,7 +8942,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" ht="409.5" spans="5:17">
+    <row r="31" ht="409.5" hidden="1" spans="5:17">
       <c r="E31" t="s">
         <v>207</v>
       </c>
@@ -8967,7 +8971,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="5:17">
+    <row r="32" hidden="1" spans="5:17">
       <c r="E32" t="s">
         <v>211</v>
       </c>
@@ -9002,7 +9006,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="5:17">
+    <row r="33" hidden="1" spans="5:17">
       <c r="E33" t="s">
         <v>215</v>
       </c>
@@ -9031,7 +9035,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="5:17">
+    <row r="34" hidden="1" spans="5:17">
       <c r="E34" t="s">
         <v>219</v>
       </c>
@@ -9060,7 +9064,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="5:17">
+    <row r="35" hidden="1" spans="5:17">
       <c r="E35" t="s">
         <v>222</v>
       </c>
@@ -9089,7 +9093,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="5:17">
+    <row r="36" hidden="1" spans="5:17">
       <c r="E36" t="s">
         <v>224</v>
       </c>
@@ -9118,7 +9122,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="5:17">
+    <row r="37" hidden="1" spans="5:17">
       <c r="E37" t="s">
         <v>228</v>
       </c>
@@ -9153,7 +9157,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" ht="409.5" spans="5:17">
+    <row r="38" ht="409.5" hidden="1" spans="5:17">
       <c r="E38" t="s">
         <v>232</v>
       </c>
@@ -9182,7 +9186,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="5:17">
+    <row r="39" hidden="1" spans="5:17">
       <c r="E39" t="s">
         <v>236</v>
       </c>
@@ -9211,7 +9215,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" ht="409.5" spans="5:17">
+    <row r="40" ht="409.5" hidden="1" spans="5:17">
       <c r="E40" t="s">
         <v>239</v>
       </c>
@@ -9240,7 +9244,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="5:17">
+    <row r="41" hidden="1" spans="5:17">
       <c r="E41" t="s">
         <v>243</v>
       </c>
@@ -9269,7 +9273,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="5:17">
+    <row r="42" hidden="1" spans="5:17">
       <c r="E42" t="s">
         <v>247</v>
       </c>
@@ -9298,7 +9302,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="5:17">
+    <row r="43" hidden="1" spans="5:17">
       <c r="E43" t="s">
         <v>252</v>
       </c>
@@ -9327,7 +9331,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="5:17">
+    <row r="44" hidden="1" spans="5:17">
       <c r="E44" t="s">
         <v>256</v>
       </c>
@@ -9356,7 +9360,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" ht="409.5" spans="5:17">
+    <row r="45" ht="409.5" hidden="1" spans="5:17">
       <c r="E45" t="s">
         <v>259</v>
       </c>
@@ -9385,7 +9389,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="5:17">
+    <row r="46" hidden="1" spans="5:17">
       <c r="E46" t="s">
         <v>262</v>
       </c>
@@ -9414,7 +9418,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" ht="409.5" spans="5:17">
+    <row r="47" ht="409.5" hidden="1" spans="5:17">
       <c r="E47" t="s">
         <v>265</v>
       </c>
@@ -9443,7 +9447,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="5:17">
+    <row r="48" hidden="1" spans="5:17">
       <c r="E48" t="s">
         <v>269</v>
       </c>
@@ -9472,7 +9476,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="5:17">
+    <row r="49" hidden="1" spans="5:17">
       <c r="E49" t="s">
         <v>272</v>
       </c>
@@ -9507,7 +9511,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="5:17">
+    <row r="50" hidden="1" spans="5:17">
       <c r="E50" t="s">
         <v>276</v>
       </c>
@@ -9536,7 +9540,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" ht="69.6" spans="5:17">
+    <row r="51" ht="69.6" hidden="1" spans="5:17">
       <c r="E51" t="s">
         <v>280</v>
       </c>
@@ -9571,7 +9575,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" ht="69.6" spans="5:17">
+    <row r="52" ht="69.6" hidden="1" spans="5:17">
       <c r="E52" t="s">
         <v>286</v>
       </c>
@@ -9606,7 +9610,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" ht="69.6" spans="5:17">
+    <row r="53" ht="69.6" hidden="1" spans="5:17">
       <c r="E53" t="s">
         <v>290</v>
       </c>
@@ -9641,7 +9645,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="5:18">
+    <row r="54" hidden="1" spans="5:18">
       <c r="E54" t="s">
         <v>294</v>
       </c>
@@ -9679,7 +9683,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" ht="409.5" spans="5:17">
+    <row r="55" ht="409.5" hidden="1" spans="5:17">
       <c r="E55" t="s">
         <v>301</v>
       </c>
@@ -10149,7 +10153,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" ht="69.6" spans="5:17">
+    <row r="71" ht="87" spans="5:17">
       <c r="E71" t="s">
         <v>336</v>
       </c>
@@ -10184,7 +10188,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" ht="69.6" spans="5:17">
+    <row r="72" ht="87" spans="5:17">
       <c r="E72" t="s">
         <v>339</v>
       </c>
@@ -10219,7 +10223,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" ht="69.6" spans="5:17">
+    <row r="73" ht="87" spans="5:17">
       <c r="E73" t="s">
         <v>342</v>
       </c>
@@ -10254,7 +10258,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="74" hidden="1"/>
+    <row r="75" hidden="1"/>
+    <row r="76" hidden="1" spans="1:11">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -10289,7 +10295,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="5:11">
+    <row r="77" hidden="1" spans="5:11">
       <c r="E77" t="s">
         <v>352</v>
       </c>
@@ -10307,7 +10313,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="5:11">
+    <row r="78" hidden="1" spans="5:11">
       <c r="E78" t="s">
         <v>352</v>
       </c>
@@ -10325,7 +10331,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="5:11">
+    <row r="79" hidden="1" spans="5:11">
       <c r="E79" t="s">
         <v>352</v>
       </c>
@@ -10343,7 +10349,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="5:11">
+    <row r="80" hidden="1" spans="5:11">
       <c r="E80" t="s">
         <v>352</v>
       </c>
@@ -10361,7 +10367,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="5:11">
+    <row r="81" hidden="1" spans="5:11">
       <c r="E81" t="s">
         <v>352</v>
       </c>
@@ -10379,7 +10385,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="5:11">
+    <row r="82" hidden="1" spans="5:11">
       <c r="E82" t="s">
         <v>352</v>
       </c>
@@ -10397,7 +10403,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="5:11">
+    <row r="83" hidden="1" spans="5:11">
       <c r="E83" t="s">
         <v>352</v>
       </c>
@@ -10415,7 +10421,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="5:11">
+    <row r="84" hidden="1" spans="5:11">
       <c r="E84" t="s">
         <v>352</v>
       </c>
@@ -10433,7 +10439,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="5:11">
+    <row r="85" hidden="1" spans="5:11">
       <c r="E85" t="s">
         <v>352</v>
       </c>
@@ -10451,7 +10457,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="5:11">
+    <row r="86" hidden="1" spans="5:11">
       <c r="E86" t="s">
         <v>352</v>
       </c>
@@ -10469,7 +10475,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="5:11">
+    <row r="87" hidden="1" spans="5:11">
       <c r="E87" t="s">
         <v>352</v>
       </c>
@@ -10487,7 +10493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="5:11">
+    <row r="88" hidden="1" spans="5:11">
       <c r="E88" t="s">
         <v>352</v>
       </c>
@@ -10505,7 +10511,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="5:11">
+    <row r="89" hidden="1" spans="5:11">
       <c r="E89" t="s">
         <v>352</v>
       </c>
@@ -10523,7 +10529,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="5:11">
+    <row r="90" hidden="1" spans="5:11">
       <c r="E90" t="s">
         <v>352</v>
       </c>
@@ -10541,7 +10547,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="5:11">
+    <row r="91" hidden="1" spans="5:11">
       <c r="E91" t="s">
         <v>352</v>
       </c>
@@ -10559,7 +10565,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="5:11">
+    <row r="92" hidden="1" spans="5:11">
       <c r="E92" t="s">
         <v>352</v>
       </c>
@@ -10577,7 +10583,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="5:11">
+    <row r="93" hidden="1" spans="5:11">
       <c r="E93" t="s">
         <v>352</v>
       </c>
@@ -10595,7 +10601,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="5:11">
+    <row r="94" hidden="1" spans="5:11">
       <c r="E94" t="s">
         <v>352</v>
       </c>
@@ -10613,7 +10619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="5:11">
+    <row r="95" hidden="1" spans="5:11">
       <c r="E95" t="s">
         <v>352</v>
       </c>
@@ -10631,7 +10637,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="5:11">
+    <row r="96" hidden="1" spans="5:11">
       <c r="E96" t="s">
         <v>352</v>
       </c>
@@ -10649,7 +10655,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="5:11">
+    <row r="97" hidden="1" spans="5:11">
       <c r="E97" t="s">
         <v>352</v>
       </c>
@@ -10667,7 +10673,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="5:11">
+    <row r="98" hidden="1" spans="5:11">
       <c r="E98" t="s">
         <v>352</v>
       </c>
@@ -10685,7 +10691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="5:11">
+    <row r="99" hidden="1" spans="5:11">
       <c r="E99" t="s">
         <v>352</v>
       </c>
@@ -10703,7 +10709,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="5:11">
+    <row r="100" hidden="1" spans="5:11">
       <c r="E100" t="s">
         <v>352</v>
       </c>
@@ -10721,7 +10727,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="5:11">
+    <row r="101" hidden="1" spans="5:11">
       <c r="E101" t="s">
         <v>352</v>
       </c>
@@ -10739,7 +10745,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="5:11">
+    <row r="102" hidden="1" spans="5:11">
       <c r="E102" t="s">
         <v>352</v>
       </c>
@@ -10757,7 +10763,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="5:11">
+    <row r="103" hidden="1" spans="5:11">
       <c r="E103" t="s">
         <v>352</v>
       </c>
@@ -10775,7 +10781,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="5:11">
+    <row r="104" hidden="1" spans="5:11">
       <c r="E104" t="s">
         <v>352</v>
       </c>
@@ -10793,7 +10799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="5:11">
+    <row r="105" hidden="1" spans="5:11">
       <c r="E105" t="s">
         <v>352</v>
       </c>
@@ -10811,7 +10817,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="5:11">
+    <row r="106" hidden="1" spans="5:11">
       <c r="E106" t="s">
         <v>352</v>
       </c>
@@ -10829,7 +10835,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="5:11">
+    <row r="107" hidden="1" spans="5:11">
       <c r="E107" t="s">
         <v>352</v>
       </c>
@@ -10847,7 +10853,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="5:11">
+    <row r="108" hidden="1" spans="5:11">
       <c r="E108" t="s">
         <v>352</v>
       </c>
@@ -10865,7 +10871,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="5:11">
+    <row r="109" hidden="1" spans="5:11">
       <c r="E109" t="s">
         <v>352</v>
       </c>
@@ -10883,7 +10889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="5:11">
+    <row r="110" hidden="1" spans="5:11">
       <c r="E110" t="s">
         <v>352</v>
       </c>
@@ -10901,7 +10907,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="5:11">
+    <row r="111" hidden="1" spans="5:11">
       <c r="E111" t="s">
         <v>352</v>
       </c>
@@ -10919,7 +10925,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="5:11">
+    <row r="112" hidden="1" spans="5:11">
       <c r="E112" t="s">
         <v>352</v>
       </c>
@@ -10937,7 +10943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="5:11">
+    <row r="113" hidden="1" spans="5:11">
       <c r="E113" t="s">
         <v>352</v>
       </c>
@@ -10955,7 +10961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="5:11">
+    <row r="114" hidden="1" spans="5:11">
       <c r="E114" t="s">
         <v>352</v>
       </c>
@@ -10973,7 +10979,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="115" spans="5:11">
+    <row r="115" hidden="1" spans="5:11">
       <c r="E115" t="s">
         <v>352</v>
       </c>
@@ -10991,7 +10997,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="116" spans="5:11">
+    <row r="116" hidden="1" spans="5:11">
       <c r="E116" t="s">
         <v>352</v>
       </c>
@@ -11009,7 +11015,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="5:11">
+    <row r="117" hidden="1" spans="5:11">
       <c r="E117" t="s">
         <v>352</v>
       </c>
@@ -11027,7 +11033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="5:11">
+    <row r="118" hidden="1" spans="5:11">
       <c r="E118" t="s">
         <v>352</v>
       </c>
@@ -11045,7 +11051,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="5:11">
+    <row r="119" hidden="1" spans="5:11">
       <c r="E119" t="s">
         <v>352</v>
       </c>
@@ -11063,7 +11069,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="5:11">
+    <row r="120" hidden="1" spans="5:11">
       <c r="E120" t="s">
         <v>352</v>
       </c>
@@ -11081,7 +11087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="5:11">
+    <row r="121" hidden="1" spans="5:11">
       <c r="E121" t="s">
         <v>352</v>
       </c>
@@ -11099,7 +11105,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="5:11">
+    <row r="122" hidden="1" spans="5:11">
       <c r="E122" t="s">
         <v>352</v>
       </c>
@@ -11117,7 +11123,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="5:11">
+    <row r="123" hidden="1" spans="5:11">
       <c r="E123" t="s">
         <v>352</v>
       </c>
@@ -11135,7 +11141,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="5:11">
+    <row r="124" hidden="1" spans="5:11">
       <c r="E124" t="s">
         <v>352</v>
       </c>
@@ -11153,7 +11159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="5:11">
+    <row r="125" hidden="1" spans="5:11">
       <c r="E125" t="s">
         <v>352</v>
       </c>
@@ -11171,7 +11177,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="126" spans="5:11">
+    <row r="126" hidden="1" spans="5:11">
       <c r="E126" t="s">
         <v>352</v>
       </c>
@@ -11189,7 +11195,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="127" spans="5:11">
+    <row r="127" hidden="1" spans="5:11">
       <c r="E127" t="s">
         <v>352</v>
       </c>
@@ -11207,7 +11213,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="5:11">
+    <row r="128" hidden="1" spans="5:11">
       <c r="E128" t="s">
         <v>352</v>
       </c>
@@ -11225,7 +11231,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="5:11">
+    <row r="129" hidden="1" spans="5:11">
       <c r="E129" t="s">
         <v>352</v>
       </c>
@@ -11243,7 +11249,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="130" spans="5:11">
+    <row r="130" hidden="1" spans="5:11">
       <c r="E130" t="s">
         <v>352</v>
       </c>
@@ -11261,7 +11267,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="131" spans="5:11">
+    <row r="131" hidden="1" spans="5:11">
       <c r="E131" t="s">
         <v>352</v>
       </c>
@@ -11279,7 +11285,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="132" spans="5:11">
+    <row r="132" hidden="1" spans="5:11">
       <c r="E132" t="s">
         <v>352</v>
       </c>
@@ -11297,7 +11303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="133" spans="5:11">
+    <row r="133" hidden="1" spans="5:11">
       <c r="E133" t="s">
         <v>352</v>
       </c>
@@ -11315,7 +11321,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="5:11">
+    <row r="134" hidden="1" spans="5:11">
       <c r="E134" t="s">
         <v>352</v>
       </c>
@@ -11333,7 +11339,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="135" spans="5:11">
+    <row r="135" hidden="1" spans="5:11">
       <c r="E135" t="s">
         <v>352</v>
       </c>
@@ -11351,7 +11357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="5:11">
+    <row r="136" hidden="1" spans="5:11">
       <c r="E136" t="s">
         <v>352</v>
       </c>
@@ -11369,7 +11375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="137" spans="5:11">
+    <row r="137" hidden="1" spans="5:11">
       <c r="E137" t="s">
         <v>352</v>
       </c>
@@ -11387,7 +11393,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="138" spans="5:11">
+    <row r="138" hidden="1" spans="5:11">
       <c r="E138" t="s">
         <v>352</v>
       </c>
@@ -11405,7 +11411,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="139" spans="5:11">
+    <row r="139" hidden="1" spans="5:11">
       <c r="E139" t="s">
         <v>352</v>
       </c>
@@ -11423,7 +11429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="5:11">
+    <row r="140" hidden="1" spans="5:11">
       <c r="E140" t="s">
         <v>352</v>
       </c>
@@ -11441,7 +11447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="141" spans="5:11">
+    <row r="141" hidden="1" spans="5:11">
       <c r="E141" t="s">
         <v>352</v>
       </c>
@@ -11459,7 +11465,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="142" spans="5:11">
+    <row r="142" hidden="1" spans="5:11">
       <c r="E142" t="s">
         <v>352</v>
       </c>
@@ -11477,7 +11483,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="143" spans="5:11">
+    <row r="143" hidden="1" spans="5:11">
       <c r="E143" t="s">
         <v>352</v>
       </c>
@@ -11495,7 +11501,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="5:11">
+    <row r="144" hidden="1" spans="5:11">
       <c r="E144" t="s">
         <v>352</v>
       </c>
@@ -11513,7 +11519,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="5:11">
+    <row r="145" hidden="1" spans="5:11">
       <c r="E145" t="s">
         <v>352</v>
       </c>
@@ -11531,7 +11537,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" spans="5:11">
+    <row r="146" hidden="1" spans="5:11">
       <c r="E146" t="s">
         <v>352</v>
       </c>
@@ -11549,7 +11555,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="5:11">
+    <row r="147" hidden="1" spans="5:11">
       <c r="E147" t="s">
         <v>352</v>
       </c>
@@ -11567,7 +11573,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="5:11">
+    <row r="148" hidden="1" spans="5:11">
       <c r="E148" t="s">
         <v>352</v>
       </c>
@@ -11585,7 +11591,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="149" spans="5:11">
+    <row r="149" hidden="1" spans="5:11">
       <c r="E149" t="s">
         <v>352</v>
       </c>
@@ -11603,7 +11609,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="5:11">
+    <row r="150" hidden="1" spans="5:11">
       <c r="E150" t="s">
         <v>352</v>
       </c>
@@ -11621,7 +11627,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" spans="5:11">
+    <row r="151" hidden="1" spans="5:11">
       <c r="E151" t="s">
         <v>352</v>
       </c>
@@ -11639,7 +11645,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="152" spans="5:11">
+    <row r="152" hidden="1" spans="5:11">
       <c r="E152" t="s">
         <v>352</v>
       </c>
@@ -11657,7 +11663,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="5:11">
+    <row r="153" hidden="1" spans="5:11">
       <c r="E153" t="s">
         <v>352</v>
       </c>
@@ -11675,7 +11681,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="5:11">
+    <row r="154" hidden="1" spans="5:11">
       <c r="E154" t="s">
         <v>352</v>
       </c>
@@ -11693,7 +11699,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="5:11">
+    <row r="155" hidden="1" spans="5:11">
       <c r="E155" t="s">
         <v>352</v>
       </c>
@@ -11711,7 +11717,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="5:11">
+    <row r="156" hidden="1" spans="5:11">
       <c r="E156" t="s">
         <v>352</v>
       </c>
@@ -11729,7 +11735,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="157" spans="5:11">
+    <row r="157" hidden="1" spans="5:11">
       <c r="E157" t="s">
         <v>352</v>
       </c>
@@ -11747,7 +11753,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="158" spans="5:11">
+    <row r="158" hidden="1" spans="5:11">
       <c r="E158" t="s">
         <v>352</v>
       </c>
@@ -11765,7 +11771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="159" spans="5:11">
+    <row r="159" hidden="1" spans="5:11">
       <c r="E159" t="s">
         <v>352</v>
       </c>
@@ -11783,7 +11789,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="5:11">
+    <row r="160" hidden="1" spans="5:11">
       <c r="E160" t="s">
         <v>352</v>
       </c>
@@ -11801,7 +11807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="5:11">
+    <row r="161" hidden="1" spans="5:11">
       <c r="E161" t="s">
         <v>352</v>
       </c>
@@ -11819,7 +11825,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="162" spans="5:11">
+    <row r="162" hidden="1" spans="5:11">
       <c r="E162" t="s">
         <v>352</v>
       </c>
@@ -11837,7 +11843,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="5:11">
+    <row r="163" hidden="1" spans="5:11">
       <c r="E163" t="s">
         <v>352</v>
       </c>
@@ -11855,7 +11861,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="5:11">
+    <row r="164" hidden="1" spans="5:11">
       <c r="E164" t="s">
         <v>352</v>
       </c>
@@ -11873,7 +11879,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="165" spans="5:11">
+    <row r="165" hidden="1" spans="5:11">
       <c r="E165" t="s">
         <v>352</v>
       </c>
@@ -11891,7 +11897,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="5:11">
+    <row r="166" hidden="1" spans="5:11">
       <c r="E166" t="s">
         <v>352</v>
       </c>
@@ -11909,7 +11915,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="167" spans="5:11">
+    <row r="167" hidden="1" spans="5:11">
       <c r="E167" t="s">
         <v>352</v>
       </c>
@@ -11927,7 +11933,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="5:11">
+    <row r="168" hidden="1" spans="5:11">
       <c r="E168" t="s">
         <v>352</v>
       </c>
@@ -11945,7 +11951,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="5:11">
+    <row r="169" hidden="1" spans="5:11">
       <c r="E169" t="s">
         <v>352</v>
       </c>
@@ -11963,7 +11969,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="5:11">
+    <row r="170" hidden="1" spans="5:11">
       <c r="E170" t="s">
         <v>352</v>
       </c>
@@ -11981,7 +11987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="171" spans="5:11">
+    <row r="171" hidden="1" spans="5:11">
       <c r="E171" t="s">
         <v>352</v>
       </c>
@@ -11999,7 +12005,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="172" spans="5:11">
+    <row r="172" hidden="1" spans="5:11">
       <c r="E172" t="s">
         <v>352</v>
       </c>
@@ -12017,7 +12023,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="173" spans="5:11">
+    <row r="173" hidden="1" spans="5:11">
       <c r="E173" t="s">
         <v>352</v>
       </c>
@@ -12035,7 +12041,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="5:11">
+    <row r="174" hidden="1" spans="5:11">
       <c r="E174" t="s">
         <v>352</v>
       </c>
@@ -12053,7 +12059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="5:11">
+    <row r="175" hidden="1" spans="5:11">
       <c r="E175" t="s">
         <v>352</v>
       </c>
@@ -12071,7 +12077,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="5:11">
+    <row r="176" hidden="1" spans="5:11">
       <c r="E176" t="s">
         <v>352</v>
       </c>
@@ -12089,7 +12095,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="5:11">
+    <row r="177" hidden="1" spans="5:11">
       <c r="E177" t="s">
         <v>352</v>
       </c>
@@ -12107,7 +12113,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="5:11">
+    <row r="178" hidden="1" spans="5:11">
       <c r="E178" t="s">
         <v>352</v>
       </c>
@@ -12125,7 +12131,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="5:11">
+    <row r="179" hidden="1" spans="5:11">
       <c r="E179" t="s">
         <v>352</v>
       </c>
@@ -12143,7 +12149,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="180" spans="5:11">
+    <row r="180" hidden="1" spans="5:11">
       <c r="E180" t="s">
         <v>352</v>
       </c>
@@ -12161,7 +12167,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="181" spans="5:11">
+    <row r="181" hidden="1" spans="5:11">
       <c r="E181" t="s">
         <v>352</v>
       </c>
@@ -12179,7 +12185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" spans="5:11">
+    <row r="182" hidden="1" spans="5:11">
       <c r="E182" t="s">
         <v>352</v>
       </c>
@@ -12197,7 +12203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" spans="5:11">
+    <row r="183" hidden="1" spans="5:11">
       <c r="E183" t="s">
         <v>352</v>
       </c>
@@ -12215,7 +12221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" spans="5:11">
+    <row r="184" hidden="1" spans="5:11">
       <c r="E184" t="s">
         <v>352</v>
       </c>
@@ -12233,7 +12239,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="185" spans="5:11">
+    <row r="185" hidden="1" spans="5:11">
       <c r="E185" t="s">
         <v>352</v>
       </c>
@@ -12251,7 +12257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" spans="5:11">
+    <row r="186" hidden="1" spans="5:11">
       <c r="E186" t="s">
         <v>352</v>
       </c>
@@ -12269,7 +12275,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="5:11">
+    <row r="187" hidden="1" spans="5:11">
       <c r="E187" t="s">
         <v>352</v>
       </c>
@@ -12287,7 +12293,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="5:11">
+    <row r="188" hidden="1" spans="5:11">
       <c r="E188" t="s">
         <v>352</v>
       </c>
@@ -12305,7 +12311,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="189" spans="5:11">
+    <row r="189" hidden="1" spans="5:11">
       <c r="E189" t="s">
         <v>352</v>
       </c>
@@ -12323,7 +12329,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="190" spans="5:11">
+    <row r="190" hidden="1" spans="5:11">
       <c r="E190" t="s">
         <v>352</v>
       </c>
@@ -12341,7 +12347,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="5:11">
+    <row r="191" hidden="1" spans="5:11">
       <c r="E191" t="s">
         <v>352</v>
       </c>
@@ -12359,7 +12365,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" spans="5:11">
+    <row r="192" hidden="1" spans="5:11">
       <c r="E192" t="s">
         <v>352</v>
       </c>
@@ -12377,7 +12383,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="193" spans="5:11">
+    <row r="193" hidden="1" spans="5:11">
       <c r="E193" t="s">
         <v>352</v>
       </c>
@@ -12395,7 +12401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="5:11">
+    <row r="194" hidden="1" spans="5:11">
       <c r="E194" t="s">
         <v>352</v>
       </c>
@@ -12413,7 +12419,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="195" spans="5:11">
+    <row r="195" hidden="1" spans="5:11">
       <c r="E195" t="s">
         <v>352</v>
       </c>
@@ -12431,7 +12437,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="196" spans="5:11">
+    <row r="196" hidden="1" spans="5:11">
       <c r="E196" t="s">
         <v>352</v>
       </c>
@@ -12449,7 +12455,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="197" spans="5:11">
+    <row r="197" hidden="1" spans="5:11">
       <c r="E197" t="s">
         <v>352</v>
       </c>
@@ -12467,7 +12473,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="198" spans="5:11">
+    <row r="198" hidden="1" spans="5:11">
       <c r="E198" t="s">
         <v>352</v>
       </c>
@@ -12485,7 +12491,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="5:11">
+    <row r="199" hidden="1" spans="5:11">
       <c r="E199" t="s">
         <v>352</v>
       </c>
@@ -12503,7 +12509,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="200" spans="5:11">
+    <row r="200" hidden="1" spans="5:11">
       <c r="E200" t="s">
         <v>352</v>
       </c>
@@ -12521,7 +12527,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="201" spans="5:11">
+    <row r="201" hidden="1" spans="5:11">
       <c r="E201" t="s">
         <v>352</v>
       </c>
@@ -12539,7 +12545,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="202" spans="5:11">
+    <row r="202" hidden="1" spans="5:11">
       <c r="E202" t="s">
         <v>352</v>
       </c>
@@ -12557,7 +12563,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="203" spans="5:11">
+    <row r="203" hidden="1" spans="5:11">
       <c r="E203" t="s">
         <v>352</v>
       </c>
@@ -12575,7 +12581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="204" spans="5:11">
+    <row r="204" hidden="1" spans="5:11">
       <c r="E204" t="s">
         <v>352</v>
       </c>
@@ -12593,7 +12599,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="5:11">
+    <row r="205" hidden="1" spans="5:11">
       <c r="E205" t="s">
         <v>352</v>
       </c>
@@ -12611,7 +12617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="206" spans="5:11">
+    <row r="206" hidden="1" spans="5:11">
       <c r="E206" t="s">
         <v>352</v>
       </c>
@@ -12629,7 +12635,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="207" spans="5:11">
+    <row r="207" hidden="1" spans="5:11">
       <c r="E207" t="s">
         <v>352</v>
       </c>
@@ -12647,7 +12653,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="208" spans="5:11">
+    <row r="208" hidden="1" spans="5:11">
       <c r="E208" t="s">
         <v>352</v>
       </c>
@@ -12665,7 +12671,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="5:11">
+    <row r="209" hidden="1" spans="5:11">
       <c r="E209" t="s">
         <v>352</v>
       </c>
@@ -12683,7 +12689,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="210" spans="5:11">
+    <row r="210" hidden="1" spans="5:11">
       <c r="E210" t="s">
         <v>352</v>
       </c>
@@ -12701,7 +12707,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="211" spans="5:11">
+    <row r="211" hidden="1" spans="5:11">
       <c r="E211" t="s">
         <v>352</v>
       </c>
@@ -12719,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="5:11">
+    <row r="212" hidden="1" spans="5:11">
       <c r="E212" t="s">
         <v>352</v>
       </c>
@@ -12737,7 +12743,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="213" spans="5:11">
+    <row r="213" hidden="1" spans="5:11">
       <c r="E213" t="s">
         <v>352</v>
       </c>
@@ -12755,7 +12761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="214" spans="5:11">
+    <row r="214" hidden="1" spans="5:11">
       <c r="E214" t="s">
         <v>352</v>
       </c>
@@ -12773,7 +12779,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" spans="5:11">
+    <row r="215" hidden="1" spans="5:11">
       <c r="E215" t="s">
         <v>352</v>
       </c>
@@ -12791,7 +12797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="5:11">
+    <row r="216" hidden="1" spans="5:11">
       <c r="E216" t="s">
         <v>352</v>
       </c>
@@ -12809,7 +12815,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" spans="5:11">
+    <row r="217" hidden="1" spans="5:11">
       <c r="E217" t="s">
         <v>352</v>
       </c>
@@ -12827,7 +12833,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="218" spans="5:11">
+    <row r="218" hidden="1" spans="5:11">
       <c r="E218" t="s">
         <v>352</v>
       </c>
@@ -12845,7 +12851,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="219" spans="5:11">
+    <row r="219" hidden="1" spans="5:11">
       <c r="E219" t="s">
         <v>352</v>
       </c>
@@ -12863,7 +12869,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="220" spans="5:11">
+    <row r="220" hidden="1" spans="5:11">
       <c r="E220" t="s">
         <v>352</v>
       </c>
@@ -12881,7 +12887,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="221" spans="5:11">
+    <row r="221" hidden="1" spans="5:11">
       <c r="E221" t="s">
         <v>352</v>
       </c>
@@ -12899,7 +12905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="5:11">
+    <row r="222" hidden="1" spans="5:11">
       <c r="E222" t="s">
         <v>352</v>
       </c>
@@ -12917,7 +12923,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="223" spans="5:11">
+    <row r="223" hidden="1" spans="5:11">
       <c r="E223" t="s">
         <v>352</v>
       </c>
@@ -12935,7 +12941,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="224" spans="5:11">
+    <row r="224" hidden="1" spans="5:11">
       <c r="E224" t="s">
         <v>352</v>
       </c>
@@ -12953,7 +12959,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="225" spans="5:11">
+    <row r="225" hidden="1" spans="5:11">
       <c r="E225" t="s">
         <v>352</v>
       </c>
@@ -12971,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="5:11">
+    <row r="226" hidden="1" spans="5:11">
       <c r="E226" t="s">
         <v>352</v>
       </c>
@@ -12989,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="5:11">
+    <row r="227" hidden="1" spans="5:11">
       <c r="E227" t="s">
         <v>352</v>
       </c>
@@ -13007,7 +13013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="5:11">
+    <row r="228" hidden="1" spans="5:11">
       <c r="E228" t="s">
         <v>352</v>
       </c>
@@ -13025,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="5:11">
+    <row r="229" hidden="1" spans="5:11">
       <c r="E229" t="s">
         <v>352</v>
       </c>
@@ -13043,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="5:11">
+    <row r="230" hidden="1" spans="5:11">
       <c r="E230" t="s">
         <v>352</v>
       </c>
@@ -13061,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="5:11">
+    <row r="231" hidden="1" spans="5:11">
       <c r="E231" t="s">
         <v>352</v>
       </c>
@@ -13079,7 +13085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="5:11">
+    <row r="232" hidden="1" spans="5:11">
       <c r="E232" t="s">
         <v>352</v>
       </c>
@@ -13097,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="5:11">
+    <row r="233" hidden="1" spans="5:11">
       <c r="E233" t="s">
         <v>352</v>
       </c>
@@ -13115,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="5:11">
+    <row r="234" hidden="1" spans="5:11">
       <c r="E234" t="s">
         <v>352</v>
       </c>
@@ -13134,6 +13140,31 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F234">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="VINDICATOR_ORGANIZATION_FAILED.DT"/>
+        <filter val="ENABLE_ORGANIZATION.DT"/>
+        <filter val="DISABLE_ORGANIZATION.DT"/>
+        <filter val="PROJECT_ADD_USER.DT"/>
+        <filter val="VINDICATOR_USER_FAILED.DT"/>
+        <filter val="JOB_STATUS_ORGANIZATION.DT"/>
+        <filter val="SITE_ADD_USER.DT"/>
+        <filter val="VINDICATOR_PROJECT_FAILED.DT"/>
+        <filter val="RESET_ORGANIZATION_USER_PASSWORD.DT"/>
+        <filter val="ADD_USER.DT"/>
+        <filter val="DISABLE_PROJECT.DT"/>
+        <filter val="JOB_STATUS_SITE.DT"/>
+        <filter val="SITE_ADD_ROOT.DT"/>
+        <filter val="ENABLE_PROJECT.DT"/>
+        <filter val="MODIFY_PASSWORD.DT"/>
+        <filter val="ADD_MEMBER.DT"/>
+        <filter val="SYSTEM_NOTIFICATION.DT"/>
+        <filter val="SAGA_INSTANCE_FAIL.DT"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -14,8 +14,8 @@
     <sheet name="发送配置" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">发送配置!$G$1:$G$135</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">消息模板!$F$1:$F$234</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">发送配置!$G$1:$G$135</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -5225,7 +5225,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的用户，请及时处理。编号：${instanceId}。&lt;/p&gt;
-&lt;p&gt;&lt;a href="${CHOERODON_FRONT_URL}#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;[前往处理](${CHOERODON_FRON_URL}/#/asgard/saga-instance?${orgString})&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-176</t>
@@ -5235,7 +5235,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您好，组织${organizationName}中存在创建失败的项目，请及时处理。编号：${instanceId}。&lt;/p&gt;
-&lt;p&gt;&lt;a href="${CHOERODON_FRONT_URL}#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;[前往处理](${CHOERODON_FRON_URL}/#/asgard/saga-instance?${orgString})&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-177</t>
@@ -5245,7 +5245,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您好，平台中存在创建失败的组织，请及时处理。编号：${instanceId}。&lt;/p&gt;
-&lt;p&gt;&lt;a href="${CHOERODON_FRONT_URL}#/asgard/saga-instance?${orgString}"&gt;前往处理&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;[前往处理](${CHOERODON_FRON_URL}/#/asgard/saga-instance?${orgString})&lt;/p&gt;</t>
   </si>
   <si>
     <t>消息模板参数</t>
@@ -6181,9 +6181,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
@@ -6282,14 +6282,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6309,8 +6309,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6324,71 +6395,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6403,22 +6411,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6512,7 +6512,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6524,7 +6578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6536,13 +6596,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6554,13 +6680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6572,127 +6692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6800,6 +6800,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -6818,22 +6833,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6842,7 +6853,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6879,17 +6890,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -6902,10 +6902,10 @@
     <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6914,131 +6914,131 @@
     <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8117,11 +8117,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:R234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I238" sqref="I236:I238"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -8156,9 +8156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" hidden="1"/>
-    <row r="3" hidden="1"/>
-    <row r="4" hidden="1" spans="5:7">
+    <row r="4" spans="5:7">
       <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
@@ -8169,9 +8167,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" hidden="1"/>
-    <row r="6" hidden="1"/>
-    <row r="7" hidden="1" spans="1:18">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -8227,7 +8223,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="5:17">
+    <row r="8" spans="5:17">
       <c r="E8" t="s">
         <v>121</v>
       </c>
@@ -8262,7 +8258,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" ht="409.5" hidden="1" spans="5:17">
+    <row r="9" ht="409.5" spans="5:17">
       <c r="E9" t="s">
         <v>129</v>
       </c>
@@ -8291,7 +8287,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="5:17">
+    <row r="10" spans="5:17">
       <c r="E10" t="s">
         <v>133</v>
       </c>
@@ -8320,7 +8316,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" ht="409.5" hidden="1" spans="5:17">
+    <row r="11" ht="409.5" spans="5:17">
       <c r="E11" t="s">
         <v>136</v>
       </c>
@@ -8349,7 +8345,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="5:17">
+    <row r="12" spans="5:17">
       <c r="E12" t="s">
         <v>140</v>
       </c>
@@ -8378,7 +8374,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="5:17">
+    <row r="13" spans="5:17">
       <c r="E13" t="s">
         <v>143</v>
       </c>
@@ -8413,7 +8409,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="5:17">
+    <row r="14" spans="5:17">
       <c r="E14" t="s">
         <v>147</v>
       </c>
@@ -8448,7 +8444,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="5:17">
+    <row r="15" spans="5:17">
       <c r="E15" t="s">
         <v>153</v>
       </c>
@@ -8483,7 +8479,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="5:17">
+    <row r="16" spans="5:17">
       <c r="E16" t="s">
         <v>157</v>
       </c>
@@ -8518,7 +8514,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="5:17">
+    <row r="17" spans="5:17">
       <c r="E17" t="s">
         <v>161</v>
       </c>
@@ -8547,7 +8543,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="5:17">
+    <row r="18" spans="5:17">
       <c r="E18" t="s">
         <v>165</v>
       </c>
@@ -8576,7 +8572,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="5:17">
+    <row r="19" spans="5:17">
       <c r="E19" t="s">
         <v>167</v>
       </c>
@@ -8611,7 +8607,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="5:17">
+    <row r="20" spans="5:17">
       <c r="E20" t="s">
         <v>171</v>
       </c>
@@ -8640,7 +8636,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" ht="409.5" hidden="1" spans="5:17">
+    <row r="21" ht="409.5" spans="5:17">
       <c r="E21" t="s">
         <v>175</v>
       </c>
@@ -8669,7 +8665,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="5:17">
+    <row r="22" spans="5:17">
       <c r="E22" t="s">
         <v>179</v>
       </c>
@@ -8698,7 +8694,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="5:17">
+    <row r="23" spans="5:17">
       <c r="E23" t="s">
         <v>181</v>
       </c>
@@ -8733,7 +8729,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="5:17">
+    <row r="24" spans="5:17">
       <c r="E24" t="s">
         <v>184</v>
       </c>
@@ -8762,7 +8758,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="5:17">
+    <row r="25" spans="5:17">
       <c r="E25" t="s">
         <v>188</v>
       </c>
@@ -8791,7 +8787,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="5:17">
+    <row r="26" spans="5:17">
       <c r="E26" t="s">
         <v>190</v>
       </c>
@@ -8826,7 +8822,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="5:17">
+    <row r="27" spans="5:17">
       <c r="E27" t="s">
         <v>193</v>
       </c>
@@ -8855,7 +8851,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" ht="409.5" hidden="1" spans="5:17">
+    <row r="28" ht="409.5" spans="5:17">
       <c r="E28" t="s">
         <v>197</v>
       </c>
@@ -8884,7 +8880,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="5:17">
+    <row r="29" spans="5:17">
       <c r="E29" t="s">
         <v>201</v>
       </c>
@@ -8913,7 +8909,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" ht="409.5" hidden="1" spans="5:17">
+    <row r="30" ht="409.5" spans="5:17">
       <c r="E30" t="s">
         <v>203</v>
       </c>
@@ -8942,7 +8938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" ht="409.5" hidden="1" spans="5:17">
+    <row r="31" ht="409.5" spans="5:17">
       <c r="E31" t="s">
         <v>207</v>
       </c>
@@ -8971,7 +8967,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="5:17">
+    <row r="32" spans="5:17">
       <c r="E32" t="s">
         <v>211</v>
       </c>
@@ -9006,7 +9002,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="5:17">
+    <row r="33" spans="5:17">
       <c r="E33" t="s">
         <v>215</v>
       </c>
@@ -9035,7 +9031,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="5:17">
+    <row r="34" spans="5:17">
       <c r="E34" t="s">
         <v>219</v>
       </c>
@@ -9064,7 +9060,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="5:17">
+    <row r="35" spans="5:17">
       <c r="E35" t="s">
         <v>222</v>
       </c>
@@ -9093,7 +9089,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="5:17">
+    <row r="36" spans="5:17">
       <c r="E36" t="s">
         <v>224</v>
       </c>
@@ -9122,7 +9118,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="5:17">
+    <row r="37" spans="5:17">
       <c r="E37" t="s">
         <v>228</v>
       </c>
@@ -9157,7 +9153,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" ht="409.5" hidden="1" spans="5:17">
+    <row r="38" ht="409.5" spans="5:17">
       <c r="E38" t="s">
         <v>232</v>
       </c>
@@ -9186,7 +9182,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="5:17">
+    <row r="39" spans="5:17">
       <c r="E39" t="s">
         <v>236</v>
       </c>
@@ -9215,7 +9211,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" ht="409.5" hidden="1" spans="5:17">
+    <row r="40" ht="409.5" spans="5:17">
       <c r="E40" t="s">
         <v>239</v>
       </c>
@@ -9244,7 +9240,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="5:17">
+    <row r="41" spans="5:17">
       <c r="E41" t="s">
         <v>243</v>
       </c>
@@ -9273,7 +9269,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="5:17">
+    <row r="42" spans="5:17">
       <c r="E42" t="s">
         <v>247</v>
       </c>
@@ -9302,7 +9298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="5:17">
+    <row r="43" spans="5:17">
       <c r="E43" t="s">
         <v>252</v>
       </c>
@@ -9331,7 +9327,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="5:17">
+    <row r="44" spans="5:17">
       <c r="E44" t="s">
         <v>256</v>
       </c>
@@ -9360,7 +9356,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" ht="409.5" hidden="1" spans="5:17">
+    <row r="45" ht="409.5" spans="5:17">
       <c r="E45" t="s">
         <v>259</v>
       </c>
@@ -9389,7 +9385,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="5:17">
+    <row r="46" spans="5:17">
       <c r="E46" t="s">
         <v>262</v>
       </c>
@@ -9418,7 +9414,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" ht="409.5" hidden="1" spans="5:17">
+    <row r="47" ht="409.5" spans="5:17">
       <c r="E47" t="s">
         <v>265</v>
       </c>
@@ -9447,7 +9443,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="5:17">
+    <row r="48" spans="5:17">
       <c r="E48" t="s">
         <v>269</v>
       </c>
@@ -9476,7 +9472,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="5:17">
+    <row r="49" spans="5:17">
       <c r="E49" t="s">
         <v>272</v>
       </c>
@@ -9511,7 +9507,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="5:17">
+    <row r="50" spans="5:17">
       <c r="E50" t="s">
         <v>276</v>
       </c>
@@ -9540,7 +9536,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" ht="69.6" hidden="1" spans="5:17">
+    <row r="51" ht="69.6" spans="5:17">
       <c r="E51" t="s">
         <v>280</v>
       </c>
@@ -9575,7 +9571,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" ht="69.6" hidden="1" spans="5:17">
+    <row r="52" ht="69.6" spans="5:17">
       <c r="E52" t="s">
         <v>286</v>
       </c>
@@ -9610,7 +9606,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" ht="69.6" hidden="1" spans="5:17">
+    <row r="53" ht="69.6" spans="5:17">
       <c r="E53" t="s">
         <v>290</v>
       </c>
@@ -9645,7 +9641,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="5:18">
+    <row r="54" spans="5:18">
       <c r="E54" t="s">
         <v>294</v>
       </c>
@@ -9683,7 +9679,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" ht="409.5" hidden="1" spans="5:17">
+    <row r="55" ht="409.5" spans="5:17">
       <c r="E55" t="s">
         <v>301</v>
       </c>
@@ -10258,9 +10254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" hidden="1"/>
-    <row r="75" hidden="1"/>
-    <row r="76" hidden="1" spans="1:11">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -10295,7 +10289,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="5:11">
+    <row r="77" spans="5:11">
       <c r="E77" t="s">
         <v>352</v>
       </c>
@@ -10313,7 +10307,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="5:11">
+    <row r="78" spans="5:11">
       <c r="E78" t="s">
         <v>352</v>
       </c>
@@ -10331,7 +10325,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="5:11">
+    <row r="79" spans="5:11">
       <c r="E79" t="s">
         <v>352</v>
       </c>
@@ -10349,7 +10343,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="5:11">
+    <row r="80" spans="5:11">
       <c r="E80" t="s">
         <v>352</v>
       </c>
@@ -10367,7 +10361,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="5:11">
+    <row r="81" spans="5:11">
       <c r="E81" t="s">
         <v>352</v>
       </c>
@@ -10385,7 +10379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="5:11">
+    <row r="82" spans="5:11">
       <c r="E82" t="s">
         <v>352</v>
       </c>
@@ -10403,7 +10397,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="5:11">
+    <row r="83" spans="5:11">
       <c r="E83" t="s">
         <v>352</v>
       </c>
@@ -10421,7 +10415,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="5:11">
+    <row r="84" spans="5:11">
       <c r="E84" t="s">
         <v>352</v>
       </c>
@@ -10439,7 +10433,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="5:11">
+    <row r="85" spans="5:11">
       <c r="E85" t="s">
         <v>352</v>
       </c>
@@ -10457,7 +10451,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="5:11">
+    <row r="86" spans="5:11">
       <c r="E86" t="s">
         <v>352</v>
       </c>
@@ -10475,7 +10469,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="5:11">
+    <row r="87" spans="5:11">
       <c r="E87" t="s">
         <v>352</v>
       </c>
@@ -10493,7 +10487,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="5:11">
+    <row r="88" spans="5:11">
       <c r="E88" t="s">
         <v>352</v>
       </c>
@@ -10511,7 +10505,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="5:11">
+    <row r="89" spans="5:11">
       <c r="E89" t="s">
         <v>352</v>
       </c>
@@ -10529,7 +10523,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="5:11">
+    <row r="90" spans="5:11">
       <c r="E90" t="s">
         <v>352</v>
       </c>
@@ -10547,7 +10541,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="5:11">
+    <row r="91" spans="5:11">
       <c r="E91" t="s">
         <v>352</v>
       </c>
@@ -10565,7 +10559,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="5:11">
+    <row r="92" spans="5:11">
       <c r="E92" t="s">
         <v>352</v>
       </c>
@@ -10583,7 +10577,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="5:11">
+    <row r="93" spans="5:11">
       <c r="E93" t="s">
         <v>352</v>
       </c>
@@ -10601,7 +10595,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="5:11">
+    <row r="94" spans="5:11">
       <c r="E94" t="s">
         <v>352</v>
       </c>
@@ -10619,7 +10613,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="5:11">
+    <row r="95" spans="5:11">
       <c r="E95" t="s">
         <v>352</v>
       </c>
@@ -10637,7 +10631,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="5:11">
+    <row r="96" spans="5:11">
       <c r="E96" t="s">
         <v>352</v>
       </c>
@@ -10655,7 +10649,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="5:11">
+    <row r="97" spans="5:11">
       <c r="E97" t="s">
         <v>352</v>
       </c>
@@ -10673,7 +10667,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="5:11">
+    <row r="98" spans="5:11">
       <c r="E98" t="s">
         <v>352</v>
       </c>
@@ -10691,7 +10685,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="5:11">
+    <row r="99" spans="5:11">
       <c r="E99" t="s">
         <v>352</v>
       </c>
@@ -10709,7 +10703,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="5:11">
+    <row r="100" spans="5:11">
       <c r="E100" t="s">
         <v>352</v>
       </c>
@@ -10727,7 +10721,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="5:11">
+    <row r="101" spans="5:11">
       <c r="E101" t="s">
         <v>352</v>
       </c>
@@ -10745,7 +10739,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="5:11">
+    <row r="102" spans="5:11">
       <c r="E102" t="s">
         <v>352</v>
       </c>
@@ -10763,7 +10757,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="5:11">
+    <row r="103" spans="5:11">
       <c r="E103" t="s">
         <v>352</v>
       </c>
@@ -10781,7 +10775,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="5:11">
+    <row r="104" spans="5:11">
       <c r="E104" t="s">
         <v>352</v>
       </c>
@@ -10799,7 +10793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="5:11">
+    <row r="105" spans="5:11">
       <c r="E105" t="s">
         <v>352</v>
       </c>
@@ -10817,7 +10811,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="5:11">
+    <row r="106" spans="5:11">
       <c r="E106" t="s">
         <v>352</v>
       </c>
@@ -10835,7 +10829,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="5:11">
+    <row r="107" spans="5:11">
       <c r="E107" t="s">
         <v>352</v>
       </c>
@@ -10853,7 +10847,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="5:11">
+    <row r="108" spans="5:11">
       <c r="E108" t="s">
         <v>352</v>
       </c>
@@ -10871,7 +10865,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="5:11">
+    <row r="109" spans="5:11">
       <c r="E109" t="s">
         <v>352</v>
       </c>
@@ -10889,7 +10883,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="5:11">
+    <row r="110" spans="5:11">
       <c r="E110" t="s">
         <v>352</v>
       </c>
@@ -10907,7 +10901,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="5:11">
+    <row r="111" spans="5:11">
       <c r="E111" t="s">
         <v>352</v>
       </c>
@@ -10925,7 +10919,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="5:11">
+    <row r="112" spans="5:11">
       <c r="E112" t="s">
         <v>352</v>
       </c>
@@ -10943,7 +10937,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="5:11">
+    <row r="113" spans="5:11">
       <c r="E113" t="s">
         <v>352</v>
       </c>
@@ -10961,7 +10955,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="5:11">
+    <row r="114" spans="5:11">
       <c r="E114" t="s">
         <v>352</v>
       </c>
@@ -10979,7 +10973,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="5:11">
+    <row r="115" spans="5:11">
       <c r="E115" t="s">
         <v>352</v>
       </c>
@@ -10997,7 +10991,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="5:11">
+    <row r="116" spans="5:11">
       <c r="E116" t="s">
         <v>352</v>
       </c>
@@ -11015,7 +11009,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="5:11">
+    <row r="117" spans="5:11">
       <c r="E117" t="s">
         <v>352</v>
       </c>
@@ -11033,7 +11027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="5:11">
+    <row r="118" spans="5:11">
       <c r="E118" t="s">
         <v>352</v>
       </c>
@@ -11051,7 +11045,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="5:11">
+    <row r="119" spans="5:11">
       <c r="E119" t="s">
         <v>352</v>
       </c>
@@ -11069,7 +11063,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="5:11">
+    <row r="120" spans="5:11">
       <c r="E120" t="s">
         <v>352</v>
       </c>
@@ -11087,7 +11081,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="5:11">
+    <row r="121" spans="5:11">
       <c r="E121" t="s">
         <v>352</v>
       </c>
@@ -11105,7 +11099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="5:11">
+    <row r="122" spans="5:11">
       <c r="E122" t="s">
         <v>352</v>
       </c>
@@ -11123,7 +11117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="5:11">
+    <row r="123" spans="5:11">
       <c r="E123" t="s">
         <v>352</v>
       </c>
@@ -11141,7 +11135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="5:11">
+    <row r="124" spans="5:11">
       <c r="E124" t="s">
         <v>352</v>
       </c>
@@ -11159,7 +11153,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="5:11">
+    <row r="125" spans="5:11">
       <c r="E125" t="s">
         <v>352</v>
       </c>
@@ -11177,7 +11171,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="5:11">
+    <row r="126" spans="5:11">
       <c r="E126" t="s">
         <v>352</v>
       </c>
@@ -11195,7 +11189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="5:11">
+    <row r="127" spans="5:11">
       <c r="E127" t="s">
         <v>352</v>
       </c>
@@ -11213,7 +11207,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="5:11">
+    <row r="128" spans="5:11">
       <c r="E128" t="s">
         <v>352</v>
       </c>
@@ -11231,7 +11225,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="5:11">
+    <row r="129" spans="5:11">
       <c r="E129" t="s">
         <v>352</v>
       </c>
@@ -11249,7 +11243,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="5:11">
+    <row r="130" spans="5:11">
       <c r="E130" t="s">
         <v>352</v>
       </c>
@@ -11267,7 +11261,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="5:11">
+    <row r="131" spans="5:11">
       <c r="E131" t="s">
         <v>352</v>
       </c>
@@ -11285,7 +11279,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="5:11">
+    <row r="132" spans="5:11">
       <c r="E132" t="s">
         <v>352</v>
       </c>
@@ -11303,7 +11297,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="5:11">
+    <row r="133" spans="5:11">
       <c r="E133" t="s">
         <v>352</v>
       </c>
@@ -11321,7 +11315,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="5:11">
+    <row r="134" spans="5:11">
       <c r="E134" t="s">
         <v>352</v>
       </c>
@@ -11339,7 +11333,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="5:11">
+    <row r="135" spans="5:11">
       <c r="E135" t="s">
         <v>352</v>
       </c>
@@ -11357,7 +11351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="5:11">
+    <row r="136" spans="5:11">
       <c r="E136" t="s">
         <v>352</v>
       </c>
@@ -11375,7 +11369,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="5:11">
+    <row r="137" spans="5:11">
       <c r="E137" t="s">
         <v>352</v>
       </c>
@@ -11393,7 +11387,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="5:11">
+    <row r="138" spans="5:11">
       <c r="E138" t="s">
         <v>352</v>
       </c>
@@ -11411,7 +11405,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="5:11">
+    <row r="139" spans="5:11">
       <c r="E139" t="s">
         <v>352</v>
       </c>
@@ -11429,7 +11423,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="5:11">
+    <row r="140" spans="5:11">
       <c r="E140" t="s">
         <v>352</v>
       </c>
@@ -11447,7 +11441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="5:11">
+    <row r="141" spans="5:11">
       <c r="E141" t="s">
         <v>352</v>
       </c>
@@ -11465,7 +11459,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="5:11">
+    <row r="142" spans="5:11">
       <c r="E142" t="s">
         <v>352</v>
       </c>
@@ -11483,7 +11477,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="5:11">
+    <row r="143" spans="5:11">
       <c r="E143" t="s">
         <v>352</v>
       </c>
@@ -11501,7 +11495,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="5:11">
+    <row r="144" spans="5:11">
       <c r="E144" t="s">
         <v>352</v>
       </c>
@@ -11519,7 +11513,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="5:11">
+    <row r="145" spans="5:11">
       <c r="E145" t="s">
         <v>352</v>
       </c>
@@ -11537,7 +11531,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="5:11">
+    <row r="146" spans="5:11">
       <c r="E146" t="s">
         <v>352</v>
       </c>
@@ -11555,7 +11549,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="5:11">
+    <row r="147" spans="5:11">
       <c r="E147" t="s">
         <v>352</v>
       </c>
@@ -11573,7 +11567,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="5:11">
+    <row r="148" spans="5:11">
       <c r="E148" t="s">
         <v>352</v>
       </c>
@@ -11591,7 +11585,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="5:11">
+    <row r="149" spans="5:11">
       <c r="E149" t="s">
         <v>352</v>
       </c>
@@ -11609,7 +11603,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="5:11">
+    <row r="150" spans="5:11">
       <c r="E150" t="s">
         <v>352</v>
       </c>
@@ -11627,7 +11621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="5:11">
+    <row r="151" spans="5:11">
       <c r="E151" t="s">
         <v>352</v>
       </c>
@@ -11645,7 +11639,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="5:11">
+    <row r="152" spans="5:11">
       <c r="E152" t="s">
         <v>352</v>
       </c>
@@ -11663,7 +11657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="5:11">
+    <row r="153" spans="5:11">
       <c r="E153" t="s">
         <v>352</v>
       </c>
@@ -11681,7 +11675,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="5:11">
+    <row r="154" spans="5:11">
       <c r="E154" t="s">
         <v>352</v>
       </c>
@@ -11699,7 +11693,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="5:11">
+    <row r="155" spans="5:11">
       <c r="E155" t="s">
         <v>352</v>
       </c>
@@ -11717,7 +11711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="5:11">
+    <row r="156" spans="5:11">
       <c r="E156" t="s">
         <v>352</v>
       </c>
@@ -11735,7 +11729,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="5:11">
+    <row r="157" spans="5:11">
       <c r="E157" t="s">
         <v>352</v>
       </c>
@@ -11753,7 +11747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="5:11">
+    <row r="158" spans="5:11">
       <c r="E158" t="s">
         <v>352</v>
       </c>
@@ -11771,7 +11765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="5:11">
+    <row r="159" spans="5:11">
       <c r="E159" t="s">
         <v>352</v>
       </c>
@@ -11789,7 +11783,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="5:11">
+    <row r="160" spans="5:11">
       <c r="E160" t="s">
         <v>352</v>
       </c>
@@ -11807,7 +11801,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="5:11">
+    <row r="161" spans="5:11">
       <c r="E161" t="s">
         <v>352</v>
       </c>
@@ -11825,7 +11819,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="5:11">
+    <row r="162" spans="5:11">
       <c r="E162" t="s">
         <v>352</v>
       </c>
@@ -11843,7 +11837,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="5:11">
+    <row r="163" spans="5:11">
       <c r="E163" t="s">
         <v>352</v>
       </c>
@@ -11861,7 +11855,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="5:11">
+    <row r="164" spans="5:11">
       <c r="E164" t="s">
         <v>352</v>
       </c>
@@ -11879,7 +11873,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="5:11">
+    <row r="165" spans="5:11">
       <c r="E165" t="s">
         <v>352</v>
       </c>
@@ -11897,7 +11891,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="5:11">
+    <row r="166" spans="5:11">
       <c r="E166" t="s">
         <v>352</v>
       </c>
@@ -11915,7 +11909,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="5:11">
+    <row r="167" spans="5:11">
       <c r="E167" t="s">
         <v>352</v>
       </c>
@@ -11933,7 +11927,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="5:11">
+    <row r="168" spans="5:11">
       <c r="E168" t="s">
         <v>352</v>
       </c>
@@ -11951,7 +11945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="5:11">
+    <row r="169" spans="5:11">
       <c r="E169" t="s">
         <v>352</v>
       </c>
@@ -11969,7 +11963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="5:11">
+    <row r="170" spans="5:11">
       <c r="E170" t="s">
         <v>352</v>
       </c>
@@ -11987,7 +11981,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="5:11">
+    <row r="171" spans="5:11">
       <c r="E171" t="s">
         <v>352</v>
       </c>
@@ -12005,7 +11999,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="5:11">
+    <row r="172" spans="5:11">
       <c r="E172" t="s">
         <v>352</v>
       </c>
@@ -12023,7 +12017,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="5:11">
+    <row r="173" spans="5:11">
       <c r="E173" t="s">
         <v>352</v>
       </c>
@@ -12041,7 +12035,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="5:11">
+    <row r="174" spans="5:11">
       <c r="E174" t="s">
         <v>352</v>
       </c>
@@ -12059,7 +12053,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="5:11">
+    <row r="175" spans="5:11">
       <c r="E175" t="s">
         <v>352</v>
       </c>
@@ -12077,7 +12071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="5:11">
+    <row r="176" spans="5:11">
       <c r="E176" t="s">
         <v>352</v>
       </c>
@@ -12095,7 +12089,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="5:11">
+    <row r="177" spans="5:11">
       <c r="E177" t="s">
         <v>352</v>
       </c>
@@ -12113,7 +12107,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="5:11">
+    <row r="178" spans="5:11">
       <c r="E178" t="s">
         <v>352</v>
       </c>
@@ -12131,7 +12125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="5:11">
+    <row r="179" spans="5:11">
       <c r="E179" t="s">
         <v>352</v>
       </c>
@@ -12149,7 +12143,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="5:11">
+    <row r="180" spans="5:11">
       <c r="E180" t="s">
         <v>352</v>
       </c>
@@ -12167,7 +12161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="5:11">
+    <row r="181" spans="5:11">
       <c r="E181" t="s">
         <v>352</v>
       </c>
@@ -12185,7 +12179,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="5:11">
+    <row r="182" spans="5:11">
       <c r="E182" t="s">
         <v>352</v>
       </c>
@@ -12203,7 +12197,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="5:11">
+    <row r="183" spans="5:11">
       <c r="E183" t="s">
         <v>352</v>
       </c>
@@ -12221,7 +12215,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="5:11">
+    <row r="184" spans="5:11">
       <c r="E184" t="s">
         <v>352</v>
       </c>
@@ -12239,7 +12233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="5:11">
+    <row r="185" spans="5:11">
       <c r="E185" t="s">
         <v>352</v>
       </c>
@@ -12257,7 +12251,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="5:11">
+    <row r="186" spans="5:11">
       <c r="E186" t="s">
         <v>352</v>
       </c>
@@ -12275,7 +12269,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="5:11">
+    <row r="187" spans="5:11">
       <c r="E187" t="s">
         <v>352</v>
       </c>
@@ -12293,7 +12287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="5:11">
+    <row r="188" spans="5:11">
       <c r="E188" t="s">
         <v>352</v>
       </c>
@@ -12311,7 +12305,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="5:11">
+    <row r="189" spans="5:11">
       <c r="E189" t="s">
         <v>352</v>
       </c>
@@ -12329,7 +12323,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="5:11">
+    <row r="190" spans="5:11">
       <c r="E190" t="s">
         <v>352</v>
       </c>
@@ -12347,7 +12341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="5:11">
+    <row r="191" spans="5:11">
       <c r="E191" t="s">
         <v>352</v>
       </c>
@@ -12365,7 +12359,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="5:11">
+    <row r="192" spans="5:11">
       <c r="E192" t="s">
         <v>352</v>
       </c>
@@ -12383,7 +12377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="5:11">
+    <row r="193" spans="5:11">
       <c r="E193" t="s">
         <v>352</v>
       </c>
@@ -12401,7 +12395,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="5:11">
+    <row r="194" spans="5:11">
       <c r="E194" t="s">
         <v>352</v>
       </c>
@@ -12419,7 +12413,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="5:11">
+    <row r="195" spans="5:11">
       <c r="E195" t="s">
         <v>352</v>
       </c>
@@ -12437,7 +12431,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="5:11">
+    <row r="196" spans="5:11">
       <c r="E196" t="s">
         <v>352</v>
       </c>
@@ -12455,7 +12449,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="5:11">
+    <row r="197" spans="5:11">
       <c r="E197" t="s">
         <v>352</v>
       </c>
@@ -12473,7 +12467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="5:11">
+    <row r="198" spans="5:11">
       <c r="E198" t="s">
         <v>352</v>
       </c>
@@ -12491,7 +12485,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="5:11">
+    <row r="199" spans="5:11">
       <c r="E199" t="s">
         <v>352</v>
       </c>
@@ -12509,7 +12503,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="5:11">
+    <row r="200" spans="5:11">
       <c r="E200" t="s">
         <v>352</v>
       </c>
@@ -12527,7 +12521,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="5:11">
+    <row r="201" spans="5:11">
       <c r="E201" t="s">
         <v>352</v>
       </c>
@@ -12545,7 +12539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="5:11">
+    <row r="202" spans="5:11">
       <c r="E202" t="s">
         <v>352</v>
       </c>
@@ -12563,7 +12557,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="5:11">
+    <row r="203" spans="5:11">
       <c r="E203" t="s">
         <v>352</v>
       </c>
@@ -12581,7 +12575,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="5:11">
+    <row r="204" spans="5:11">
       <c r="E204" t="s">
         <v>352</v>
       </c>
@@ -12599,7 +12593,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="5:11">
+    <row r="205" spans="5:11">
       <c r="E205" t="s">
         <v>352</v>
       </c>
@@ -12617,7 +12611,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="5:11">
+    <row r="206" spans="5:11">
       <c r="E206" t="s">
         <v>352</v>
       </c>
@@ -12635,7 +12629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="5:11">
+    <row r="207" spans="5:11">
       <c r="E207" t="s">
         <v>352</v>
       </c>
@@ -12653,7 +12647,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="5:11">
+    <row r="208" spans="5:11">
       <c r="E208" t="s">
         <v>352</v>
       </c>
@@ -12671,7 +12665,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="5:11">
+    <row r="209" spans="5:11">
       <c r="E209" t="s">
         <v>352</v>
       </c>
@@ -12689,7 +12683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="5:11">
+    <row r="210" spans="5:11">
       <c r="E210" t="s">
         <v>352</v>
       </c>
@@ -12707,7 +12701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="5:11">
+    <row r="211" spans="5:11">
       <c r="E211" t="s">
         <v>352</v>
       </c>
@@ -12725,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="5:11">
+    <row r="212" spans="5:11">
       <c r="E212" t="s">
         <v>352</v>
       </c>
@@ -12743,7 +12737,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="5:11">
+    <row r="213" spans="5:11">
       <c r="E213" t="s">
         <v>352</v>
       </c>
@@ -12761,7 +12755,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="5:11">
+    <row r="214" spans="5:11">
       <c r="E214" t="s">
         <v>352</v>
       </c>
@@ -12779,7 +12773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="5:11">
+    <row r="215" spans="5:11">
       <c r="E215" t="s">
         <v>352</v>
       </c>
@@ -12797,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="5:11">
+    <row r="216" spans="5:11">
       <c r="E216" t="s">
         <v>352</v>
       </c>
@@ -12815,7 +12809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="5:11">
+    <row r="217" spans="5:11">
       <c r="E217" t="s">
         <v>352</v>
       </c>
@@ -12833,7 +12827,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="5:11">
+    <row r="218" spans="5:11">
       <c r="E218" t="s">
         <v>352</v>
       </c>
@@ -12851,7 +12845,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="5:11">
+    <row r="219" spans="5:11">
       <c r="E219" t="s">
         <v>352</v>
       </c>
@@ -12869,7 +12863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="5:11">
+    <row r="220" spans="5:11">
       <c r="E220" t="s">
         <v>352</v>
       </c>
@@ -12887,7 +12881,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="5:11">
+    <row r="221" spans="5:11">
       <c r="E221" t="s">
         <v>352</v>
       </c>
@@ -12905,7 +12899,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="5:11">
+    <row r="222" spans="5:11">
       <c r="E222" t="s">
         <v>352</v>
       </c>
@@ -12923,7 +12917,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="5:11">
+    <row r="223" spans="5:11">
       <c r="E223" t="s">
         <v>352</v>
       </c>
@@ -12941,7 +12935,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="5:11">
+    <row r="224" spans="5:11">
       <c r="E224" t="s">
         <v>352</v>
       </c>
@@ -12959,7 +12953,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="5:11">
+    <row r="225" spans="5:11">
       <c r="E225" t="s">
         <v>352</v>
       </c>
@@ -12977,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="5:11">
+    <row r="226" spans="5:11">
       <c r="E226" t="s">
         <v>352</v>
       </c>
@@ -12995,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="5:11">
+    <row r="227" spans="5:11">
       <c r="E227" t="s">
         <v>352</v>
       </c>
@@ -13013,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="5:11">
+    <row r="228" spans="5:11">
       <c r="E228" t="s">
         <v>352</v>
       </c>
@@ -13031,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="5:11">
+    <row r="229" spans="5:11">
       <c r="E229" t="s">
         <v>352</v>
       </c>
@@ -13049,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="5:11">
+    <row r="230" spans="5:11">
       <c r="E230" t="s">
         <v>352</v>
       </c>
@@ -13067,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="5:11">
+    <row r="231" spans="5:11">
       <c r="E231" t="s">
         <v>352</v>
       </c>
@@ -13085,7 +13079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="5:11">
+    <row r="232" spans="5:11">
       <c r="E232" t="s">
         <v>352</v>
       </c>
@@ -13103,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="5:11">
+    <row r="233" spans="5:11">
       <c r="E233" t="s">
         <v>352</v>
       </c>
@@ -13121,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="5:11">
+    <row r="234" spans="5:11">
       <c r="E234" t="s">
         <v>352</v>
       </c>
@@ -13140,31 +13134,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F234">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="VINDICATOR_ORGANIZATION_FAILED.DT"/>
-        <filter val="ENABLE_ORGANIZATION.DT"/>
-        <filter val="DISABLE_ORGANIZATION.DT"/>
-        <filter val="PROJECT_ADD_USER.DT"/>
-        <filter val="VINDICATOR_USER_FAILED.DT"/>
-        <filter val="JOB_STATUS_ORGANIZATION.DT"/>
-        <filter val="SITE_ADD_USER.DT"/>
-        <filter val="VINDICATOR_PROJECT_FAILED.DT"/>
-        <filter val="RESET_ORGANIZATION_USER_PASSWORD.DT"/>
-        <filter val="ADD_USER.DT"/>
-        <filter val="DISABLE_PROJECT.DT"/>
-        <filter val="JOB_STATUS_SITE.DT"/>
-        <filter val="SITE_ADD_ROOT.DT"/>
-        <filter val="ENABLE_PROJECT.DT"/>
-        <filter val="MODIFY_PASSWORD.DT"/>
-        <filter val="ADD_MEMBER.DT"/>
-        <filter val="SYSTEM_NOTIFICATION.DT"/>
-        <filter val="SAGA_INSTANCE_FAIL.DT"/>
-      </filters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/choerodon-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22068" windowHeight="10020" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">发送配置!$G$1:$G$135</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">消息模板!$F$1:$F$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">消息模板!$F$1:$F$235</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="641">
   <si>
     <r>
       <rPr>
@@ -3607,6 +3607,7 @@
                         &lt;div style="margin: 0px 10px;border-bottom: 1px solid #D9E6F2"&gt;
                             &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;亲爱的${userName}，您好！&lt;/p&gt;
                             &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;${inviteBy}邀请您加入项目：&amp;nbsp;${project} &amp;nbsp;。请点击以下按钮接受邀请并加入。&lt;/p&gt;
+       &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;请注意，邀请链接将在${expiredDate}失效，请在失效日期前完善信息。&lt;/p&gt;
                             &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 212px;margin:0 auto;cursor:auto;margin-top: 15px;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;完善信息并加入&lt;/a&gt; &lt;/p&gt;
                             &lt;p style="text-align: justify; margin-bottom: 0; line-height: 24px; font-size: 14px;color: #0F1358"&gt;如果按钮无法点击，请点击或复制以下链接到浏览器地址栏打开。&lt;/p&gt;
                             &lt;p style="text-align: justify; margin-bottom: 0; line-height: 14px; font-size: 14px"&gt;${link}&lt;/p&gt;
@@ -5377,6 +5378,9 @@
     <t>link</t>
   </si>
   <si>
+    <t>expiredDate</t>
+  </si>
+  <si>
     <t>roleName</t>
   </si>
   <si>
@@ -6282,14 +6286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6302,26 +6299,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6332,9 +6321,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6357,21 +6354,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -6387,16 +6382,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6404,16 +6399,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6512,25 +6516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6548,7 +6534,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6560,31 +6576,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6596,19 +6636,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6620,61 +6660,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6692,7 +6690,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6814,6 +6818,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6825,50 +6838,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6896,149 +6865,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8118,10 +8122,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R234"/>
+  <dimension ref="A1:R235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="D204" sqref="$A204:$XFD204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -12580,17 +12584,17 @@
         <v>352</v>
       </c>
       <c r="F204" t="str">
-        <f>消息模板!$E$31</f>
+        <f>E31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G204" t="s">
-        <v>151</v>
-      </c>
-      <c r="J204" t="s">
-        <v>76</v>
-      </c>
-      <c r="K204" t="s">
-        <v>76</v>
+        <v>388</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="5:11">
@@ -12598,11 +12602,11 @@
         <v>352</v>
       </c>
       <c r="F205" t="str">
-        <f>消息模板!$E$10</f>
-        <v>hmsg_message_template-11</v>
+        <f>消息模板!$E$31</f>
+        <v>hmsg_message_template-86</v>
       </c>
       <c r="G205" t="s">
-        <v>371</v>
+        <v>151</v>
       </c>
       <c r="J205" t="s">
         <v>76</v>
@@ -12620,7 +12624,7 @@
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G206" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="J206" t="s">
         <v>76</v>
@@ -12634,11 +12638,11 @@
         <v>352</v>
       </c>
       <c r="F207" t="str">
-        <f>消息模板!$E$48</f>
-        <v>hmsg_message_template-151</v>
+        <f>消息模板!$E$10</f>
+        <v>hmsg_message_template-11</v>
       </c>
       <c r="G207" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J207" t="s">
         <v>76</v>
@@ -12652,11 +12656,11 @@
         <v>352</v>
       </c>
       <c r="F208" t="str">
-        <f>消息模板!$E$39</f>
-        <v>hmsg_message_template-130</v>
+        <f>消息模板!$E$48</f>
+        <v>hmsg_message_template-151</v>
       </c>
       <c r="G208" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="J208" t="s">
         <v>76</v>
@@ -12674,7 +12678,7 @@
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G209" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="J209" t="s">
         <v>76</v>
@@ -12688,8 +12692,8 @@
         <v>352</v>
       </c>
       <c r="F210" t="str">
-        <f>消息模板!$E$41</f>
-        <v>hmsg_message_template-139</v>
+        <f>消息模板!$E$39</f>
+        <v>hmsg_message_template-130</v>
       </c>
       <c r="G210" t="s">
         <v>389</v>
@@ -12706,17 +12710,17 @@
         <v>352</v>
       </c>
       <c r="F211" t="str">
-        <f>E9</f>
-        <v>hmsg_message_template-10</v>
+        <f>消息模板!$E$41</f>
+        <v>hmsg_message_template-139</v>
       </c>
       <c r="G211" t="s">
         <v>390</v>
       </c>
-      <c r="J211">
-        <v>0</v>
-      </c>
-      <c r="K211">
-        <v>0</v>
+      <c r="J211" t="s">
+        <v>76</v>
+      </c>
+      <c r="K211" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="212" spans="5:11">
@@ -12724,17 +12728,17 @@
         <v>352</v>
       </c>
       <c r="F212" t="str">
-        <f>消息模板!$E$9</f>
+        <f>E9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G212" t="s">
-        <v>371</v>
-      </c>
-      <c r="J212" t="s">
-        <v>76</v>
-      </c>
-      <c r="K212" t="s">
-        <v>76</v>
+        <v>391</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="5:11">
@@ -12746,7 +12750,7 @@
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G213" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="J213" t="s">
         <v>76</v>
@@ -12760,11 +12764,11 @@
         <v>352</v>
       </c>
       <c r="F214" t="str">
-        <f>消息模板!$E$38</f>
-        <v>hmsg_message_template-129</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-10</v>
       </c>
       <c r="G214" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="J214" t="s">
         <v>76</v>
@@ -12778,17 +12782,17 @@
         <v>352</v>
       </c>
       <c r="F215" t="str">
-        <f>E38</f>
+        <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G215" t="s">
-        <v>390</v>
-      </c>
-      <c r="J215">
-        <v>0</v>
-      </c>
-      <c r="K215">
-        <v>0</v>
+        <v>370</v>
+      </c>
+      <c r="J215" t="s">
+        <v>76</v>
+      </c>
+      <c r="K215" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="216" spans="5:11">
@@ -12796,17 +12800,17 @@
         <v>352</v>
       </c>
       <c r="F216" t="str">
-        <f>消息模板!$E$38</f>
+        <f>E38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G216" t="s">
-        <v>388</v>
-      </c>
-      <c r="J216" t="s">
-        <v>76</v>
-      </c>
-      <c r="K216" t="s">
-        <v>76</v>
+        <v>391</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="5:11">
@@ -12814,8 +12818,8 @@
         <v>352</v>
       </c>
       <c r="F217" t="str">
-        <f>消息模板!$E$40</f>
-        <v>hmsg_message_template-138</v>
+        <f>消息模板!$E$38</f>
+        <v>hmsg_message_template-129</v>
       </c>
       <c r="G217" t="s">
         <v>389</v>
@@ -12832,11 +12836,11 @@
         <v>352</v>
       </c>
       <c r="F218" t="str">
-        <f>消息模板!$E$47</f>
-        <v>hmsg_message_template-150</v>
+        <f>消息模板!$E$40</f>
+        <v>hmsg_message_template-138</v>
       </c>
       <c r="G218" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J218" t="s">
         <v>76</v>
@@ -12850,11 +12854,11 @@
         <v>352</v>
       </c>
       <c r="F219" t="str">
-        <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-12</v>
+        <f>消息模板!$E$47</f>
+        <v>hmsg_message_template-150</v>
       </c>
       <c r="G219" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="J219" t="s">
         <v>76</v>
@@ -12868,11 +12872,11 @@
         <v>352</v>
       </c>
       <c r="F220" t="str">
-        <f>消息模板!$E$51</f>
-        <v>hmsg_message_template-154</v>
-      </c>
-      <c r="G220" s="7" t="s">
-        <v>391</v>
+        <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-12</v>
+      </c>
+      <c r="G220" t="s">
+        <v>353</v>
       </c>
       <c r="J220" t="s">
         <v>76</v>
@@ -12904,11 +12908,11 @@
         <v>352</v>
       </c>
       <c r="F222" t="str">
-        <f>消息模板!$E$52</f>
-        <v>hmsg_message_template-155</v>
+        <f>消息模板!$E$51</f>
+        <v>hmsg_message_template-154</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J222" t="s">
         <v>76</v>
@@ -12940,11 +12944,11 @@
         <v>352</v>
       </c>
       <c r="F224" t="str">
-        <f>消息模板!$E$53</f>
-        <v>hmsg_message_template-156</v>
+        <f>消息模板!$E$52</f>
+        <v>hmsg_message_template-155</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J224" t="s">
         <v>76</v>
@@ -12958,17 +12962,17 @@
         <v>352</v>
       </c>
       <c r="F225" t="str">
-        <f>E54</f>
-        <v>hmsg_message_template-157</v>
-      </c>
-      <c r="G225" t="s">
-        <v>362</v>
-      </c>
-      <c r="J225">
-        <v>0</v>
-      </c>
-      <c r="K225">
-        <v>0</v>
+        <f>消息模板!$E$53</f>
+        <v>hmsg_message_template-156</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="J225" t="s">
+        <v>76</v>
+      </c>
+      <c r="K225" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="226" spans="5:11">
@@ -12980,7 +12984,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G226" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -12994,8 +12998,8 @@
         <v>352</v>
       </c>
       <c r="F227" t="str">
-        <f>E55</f>
-        <v>hmsg_message_template-159</v>
+        <f>E54</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G227" t="s">
         <v>394</v>
@@ -13052,7 +13056,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G230" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="J230">
         <v>0</v>
@@ -13070,7 +13074,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G231" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="J231">
         <v>0</v>
@@ -13088,7 +13092,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G232" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="J232">
         <v>0</v>
@@ -13106,7 +13110,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G233" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="J233">
         <v>0</v>
@@ -13130,6 +13134,24 @@
         <v>0</v>
       </c>
       <c r="K234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="5:11">
+      <c r="E235" t="s">
+        <v>352</v>
+      </c>
+      <c r="F235" t="str">
+        <f>E55</f>
+        <v>hmsg_message_template-159</v>
+      </c>
+      <c r="G235" t="s">
+        <v>400</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
         <v>0</v>
       </c>
     </row>
@@ -13189,7 +13211,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -13201,13 +13223,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>90</v>
@@ -13216,33 +13238,33 @@
         <v>91</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -13251,33 +13273,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K8" t="s">
         <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N8" t="s">
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F9" t="s">
         <v>76</v>
@@ -13286,33 +13308,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K9" t="s">
         <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N9" t="s">
         <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -13321,33 +13343,33 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I10" t="s">
         <v>226</v>
       </c>
       <c r="J10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K10" t="s">
         <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N10" t="s">
         <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -13356,33 +13378,33 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I11" t="s">
         <v>199</v>
       </c>
       <c r="J11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K11" t="s">
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N11" t="s">
         <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -13391,33 +13413,33 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I12" t="s">
         <v>177</v>
       </c>
       <c r="J12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K12" t="s">
         <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N12" t="s">
         <v>75</v>
       </c>
       <c r="O12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -13426,33 +13448,33 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K13" t="s">
         <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N13" t="s">
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -13461,33 +13483,33 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K14" t="s">
         <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N14" t="s">
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -13496,33 +13518,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K15" t="s">
         <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N15" t="s">
         <v>75</v>
       </c>
       <c r="O15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -13531,33 +13553,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I16" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K16" t="s">
         <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N16" t="s">
         <v>75</v>
       </c>
       <c r="O16" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F17" t="s">
         <v>76</v>
@@ -13566,33 +13588,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I17" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K17" t="s">
         <v>75</v>
       </c>
       <c r="L17" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M17" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N17" t="s">
         <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -13601,33 +13623,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I18" t="s">
         <v>241</v>
       </c>
       <c r="J18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K18" t="s">
         <v>75</v>
       </c>
       <c r="L18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N18" t="s">
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
@@ -13636,33 +13658,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I19" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K19" t="s">
         <v>75</v>
       </c>
       <c r="L19" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M19" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N19" t="s">
         <v>75</v>
       </c>
       <c r="O19" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
@@ -13671,33 +13693,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K20" t="s">
         <v>75</v>
       </c>
       <c r="L20" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M20" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N20" t="s">
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F21" t="s">
         <v>76</v>
@@ -13706,33 +13728,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K21" t="s">
         <v>75</v>
       </c>
       <c r="L21" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N21" t="s">
         <v>75</v>
       </c>
       <c r="O21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F22" t="s">
         <v>76</v>
@@ -13741,33 +13763,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I22" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J22" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K22" t="s">
         <v>75</v>
       </c>
       <c r="L22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M22" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N22" t="s">
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F23" t="s">
         <v>76</v>
@@ -13776,33 +13798,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I23" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J23" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K23" t="s">
         <v>75</v>
       </c>
       <c r="L23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N23" t="s">
         <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F24" t="s">
         <v>76</v>
@@ -13811,33 +13833,33 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M24" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N24" t="s">
         <v>76</v>
       </c>
       <c r="O24" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F25" t="s">
         <v>76</v>
@@ -13846,33 +13868,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I25" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K25" t="s">
         <v>75</v>
       </c>
       <c r="L25" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N25" t="s">
         <v>76</v>
       </c>
       <c r="O25" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F26" t="s">
         <v>76</v>
@@ -13881,33 +13903,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K26" t="s">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M26" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N26" t="s">
         <v>75</v>
       </c>
       <c r="O26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F27" t="s">
         <v>76</v>
@@ -13916,33 +13938,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K27" t="s">
         <v>75</v>
       </c>
       <c r="L27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N27" t="s">
         <v>75</v>
       </c>
       <c r="O27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F28" t="s">
         <v>76</v>
@@ -13951,33 +13973,33 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I28" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K28" t="s">
         <v>75</v>
       </c>
       <c r="L28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M28" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N28" t="s">
         <v>75</v>
       </c>
       <c r="O28" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="5:15">
       <c r="E29" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F29" t="s">
         <v>76</v>
@@ -13986,33 +14008,33 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I29" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J29" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K29" t="s">
         <v>75</v>
       </c>
       <c r="L29" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M29" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N29" t="s">
         <v>75</v>
       </c>
       <c r="O29" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F30" t="s">
         <v>76</v>
@@ -14021,33 +14043,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I30" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J30" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K30" t="s">
         <v>75</v>
       </c>
       <c r="L30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N30" t="s">
         <v>75</v>
       </c>
       <c r="O30" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F31" t="s">
         <v>76</v>
@@ -14056,33 +14078,33 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I31" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K31" t="s">
         <v>75</v>
       </c>
       <c r="L31" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M31" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N31" t="s">
         <v>75</v>
       </c>
       <c r="O31" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -14091,33 +14113,33 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K32" s="9">
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="5:15">
       <c r="E33" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F33" s="10">
         <v>0</v>
@@ -14126,19 +14148,19 @@
         <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K33" s="10">
         <v>1</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>285</v>
@@ -14147,12 +14169,12 @@
         <v>1</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="5:15">
       <c r="E34" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
@@ -14161,19 +14183,19 @@
         <v>0</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K34" s="10">
         <v>1</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>285</v>
@@ -14182,12 +14204,12 @@
         <v>1</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="5:15">
       <c r="E35" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
@@ -14196,19 +14218,19 @@
         <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K35" s="10">
         <v>1</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>285</v>
@@ -14217,12 +14239,12 @@
         <v>1</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="5:15">
       <c r="E36" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F36" s="10">
         <v>0</v>
@@ -14231,19 +14253,19 @@
         <v>0</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K36" s="10">
         <v>1</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>298</v>
@@ -14252,12 +14274,12 @@
         <v>1</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="5:15">
       <c r="E37" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F37" s="10">
         <v>0</v>
@@ -14266,19 +14288,19 @@
         <v>0</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>303</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K37" s="10">
         <v>1</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M37" s="11" t="s">
         <v>305</v>
@@ -14298,31 +14320,31 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>110</v>
       </c>
       <c r="I39" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J39" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K39" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L39" t="s">
         <v>86</v>
@@ -14333,14 +14355,14 @@
     </row>
     <row r="40" spans="5:13">
       <c r="E40" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F40" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G40" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H40" t="s">
         <v>204</v>
@@ -14361,14 +14383,14 @@
     </row>
     <row r="41" spans="5:13">
       <c r="E41" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F41" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G41" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H41" t="s">
         <v>137</v>
@@ -14389,14 +14411,14 @@
     </row>
     <row r="42" spans="5:13">
       <c r="E42" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F42" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G42" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H42" t="s">
         <v>141</v>
@@ -14410,14 +14432,14 @@
     </row>
     <row r="43" spans="5:13">
       <c r="E43" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F43" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G43" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H43" t="s">
         <v>225</v>
@@ -14431,14 +14453,14 @@
     </row>
     <row r="44" spans="5:13">
       <c r="E44" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F44" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G44" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H44" t="s">
         <v>198</v>
@@ -14459,14 +14481,14 @@
     </row>
     <row r="45" spans="5:13">
       <c r="E45" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G45" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H45" t="s">
         <v>202</v>
@@ -14480,14 +14502,14 @@
     </row>
     <row r="46" spans="5:13">
       <c r="E46" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F46" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G46" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H46" t="s">
         <v>194</v>
@@ -14501,14 +14523,14 @@
     </row>
     <row r="47" spans="5:13">
       <c r="E47" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F47" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G47" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H47" t="s">
         <v>191</v>
@@ -14522,14 +14544,14 @@
     </row>
     <row r="48" spans="5:13">
       <c r="E48" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F48" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G48" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H48" t="s">
         <v>176</v>
@@ -14550,14 +14572,14 @@
     </row>
     <row r="49" spans="5:13">
       <c r="E49" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G49" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H49" t="s">
         <v>180</v>
@@ -14571,14 +14593,14 @@
     </row>
     <row r="50" spans="5:13">
       <c r="E50" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F50" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G50" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H50" t="s">
         <v>172</v>
@@ -14592,14 +14614,14 @@
     </row>
     <row r="51" spans="5:13">
       <c r="E51" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F51" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G51" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H51" t="s">
         <v>168</v>
@@ -14613,14 +14635,14 @@
     </row>
     <row r="52" spans="5:13">
       <c r="E52" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F52" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G52" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H52" t="s">
         <v>189</v>
@@ -14634,14 +14656,14 @@
     </row>
     <row r="53" spans="5:13">
       <c r="E53" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F53" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G53" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H53" t="s">
         <v>185</v>
@@ -14655,14 +14677,14 @@
     </row>
     <row r="54" spans="5:13">
       <c r="E54" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F54" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G54" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H54" t="s">
         <v>182</v>
@@ -14676,14 +14698,14 @@
     </row>
     <row r="55" spans="5:13">
       <c r="E55" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F55" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G55" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H55" t="s">
         <v>166</v>
@@ -14697,14 +14719,14 @@
     </row>
     <row r="56" spans="5:13">
       <c r="E56" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F56" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G56" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H56" t="s">
         <v>162</v>
@@ -14718,14 +14740,14 @@
     </row>
     <row r="57" spans="5:13">
       <c r="E57" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F57" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G57" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H57" t="s">
         <v>158</v>
@@ -14739,14 +14761,14 @@
     </row>
     <row r="58" spans="5:13">
       <c r="E58" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F58" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G58" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H58" t="s">
         <v>223</v>
@@ -14760,14 +14782,14 @@
     </row>
     <row r="59" spans="5:13">
       <c r="E59" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F59" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G59" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H59" t="s">
         <v>220</v>
@@ -14781,14 +14803,14 @@
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G60" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H60" t="s">
         <v>216</v>
@@ -14802,14 +14824,14 @@
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G61" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H61" t="s">
         <v>212</v>
@@ -14823,14 +14845,14 @@
     </row>
     <row r="62" spans="5:13">
       <c r="E62" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F62" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G62" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H62" t="s">
         <v>240</v>
@@ -14851,14 +14873,14 @@
     </row>
     <row r="63" spans="5:13">
       <c r="E63" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F63" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G63" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H63" t="s">
         <v>244</v>
@@ -14872,14 +14894,14 @@
     </row>
     <row r="64" spans="5:13">
       <c r="E64" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F64" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G64" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H64" t="s">
         <v>257</v>
@@ -14893,14 +14915,14 @@
     </row>
     <row r="65" spans="5:13">
       <c r="E65" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F65" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-35</v>
       </c>
       <c r="G65" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H65" t="s">
         <v>208</v>
@@ -14921,17 +14943,17 @@
     </row>
     <row r="66" spans="5:13">
       <c r="E66" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F66" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G66" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H66" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I66" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -14949,17 +14971,17 @@
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G67" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H67" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L67" t="s">
         <v>76</v>
@@ -14970,17 +14992,17 @@
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G68" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H68" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L68" t="s">
         <v>76</v>
@@ -14991,17 +15013,17 @@
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G69" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H69" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L69" t="s">
         <v>76</v>
@@ -15012,14 +15034,14 @@
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F70" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G70" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H70" t="s">
         <v>130</v>
@@ -15040,14 +15062,14 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G71" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H71" t="s">
         <v>134</v>
@@ -15061,14 +15083,14 @@
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G72" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H72" t="s">
         <v>122</v>
@@ -15082,14 +15104,14 @@
     </row>
     <row r="73" spans="5:13">
       <c r="E73" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F73" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G73" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H73" t="s">
         <v>266</v>
@@ -15110,14 +15132,14 @@
     </row>
     <row r="74" spans="5:13">
       <c r="E74" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G74" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H74" t="s">
         <v>270</v>
@@ -15131,14 +15153,14 @@
     </row>
     <row r="75" spans="5:13">
       <c r="E75" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F75" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G75" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H75" t="s">
         <v>233</v>
@@ -15159,14 +15181,14 @@
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G76" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H76" t="s">
         <v>237</v>
@@ -15180,14 +15202,14 @@
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G77" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H77" t="s">
         <v>229</v>
@@ -15201,14 +15223,14 @@
     </row>
     <row r="78" spans="5:13">
       <c r="E78" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F78" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G78" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H78" t="s">
         <v>260</v>
@@ -15229,14 +15251,14 @@
     </row>
     <row r="79" spans="5:13">
       <c r="E79" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F79" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G79" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H79" t="s">
         <v>263</v>
@@ -15250,20 +15272,20 @@
     </row>
     <row r="80" spans="5:13">
       <c r="E80" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F80" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-63</v>
       </c>
       <c r="G80" t="s">
-   